--- a/storage/app/excelBlanco/PPT.xlsx
+++ b/storage/app/excelBlanco/PPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\RES\storage\app\excelBlanco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF40758-801B-40F8-8C1C-2E2D6F83D5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6342FC-A04B-4789-BC34-A1B827EC491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -977,42 +977,429 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1021,393 +1408,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1780,7 +1780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL137"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
@@ -1808,31 +1808,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="158"/>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
+      <c r="A1" s="125"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
@@ -1873,35 +1873,35 @@
       <c r="BL1" s="3"/>
     </row>
     <row r="2" spans="1:64" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="215"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="104" t="s">
+      <c r="A2" s="143"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="238" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="101" t="s">
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="238"/>
+      <c r="O2" s="238"/>
+      <c r="P2" s="238"/>
+      <c r="Q2" s="238"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="192" t="s">
         <v>90</v>
       </c>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="100"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="237"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
@@ -1942,33 +1942,33 @@
       <c r="BL2" s="3"/>
     </row>
     <row r="3" spans="1:64" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="215"/>
-      <c r="B3" s="220"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="105" t="s">
+      <c r="A3" s="143"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="238"/>
+      <c r="S3" s="238"/>
+      <c r="T3" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="100"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="237"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
@@ -2009,33 +2009,33 @@
       <c r="BL3" s="3"/>
     </row>
     <row r="4" spans="1:64" ht="24" x14ac:dyDescent="0.85">
-      <c r="A4" s="215"/>
-      <c r="B4" s="223"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="106" t="s">
+      <c r="A4" s="143"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="238"/>
+      <c r="M4" s="238"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="100"/>
+      <c r="U4" s="239"/>
+      <c r="V4" s="239"/>
+      <c r="W4" s="239"/>
+      <c r="X4" s="239"/>
+      <c r="Y4" s="237"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
@@ -2076,31 +2076,31 @@
       <c r="BL4" s="3"/>
     </row>
     <row r="5" spans="1:64" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A5" s="216"/>
-      <c r="B5" s="216"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="216"/>
-      <c r="L5" s="216"/>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
-      <c r="O5" s="216"/>
-      <c r="P5" s="216"/>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="216"/>
-      <c r="S5" s="216"/>
-      <c r="T5" s="216"/>
-      <c r="U5" s="216"/>
-      <c r="V5" s="216"/>
-      <c r="W5" s="216"/>
-      <c r="X5" s="216"/>
-      <c r="Y5" s="216"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="144"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
@@ -2141,33 +2141,33 @@
       <c r="BL5" s="3"/>
     </row>
     <row r="6" spans="1:64" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="152"/>
-      <c r="B6" s="114" t="s">
+      <c r="A6" s="142"/>
+      <c r="B6" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="99"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="180"/>
+      <c r="P6" s="180"/>
+      <c r="Q6" s="180"/>
+      <c r="R6" s="180"/>
+      <c r="S6" s="180"/>
+      <c r="T6" s="180"/>
+      <c r="U6" s="180"/>
+      <c r="V6" s="180"/>
+      <c r="W6" s="180"/>
+      <c r="X6" s="181"/>
+      <c r="Y6" s="115"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
@@ -2208,33 +2208,33 @@
       <c r="BL6" s="3"/>
     </row>
     <row r="7" spans="1:64" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="152"/>
-      <c r="B7" s="114" t="s">
+      <c r="A7" s="142"/>
+      <c r="B7" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="99"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="225"/>
+      <c r="I7" s="225"/>
+      <c r="J7" s="225"/>
+      <c r="K7" s="225"/>
+      <c r="L7" s="225"/>
+      <c r="M7" s="225"/>
+      <c r="N7" s="225"/>
+      <c r="O7" s="225"/>
+      <c r="P7" s="225"/>
+      <c r="Q7" s="225"/>
+      <c r="R7" s="225"/>
+      <c r="S7" s="225"/>
+      <c r="T7" s="225"/>
+      <c r="U7" s="225"/>
+      <c r="V7" s="225"/>
+      <c r="W7" s="225"/>
+      <c r="X7" s="226"/>
+      <c r="Y7" s="115"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
@@ -2275,33 +2275,33 @@
       <c r="BL7" s="3"/>
     </row>
     <row r="8" spans="1:64" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="152"/>
-      <c r="B8" s="110" t="s">
+      <c r="A8" s="142"/>
+      <c r="B8" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="99"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="180"/>
+      <c r="M8" s="180"/>
+      <c r="N8" s="180"/>
+      <c r="O8" s="180"/>
+      <c r="P8" s="180"/>
+      <c r="Q8" s="180"/>
+      <c r="R8" s="180"/>
+      <c r="S8" s="180"/>
+      <c r="T8" s="180"/>
+      <c r="U8" s="180"/>
+      <c r="V8" s="180"/>
+      <c r="W8" s="180"/>
+      <c r="X8" s="181"/>
+      <c r="Y8" s="115"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
@@ -2342,33 +2342,33 @@
       <c r="BL8" s="3"/>
     </row>
     <row r="9" spans="1:64" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="152"/>
-      <c r="B9" s="111" t="s">
+      <c r="A9" s="142"/>
+      <c r="B9" s="240" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="205"/>
-      <c r="I9" s="205"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="205"/>
-      <c r="L9" s="205"/>
-      <c r="M9" s="205"/>
-      <c r="N9" s="205"/>
-      <c r="O9" s="205"/>
-      <c r="P9" s="205"/>
-      <c r="Q9" s="205"/>
-      <c r="R9" s="205"/>
-      <c r="S9" s="205"/>
-      <c r="T9" s="205"/>
-      <c r="U9" s="205"/>
-      <c r="V9" s="205"/>
-      <c r="W9" s="205"/>
-      <c r="X9" s="206"/>
-      <c r="Y9" s="99"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="242"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="128"/>
+      <c r="Y9" s="115"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
@@ -2411,30 +2411,30 @@
     </row>
     <row r="10" spans="1:64" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
-      <c r="B10" s="214"/>
-      <c r="C10" s="214"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="214"/>
-      <c r="H10" s="214"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="214"/>
-      <c r="L10" s="214"/>
-      <c r="M10" s="214"/>
-      <c r="N10" s="214"/>
-      <c r="O10" s="214"/>
-      <c r="P10" s="214"/>
-      <c r="Q10" s="214"/>
-      <c r="R10" s="214"/>
-      <c r="S10" s="214"/>
-      <c r="T10" s="214"/>
-      <c r="U10" s="214"/>
-      <c r="V10" s="214"/>
-      <c r="W10" s="214"/>
-      <c r="X10" s="214"/>
-      <c r="Y10" s="99"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="141"/>
+      <c r="S10" s="141"/>
+      <c r="T10" s="141"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="141"/>
+      <c r="W10" s="141"/>
+      <c r="X10" s="141"/>
+      <c r="Y10" s="115"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
@@ -2475,32 +2475,32 @@
       <c r="BL10" s="3"/>
     </row>
     <row r="11" spans="1:64" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
-      <c r="B11" s="122" t="s">
+      <c r="A11" s="142"/>
+      <c r="B11" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="122"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="206"/>
+      <c r="K11" s="206"/>
+      <c r="L11" s="206"/>
+      <c r="M11" s="206"/>
+      <c r="N11" s="206"/>
+      <c r="O11" s="206"/>
+      <c r="P11" s="206"/>
+      <c r="Q11" s="206"/>
+      <c r="R11" s="206"/>
+      <c r="S11" s="206"/>
+      <c r="T11" s="206"/>
+      <c r="U11" s="206"/>
+      <c r="V11" s="206"/>
+      <c r="W11" s="206"/>
+      <c r="X11" s="206"/>
       <c r="Y11" s="88"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
@@ -2542,7 +2542,7 @@
       <c r="BL11" s="3"/>
     </row>
     <row r="12" spans="1:64" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="152"/>
+      <c r="A12" s="142"/>
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -2615,32 +2615,32 @@
       <c r="BL12" s="3"/>
     </row>
     <row r="13" spans="1:64" ht="24" x14ac:dyDescent="0.3">
-      <c r="A13" s="152"/>
-      <c r="B13" s="110" t="s">
+      <c r="A13" s="142"/>
+      <c r="B13" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="126"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="199"/>
       <c r="L13" s="23"/>
       <c r="M13" s="23"/>
-      <c r="N13" s="110" t="s">
+      <c r="N13" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="127"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="130"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="132"/>
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
       <c r="Y13" s="88"/>
@@ -2684,32 +2684,32 @@
       <c r="BL13" s="3"/>
     </row>
     <row r="14" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="152"/>
-      <c r="B14" s="114" t="s">
+      <c r="A14" s="142"/>
+      <c r="B14" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
-      <c r="N14" s="114" t="s">
+      <c r="N14" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="120"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="121"/>
+      <c r="O14" s="146"/>
+      <c r="P14" s="146"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="131"/>
+      <c r="V14" s="131"/>
       <c r="W14" s="23"/>
       <c r="X14" s="23"/>
       <c r="Y14" s="88"/>
@@ -2753,34 +2753,34 @@
       <c r="BL14" s="3"/>
     </row>
     <row r="15" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="99"/>
-      <c r="B15" s="110" t="s">
+      <c r="A15" s="115"/>
+      <c r="B15" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="127"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="132"/>
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
       <c r="N15" s="14" t="s">
         <v>9</v>
       </c>
       <c r="O15" s="14"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="119"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="225"/>
+      <c r="R15" s="225"/>
+      <c r="S15" s="225"/>
+      <c r="T15" s="225"/>
+      <c r="U15" s="225"/>
+      <c r="V15" s="225"/>
+      <c r="W15" s="225"/>
+      <c r="X15" s="226"/>
       <c r="Y15" s="17"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -2822,30 +2822,30 @@
       <c r="BL15" s="3"/>
     </row>
     <row r="16" spans="1:64" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="99"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="131"/>
-      <c r="S16" s="131"/>
-      <c r="T16" s="131"/>
-      <c r="U16" s="131"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="221"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="221"/>
+      <c r="H16" s="221"/>
+      <c r="I16" s="221"/>
+      <c r="J16" s="221"/>
+      <c r="K16" s="221"/>
+      <c r="L16" s="221"/>
+      <c r="M16" s="221"/>
+      <c r="N16" s="221"/>
+      <c r="O16" s="221"/>
+      <c r="P16" s="221"/>
+      <c r="Q16" s="221"/>
+      <c r="R16" s="221"/>
+      <c r="S16" s="221"/>
+      <c r="T16" s="221"/>
+      <c r="U16" s="221"/>
+      <c r="V16" s="221"/>
+      <c r="W16" s="221"/>
+      <c r="X16" s="221"/>
       <c r="Y16" s="17"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
@@ -2887,32 +2887,32 @@
       <c r="BL16" s="3"/>
     </row>
     <row r="17" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="99"/>
-      <c r="B17" s="128" t="s">
+      <c r="A17" s="115"/>
+      <c r="B17" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="129"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="130"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="190"/>
+      <c r="I17" s="190"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="190"/>
+      <c r="L17" s="190"/>
+      <c r="M17" s="190"/>
+      <c r="N17" s="190"/>
+      <c r="O17" s="190"/>
+      <c r="P17" s="190"/>
+      <c r="Q17" s="190"/>
+      <c r="R17" s="190"/>
+      <c r="S17" s="190"/>
+      <c r="T17" s="190"/>
+      <c r="U17" s="190"/>
+      <c r="V17" s="190"/>
+      <c r="W17" s="190"/>
+      <c r="X17" s="191"/>
       <c r="Y17" s="17"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
@@ -2954,7 +2954,7 @@
       <c r="BL17" s="3"/>
     </row>
     <row r="18" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="152"/>
+      <c r="A18" s="142"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -2982,13 +2982,13 @@
         <v>47</v>
       </c>
       <c r="R18" s="29"/>
-      <c r="S18" s="140" t="s">
+      <c r="S18" s="232" t="s">
         <v>69</v>
       </c>
-      <c r="T18" s="140"/>
-      <c r="U18" s="140"/>
-      <c r="V18" s="140"/>
-      <c r="W18" s="140"/>
+      <c r="T18" s="232"/>
+      <c r="U18" s="232"/>
+      <c r="V18" s="232"/>
+      <c r="W18" s="232"/>
       <c r="X18" s="97" t="s">
         <v>47</v>
       </c>
@@ -3033,30 +3033,30 @@
       <c r="BL18" s="3"/>
     </row>
     <row r="19" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="152"/>
-      <c r="B19" s="136" t="s">
+      <c r="A19" s="142"/>
+      <c r="B19" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
+      <c r="C19" s="228"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="228"/>
       <c r="F19" s="29"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
       <c r="I19" s="31"/>
       <c r="J19" s="23"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
+      <c r="K19" s="227"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="23"/>
       <c r="R19" s="31"/>
-      <c r="S19" s="141"/>
-      <c r="T19" s="141"/>
-      <c r="U19" s="141"/>
-      <c r="V19" s="141"/>
+      <c r="S19" s="233"/>
+      <c r="T19" s="233"/>
+      <c r="U19" s="233"/>
+      <c r="V19" s="233"/>
       <c r="W19" s="6"/>
       <c r="X19" s="83"/>
       <c r="Y19" s="88"/>
@@ -3100,30 +3100,30 @@
       <c r="BL19" s="3"/>
     </row>
     <row r="20" spans="1:64" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="152"/>
-      <c r="B20" s="136" t="s">
+      <c r="A20" s="142"/>
+      <c r="B20" s="228" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
+      <c r="C20" s="228"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="228"/>
       <c r="F20" s="29"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="31"/>
       <c r="J20" s="23"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="207"/>
-      <c r="M20" s="207"/>
-      <c r="N20" s="207"/>
+      <c r="K20" s="227"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="33"/>
       <c r="R20" s="31"/>
-      <c r="S20" s="141"/>
-      <c r="T20" s="141"/>
-      <c r="U20" s="141"/>
-      <c r="V20" s="141"/>
+      <c r="S20" s="233"/>
+      <c r="T20" s="233"/>
+      <c r="U20" s="233"/>
+      <c r="V20" s="233"/>
       <c r="W20" s="6"/>
       <c r="X20" s="83"/>
       <c r="Y20" s="88"/>
@@ -3167,19 +3167,19 @@
       <c r="BL20" s="3"/>
     </row>
     <row r="21" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="152"/>
-      <c r="B21" s="136" t="s">
+      <c r="A21" s="142"/>
+      <c r="B21" s="228" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
+      <c r="C21" s="228"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="228"/>
       <c r="F21" s="29"/>
       <c r="G21" s="34"/>
       <c r="H21" s="30"/>
       <c r="I21" s="31"/>
       <c r="J21" s="23"/>
-      <c r="K21" s="135"/>
+      <c r="K21" s="227"/>
       <c r="L21" s="29" t="s">
         <v>51</v>
       </c>
@@ -3191,10 +3191,10 @@
         <v>47</v>
       </c>
       <c r="R21" s="26"/>
-      <c r="S21" s="141"/>
-      <c r="T21" s="141"/>
-      <c r="U21" s="141"/>
-      <c r="V21" s="141"/>
+      <c r="S21" s="233"/>
+      <c r="T21" s="233"/>
+      <c r="U21" s="233"/>
+      <c r="V21" s="233"/>
       <c r="W21" s="6"/>
       <c r="X21" s="83"/>
       <c r="Y21" s="88"/>
@@ -3238,30 +3238,30 @@
       <c r="BL21" s="3"/>
     </row>
     <row r="22" spans="1:64" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="152"/>
-      <c r="B22" s="136" t="s">
+      <c r="A22" s="142"/>
+      <c r="B22" s="228" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
+      <c r="C22" s="228"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="228"/>
       <c r="F22" s="29"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
       <c r="I22" s="31"/>
       <c r="J22" s="23"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="105"/>
-      <c r="O22" s="105"/>
+      <c r="K22" s="227"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="23"/>
       <c r="R22" s="29"/>
-      <c r="S22" s="141"/>
-      <c r="T22" s="141"/>
-      <c r="U22" s="141"/>
-      <c r="V22" s="141"/>
+      <c r="S22" s="233"/>
+      <c r="T22" s="233"/>
+      <c r="U22" s="233"/>
+      <c r="V22" s="233"/>
       <c r="W22" s="6"/>
       <c r="X22" s="83"/>
       <c r="Y22" s="88"/>
@@ -3311,8 +3311,8 @@
       <c r="D23" s="36"/>
       <c r="E23" s="36"/>
       <c r="F23" s="29"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
+      <c r="G23" s="229"/>
+      <c r="H23" s="229"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
@@ -3371,33 +3371,33 @@
     </row>
     <row r="24" spans="1:64" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
-      <c r="B24" s="196" t="s">
+      <c r="B24" s="172" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="197"/>
-      <c r="D24" s="197"/>
-      <c r="E24" s="197"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="197"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="197"/>
-      <c r="J24" s="197"/>
-      <c r="K24" s="197"/>
-      <c r="L24" s="197"/>
-      <c r="M24" s="197"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="173"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="173"/>
+      <c r="M24" s="173"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="198" t="s">
+      <c r="O24" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="P24" s="198"/>
-      <c r="Q24" s="198"/>
-      <c r="R24" s="198"/>
-      <c r="S24" s="198"/>
-      <c r="T24" s="198"/>
-      <c r="U24" s="198"/>
-      <c r="V24" s="198"/>
-      <c r="W24" s="198"/>
-      <c r="X24" s="198"/>
+      <c r="P24" s="174"/>
+      <c r="Q24" s="174"/>
+      <c r="R24" s="174"/>
+      <c r="S24" s="174"/>
+      <c r="T24" s="174"/>
+      <c r="U24" s="174"/>
+      <c r="V24" s="174"/>
+      <c r="W24" s="174"/>
+      <c r="X24" s="174"/>
       <c r="Y24" s="18"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
@@ -3440,29 +3440,29 @@
     </row>
     <row r="25" spans="1:64" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
-      <c r="B25" s="208"/>
-      <c r="C25" s="209"/>
-      <c r="D25" s="209"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="209"/>
-      <c r="H25" s="209"/>
-      <c r="I25" s="209"/>
-      <c r="J25" s="209"/>
-      <c r="K25" s="209"/>
-      <c r="L25" s="209"/>
-      <c r="M25" s="210"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="137"/>
       <c r="N25" s="33"/>
-      <c r="O25" s="199"/>
-      <c r="P25" s="199"/>
-      <c r="Q25" s="199"/>
-      <c r="R25" s="199"/>
-      <c r="S25" s="199"/>
-      <c r="T25" s="199"/>
-      <c r="U25" s="199"/>
-      <c r="V25" s="199"/>
-      <c r="W25" s="199"/>
-      <c r="X25" s="117"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="175"/>
+      <c r="U25" s="175"/>
+      <c r="V25" s="175"/>
+      <c r="W25" s="175"/>
+      <c r="X25" s="176"/>
       <c r="Y25" s="18"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
@@ -3505,18 +3505,18 @@
     </row>
     <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
-      <c r="B26" s="211"/>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="212"/>
-      <c r="G26" s="212"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="212"/>
-      <c r="J26" s="212"/>
-      <c r="K26" s="212"/>
-      <c r="L26" s="212"/>
-      <c r="M26" s="213"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="140"/>
       <c r="N26" s="37"/>
       <c r="O26" s="38"/>
       <c r="P26" s="38"/>
@@ -3653,21 +3653,21 @@
         <v>47</v>
       </c>
       <c r="K28" s="31"/>
-      <c r="L28" s="189" t="s">
+      <c r="L28" s="188" t="s">
         <v>71</v>
       </c>
-      <c r="M28" s="189"/>
-      <c r="N28" s="189"/>
-      <c r="O28" s="189"/>
-      <c r="P28" s="189"/>
-      <c r="Q28" s="189"/>
-      <c r="R28" s="189"/>
-      <c r="S28" s="189"/>
-      <c r="T28" s="189"/>
-      <c r="U28" s="189"/>
-      <c r="V28" s="189"/>
-      <c r="W28" s="189"/>
-      <c r="X28" s="189"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="188"/>
+      <c r="O28" s="188"/>
+      <c r="P28" s="188"/>
+      <c r="Q28" s="188"/>
+      <c r="R28" s="188"/>
+      <c r="S28" s="188"/>
+      <c r="T28" s="188"/>
+      <c r="U28" s="188"/>
+      <c r="V28" s="188"/>
+      <c r="W28" s="188"/>
+      <c r="X28" s="188"/>
       <c r="Y28" s="18"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
@@ -3710,11 +3710,11 @@
     </row>
     <row r="29" spans="1:64" ht="27" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A29" s="16"/>
-      <c r="B29" s="201" t="s">
+      <c r="B29" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="121"/>
       <c r="E29" s="40"/>
       <c r="F29" s="30"/>
       <c r="G29" s="40"/>
@@ -3722,19 +3722,19 @@
       <c r="I29" s="31"/>
       <c r="J29" s="23"/>
       <c r="K29" s="31"/>
-      <c r="L29" s="194"/>
-      <c r="M29" s="194"/>
-      <c r="N29" s="194"/>
-      <c r="O29" s="194"/>
-      <c r="P29" s="194"/>
-      <c r="Q29" s="194"/>
-      <c r="R29" s="194"/>
-      <c r="S29" s="194"/>
-      <c r="T29" s="194"/>
-      <c r="U29" s="194"/>
-      <c r="V29" s="194"/>
-      <c r="W29" s="194"/>
-      <c r="X29" s="195"/>
+      <c r="L29" s="170"/>
+      <c r="M29" s="170"/>
+      <c r="N29" s="170"/>
+      <c r="O29" s="170"/>
+      <c r="P29" s="170"/>
+      <c r="Q29" s="170"/>
+      <c r="R29" s="170"/>
+      <c r="S29" s="170"/>
+      <c r="T29" s="170"/>
+      <c r="U29" s="170"/>
+      <c r="V29" s="170"/>
+      <c r="W29" s="170"/>
+      <c r="X29" s="171"/>
       <c r="Y29" s="18"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
@@ -3777,11 +3777,11 @@
     </row>
     <row r="30" spans="1:64" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
-      <c r="B30" s="145" t="s">
+      <c r="B30" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="146"/>
-      <c r="D30" s="147"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="163"/>
       <c r="E30" s="40"/>
       <c r="F30" s="45"/>
       <c r="G30" s="40"/>
@@ -3789,19 +3789,19 @@
       <c r="I30" s="31"/>
       <c r="J30" s="23"/>
       <c r="K30" s="31"/>
-      <c r="L30" s="183"/>
-      <c r="M30" s="184"/>
-      <c r="N30" s="184"/>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="185"/>
+      <c r="L30" s="182"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="183"/>
+      <c r="O30" s="183"/>
+      <c r="P30" s="183"/>
+      <c r="Q30" s="183"/>
+      <c r="R30" s="183"/>
+      <c r="S30" s="183"/>
+      <c r="T30" s="183"/>
+      <c r="U30" s="183"/>
+      <c r="V30" s="183"/>
+      <c r="W30" s="183"/>
+      <c r="X30" s="184"/>
       <c r="Y30" s="18"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
@@ -3844,11 +3844,11 @@
     </row>
     <row r="31" spans="1:64" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
-      <c r="B31" s="145" t="s">
+      <c r="B31" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="147"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="163"/>
       <c r="E31" s="40"/>
       <c r="F31" s="45"/>
       <c r="G31" s="40"/>
@@ -3856,21 +3856,21 @@
       <c r="I31" s="31"/>
       <c r="J31" s="23"/>
       <c r="K31" s="31"/>
-      <c r="L31" s="186" t="s">
+      <c r="L31" s="185" t="s">
         <v>72</v>
       </c>
-      <c r="M31" s="186"/>
-      <c r="N31" s="186"/>
-      <c r="O31" s="186"/>
-      <c r="P31" s="186"/>
-      <c r="Q31" s="186"/>
-      <c r="R31" s="186"/>
-      <c r="S31" s="186"/>
-      <c r="T31" s="186"/>
-      <c r="U31" s="186"/>
-      <c r="V31" s="186"/>
-      <c r="W31" s="186"/>
-      <c r="X31" s="186"/>
+      <c r="M31" s="185"/>
+      <c r="N31" s="185"/>
+      <c r="O31" s="185"/>
+      <c r="P31" s="185"/>
+      <c r="Q31" s="185"/>
+      <c r="R31" s="185"/>
+      <c r="S31" s="185"/>
+      <c r="T31" s="185"/>
+      <c r="U31" s="185"/>
+      <c r="V31" s="185"/>
+      <c r="W31" s="185"/>
+      <c r="X31" s="185"/>
       <c r="Y31" s="18"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
@@ -3923,19 +3923,19 @@
       <c r="I32" s="31"/>
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
-      <c r="L32" s="187"/>
-      <c r="M32" s="187"/>
-      <c r="N32" s="187"/>
-      <c r="O32" s="187"/>
-      <c r="P32" s="187"/>
-      <c r="Q32" s="187"/>
-      <c r="R32" s="187"/>
-      <c r="S32" s="187"/>
-      <c r="T32" s="187"/>
-      <c r="U32" s="187"/>
-      <c r="V32" s="187"/>
-      <c r="W32" s="187"/>
-      <c r="X32" s="188"/>
+      <c r="L32" s="186"/>
+      <c r="M32" s="186"/>
+      <c r="N32" s="186"/>
+      <c r="O32" s="186"/>
+      <c r="P32" s="186"/>
+      <c r="Q32" s="186"/>
+      <c r="R32" s="186"/>
+      <c r="S32" s="186"/>
+      <c r="T32" s="186"/>
+      <c r="U32" s="186"/>
+      <c r="V32" s="186"/>
+      <c r="W32" s="186"/>
+      <c r="X32" s="187"/>
       <c r="Y32" s="18"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
@@ -4042,31 +4042,31 @@
       <c r="BL33" s="3"/>
     </row>
     <row r="34" spans="1:64" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="99"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="99"/>
-      <c r="U34" s="99"/>
-      <c r="V34" s="99"/>
-      <c r="W34" s="99"/>
-      <c r="X34" s="99"/>
-      <c r="Y34" s="99"/>
+      <c r="A34" s="115"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="115"/>
+      <c r="O34" s="115"/>
+      <c r="P34" s="115"/>
+      <c r="Q34" s="115"/>
+      <c r="R34" s="115"/>
+      <c r="S34" s="115"/>
+      <c r="T34" s="115"/>
+      <c r="U34" s="115"/>
+      <c r="V34" s="115"/>
+      <c r="W34" s="115"/>
+      <c r="X34" s="115"/>
+      <c r="Y34" s="115"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
@@ -4108,31 +4108,31 @@
     </row>
     <row r="35" spans="1:64" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="16"/>
-      <c r="B35" s="128" t="s">
+      <c r="B35" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="129"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="129"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="129"/>
-      <c r="N35" s="129"/>
-      <c r="O35" s="129"/>
-      <c r="P35" s="129"/>
-      <c r="Q35" s="129"/>
-      <c r="R35" s="129"/>
-      <c r="S35" s="129"/>
-      <c r="T35" s="129"/>
-      <c r="U35" s="129"/>
-      <c r="V35" s="129"/>
-      <c r="W35" s="129"/>
-      <c r="X35" s="129"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="190"/>
+      <c r="K35" s="190"/>
+      <c r="L35" s="190"/>
+      <c r="M35" s="190"/>
+      <c r="N35" s="190"/>
+      <c r="O35" s="190"/>
+      <c r="P35" s="190"/>
+      <c r="Q35" s="190"/>
+      <c r="R35" s="190"/>
+      <c r="S35" s="190"/>
+      <c r="T35" s="190"/>
+      <c r="U35" s="190"/>
+      <c r="V35" s="190"/>
+      <c r="W35" s="190"/>
+      <c r="X35" s="190"/>
       <c r="Y35" s="88"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
@@ -4175,34 +4175,34 @@
     </row>
     <row r="36" spans="1:64" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
-      <c r="B36" s="172" t="s">
+      <c r="B36" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="173"/>
-      <c r="D36" s="174"/>
-      <c r="E36" s="142" t="s">
+      <c r="C36" s="165"/>
+      <c r="D36" s="166"/>
+      <c r="E36" s="234" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="144"/>
+      <c r="F36" s="235"/>
+      <c r="G36" s="235"/>
+      <c r="H36" s="236"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
-      <c r="N36" s="172" t="s">
+      <c r="N36" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="O36" s="173"/>
-      <c r="P36" s="174"/>
-      <c r="Q36" s="142" t="s">
+      <c r="O36" s="165"/>
+      <c r="P36" s="166"/>
+      <c r="Q36" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="R36" s="143"/>
-      <c r="S36" s="143"/>
-      <c r="T36" s="143"/>
-      <c r="U36" s="144"/>
+      <c r="R36" s="235"/>
+      <c r="S36" s="235"/>
+      <c r="T36" s="235"/>
+      <c r="U36" s="236"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
@@ -4248,9 +4248,9 @@
     </row>
     <row r="37" spans="1:64" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
-      <c r="B37" s="175"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="177"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="50" t="s">
         <v>40</v>
       </c>
@@ -4270,9 +4270,9 @@
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
       <c r="M37" s="6"/>
-      <c r="N37" s="175"/>
-      <c r="O37" s="176"/>
-      <c r="P37" s="177"/>
+      <c r="N37" s="167"/>
+      <c r="O37" s="168"/>
+      <c r="P37" s="169"/>
       <c r="Q37" s="54" t="s">
         <v>40</v>
       </c>
@@ -4335,11 +4335,11 @@
     </row>
     <row r="38" spans="1:64" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
-      <c r="B38" s="120" t="s">
+      <c r="B38" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="121"/>
-      <c r="D38" s="127"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="132"/>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -4349,9 +4349,9 @@
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
       <c r="M38" s="33"/>
-      <c r="N38" s="120"/>
-      <c r="O38" s="121"/>
-      <c r="P38" s="127"/>
+      <c r="N38" s="130"/>
+      <c r="O38" s="131"/>
+      <c r="P38" s="132"/>
       <c r="Q38" s="32"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
@@ -4402,11 +4402,11 @@
     </row>
     <row r="39" spans="1:64" ht="24" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
-      <c r="B39" s="120" t="s">
+      <c r="B39" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="121"/>
-      <c r="D39" s="127"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="132"/>
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
@@ -4416,9 +4416,9 @@
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="33"/>
-      <c r="N39" s="120"/>
-      <c r="O39" s="121"/>
-      <c r="P39" s="127"/>
+      <c r="N39" s="130"/>
+      <c r="O39" s="131"/>
+      <c r="P39" s="132"/>
       <c r="Q39" s="32"/>
       <c r="R39" s="32"/>
       <c r="S39" s="32"/>
@@ -4469,11 +4469,11 @@
     </row>
     <row r="40" spans="1:64" ht="24" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
-      <c r="B40" s="105" t="s">
+      <c r="B40" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
       <c r="E40" s="86"/>
       <c r="F40" s="86"/>
       <c r="G40" s="86"/>
@@ -4483,9 +4483,9 @@
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
       <c r="M40" s="33"/>
-      <c r="N40" s="139"/>
-      <c r="O40" s="139"/>
-      <c r="P40" s="139"/>
+      <c r="N40" s="231"/>
+      <c r="O40" s="231"/>
+      <c r="P40" s="231"/>
       <c r="Q40" s="86"/>
       <c r="R40" s="86"/>
       <c r="S40" s="86"/>
@@ -4535,30 +4535,30 @@
       <c r="BL40" s="3"/>
     </row>
     <row r="41" spans="1:64" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="99"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="138"/>
-      <c r="K41" s="138"/>
-      <c r="L41" s="138"/>
-      <c r="M41" s="138"/>
-      <c r="N41" s="138"/>
-      <c r="O41" s="138"/>
-      <c r="P41" s="138"/>
-      <c r="Q41" s="138"/>
-      <c r="R41" s="138"/>
-      <c r="S41" s="138"/>
-      <c r="T41" s="138"/>
-      <c r="U41" s="138"/>
-      <c r="V41" s="138"/>
-      <c r="W41" s="138"/>
-      <c r="X41" s="138"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="230"/>
+      <c r="C41" s="230"/>
+      <c r="D41" s="230"/>
+      <c r="E41" s="230"/>
+      <c r="F41" s="230"/>
+      <c r="G41" s="230"/>
+      <c r="H41" s="230"/>
+      <c r="I41" s="230"/>
+      <c r="J41" s="230"/>
+      <c r="K41" s="230"/>
+      <c r="L41" s="230"/>
+      <c r="M41" s="230"/>
+      <c r="N41" s="230"/>
+      <c r="O41" s="230"/>
+      <c r="P41" s="230"/>
+      <c r="Q41" s="230"/>
+      <c r="R41" s="230"/>
+      <c r="S41" s="230"/>
+      <c r="T41" s="230"/>
+      <c r="U41" s="230"/>
+      <c r="V41" s="230"/>
+      <c r="W41" s="230"/>
+      <c r="X41" s="230"/>
       <c r="Y41" s="17"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
@@ -4666,33 +4666,33 @@
     </row>
     <row r="43" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
-      <c r="B43" s="193" t="s">
+      <c r="B43" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="178"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="178"/>
-      <c r="K43" s="178"/>
-      <c r="L43" s="178"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="123"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
       <c r="M43" s="89"/>
-      <c r="N43" s="178" t="s">
+      <c r="N43" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="O43" s="178"/>
-      <c r="P43" s="178"/>
-      <c r="Q43" s="178"/>
-      <c r="R43" s="178"/>
-      <c r="S43" s="178"/>
-      <c r="T43" s="178"/>
-      <c r="U43" s="178"/>
-      <c r="V43" s="178"/>
-      <c r="W43" s="178"/>
-      <c r="X43" s="179"/>
+      <c r="O43" s="123"/>
+      <c r="P43" s="123"/>
+      <c r="Q43" s="123"/>
+      <c r="R43" s="123"/>
+      <c r="S43" s="123"/>
+      <c r="T43" s="123"/>
+      <c r="U43" s="123"/>
+      <c r="V43" s="123"/>
+      <c r="W43" s="123"/>
+      <c r="X43" s="124"/>
       <c r="Y43" s="88"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
@@ -4735,15 +4735,15 @@
     </row>
     <row r="44" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
-      <c r="B44" s="190" t="s">
+      <c r="B44" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="191"/>
-      <c r="D44" s="191"/>
-      <c r="E44" s="191"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="191"/>
-      <c r="H44" s="192"/>
+      <c r="C44" s="159"/>
+      <c r="D44" s="159"/>
+      <c r="E44" s="159"/>
+      <c r="F44" s="159"/>
+      <c r="G44" s="159"/>
+      <c r="H44" s="160"/>
       <c r="I44" s="11" t="s">
         <v>61</v>
       </c>
@@ -4755,15 +4755,15 @@
         <v>47</v>
       </c>
       <c r="M44" s="33"/>
-      <c r="N44" s="190" t="s">
+      <c r="N44" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="O44" s="191"/>
-      <c r="P44" s="191"/>
-      <c r="Q44" s="191"/>
-      <c r="R44" s="191"/>
-      <c r="S44" s="191"/>
-      <c r="T44" s="192"/>
+      <c r="O44" s="159"/>
+      <c r="P44" s="159"/>
+      <c r="Q44" s="159"/>
+      <c r="R44" s="159"/>
+      <c r="S44" s="159"/>
+      <c r="T44" s="160"/>
       <c r="U44" s="11" t="s">
         <v>61</v>
       </c>
@@ -4816,29 +4816,29 @@
     </row>
     <row r="45" spans="1:64" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16"/>
-      <c r="B45" s="132"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="230"/>
-      <c r="J45" s="230"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
       <c r="K45" s="12"/>
-      <c r="L45" s="228"/>
+      <c r="L45" s="101"/>
       <c r="M45" s="33"/>
-      <c r="N45" s="132"/>
-      <c r="O45" s="133"/>
-      <c r="P45" s="133"/>
-      <c r="Q45" s="133"/>
-      <c r="R45" s="133"/>
-      <c r="S45" s="133"/>
-      <c r="T45" s="134"/>
-      <c r="U45" s="230"/>
-      <c r="V45" s="230"/>
+      <c r="N45" s="116"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="117"/>
+      <c r="Q45" s="117"/>
+      <c r="R45" s="117"/>
+      <c r="S45" s="117"/>
+      <c r="T45" s="118"/>
+      <c r="U45" s="103"/>
+      <c r="V45" s="103"/>
       <c r="W45" s="9"/>
-      <c r="X45" s="226"/>
+      <c r="X45" s="99"/>
       <c r="Y45" s="88"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
@@ -4881,29 +4881,29 @@
     </row>
     <row r="46" spans="1:64" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
-      <c r="B46" s="132"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="230"/>
-      <c r="J46" s="230"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
       <c r="K46" s="12"/>
-      <c r="L46" s="228"/>
+      <c r="L46" s="101"/>
       <c r="M46" s="33"/>
-      <c r="N46" s="132"/>
-      <c r="O46" s="133"/>
-      <c r="P46" s="133"/>
-      <c r="Q46" s="133"/>
-      <c r="R46" s="133"/>
-      <c r="S46" s="133"/>
-      <c r="T46" s="134"/>
-      <c r="U46" s="230"/>
-      <c r="V46" s="230"/>
+      <c r="N46" s="116"/>
+      <c r="O46" s="117"/>
+      <c r="P46" s="117"/>
+      <c r="Q46" s="117"/>
+      <c r="R46" s="117"/>
+      <c r="S46" s="117"/>
+      <c r="T46" s="118"/>
+      <c r="U46" s="103"/>
+      <c r="V46" s="103"/>
       <c r="W46" s="9"/>
-      <c r="X46" s="226"/>
+      <c r="X46" s="99"/>
       <c r="Y46" s="88"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
@@ -4946,29 +4946,29 @@
     </row>
     <row r="47" spans="1:64" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
-      <c r="B47" s="132"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="134"/>
-      <c r="I47" s="230"/>
-      <c r="J47" s="230"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
       <c r="K47" s="94"/>
-      <c r="L47" s="228"/>
+      <c r="L47" s="101"/>
       <c r="M47" s="57"/>
-      <c r="N47" s="132"/>
-      <c r="O47" s="133"/>
-      <c r="P47" s="133"/>
-      <c r="Q47" s="133"/>
-      <c r="R47" s="133"/>
-      <c r="S47" s="133"/>
-      <c r="T47" s="134"/>
-      <c r="U47" s="230"/>
-      <c r="V47" s="230"/>
+      <c r="N47" s="116"/>
+      <c r="O47" s="117"/>
+      <c r="P47" s="117"/>
+      <c r="Q47" s="117"/>
+      <c r="R47" s="117"/>
+      <c r="S47" s="117"/>
+      <c r="T47" s="118"/>
+      <c r="U47" s="103"/>
+      <c r="V47" s="103"/>
       <c r="W47" s="8"/>
-      <c r="X47" s="228"/>
+      <c r="X47" s="101"/>
       <c r="Y47" s="88"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
@@ -5010,30 +5010,30 @@
       <c r="BL47" s="3"/>
     </row>
     <row r="48" spans="1:64" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="99"/>
-      <c r="B48" s="99"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
-      <c r="K48" s="99"/>
-      <c r="L48" s="99"/>
-      <c r="M48" s="99"/>
-      <c r="N48" s="99"/>
-      <c r="O48" s="99"/>
-      <c r="P48" s="99"/>
-      <c r="Q48" s="99"/>
-      <c r="R48" s="99"/>
-      <c r="S48" s="99"/>
-      <c r="T48" s="99"/>
-      <c r="U48" s="99"/>
-      <c r="V48" s="99"/>
-      <c r="W48" s="99"/>
-      <c r="X48" s="99"/>
+      <c r="A48" s="115"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="115"/>
+      <c r="J48" s="115"/>
+      <c r="K48" s="115"/>
+      <c r="L48" s="115"/>
+      <c r="M48" s="115"/>
+      <c r="N48" s="115"/>
+      <c r="O48" s="115"/>
+      <c r="P48" s="115"/>
+      <c r="Q48" s="115"/>
+      <c r="R48" s="115"/>
+      <c r="S48" s="115"/>
+      <c r="T48" s="115"/>
+      <c r="U48" s="115"/>
+      <c r="V48" s="115"/>
+      <c r="W48" s="115"/>
+      <c r="X48" s="115"/>
       <c r="Y48" s="17"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
@@ -5075,31 +5075,31 @@
       <c r="BL48" s="3"/>
     </row>
     <row r="49" spans="1:64" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="99"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="99"/>
-      <c r="M49" s="99"/>
-      <c r="N49" s="99"/>
-      <c r="O49" s="99"/>
-      <c r="P49" s="99"/>
-      <c r="Q49" s="99"/>
-      <c r="R49" s="99"/>
-      <c r="S49" s="99"/>
-      <c r="T49" s="99"/>
-      <c r="U49" s="99"/>
-      <c r="V49" s="99"/>
-      <c r="W49" s="99"/>
-      <c r="X49" s="99"/>
-      <c r="Y49" s="99"/>
+      <c r="A49" s="115"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="115"/>
+      <c r="K49" s="115"/>
+      <c r="L49" s="115"/>
+      <c r="M49" s="115"/>
+      <c r="N49" s="115"/>
+      <c r="O49" s="115"/>
+      <c r="P49" s="115"/>
+      <c r="Q49" s="115"/>
+      <c r="R49" s="115"/>
+      <c r="S49" s="115"/>
+      <c r="T49" s="115"/>
+      <c r="U49" s="115"/>
+      <c r="V49" s="115"/>
+      <c r="W49" s="115"/>
+      <c r="X49" s="115"/>
+      <c r="Y49" s="115"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
@@ -5141,33 +5141,33 @@
     </row>
     <row r="50" spans="1:64" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16"/>
-      <c r="B50" s="193" t="s">
+      <c r="B50" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="178"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="178"/>
-      <c r="F50" s="178"/>
-      <c r="G50" s="178"/>
-      <c r="H50" s="178"/>
-      <c r="I50" s="178"/>
-      <c r="J50" s="178"/>
-      <c r="K50" s="178"/>
-      <c r="L50" s="178"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="123"/>
+      <c r="F50" s="123"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="123"/>
+      <c r="I50" s="123"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="123"/>
+      <c r="L50" s="123"/>
       <c r="M50" s="89"/>
-      <c r="N50" s="178" t="s">
+      <c r="N50" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="O50" s="178"/>
-      <c r="P50" s="178"/>
-      <c r="Q50" s="178"/>
-      <c r="R50" s="178"/>
-      <c r="S50" s="178"/>
-      <c r="T50" s="178"/>
-      <c r="U50" s="178"/>
-      <c r="V50" s="178"/>
-      <c r="W50" s="178"/>
-      <c r="X50" s="179"/>
+      <c r="O50" s="123"/>
+      <c r="P50" s="123"/>
+      <c r="Q50" s="123"/>
+      <c r="R50" s="123"/>
+      <c r="S50" s="123"/>
+      <c r="T50" s="123"/>
+      <c r="U50" s="123"/>
+      <c r="V50" s="123"/>
+      <c r="W50" s="123"/>
+      <c r="X50" s="124"/>
       <c r="Y50" s="88"/>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
@@ -5210,15 +5210,15 @@
     </row>
     <row r="51" spans="1:64" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16"/>
-      <c r="B51" s="190" t="s">
+      <c r="B51" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="191"/>
-      <c r="D51" s="191"/>
-      <c r="E51" s="191"/>
-      <c r="F51" s="191"/>
-      <c r="G51" s="191"/>
-      <c r="H51" s="192"/>
+      <c r="C51" s="159"/>
+      <c r="D51" s="159"/>
+      <c r="E51" s="159"/>
+      <c r="F51" s="159"/>
+      <c r="G51" s="159"/>
+      <c r="H51" s="160"/>
       <c r="I51" s="11" t="s">
         <v>61</v>
       </c>
@@ -5230,15 +5230,15 @@
         <v>47</v>
       </c>
       <c r="M51" s="33"/>
-      <c r="N51" s="190" t="s">
+      <c r="N51" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="O51" s="191"/>
-      <c r="P51" s="191"/>
-      <c r="Q51" s="191"/>
-      <c r="R51" s="191"/>
-      <c r="S51" s="191"/>
-      <c r="T51" s="192"/>
+      <c r="O51" s="159"/>
+      <c r="P51" s="159"/>
+      <c r="Q51" s="159"/>
+      <c r="R51" s="159"/>
+      <c r="S51" s="159"/>
+      <c r="T51" s="160"/>
       <c r="U51" s="11" t="s">
         <v>61</v>
       </c>
@@ -5291,29 +5291,29 @@
     </row>
     <row r="52" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
-      <c r="B52" s="132"/>
-      <c r="C52" s="133"/>
-      <c r="D52" s="133"/>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="134"/>
-      <c r="I52" s="230"/>
-      <c r="J52" s="230"/>
-      <c r="K52" s="231"/>
-      <c r="L52" s="232"/>
-      <c r="M52" s="233"/>
-      <c r="N52" s="132"/>
-      <c r="O52" s="133"/>
-      <c r="P52" s="133"/>
-      <c r="Q52" s="133"/>
-      <c r="R52" s="133"/>
-      <c r="S52" s="133"/>
-      <c r="T52" s="134"/>
-      <c r="U52" s="230"/>
-      <c r="V52" s="230"/>
-      <c r="W52" s="234"/>
-      <c r="X52" s="239"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="103"/>
+      <c r="K52" s="104"/>
+      <c r="L52" s="105"/>
+      <c r="M52" s="106"/>
+      <c r="N52" s="116"/>
+      <c r="O52" s="117"/>
+      <c r="P52" s="117"/>
+      <c r="Q52" s="117"/>
+      <c r="R52" s="117"/>
+      <c r="S52" s="117"/>
+      <c r="T52" s="118"/>
+      <c r="U52" s="103"/>
+      <c r="V52" s="103"/>
+      <c r="W52" s="107"/>
+      <c r="X52" s="112"/>
       <c r="Y52" s="88"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
@@ -5356,29 +5356,29 @@
     </row>
     <row r="53" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
-      <c r="B53" s="132"/>
-      <c r="C53" s="133"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="133"/>
-      <c r="F53" s="133"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="134"/>
-      <c r="I53" s="230"/>
-      <c r="J53" s="230"/>
-      <c r="K53" s="231"/>
-      <c r="L53" s="232"/>
-      <c r="M53" s="233"/>
-      <c r="N53" s="132"/>
-      <c r="O53" s="133"/>
-      <c r="P53" s="133"/>
-      <c r="Q53" s="133"/>
-      <c r="R53" s="133"/>
-      <c r="S53" s="133"/>
-      <c r="T53" s="134"/>
-      <c r="U53" s="230"/>
-      <c r="V53" s="230"/>
-      <c r="W53" s="234"/>
-      <c r="X53" s="239"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
+      <c r="K53" s="104"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="106"/>
+      <c r="N53" s="116"/>
+      <c r="O53" s="117"/>
+      <c r="P53" s="117"/>
+      <c r="Q53" s="117"/>
+      <c r="R53" s="117"/>
+      <c r="S53" s="117"/>
+      <c r="T53" s="118"/>
+      <c r="U53" s="103"/>
+      <c r="V53" s="103"/>
+      <c r="W53" s="107"/>
+      <c r="X53" s="112"/>
       <c r="Y53" s="88"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
@@ -5421,29 +5421,29 @@
     </row>
     <row r="54" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
-      <c r="B54" s="132"/>
-      <c r="C54" s="133"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="133"/>
-      <c r="F54" s="133"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="134"/>
-      <c r="I54" s="230"/>
-      <c r="J54" s="230"/>
-      <c r="K54" s="231"/>
-      <c r="L54" s="232"/>
-      <c r="M54" s="233"/>
-      <c r="N54" s="132"/>
-      <c r="O54" s="133"/>
-      <c r="P54" s="133"/>
-      <c r="Q54" s="133"/>
-      <c r="R54" s="133"/>
-      <c r="S54" s="133"/>
-      <c r="T54" s="134"/>
-      <c r="U54" s="230"/>
-      <c r="V54" s="230"/>
-      <c r="W54" s="234"/>
-      <c r="X54" s="239"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
+      <c r="K54" s="104"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="106"/>
+      <c r="N54" s="116"/>
+      <c r="O54" s="117"/>
+      <c r="P54" s="117"/>
+      <c r="Q54" s="117"/>
+      <c r="R54" s="117"/>
+      <c r="S54" s="117"/>
+      <c r="T54" s="118"/>
+      <c r="U54" s="103"/>
+      <c r="V54" s="103"/>
+      <c r="W54" s="107"/>
+      <c r="X54" s="112"/>
       <c r="Y54" s="88"/>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
@@ -5486,29 +5486,29 @@
     </row>
     <row r="55" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="16"/>
-      <c r="B55" s="132"/>
-      <c r="C55" s="133"/>
-      <c r="D55" s="133"/>
-      <c r="E55" s="133"/>
-      <c r="F55" s="133"/>
-      <c r="G55" s="133"/>
-      <c r="H55" s="134"/>
-      <c r="I55" s="230"/>
-      <c r="J55" s="230"/>
-      <c r="K55" s="231"/>
-      <c r="L55" s="232"/>
-      <c r="M55" s="233"/>
-      <c r="N55" s="132"/>
-      <c r="O55" s="133"/>
-      <c r="P55" s="133"/>
-      <c r="Q55" s="133"/>
-      <c r="R55" s="133"/>
-      <c r="S55" s="133"/>
-      <c r="T55" s="134"/>
-      <c r="U55" s="230"/>
-      <c r="V55" s="230"/>
-      <c r="W55" s="234"/>
-      <c r="X55" s="239"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="117"/>
+      <c r="E55" s="117"/>
+      <c r="F55" s="117"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="103"/>
+      <c r="J55" s="103"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="105"/>
+      <c r="M55" s="106"/>
+      <c r="N55" s="116"/>
+      <c r="O55" s="117"/>
+      <c r="P55" s="117"/>
+      <c r="Q55" s="117"/>
+      <c r="R55" s="117"/>
+      <c r="S55" s="117"/>
+      <c r="T55" s="118"/>
+      <c r="U55" s="103"/>
+      <c r="V55" s="103"/>
+      <c r="W55" s="107"/>
+      <c r="X55" s="112"/>
       <c r="Y55" s="88"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
@@ -5551,29 +5551,29 @@
     </row>
     <row r="56" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
-      <c r="B56" s="132"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="134"/>
-      <c r="I56" s="230"/>
-      <c r="J56" s="230"/>
-      <c r="K56" s="231"/>
-      <c r="L56" s="232"/>
-      <c r="M56" s="233"/>
-      <c r="N56" s="132"/>
-      <c r="O56" s="133"/>
-      <c r="P56" s="133"/>
-      <c r="Q56" s="133"/>
-      <c r="R56" s="133"/>
-      <c r="S56" s="133"/>
-      <c r="T56" s="134"/>
-      <c r="U56" s="230"/>
-      <c r="V56" s="230"/>
-      <c r="W56" s="234"/>
-      <c r="X56" s="239"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="103"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="105"/>
+      <c r="M56" s="106"/>
+      <c r="N56" s="116"/>
+      <c r="O56" s="117"/>
+      <c r="P56" s="117"/>
+      <c r="Q56" s="117"/>
+      <c r="R56" s="117"/>
+      <c r="S56" s="117"/>
+      <c r="T56" s="118"/>
+      <c r="U56" s="103"/>
+      <c r="V56" s="103"/>
+      <c r="W56" s="107"/>
+      <c r="X56" s="112"/>
       <c r="Y56" s="88"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
@@ -5616,83 +5616,83 @@
     </row>
     <row r="57" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
-      <c r="B57" s="132"/>
-      <c r="C57" s="133"/>
-      <c r="D57" s="133"/>
-      <c r="E57" s="133"/>
-      <c r="F57" s="133"/>
-      <c r="G57" s="133"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="230"/>
-      <c r="J57" s="230"/>
-      <c r="K57" s="231"/>
-      <c r="L57" s="232"/>
-      <c r="M57" s="233"/>
-      <c r="N57" s="132"/>
-      <c r="O57" s="133"/>
-      <c r="P57" s="133"/>
-      <c r="Q57" s="133"/>
-      <c r="R57" s="133"/>
-      <c r="S57" s="133"/>
-      <c r="T57" s="134"/>
-      <c r="U57" s="230"/>
-      <c r="V57" s="230"/>
-      <c r="W57" s="234"/>
-      <c r="X57" s="239"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="117"/>
+      <c r="F57" s="117"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="118"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="103"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="105"/>
+      <c r="M57" s="106"/>
+      <c r="N57" s="116"/>
+      <c r="O57" s="117"/>
+      <c r="P57" s="117"/>
+      <c r="Q57" s="117"/>
+      <c r="R57" s="117"/>
+      <c r="S57" s="117"/>
+      <c r="T57" s="118"/>
+      <c r="U57" s="103"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="107"/>
+      <c r="X57" s="112"/>
       <c r="Y57" s="88"/>
     </row>
     <row r="58" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16"/>
-      <c r="B58" s="132"/>
-      <c r="C58" s="133"/>
-      <c r="D58" s="133"/>
-      <c r="E58" s="133"/>
-      <c r="F58" s="133"/>
-      <c r="G58" s="133"/>
-      <c r="H58" s="134"/>
-      <c r="I58" s="230"/>
-      <c r="J58" s="230"/>
-      <c r="K58" s="231"/>
-      <c r="L58" s="232"/>
-      <c r="M58" s="233"/>
-      <c r="N58" s="132"/>
-      <c r="O58" s="133"/>
-      <c r="P58" s="133"/>
-      <c r="Q58" s="133"/>
-      <c r="R58" s="133"/>
-      <c r="S58" s="133"/>
-      <c r="T58" s="134"/>
-      <c r="U58" s="230"/>
-      <c r="V58" s="230"/>
-      <c r="W58" s="234"/>
-      <c r="X58" s="239"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="117"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="105"/>
+      <c r="M58" s="106"/>
+      <c r="N58" s="116"/>
+      <c r="O58" s="117"/>
+      <c r="P58" s="117"/>
+      <c r="Q58" s="117"/>
+      <c r="R58" s="117"/>
+      <c r="S58" s="117"/>
+      <c r="T58" s="118"/>
+      <c r="U58" s="103"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="107"/>
+      <c r="X58" s="112"/>
       <c r="Y58" s="88"/>
     </row>
     <row r="59" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
-      <c r="B59" s="170" t="s">
+      <c r="B59" s="195" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="171"/>
-      <c r="D59" s="171"/>
-      <c r="E59" s="171"/>
-      <c r="F59" s="171"/>
-      <c r="G59" s="171"/>
-      <c r="H59" s="171"/>
+      <c r="C59" s="196"/>
+      <c r="D59" s="196"/>
+      <c r="E59" s="196"/>
+      <c r="F59" s="196"/>
+      <c r="G59" s="196"/>
+      <c r="H59" s="196"/>
       <c r="I59" s="57"/>
       <c r="J59" s="58"/>
       <c r="K59" s="8"/>
       <c r="L59" s="59"/>
       <c r="M59" s="57"/>
-      <c r="N59" s="171" t="s">
+      <c r="N59" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="O59" s="171"/>
-      <c r="P59" s="171"/>
-      <c r="Q59" s="171"/>
-      <c r="R59" s="171"/>
-      <c r="S59" s="171"/>
-      <c r="T59" s="171"/>
+      <c r="O59" s="196"/>
+      <c r="P59" s="196"/>
+      <c r="Q59" s="196"/>
+      <c r="R59" s="196"/>
+      <c r="S59" s="196"/>
+      <c r="T59" s="196"/>
       <c r="U59" s="60"/>
       <c r="V59" s="60"/>
       <c r="W59" s="8"/>
@@ -5700,74 +5700,74 @@
       <c r="Y59" s="17"/>
     </row>
     <row r="60" spans="1:64" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="200"/>
-      <c r="B60" s="200"/>
-      <c r="C60" s="200"/>
-      <c r="D60" s="200"/>
-      <c r="E60" s="200"/>
-      <c r="F60" s="200"/>
-      <c r="G60" s="200"/>
-      <c r="H60" s="200"/>
-      <c r="I60" s="200"/>
-      <c r="J60" s="200"/>
-      <c r="K60" s="200"/>
-      <c r="L60" s="200"/>
-      <c r="M60" s="200"/>
-      <c r="N60" s="200"/>
-      <c r="O60" s="200"/>
-      <c r="P60" s="200"/>
-      <c r="Q60" s="200"/>
-      <c r="R60" s="200"/>
-      <c r="S60" s="200"/>
-      <c r="T60" s="200"/>
-      <c r="U60" s="200"/>
-      <c r="V60" s="200"/>
-      <c r="W60" s="200"/>
-      <c r="X60" s="200"/>
+      <c r="A60" s="157"/>
+      <c r="B60" s="157"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="157"/>
+      <c r="F60" s="157"/>
+      <c r="G60" s="157"/>
+      <c r="H60" s="157"/>
+      <c r="I60" s="157"/>
+      <c r="J60" s="157"/>
+      <c r="K60" s="157"/>
+      <c r="L60" s="157"/>
+      <c r="M60" s="157"/>
+      <c r="N60" s="157"/>
+      <c r="O60" s="157"/>
+      <c r="P60" s="157"/>
+      <c r="Q60" s="157"/>
+      <c r="R60" s="157"/>
+      <c r="S60" s="157"/>
+      <c r="T60" s="157"/>
+      <c r="U60" s="157"/>
+      <c r="V60" s="157"/>
+      <c r="W60" s="157"/>
+      <c r="X60" s="157"/>
       <c r="Y60" s="17"/>
     </row>
     <row r="61" spans="1:64" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16"/>
-      <c r="B61" s="193" t="s">
+      <c r="B61" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="178"/>
-      <c r="D61" s="178"/>
-      <c r="E61" s="178"/>
-      <c r="F61" s="178"/>
-      <c r="G61" s="178"/>
-      <c r="H61" s="178"/>
-      <c r="I61" s="178"/>
-      <c r="J61" s="178"/>
-      <c r="K61" s="178"/>
-      <c r="L61" s="178"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="123"/>
+      <c r="H61" s="123"/>
+      <c r="I61" s="123"/>
+      <c r="J61" s="123"/>
+      <c r="K61" s="123"/>
+      <c r="L61" s="123"/>
       <c r="M61" s="62"/>
-      <c r="N61" s="178" t="s">
+      <c r="N61" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="O61" s="178"/>
-      <c r="P61" s="178"/>
-      <c r="Q61" s="178"/>
-      <c r="R61" s="178"/>
-      <c r="S61" s="178"/>
-      <c r="T61" s="178"/>
-      <c r="U61" s="178"/>
-      <c r="V61" s="178"/>
-      <c r="W61" s="178"/>
-      <c r="X61" s="179"/>
+      <c r="O61" s="123"/>
+      <c r="P61" s="123"/>
+      <c r="Q61" s="123"/>
+      <c r="R61" s="123"/>
+      <c r="S61" s="123"/>
+      <c r="T61" s="123"/>
+      <c r="U61" s="123"/>
+      <c r="V61" s="123"/>
+      <c r="W61" s="123"/>
+      <c r="X61" s="124"/>
       <c r="Y61" s="17"/>
     </row>
     <row r="62" spans="1:64" ht="24" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
-      <c r="B62" s="101" t="s">
+      <c r="B62" s="192" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="102"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="103"/>
+      <c r="C62" s="193"/>
+      <c r="D62" s="193"/>
+      <c r="E62" s="193"/>
+      <c r="F62" s="193"/>
+      <c r="G62" s="193"/>
+      <c r="H62" s="194"/>
       <c r="I62" s="13" t="s">
         <v>61</v>
       </c>
@@ -5779,15 +5779,15 @@
         <v>47</v>
       </c>
       <c r="M62" s="64"/>
-      <c r="N62" s="101" t="s">
+      <c r="N62" s="192" t="s">
         <v>59</v>
       </c>
-      <c r="O62" s="102"/>
-      <c r="P62" s="102"/>
-      <c r="Q62" s="102"/>
-      <c r="R62" s="102"/>
-      <c r="S62" s="102"/>
-      <c r="T62" s="103"/>
+      <c r="O62" s="193"/>
+      <c r="P62" s="193"/>
+      <c r="Q62" s="193"/>
+      <c r="R62" s="193"/>
+      <c r="S62" s="193"/>
+      <c r="T62" s="194"/>
       <c r="U62" s="13" t="s">
         <v>61</v>
       </c>
@@ -5802,299 +5802,299 @@
     </row>
     <row r="63" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
-      <c r="B63" s="132"/>
-      <c r="C63" s="133"/>
-      <c r="D63" s="133"/>
-      <c r="E63" s="133"/>
-      <c r="F63" s="133"/>
-      <c r="G63" s="133"/>
-      <c r="H63" s="134"/>
-      <c r="I63" s="235"/>
-      <c r="J63" s="230"/>
-      <c r="K63" s="236"/>
-      <c r="L63" s="237"/>
-      <c r="M63" s="238"/>
-      <c r="N63" s="132"/>
-      <c r="O63" s="133"/>
-      <c r="P63" s="133"/>
-      <c r="Q63" s="133"/>
-      <c r="R63" s="133"/>
-      <c r="S63" s="133"/>
-      <c r="T63" s="134"/>
-      <c r="U63" s="230"/>
-      <c r="V63" s="230"/>
-      <c r="W63" s="236"/>
-      <c r="X63" s="239"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="117"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="117"/>
+      <c r="H63" s="118"/>
+      <c r="I63" s="108"/>
+      <c r="J63" s="103"/>
+      <c r="K63" s="109"/>
+      <c r="L63" s="110"/>
+      <c r="M63" s="111"/>
+      <c r="N63" s="116"/>
+      <c r="O63" s="117"/>
+      <c r="P63" s="117"/>
+      <c r="Q63" s="117"/>
+      <c r="R63" s="117"/>
+      <c r="S63" s="117"/>
+      <c r="T63" s="118"/>
+      <c r="U63" s="103"/>
+      <c r="V63" s="103"/>
+      <c r="W63" s="109"/>
+      <c r="X63" s="112"/>
       <c r="Y63" s="88"/>
     </row>
     <row r="64" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16"/>
-      <c r="B64" s="132"/>
-      <c r="C64" s="133"/>
-      <c r="D64" s="133"/>
-      <c r="E64" s="133"/>
-      <c r="F64" s="133"/>
-      <c r="G64" s="133"/>
-      <c r="H64" s="134"/>
-      <c r="I64" s="235"/>
-      <c r="J64" s="230"/>
-      <c r="K64" s="236"/>
-      <c r="L64" s="237"/>
-      <c r="M64" s="238"/>
-      <c r="N64" s="132"/>
-      <c r="O64" s="133"/>
-      <c r="P64" s="133"/>
-      <c r="Q64" s="133"/>
-      <c r="R64" s="133"/>
-      <c r="S64" s="133"/>
-      <c r="T64" s="134"/>
-      <c r="U64" s="230"/>
-      <c r="V64" s="230"/>
-      <c r="W64" s="236"/>
-      <c r="X64" s="239"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="117"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="118"/>
+      <c r="I64" s="108"/>
+      <c r="J64" s="103"/>
+      <c r="K64" s="109"/>
+      <c r="L64" s="110"/>
+      <c r="M64" s="111"/>
+      <c r="N64" s="116"/>
+      <c r="O64" s="117"/>
+      <c r="P64" s="117"/>
+      <c r="Q64" s="117"/>
+      <c r="R64" s="117"/>
+      <c r="S64" s="117"/>
+      <c r="T64" s="118"/>
+      <c r="U64" s="103"/>
+      <c r="V64" s="103"/>
+      <c r="W64" s="109"/>
+      <c r="X64" s="112"/>
       <c r="Y64" s="88"/>
     </row>
     <row r="65" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
-      <c r="B65" s="167"/>
-      <c r="C65" s="168"/>
-      <c r="D65" s="168"/>
-      <c r="E65" s="168"/>
-      <c r="F65" s="168"/>
-      <c r="G65" s="168"/>
-      <c r="H65" s="169"/>
-      <c r="I65" s="235"/>
-      <c r="J65" s="230"/>
-      <c r="K65" s="236"/>
-      <c r="L65" s="237"/>
-      <c r="M65" s="238"/>
-      <c r="N65" s="132"/>
-      <c r="O65" s="133"/>
-      <c r="P65" s="133"/>
-      <c r="Q65" s="133"/>
-      <c r="R65" s="133"/>
-      <c r="S65" s="133"/>
-      <c r="T65" s="134"/>
-      <c r="U65" s="230"/>
-      <c r="V65" s="230"/>
-      <c r="W65" s="236"/>
-      <c r="X65" s="239"/>
+      <c r="B65" s="200"/>
+      <c r="C65" s="201"/>
+      <c r="D65" s="201"/>
+      <c r="E65" s="201"/>
+      <c r="F65" s="201"/>
+      <c r="G65" s="201"/>
+      <c r="H65" s="202"/>
+      <c r="I65" s="108"/>
+      <c r="J65" s="103"/>
+      <c r="K65" s="109"/>
+      <c r="L65" s="110"/>
+      <c r="M65" s="111"/>
+      <c r="N65" s="116"/>
+      <c r="O65" s="117"/>
+      <c r="P65" s="117"/>
+      <c r="Q65" s="117"/>
+      <c r="R65" s="117"/>
+      <c r="S65" s="117"/>
+      <c r="T65" s="118"/>
+      <c r="U65" s="103"/>
+      <c r="V65" s="103"/>
+      <c r="W65" s="109"/>
+      <c r="X65" s="112"/>
       <c r="Y65" s="88"/>
     </row>
     <row r="66" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
-      <c r="B66" s="132"/>
-      <c r="C66" s="133"/>
-      <c r="D66" s="133"/>
-      <c r="E66" s="133"/>
-      <c r="F66" s="133"/>
-      <c r="G66" s="133"/>
-      <c r="H66" s="134"/>
-      <c r="I66" s="235"/>
-      <c r="J66" s="230"/>
-      <c r="K66" s="236"/>
-      <c r="L66" s="237"/>
-      <c r="M66" s="238"/>
-      <c r="N66" s="132"/>
-      <c r="O66" s="133"/>
-      <c r="P66" s="133"/>
-      <c r="Q66" s="133"/>
-      <c r="R66" s="133"/>
-      <c r="S66" s="133"/>
-      <c r="T66" s="134"/>
-      <c r="U66" s="230"/>
-      <c r="V66" s="230"/>
-      <c r="W66" s="236"/>
-      <c r="X66" s="239"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="117"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="118"/>
+      <c r="I66" s="108"/>
+      <c r="J66" s="103"/>
+      <c r="K66" s="109"/>
+      <c r="L66" s="110"/>
+      <c r="M66" s="111"/>
+      <c r="N66" s="116"/>
+      <c r="O66" s="117"/>
+      <c r="P66" s="117"/>
+      <c r="Q66" s="117"/>
+      <c r="R66" s="117"/>
+      <c r="S66" s="117"/>
+      <c r="T66" s="118"/>
+      <c r="U66" s="103"/>
+      <c r="V66" s="103"/>
+      <c r="W66" s="109"/>
+      <c r="X66" s="112"/>
       <c r="Y66" s="88"/>
     </row>
     <row r="67" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16"/>
-      <c r="B67" s="132"/>
-      <c r="C67" s="133"/>
-      <c r="D67" s="133"/>
-      <c r="E67" s="133"/>
-      <c r="F67" s="133"/>
-      <c r="G67" s="133"/>
-      <c r="H67" s="134"/>
-      <c r="I67" s="235"/>
-      <c r="J67" s="230"/>
-      <c r="K67" s="236"/>
-      <c r="L67" s="237"/>
-      <c r="M67" s="238"/>
-      <c r="N67" s="132"/>
-      <c r="O67" s="133"/>
-      <c r="P67" s="133"/>
-      <c r="Q67" s="133"/>
-      <c r="R67" s="133"/>
-      <c r="S67" s="133"/>
-      <c r="T67" s="134"/>
-      <c r="U67" s="230"/>
-      <c r="V67" s="230"/>
-      <c r="W67" s="236"/>
-      <c r="X67" s="239"/>
+      <c r="B67" s="116"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="117"/>
+      <c r="E67" s="117"/>
+      <c r="F67" s="117"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="118"/>
+      <c r="I67" s="108"/>
+      <c r="J67" s="103"/>
+      <c r="K67" s="109"/>
+      <c r="L67" s="110"/>
+      <c r="M67" s="111"/>
+      <c r="N67" s="116"/>
+      <c r="O67" s="117"/>
+      <c r="P67" s="117"/>
+      <c r="Q67" s="117"/>
+      <c r="R67" s="117"/>
+      <c r="S67" s="117"/>
+      <c r="T67" s="118"/>
+      <c r="U67" s="103"/>
+      <c r="V67" s="103"/>
+      <c r="W67" s="109"/>
+      <c r="X67" s="112"/>
       <c r="Y67" s="88"/>
     </row>
     <row r="68" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
-      <c r="B68" s="132"/>
-      <c r="C68" s="133"/>
-      <c r="D68" s="133"/>
-      <c r="E68" s="133"/>
-      <c r="F68" s="133"/>
-      <c r="G68" s="133"/>
-      <c r="H68" s="134"/>
-      <c r="I68" s="235"/>
-      <c r="J68" s="230"/>
-      <c r="K68" s="236"/>
-      <c r="L68" s="237"/>
-      <c r="M68" s="238"/>
-      <c r="N68" s="132"/>
-      <c r="O68" s="133"/>
-      <c r="P68" s="133"/>
-      <c r="Q68" s="133"/>
-      <c r="R68" s="133"/>
-      <c r="S68" s="133"/>
-      <c r="T68" s="134"/>
-      <c r="U68" s="230"/>
-      <c r="V68" s="230"/>
-      <c r="W68" s="236"/>
-      <c r="X68" s="239"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="117"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="118"/>
+      <c r="I68" s="108"/>
+      <c r="J68" s="103"/>
+      <c r="K68" s="109"/>
+      <c r="L68" s="110"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="116"/>
+      <c r="O68" s="117"/>
+      <c r="P68" s="117"/>
+      <c r="Q68" s="117"/>
+      <c r="R68" s="117"/>
+      <c r="S68" s="117"/>
+      <c r="T68" s="118"/>
+      <c r="U68" s="103"/>
+      <c r="V68" s="103"/>
+      <c r="W68" s="109"/>
+      <c r="X68" s="112"/>
       <c r="Y68" s="88"/>
     </row>
     <row r="69" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
-      <c r="B69" s="132"/>
-      <c r="C69" s="133"/>
-      <c r="D69" s="133"/>
-      <c r="E69" s="133"/>
-      <c r="F69" s="133"/>
-      <c r="G69" s="133"/>
-      <c r="H69" s="134"/>
-      <c r="I69" s="235"/>
-      <c r="J69" s="230"/>
-      <c r="K69" s="236"/>
-      <c r="L69" s="237"/>
-      <c r="M69" s="238"/>
-      <c r="N69" s="132"/>
-      <c r="O69" s="133"/>
-      <c r="P69" s="133"/>
-      <c r="Q69" s="133"/>
-      <c r="R69" s="133"/>
-      <c r="S69" s="133"/>
-      <c r="T69" s="134"/>
-      <c r="U69" s="230"/>
-      <c r="V69" s="230"/>
-      <c r="W69" s="236"/>
-      <c r="X69" s="239"/>
+      <c r="B69" s="116"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="117"/>
+      <c r="E69" s="117"/>
+      <c r="F69" s="117"/>
+      <c r="G69" s="117"/>
+      <c r="H69" s="118"/>
+      <c r="I69" s="108"/>
+      <c r="J69" s="103"/>
+      <c r="K69" s="109"/>
+      <c r="L69" s="110"/>
+      <c r="M69" s="111"/>
+      <c r="N69" s="116"/>
+      <c r="O69" s="117"/>
+      <c r="P69" s="117"/>
+      <c r="Q69" s="117"/>
+      <c r="R69" s="117"/>
+      <c r="S69" s="117"/>
+      <c r="T69" s="118"/>
+      <c r="U69" s="103"/>
+      <c r="V69" s="103"/>
+      <c r="W69" s="109"/>
+      <c r="X69" s="112"/>
       <c r="Y69" s="88"/>
     </row>
     <row r="70" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="16"/>
-      <c r="B70" s="132"/>
-      <c r="C70" s="133"/>
-      <c r="D70" s="133"/>
-      <c r="E70" s="133"/>
-      <c r="F70" s="133"/>
-      <c r="G70" s="133"/>
-      <c r="H70" s="134"/>
-      <c r="I70" s="235"/>
-      <c r="J70" s="230"/>
-      <c r="K70" s="236"/>
-      <c r="L70" s="237"/>
-      <c r="M70" s="238"/>
-      <c r="N70" s="132"/>
-      <c r="O70" s="133"/>
-      <c r="P70" s="133"/>
-      <c r="Q70" s="133"/>
-      <c r="R70" s="133"/>
-      <c r="S70" s="133"/>
-      <c r="T70" s="134"/>
-      <c r="U70" s="230"/>
-      <c r="V70" s="230"/>
-      <c r="W70" s="236"/>
-      <c r="X70" s="239"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="117"/>
+      <c r="E70" s="117"/>
+      <c r="F70" s="117"/>
+      <c r="G70" s="117"/>
+      <c r="H70" s="118"/>
+      <c r="I70" s="108"/>
+      <c r="J70" s="103"/>
+      <c r="K70" s="109"/>
+      <c r="L70" s="110"/>
+      <c r="M70" s="111"/>
+      <c r="N70" s="116"/>
+      <c r="O70" s="117"/>
+      <c r="P70" s="117"/>
+      <c r="Q70" s="117"/>
+      <c r="R70" s="117"/>
+      <c r="S70" s="117"/>
+      <c r="T70" s="118"/>
+      <c r="U70" s="103"/>
+      <c r="V70" s="103"/>
+      <c r="W70" s="109"/>
+      <c r="X70" s="112"/>
       <c r="Y70" s="88"/>
     </row>
     <row r="71" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="16"/>
-      <c r="B71" s="132"/>
-      <c r="C71" s="133"/>
-      <c r="D71" s="133"/>
-      <c r="E71" s="133"/>
-      <c r="F71" s="133"/>
-      <c r="G71" s="133"/>
-      <c r="H71" s="134"/>
-      <c r="I71" s="235"/>
-      <c r="J71" s="230"/>
-      <c r="K71" s="236"/>
-      <c r="L71" s="237"/>
-      <c r="M71" s="238"/>
-      <c r="N71" s="132"/>
-      <c r="O71" s="133"/>
-      <c r="P71" s="133"/>
-      <c r="Q71" s="133"/>
-      <c r="R71" s="133"/>
-      <c r="S71" s="133"/>
-      <c r="T71" s="134"/>
-      <c r="U71" s="230"/>
-      <c r="V71" s="230"/>
-      <c r="W71" s="236"/>
-      <c r="X71" s="239"/>
+      <c r="B71" s="116"/>
+      <c r="C71" s="117"/>
+      <c r="D71" s="117"/>
+      <c r="E71" s="117"/>
+      <c r="F71" s="117"/>
+      <c r="G71" s="117"/>
+      <c r="H71" s="118"/>
+      <c r="I71" s="108"/>
+      <c r="J71" s="103"/>
+      <c r="K71" s="109"/>
+      <c r="L71" s="110"/>
+      <c r="M71" s="111"/>
+      <c r="N71" s="116"/>
+      <c r="O71" s="117"/>
+      <c r="P71" s="117"/>
+      <c r="Q71" s="117"/>
+      <c r="R71" s="117"/>
+      <c r="S71" s="117"/>
+      <c r="T71" s="118"/>
+      <c r="U71" s="103"/>
+      <c r="V71" s="103"/>
+      <c r="W71" s="109"/>
+      <c r="X71" s="112"/>
       <c r="Y71" s="88"/>
     </row>
     <row r="72" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
-      <c r="B72" s="132"/>
-      <c r="C72" s="133"/>
-      <c r="D72" s="133"/>
-      <c r="E72" s="133"/>
-      <c r="F72" s="133"/>
-      <c r="G72" s="133"/>
-      <c r="H72" s="134"/>
-      <c r="I72" s="230"/>
-      <c r="J72" s="230"/>
-      <c r="K72" s="236"/>
-      <c r="L72" s="237"/>
-      <c r="M72" s="238"/>
-      <c r="N72" s="132"/>
-      <c r="O72" s="133"/>
-      <c r="P72" s="133"/>
-      <c r="Q72" s="133"/>
-      <c r="R72" s="133"/>
-      <c r="S72" s="133"/>
-      <c r="T72" s="134"/>
-      <c r="U72" s="230"/>
-      <c r="V72" s="230"/>
-      <c r="W72" s="236"/>
-      <c r="X72" s="240"/>
+      <c r="B72" s="116"/>
+      <c r="C72" s="117"/>
+      <c r="D72" s="117"/>
+      <c r="E72" s="117"/>
+      <c r="F72" s="117"/>
+      <c r="G72" s="117"/>
+      <c r="H72" s="118"/>
+      <c r="I72" s="103"/>
+      <c r="J72" s="103"/>
+      <c r="K72" s="109"/>
+      <c r="L72" s="110"/>
+      <c r="M72" s="111"/>
+      <c r="N72" s="116"/>
+      <c r="O72" s="117"/>
+      <c r="P72" s="117"/>
+      <c r="Q72" s="117"/>
+      <c r="R72" s="117"/>
+      <c r="S72" s="117"/>
+      <c r="T72" s="118"/>
+      <c r="U72" s="103"/>
+      <c r="V72" s="103"/>
+      <c r="W72" s="109"/>
+      <c r="X72" s="113"/>
       <c r="Y72" s="88"/>
     </row>
     <row r="73" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="16"/>
-      <c r="B73" s="170" t="s">
+      <c r="B73" s="195" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="171"/>
-      <c r="D73" s="171"/>
-      <c r="E73" s="171"/>
-      <c r="F73" s="171"/>
-      <c r="G73" s="171"/>
-      <c r="H73" s="171"/>
+      <c r="C73" s="196"/>
+      <c r="D73" s="196"/>
+      <c r="E73" s="196"/>
+      <c r="F73" s="196"/>
+      <c r="G73" s="196"/>
+      <c r="H73" s="196"/>
       <c r="I73" s="20"/>
       <c r="J73" s="20"/>
       <c r="K73" s="66"/>
       <c r="L73" s="20"/>
       <c r="M73" s="66"/>
-      <c r="N73" s="171" t="s">
+      <c r="N73" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="O73" s="171"/>
-      <c r="P73" s="171"/>
-      <c r="Q73" s="171"/>
-      <c r="R73" s="171"/>
-      <c r="S73" s="171"/>
-      <c r="T73" s="171"/>
+      <c r="O73" s="196"/>
+      <c r="P73" s="196"/>
+      <c r="Q73" s="196"/>
+      <c r="R73" s="196"/>
+      <c r="S73" s="196"/>
+      <c r="T73" s="196"/>
       <c r="U73" s="20"/>
       <c r="V73" s="20"/>
       <c r="W73" s="66"/>
@@ -6103,58 +6103,58 @@
     </row>
     <row r="74" spans="1:25" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="16"/>
-      <c r="B74" s="131"/>
-      <c r="C74" s="131"/>
-      <c r="D74" s="131"/>
-      <c r="E74" s="131"/>
-      <c r="F74" s="131"/>
-      <c r="G74" s="131"/>
-      <c r="H74" s="131"/>
-      <c r="I74" s="131"/>
-      <c r="J74" s="131"/>
-      <c r="K74" s="131"/>
-      <c r="L74" s="131"/>
-      <c r="M74" s="131"/>
-      <c r="N74" s="131"/>
-      <c r="O74" s="131"/>
-      <c r="P74" s="131"/>
-      <c r="Q74" s="131"/>
-      <c r="R74" s="131"/>
-      <c r="S74" s="131"/>
-      <c r="T74" s="131"/>
-      <c r="U74" s="131"/>
-      <c r="V74" s="131"/>
-      <c r="W74" s="131"/>
-      <c r="X74" s="151"/>
+      <c r="B74" s="221"/>
+      <c r="C74" s="221"/>
+      <c r="D74" s="221"/>
+      <c r="E74" s="221"/>
+      <c r="F74" s="221"/>
+      <c r="G74" s="221"/>
+      <c r="H74" s="221"/>
+      <c r="I74" s="221"/>
+      <c r="J74" s="221"/>
+      <c r="K74" s="221"/>
+      <c r="L74" s="221"/>
+      <c r="M74" s="221"/>
+      <c r="N74" s="221"/>
+      <c r="O74" s="221"/>
+      <c r="P74" s="221"/>
+      <c r="Q74" s="221"/>
+      <c r="R74" s="221"/>
+      <c r="S74" s="221"/>
+      <c r="T74" s="221"/>
+      <c r="U74" s="221"/>
+      <c r="V74" s="221"/>
+      <c r="W74" s="221"/>
+      <c r="X74" s="222"/>
       <c r="Y74" s="17"/>
     </row>
     <row r="75" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A75" s="16"/>
-      <c r="B75" s="128" t="s">
+      <c r="B75" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="129"/>
-      <c r="D75" s="129"/>
-      <c r="E75" s="129"/>
-      <c r="F75" s="129"/>
-      <c r="G75" s="129"/>
-      <c r="H75" s="129"/>
-      <c r="I75" s="129"/>
-      <c r="J75" s="129"/>
-      <c r="K75" s="129"/>
-      <c r="L75" s="129"/>
-      <c r="M75" s="129"/>
-      <c r="N75" s="129"/>
-      <c r="O75" s="129"/>
-      <c r="P75" s="129"/>
-      <c r="Q75" s="129"/>
-      <c r="R75" s="129"/>
-      <c r="S75" s="129"/>
-      <c r="T75" s="129"/>
-      <c r="U75" s="129"/>
-      <c r="V75" s="129"/>
-      <c r="W75" s="129"/>
-      <c r="X75" s="130"/>
+      <c r="C75" s="190"/>
+      <c r="D75" s="190"/>
+      <c r="E75" s="190"/>
+      <c r="F75" s="190"/>
+      <c r="G75" s="190"/>
+      <c r="H75" s="190"/>
+      <c r="I75" s="190"/>
+      <c r="J75" s="190"/>
+      <c r="K75" s="190"/>
+      <c r="L75" s="190"/>
+      <c r="M75" s="190"/>
+      <c r="N75" s="190"/>
+      <c r="O75" s="190"/>
+      <c r="P75" s="190"/>
+      <c r="Q75" s="190"/>
+      <c r="R75" s="190"/>
+      <c r="S75" s="190"/>
+      <c r="T75" s="190"/>
+      <c r="U75" s="190"/>
+      <c r="V75" s="190"/>
+      <c r="W75" s="190"/>
+      <c r="X75" s="191"/>
       <c r="Y75" s="17"/>
     </row>
     <row r="76" spans="1:25" ht="24" x14ac:dyDescent="0.3">
@@ -6190,172 +6190,172 @@
     </row>
     <row r="77" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A77" s="16"/>
-      <c r="B77" s="114" t="s">
+      <c r="B77" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="C77" s="115"/>
-      <c r="D77" s="115"/>
-      <c r="E77" s="115"/>
-      <c r="F77" s="115"/>
-      <c r="G77" s="115"/>
-      <c r="H77" s="115"/>
-      <c r="I77" s="115"/>
-      <c r="J77" s="115"/>
-      <c r="K77" s="115"/>
-      <c r="L77" s="115"/>
-      <c r="M77" s="116"/>
-      <c r="N77" s="107"/>
-      <c r="O77" s="108"/>
-      <c r="P77" s="108"/>
-      <c r="Q77" s="108"/>
-      <c r="R77" s="108"/>
-      <c r="S77" s="108"/>
-      <c r="T77" s="109"/>
+      <c r="C77" s="146"/>
+      <c r="D77" s="146"/>
+      <c r="E77" s="146"/>
+      <c r="F77" s="146"/>
+      <c r="G77" s="146"/>
+      <c r="H77" s="146"/>
+      <c r="I77" s="146"/>
+      <c r="J77" s="146"/>
+      <c r="K77" s="146"/>
+      <c r="L77" s="146"/>
+      <c r="M77" s="147"/>
+      <c r="N77" s="179"/>
+      <c r="O77" s="180"/>
+      <c r="P77" s="180"/>
+      <c r="Q77" s="180"/>
+      <c r="R77" s="180"/>
+      <c r="S77" s="180"/>
+      <c r="T77" s="181"/>
       <c r="U77" s="33"/>
-      <c r="V77" s="242"/>
-      <c r="W77" s="242"/>
+      <c r="V77" s="114"/>
+      <c r="W77" s="114"/>
       <c r="X77" s="85"/>
       <c r="Y77" s="88"/>
     </row>
     <row r="78" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A78" s="16"/>
-      <c r="B78" s="114" t="s">
+      <c r="B78" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="115"/>
-      <c r="D78" s="115"/>
-      <c r="E78" s="115"/>
-      <c r="F78" s="115"/>
-      <c r="G78" s="115"/>
-      <c r="H78" s="115"/>
-      <c r="I78" s="115"/>
-      <c r="J78" s="115"/>
-      <c r="K78" s="115"/>
-      <c r="L78" s="115"/>
-      <c r="M78" s="116"/>
-      <c r="N78" s="180"/>
-      <c r="O78" s="181"/>
-      <c r="P78" s="181"/>
-      <c r="Q78" s="181"/>
-      <c r="R78" s="181"/>
-      <c r="S78" s="181"/>
-      <c r="T78" s="182"/>
+      <c r="C78" s="146"/>
+      <c r="D78" s="146"/>
+      <c r="E78" s="146"/>
+      <c r="F78" s="146"/>
+      <c r="G78" s="146"/>
+      <c r="H78" s="146"/>
+      <c r="I78" s="146"/>
+      <c r="J78" s="146"/>
+      <c r="K78" s="146"/>
+      <c r="L78" s="146"/>
+      <c r="M78" s="147"/>
+      <c r="N78" s="203"/>
+      <c r="O78" s="204"/>
+      <c r="P78" s="204"/>
+      <c r="Q78" s="204"/>
+      <c r="R78" s="204"/>
+      <c r="S78" s="204"/>
+      <c r="T78" s="205"/>
       <c r="U78" s="33"/>
-      <c r="V78" s="242"/>
-      <c r="W78" s="242"/>
+      <c r="V78" s="114"/>
+      <c r="W78" s="114"/>
       <c r="X78" s="85"/>
       <c r="Y78" s="88"/>
     </row>
     <row r="79" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
-      <c r="B79" s="114" t="s">
+      <c r="B79" s="145" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="115"/>
-      <c r="D79" s="115"/>
-      <c r="E79" s="115"/>
-      <c r="F79" s="115"/>
-      <c r="G79" s="115"/>
-      <c r="H79" s="115"/>
-      <c r="I79" s="115"/>
-      <c r="J79" s="115"/>
-      <c r="K79" s="115"/>
-      <c r="L79" s="115"/>
-      <c r="M79" s="116"/>
-      <c r="N79" s="107"/>
-      <c r="O79" s="108"/>
-      <c r="P79" s="108"/>
-      <c r="Q79" s="108"/>
-      <c r="R79" s="108"/>
-      <c r="S79" s="108"/>
-      <c r="T79" s="109"/>
+      <c r="C79" s="146"/>
+      <c r="D79" s="146"/>
+      <c r="E79" s="146"/>
+      <c r="F79" s="146"/>
+      <c r="G79" s="146"/>
+      <c r="H79" s="146"/>
+      <c r="I79" s="146"/>
+      <c r="J79" s="146"/>
+      <c r="K79" s="146"/>
+      <c r="L79" s="146"/>
+      <c r="M79" s="147"/>
+      <c r="N79" s="179"/>
+      <c r="O79" s="180"/>
+      <c r="P79" s="180"/>
+      <c r="Q79" s="180"/>
+      <c r="R79" s="180"/>
+      <c r="S79" s="180"/>
+      <c r="T79" s="181"/>
       <c r="U79" s="57"/>
-      <c r="V79" s="242"/>
-      <c r="W79" s="242"/>
+      <c r="V79" s="114"/>
+      <c r="W79" s="114"/>
       <c r="X79" s="70"/>
       <c r="Y79" s="88"/>
     </row>
     <row r="80" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="99"/>
-      <c r="B80" s="99"/>
-      <c r="C80" s="99"/>
-      <c r="D80" s="99"/>
-      <c r="E80" s="99"/>
-      <c r="F80" s="99"/>
-      <c r="G80" s="99"/>
-      <c r="H80" s="99"/>
-      <c r="I80" s="99"/>
-      <c r="J80" s="99"/>
-      <c r="K80" s="99"/>
-      <c r="L80" s="99"/>
-      <c r="M80" s="99"/>
-      <c r="N80" s="99"/>
-      <c r="O80" s="99"/>
-      <c r="P80" s="99"/>
-      <c r="Q80" s="99"/>
-      <c r="R80" s="99"/>
-      <c r="S80" s="99"/>
-      <c r="T80" s="99"/>
-      <c r="U80" s="99"/>
-      <c r="V80" s="99"/>
-      <c r="W80" s="99"/>
-      <c r="X80" s="99"/>
+      <c r="A80" s="115"/>
+      <c r="B80" s="115"/>
+      <c r="C80" s="115"/>
+      <c r="D80" s="115"/>
+      <c r="E80" s="115"/>
+      <c r="F80" s="115"/>
+      <c r="G80" s="115"/>
+      <c r="H80" s="115"/>
+      <c r="I80" s="115"/>
+      <c r="J80" s="115"/>
+      <c r="K80" s="115"/>
+      <c r="L80" s="115"/>
+      <c r="M80" s="115"/>
+      <c r="N80" s="115"/>
+      <c r="O80" s="115"/>
+      <c r="P80" s="115"/>
+      <c r="Q80" s="115"/>
+      <c r="R80" s="115"/>
+      <c r="S80" s="115"/>
+      <c r="T80" s="115"/>
+      <c r="U80" s="115"/>
+      <c r="V80" s="115"/>
+      <c r="W80" s="115"/>
+      <c r="X80" s="115"/>
       <c r="Y80" s="17"/>
     </row>
     <row r="81" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="99"/>
-      <c r="B81" s="99"/>
-      <c r="C81" s="99"/>
-      <c r="D81" s="99"/>
-      <c r="E81" s="99"/>
-      <c r="F81" s="99"/>
-      <c r="G81" s="99"/>
-      <c r="H81" s="99"/>
-      <c r="I81" s="99"/>
-      <c r="J81" s="99"/>
-      <c r="K81" s="99"/>
-      <c r="L81" s="99"/>
-      <c r="M81" s="99"/>
-      <c r="N81" s="99"/>
-      <c r="O81" s="99"/>
-      <c r="P81" s="99"/>
-      <c r="Q81" s="99"/>
-      <c r="R81" s="99"/>
-      <c r="S81" s="99"/>
-      <c r="T81" s="99"/>
-      <c r="U81" s="99"/>
-      <c r="V81" s="99"/>
-      <c r="W81" s="99"/>
-      <c r="X81" s="99"/>
-      <c r="Y81" s="99"/>
+      <c r="A81" s="115"/>
+      <c r="B81" s="115"/>
+      <c r="C81" s="115"/>
+      <c r="D81" s="115"/>
+      <c r="E81" s="115"/>
+      <c r="F81" s="115"/>
+      <c r="G81" s="115"/>
+      <c r="H81" s="115"/>
+      <c r="I81" s="115"/>
+      <c r="J81" s="115"/>
+      <c r="K81" s="115"/>
+      <c r="L81" s="115"/>
+      <c r="M81" s="115"/>
+      <c r="N81" s="115"/>
+      <c r="O81" s="115"/>
+      <c r="P81" s="115"/>
+      <c r="Q81" s="115"/>
+      <c r="R81" s="115"/>
+      <c r="S81" s="115"/>
+      <c r="T81" s="115"/>
+      <c r="U81" s="115"/>
+      <c r="V81" s="115"/>
+      <c r="W81" s="115"/>
+      <c r="X81" s="115"/>
+      <c r="Y81" s="115"/>
     </row>
     <row r="82" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
-      <c r="B82" s="155" t="s">
+      <c r="B82" s="215" t="s">
         <v>30</v>
       </c>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
-      <c r="H82" s="156"/>
-      <c r="I82" s="156"/>
-      <c r="J82" s="156"/>
-      <c r="K82" s="156"/>
-      <c r="L82" s="156"/>
-      <c r="M82" s="156"/>
-      <c r="N82" s="156"/>
-      <c r="O82" s="156"/>
-      <c r="P82" s="156"/>
-      <c r="Q82" s="156"/>
-      <c r="R82" s="156"/>
-      <c r="S82" s="156"/>
-      <c r="T82" s="156"/>
-      <c r="U82" s="156"/>
-      <c r="V82" s="156"/>
-      <c r="W82" s="156"/>
-      <c r="X82" s="157"/>
+      <c r="C82" s="216"/>
+      <c r="D82" s="216"/>
+      <c r="E82" s="216"/>
+      <c r="F82" s="216"/>
+      <c r="G82" s="216"/>
+      <c r="H82" s="216"/>
+      <c r="I82" s="216"/>
+      <c r="J82" s="216"/>
+      <c r="K82" s="216"/>
+      <c r="L82" s="216"/>
+      <c r="M82" s="216"/>
+      <c r="N82" s="216"/>
+      <c r="O82" s="216"/>
+      <c r="P82" s="216"/>
+      <c r="Q82" s="216"/>
+      <c r="R82" s="216"/>
+      <c r="S82" s="216"/>
+      <c r="T82" s="216"/>
+      <c r="U82" s="216"/>
+      <c r="V82" s="216"/>
+      <c r="W82" s="216"/>
+      <c r="X82" s="217"/>
       <c r="Y82" s="88"/>
     </row>
     <row r="83" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6395,212 +6395,212 @@
     </row>
     <row r="84" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A84" s="16"/>
-      <c r="B84" s="107" t="s">
+      <c r="B84" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="108"/>
-      <c r="D84" s="108"/>
-      <c r="E84" s="108"/>
-      <c r="F84" s="108"/>
-      <c r="G84" s="109"/>
+      <c r="C84" s="180"/>
+      <c r="D84" s="180"/>
+      <c r="E84" s="180"/>
+      <c r="F84" s="180"/>
+      <c r="G84" s="181"/>
       <c r="H84" s="33"/>
-      <c r="I84" s="229"/>
+      <c r="I84" s="102"/>
       <c r="J84" s="33"/>
-      <c r="K84" s="242"/>
-      <c r="L84" s="242"/>
+      <c r="K84" s="114"/>
+      <c r="L84" s="114"/>
       <c r="M84" s="33"/>
-      <c r="N84" s="107" t="s">
+      <c r="N84" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="O84" s="108"/>
-      <c r="P84" s="108"/>
-      <c r="Q84" s="108"/>
-      <c r="R84" s="108"/>
-      <c r="S84" s="109"/>
+      <c r="O84" s="180"/>
+      <c r="P84" s="180"/>
+      <c r="Q84" s="180"/>
+      <c r="R84" s="180"/>
+      <c r="S84" s="181"/>
       <c r="T84" s="33"/>
-      <c r="U84" s="229"/>
+      <c r="U84" s="102"/>
       <c r="V84" s="33"/>
-      <c r="W84" s="242"/>
-      <c r="X84" s="227"/>
+      <c r="W84" s="114"/>
+      <c r="X84" s="100"/>
       <c r="Y84" s="88"/>
     </row>
     <row r="85" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A85" s="16"/>
-      <c r="B85" s="107" t="s">
+      <c r="B85" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="108"/>
-      <c r="D85" s="108"/>
-      <c r="E85" s="108"/>
-      <c r="F85" s="108"/>
-      <c r="G85" s="109"/>
+      <c r="C85" s="180"/>
+      <c r="D85" s="180"/>
+      <c r="E85" s="180"/>
+      <c r="F85" s="180"/>
+      <c r="G85" s="181"/>
       <c r="H85" s="33"/>
-      <c r="I85" s="229"/>
+      <c r="I85" s="102"/>
       <c r="J85" s="33"/>
-      <c r="K85" s="242"/>
-      <c r="L85" s="242"/>
+      <c r="K85" s="114"/>
+      <c r="L85" s="114"/>
       <c r="M85" s="33"/>
-      <c r="N85" s="107" t="s">
+      <c r="N85" s="179" t="s">
         <v>99</v>
       </c>
-      <c r="O85" s="108"/>
-      <c r="P85" s="108"/>
-      <c r="Q85" s="108"/>
-      <c r="R85" s="108"/>
-      <c r="S85" s="109"/>
+      <c r="O85" s="180"/>
+      <c r="P85" s="180"/>
+      <c r="Q85" s="180"/>
+      <c r="R85" s="180"/>
+      <c r="S85" s="181"/>
       <c r="T85" s="33"/>
-      <c r="U85" s="229"/>
+      <c r="U85" s="102"/>
       <c r="V85" s="33"/>
-      <c r="W85" s="242"/>
-      <c r="X85" s="227"/>
+      <c r="W85" s="114"/>
+      <c r="X85" s="100"/>
       <c r="Y85" s="88"/>
     </row>
     <row r="86" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A86" s="16"/>
-      <c r="B86" s="107" t="s">
+      <c r="B86" s="179" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="108"/>
-      <c r="D86" s="108"/>
-      <c r="E86" s="108"/>
-      <c r="F86" s="108"/>
-      <c r="G86" s="109"/>
+      <c r="C86" s="180"/>
+      <c r="D86" s="180"/>
+      <c r="E86" s="180"/>
+      <c r="F86" s="180"/>
+      <c r="G86" s="181"/>
       <c r="H86" s="33"/>
-      <c r="I86" s="229"/>
+      <c r="I86" s="102"/>
       <c r="J86" s="33"/>
-      <c r="K86" s="242"/>
-      <c r="L86" s="242"/>
+      <c r="K86" s="114"/>
+      <c r="L86" s="114"/>
       <c r="M86" s="33"/>
-      <c r="N86" s="107" t="s">
+      <c r="N86" s="179" t="s">
         <v>97</v>
       </c>
-      <c r="O86" s="108"/>
-      <c r="P86" s="108"/>
-      <c r="Q86" s="108"/>
-      <c r="R86" s="108"/>
-      <c r="S86" s="109"/>
+      <c r="O86" s="180"/>
+      <c r="P86" s="180"/>
+      <c r="Q86" s="180"/>
+      <c r="R86" s="180"/>
+      <c r="S86" s="181"/>
       <c r="T86" s="33"/>
-      <c r="U86" s="229"/>
+      <c r="U86" s="102"/>
       <c r="V86" s="33"/>
-      <c r="W86" s="242"/>
-      <c r="X86" s="227"/>
+      <c r="W86" s="114"/>
+      <c r="X86" s="100"/>
       <c r="Y86" s="88"/>
     </row>
     <row r="87" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A87" s="16"/>
-      <c r="B87" s="107" t="s">
+      <c r="B87" s="179" t="s">
         <v>94</v>
       </c>
-      <c r="C87" s="108"/>
-      <c r="D87" s="108"/>
-      <c r="E87" s="108"/>
-      <c r="F87" s="108"/>
-      <c r="G87" s="109"/>
+      <c r="C87" s="180"/>
+      <c r="D87" s="180"/>
+      <c r="E87" s="180"/>
+      <c r="F87" s="180"/>
+      <c r="G87" s="181"/>
       <c r="H87" s="33"/>
-      <c r="I87" s="229"/>
+      <c r="I87" s="102"/>
       <c r="J87" s="33"/>
-      <c r="K87" s="242"/>
-      <c r="L87" s="242"/>
+      <c r="K87" s="114"/>
+      <c r="L87" s="114"/>
       <c r="M87" s="33"/>
-      <c r="N87" s="107" t="s">
+      <c r="N87" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="O87" s="108"/>
-      <c r="P87" s="108"/>
-      <c r="Q87" s="108"/>
-      <c r="R87" s="108"/>
-      <c r="S87" s="109"/>
+      <c r="O87" s="180"/>
+      <c r="P87" s="180"/>
+      <c r="Q87" s="180"/>
+      <c r="R87" s="180"/>
+      <c r="S87" s="181"/>
       <c r="T87" s="33"/>
-      <c r="U87" s="229"/>
+      <c r="U87" s="102"/>
       <c r="V87" s="33"/>
-      <c r="W87" s="242"/>
-      <c r="X87" s="227"/>
+      <c r="W87" s="114"/>
+      <c r="X87" s="100"/>
       <c r="Y87" s="88"/>
     </row>
     <row r="88" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A88" s="16"/>
-      <c r="B88" s="107" t="s">
+      <c r="B88" s="179" t="s">
         <v>95</v>
       </c>
-      <c r="C88" s="108"/>
-      <c r="D88" s="108"/>
-      <c r="E88" s="108"/>
-      <c r="F88" s="108"/>
-      <c r="G88" s="109"/>
+      <c r="C88" s="180"/>
+      <c r="D88" s="180"/>
+      <c r="E88" s="180"/>
+      <c r="F88" s="180"/>
+      <c r="G88" s="181"/>
       <c r="H88" s="57"/>
-      <c r="I88" s="229"/>
+      <c r="I88" s="102"/>
       <c r="J88" s="57"/>
-      <c r="K88" s="242"/>
-      <c r="L88" s="242"/>
+      <c r="K88" s="114"/>
+      <c r="L88" s="114"/>
       <c r="M88" s="57"/>
-      <c r="N88" s="107" t="s">
+      <c r="N88" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="O88" s="108"/>
-      <c r="P88" s="108"/>
-      <c r="Q88" s="108"/>
-      <c r="R88" s="108"/>
-      <c r="S88" s="109"/>
+      <c r="O88" s="180"/>
+      <c r="P88" s="180"/>
+      <c r="Q88" s="180"/>
+      <c r="R88" s="180"/>
+      <c r="S88" s="181"/>
       <c r="T88" s="57"/>
-      <c r="U88" s="229"/>
+      <c r="U88" s="102"/>
       <c r="V88" s="57"/>
-      <c r="W88" s="242"/>
-      <c r="X88" s="242"/>
+      <c r="W88" s="114"/>
+      <c r="X88" s="114"/>
       <c r="Y88" s="88"/>
     </row>
     <row r="89" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="99"/>
-      <c r="B89" s="99"/>
-      <c r="C89" s="99"/>
-      <c r="D89" s="99"/>
-      <c r="E89" s="99"/>
-      <c r="F89" s="99"/>
-      <c r="G89" s="99"/>
-      <c r="H89" s="99"/>
-      <c r="I89" s="99"/>
-      <c r="J89" s="99"/>
-      <c r="K89" s="99"/>
-      <c r="L89" s="99"/>
-      <c r="M89" s="99"/>
-      <c r="N89" s="99"/>
-      <c r="O89" s="99"/>
-      <c r="P89" s="99"/>
-      <c r="Q89" s="99"/>
-      <c r="R89" s="99"/>
-      <c r="S89" s="99"/>
-      <c r="T89" s="99"/>
-      <c r="U89" s="99"/>
-      <c r="V89" s="99"/>
-      <c r="W89" s="99"/>
-      <c r="X89" s="99"/>
+      <c r="A89" s="115"/>
+      <c r="B89" s="115"/>
+      <c r="C89" s="115"/>
+      <c r="D89" s="115"/>
+      <c r="E89" s="115"/>
+      <c r="F89" s="115"/>
+      <c r="G89" s="115"/>
+      <c r="H89" s="115"/>
+      <c r="I89" s="115"/>
+      <c r="J89" s="115"/>
+      <c r="K89" s="115"/>
+      <c r="L89" s="115"/>
+      <c r="M89" s="115"/>
+      <c r="N89" s="115"/>
+      <c r="O89" s="115"/>
+      <c r="P89" s="115"/>
+      <c r="Q89" s="115"/>
+      <c r="R89" s="115"/>
+      <c r="S89" s="115"/>
+      <c r="T89" s="115"/>
+      <c r="U89" s="115"/>
+      <c r="V89" s="115"/>
+      <c r="W89" s="115"/>
+      <c r="X89" s="115"/>
       <c r="Y89" s="17"/>
     </row>
     <row r="90" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="99"/>
-      <c r="B90" s="99"/>
-      <c r="C90" s="99"/>
-      <c r="D90" s="99"/>
-      <c r="E90" s="99"/>
-      <c r="F90" s="99"/>
-      <c r="G90" s="99"/>
-      <c r="H90" s="99"/>
-      <c r="I90" s="99"/>
-      <c r="J90" s="99"/>
-      <c r="K90" s="99"/>
-      <c r="L90" s="99"/>
-      <c r="M90" s="99"/>
-      <c r="N90" s="99"/>
-      <c r="O90" s="99"/>
-      <c r="P90" s="99"/>
-      <c r="Q90" s="99"/>
-      <c r="R90" s="99"/>
-      <c r="S90" s="99"/>
-      <c r="T90" s="99"/>
-      <c r="U90" s="99"/>
-      <c r="V90" s="99"/>
-      <c r="W90" s="99"/>
-      <c r="X90" s="99"/>
-      <c r="Y90" s="99"/>
+      <c r="A90" s="115"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="115"/>
+      <c r="D90" s="115"/>
+      <c r="E90" s="115"/>
+      <c r="F90" s="115"/>
+      <c r="G90" s="115"/>
+      <c r="H90" s="115"/>
+      <c r="I90" s="115"/>
+      <c r="J90" s="115"/>
+      <c r="K90" s="115"/>
+      <c r="L90" s="115"/>
+      <c r="M90" s="115"/>
+      <c r="N90" s="115"/>
+      <c r="O90" s="115"/>
+      <c r="P90" s="115"/>
+      <c r="Q90" s="115"/>
+      <c r="R90" s="115"/>
+      <c r="S90" s="115"/>
+      <c r="T90" s="115"/>
+      <c r="U90" s="115"/>
+      <c r="V90" s="115"/>
+      <c r="W90" s="115"/>
+      <c r="X90" s="115"/>
+      <c r="Y90" s="115"/>
     </row>
     <row r="91" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="16"/>
@@ -6631,27 +6631,27 @@
     </row>
     <row r="92" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A92" s="16"/>
-      <c r="B92" s="149" t="s">
+      <c r="B92" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="C92" s="150"/>
-      <c r="D92" s="150"/>
-      <c r="E92" s="150"/>
-      <c r="F92" s="150"/>
-      <c r="G92" s="150"/>
-      <c r="H92" s="150"/>
-      <c r="I92" s="150"/>
-      <c r="J92" s="150"/>
-      <c r="K92" s="150"/>
-      <c r="L92" s="150"/>
-      <c r="M92" s="150"/>
-      <c r="N92" s="150"/>
-      <c r="O92" s="150"/>
-      <c r="P92" s="150"/>
-      <c r="Q92" s="150"/>
-      <c r="R92" s="150"/>
-      <c r="S92" s="150"/>
-      <c r="T92" s="150"/>
+      <c r="C92" s="220"/>
+      <c r="D92" s="220"/>
+      <c r="E92" s="220"/>
+      <c r="F92" s="220"/>
+      <c r="G92" s="220"/>
+      <c r="H92" s="220"/>
+      <c r="I92" s="220"/>
+      <c r="J92" s="220"/>
+      <c r="K92" s="220"/>
+      <c r="L92" s="220"/>
+      <c r="M92" s="220"/>
+      <c r="N92" s="220"/>
+      <c r="O92" s="220"/>
+      <c r="P92" s="220"/>
+      <c r="Q92" s="220"/>
+      <c r="R92" s="220"/>
+      <c r="S92" s="220"/>
+      <c r="T92" s="220"/>
       <c r="U92" s="44"/>
       <c r="V92" s="69" t="s">
         <v>1</v>
@@ -6664,116 +6664,116 @@
     </row>
     <row r="93" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A93" s="16"/>
-      <c r="B93" s="124"/>
-      <c r="C93" s="125"/>
-      <c r="D93" s="125"/>
-      <c r="E93" s="125"/>
-      <c r="F93" s="125"/>
-      <c r="G93" s="125"/>
-      <c r="H93" s="125"/>
-      <c r="I93" s="125"/>
-      <c r="J93" s="125"/>
-      <c r="K93" s="125"/>
-      <c r="L93" s="125"/>
-      <c r="M93" s="125"/>
-      <c r="N93" s="125"/>
-      <c r="O93" s="125"/>
-      <c r="P93" s="125"/>
-      <c r="Q93" s="125"/>
-      <c r="R93" s="125"/>
-      <c r="S93" s="125"/>
-      <c r="T93" s="126"/>
+      <c r="B93" s="197"/>
+      <c r="C93" s="198"/>
+      <c r="D93" s="198"/>
+      <c r="E93" s="198"/>
+      <c r="F93" s="198"/>
+      <c r="G93" s="198"/>
+      <c r="H93" s="198"/>
+      <c r="I93" s="198"/>
+      <c r="J93" s="198"/>
+      <c r="K93" s="198"/>
+      <c r="L93" s="198"/>
+      <c r="M93" s="198"/>
+      <c r="N93" s="198"/>
+      <c r="O93" s="198"/>
+      <c r="P93" s="198"/>
+      <c r="Q93" s="198"/>
+      <c r="R93" s="198"/>
+      <c r="S93" s="198"/>
+      <c r="T93" s="199"/>
       <c r="U93" s="70"/>
-      <c r="V93" s="242"/>
-      <c r="W93" s="242"/>
+      <c r="V93" s="114"/>
+      <c r="W93" s="114"/>
       <c r="X93" s="57"/>
       <c r="Y93" s="88"/>
     </row>
     <row r="94" spans="1:25" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="99"/>
-      <c r="B94" s="99"/>
-      <c r="C94" s="99"/>
-      <c r="D94" s="99"/>
-      <c r="E94" s="99"/>
-      <c r="F94" s="99"/>
-      <c r="G94" s="99"/>
-      <c r="H94" s="99"/>
-      <c r="I94" s="99"/>
-      <c r="J94" s="99"/>
-      <c r="K94" s="99"/>
-      <c r="L94" s="99"/>
-      <c r="M94" s="99"/>
-      <c r="N94" s="99"/>
-      <c r="O94" s="99"/>
-      <c r="P94" s="99"/>
-      <c r="Q94" s="99"/>
-      <c r="R94" s="99"/>
-      <c r="S94" s="99"/>
-      <c r="T94" s="99"/>
-      <c r="U94" s="99"/>
-      <c r="V94" s="99"/>
-      <c r="W94" s="99"/>
-      <c r="X94" s="99"/>
-      <c r="Y94" s="99"/>
+      <c r="A94" s="115"/>
+      <c r="B94" s="115"/>
+      <c r="C94" s="115"/>
+      <c r="D94" s="115"/>
+      <c r="E94" s="115"/>
+      <c r="F94" s="115"/>
+      <c r="G94" s="115"/>
+      <c r="H94" s="115"/>
+      <c r="I94" s="115"/>
+      <c r="J94" s="115"/>
+      <c r="K94" s="115"/>
+      <c r="L94" s="115"/>
+      <c r="M94" s="115"/>
+      <c r="N94" s="115"/>
+      <c r="O94" s="115"/>
+      <c r="P94" s="115"/>
+      <c r="Q94" s="115"/>
+      <c r="R94" s="115"/>
+      <c r="S94" s="115"/>
+      <c r="T94" s="115"/>
+      <c r="U94" s="115"/>
+      <c r="V94" s="115"/>
+      <c r="W94" s="115"/>
+      <c r="X94" s="115"/>
+      <c r="Y94" s="115"/>
     </row>
     <row r="95" spans="1:25" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="152"/>
-      <c r="B95" s="122" t="s">
+      <c r="A95" s="142"/>
+      <c r="B95" s="206" t="s">
         <v>31</v>
       </c>
-      <c r="C95" s="122"/>
-      <c r="D95" s="122"/>
-      <c r="E95" s="122"/>
-      <c r="F95" s="122"/>
-      <c r="G95" s="122"/>
-      <c r="H95" s="122"/>
-      <c r="I95" s="122"/>
-      <c r="J95" s="122"/>
-      <c r="K95" s="122"/>
-      <c r="L95" s="122"/>
-      <c r="M95" s="122"/>
-      <c r="N95" s="122"/>
-      <c r="O95" s="122"/>
-      <c r="P95" s="122"/>
-      <c r="Q95" s="122"/>
-      <c r="R95" s="122"/>
-      <c r="S95" s="122"/>
-      <c r="T95" s="122"/>
-      <c r="U95" s="161"/>
-      <c r="V95" s="161"/>
-      <c r="W95" s="161"/>
-      <c r="X95" s="161"/>
-      <c r="Y95" s="159"/>
+      <c r="C95" s="206"/>
+      <c r="D95" s="206"/>
+      <c r="E95" s="206"/>
+      <c r="F95" s="206"/>
+      <c r="G95" s="206"/>
+      <c r="H95" s="206"/>
+      <c r="I95" s="206"/>
+      <c r="J95" s="206"/>
+      <c r="K95" s="206"/>
+      <c r="L95" s="206"/>
+      <c r="M95" s="206"/>
+      <c r="N95" s="206"/>
+      <c r="O95" s="206"/>
+      <c r="P95" s="206"/>
+      <c r="Q95" s="206"/>
+      <c r="R95" s="206"/>
+      <c r="S95" s="206"/>
+      <c r="T95" s="206"/>
+      <c r="U95" s="207"/>
+      <c r="V95" s="207"/>
+      <c r="W95" s="207"/>
+      <c r="X95" s="207"/>
+      <c r="Y95" s="208"/>
     </row>
     <row r="96" spans="1:25" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
-      <c r="A96" s="152"/>
-      <c r="B96" s="148" t="s">
+      <c r="A96" s="142"/>
+      <c r="B96" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="C96" s="148"/>
-      <c r="D96" s="148"/>
-      <c r="E96" s="148"/>
-      <c r="F96" s="148"/>
-      <c r="G96" s="148"/>
-      <c r="H96" s="148"/>
-      <c r="I96" s="148"/>
-      <c r="J96" s="148"/>
-      <c r="K96" s="148"/>
-      <c r="L96" s="148" t="s">
+      <c r="C96" s="218"/>
+      <c r="D96" s="218"/>
+      <c r="E96" s="218"/>
+      <c r="F96" s="218"/>
+      <c r="G96" s="218"/>
+      <c r="H96" s="218"/>
+      <c r="I96" s="218"/>
+      <c r="J96" s="218"/>
+      <c r="K96" s="218"/>
+      <c r="L96" s="218" t="s">
         <v>32</v>
       </c>
-      <c r="M96" s="148"/>
-      <c r="N96" s="148"/>
-      <c r="O96" s="148" t="s">
+      <c r="M96" s="218"/>
+      <c r="N96" s="218"/>
+      <c r="O96" s="218" t="s">
         <v>29</v>
       </c>
-      <c r="P96" s="148"/>
-      <c r="Q96" s="148"/>
-      <c r="R96" s="148" t="s">
+      <c r="P96" s="218"/>
+      <c r="Q96" s="218"/>
+      <c r="R96" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="S96" s="148"/>
-      <c r="T96" s="148"/>
+      <c r="S96" s="218"/>
+      <c r="T96" s="218"/>
       <c r="U96" s="72"/>
       <c r="V96" s="73" t="s">
         <v>1</v>
@@ -6782,356 +6782,356 @@
         <v>2</v>
       </c>
       <c r="X96" s="74"/>
-      <c r="Y96" s="99"/>
+      <c r="Y96" s="115"/>
     </row>
     <row r="97" spans="1:25" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A97" s="152"/>
-      <c r="B97" s="123" t="s">
+      <c r="A97" s="142"/>
+      <c r="B97" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="C97" s="123"/>
-      <c r="D97" s="123"/>
-      <c r="E97" s="123"/>
-      <c r="F97" s="123"/>
-      <c r="G97" s="123"/>
-      <c r="H97" s="123"/>
-      <c r="I97" s="123"/>
-      <c r="J97" s="123"/>
-      <c r="K97" s="123"/>
-      <c r="L97" s="241"/>
-      <c r="M97" s="241"/>
-      <c r="N97" s="241"/>
-      <c r="O97" s="241"/>
-      <c r="P97" s="241"/>
-      <c r="Q97" s="241"/>
-      <c r="R97" s="241"/>
-      <c r="S97" s="241"/>
-      <c r="T97" s="241"/>
+      <c r="C97" s="178"/>
+      <c r="D97" s="178"/>
+      <c r="E97" s="178"/>
+      <c r="F97" s="178"/>
+      <c r="G97" s="178"/>
+      <c r="H97" s="178"/>
+      <c r="I97" s="178"/>
+      <c r="J97" s="178"/>
+      <c r="K97" s="178"/>
+      <c r="L97" s="177"/>
+      <c r="M97" s="177"/>
+      <c r="N97" s="177"/>
+      <c r="O97" s="177"/>
+      <c r="P97" s="177"/>
+      <c r="Q97" s="177"/>
+      <c r="R97" s="177"/>
+      <c r="S97" s="177"/>
+      <c r="T97" s="177"/>
       <c r="U97" s="6"/>
-      <c r="V97" s="228"/>
-      <c r="W97" s="228"/>
+      <c r="V97" s="101"/>
+      <c r="W97" s="101"/>
       <c r="X97" s="75"/>
-      <c r="Y97" s="99"/>
+      <c r="Y97" s="115"/>
     </row>
     <row r="98" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A98" s="152"/>
-      <c r="B98" s="123" t="s">
+      <c r="A98" s="142"/>
+      <c r="B98" s="178" t="s">
         <v>82</v>
       </c>
-      <c r="C98" s="123"/>
-      <c r="D98" s="123"/>
-      <c r="E98" s="123"/>
-      <c r="F98" s="123"/>
-      <c r="G98" s="123"/>
-      <c r="H98" s="123"/>
-      <c r="I98" s="123"/>
-      <c r="J98" s="123"/>
-      <c r="K98" s="123"/>
-      <c r="L98" s="241"/>
-      <c r="M98" s="241"/>
-      <c r="N98" s="241"/>
-      <c r="O98" s="241"/>
-      <c r="P98" s="241"/>
-      <c r="Q98" s="241"/>
-      <c r="R98" s="241"/>
-      <c r="S98" s="241"/>
-      <c r="T98" s="241"/>
+      <c r="C98" s="178"/>
+      <c r="D98" s="178"/>
+      <c r="E98" s="178"/>
+      <c r="F98" s="178"/>
+      <c r="G98" s="178"/>
+      <c r="H98" s="178"/>
+      <c r="I98" s="178"/>
+      <c r="J98" s="178"/>
+      <c r="K98" s="178"/>
+      <c r="L98" s="177"/>
+      <c r="M98" s="177"/>
+      <c r="N98" s="177"/>
+      <c r="O98" s="177"/>
+      <c r="P98" s="177"/>
+      <c r="Q98" s="177"/>
+      <c r="R98" s="177"/>
+      <c r="S98" s="177"/>
+      <c r="T98" s="177"/>
       <c r="U98" s="6"/>
-      <c r="V98" s="228"/>
-      <c r="W98" s="228"/>
+      <c r="V98" s="101"/>
+      <c r="W98" s="101"/>
       <c r="X98" s="75"/>
-      <c r="Y98" s="99"/>
+      <c r="Y98" s="115"/>
     </row>
     <row r="99" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A99" s="152"/>
-      <c r="B99" s="123" t="s">
+      <c r="A99" s="142"/>
+      <c r="B99" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="C99" s="123"/>
-      <c r="D99" s="123"/>
-      <c r="E99" s="123"/>
-      <c r="F99" s="123"/>
-      <c r="G99" s="123"/>
-      <c r="H99" s="123"/>
-      <c r="I99" s="123"/>
-      <c r="J99" s="123"/>
-      <c r="K99" s="123"/>
-      <c r="L99" s="241"/>
-      <c r="M99" s="241"/>
-      <c r="N99" s="241"/>
-      <c r="O99" s="241"/>
-      <c r="P99" s="241"/>
-      <c r="Q99" s="241"/>
-      <c r="R99" s="241"/>
-      <c r="S99" s="241"/>
-      <c r="T99" s="241"/>
+      <c r="C99" s="178"/>
+      <c r="D99" s="178"/>
+      <c r="E99" s="178"/>
+      <c r="F99" s="178"/>
+      <c r="G99" s="178"/>
+      <c r="H99" s="178"/>
+      <c r="I99" s="178"/>
+      <c r="J99" s="178"/>
+      <c r="K99" s="178"/>
+      <c r="L99" s="177"/>
+      <c r="M99" s="177"/>
+      <c r="N99" s="177"/>
+      <c r="O99" s="177"/>
+      <c r="P99" s="177"/>
+      <c r="Q99" s="177"/>
+      <c r="R99" s="177"/>
+      <c r="S99" s="177"/>
+      <c r="T99" s="177"/>
       <c r="U99" s="6"/>
-      <c r="V99" s="228"/>
-      <c r="W99" s="228"/>
+      <c r="V99" s="101"/>
+      <c r="W99" s="101"/>
       <c r="X99" s="75"/>
-      <c r="Y99" s="99"/>
+      <c r="Y99" s="115"/>
     </row>
     <row r="100" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A100" s="152"/>
-      <c r="B100" s="123" t="s">
+      <c r="A100" s="142"/>
+      <c r="B100" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="C100" s="123"/>
-      <c r="D100" s="123"/>
-      <c r="E100" s="123"/>
-      <c r="F100" s="123"/>
-      <c r="G100" s="123"/>
-      <c r="H100" s="123"/>
-      <c r="I100" s="123"/>
-      <c r="J100" s="123"/>
-      <c r="K100" s="123"/>
-      <c r="L100" s="241"/>
-      <c r="M100" s="241"/>
-      <c r="N100" s="241"/>
-      <c r="O100" s="241"/>
-      <c r="P100" s="241"/>
-      <c r="Q100" s="241"/>
-      <c r="R100" s="241"/>
-      <c r="S100" s="241"/>
-      <c r="T100" s="241"/>
+      <c r="C100" s="178"/>
+      <c r="D100" s="178"/>
+      <c r="E100" s="178"/>
+      <c r="F100" s="178"/>
+      <c r="G100" s="178"/>
+      <c r="H100" s="178"/>
+      <c r="I100" s="178"/>
+      <c r="J100" s="178"/>
+      <c r="K100" s="178"/>
+      <c r="L100" s="177"/>
+      <c r="M100" s="177"/>
+      <c r="N100" s="177"/>
+      <c r="O100" s="177"/>
+      <c r="P100" s="177"/>
+      <c r="Q100" s="177"/>
+      <c r="R100" s="177"/>
+      <c r="S100" s="177"/>
+      <c r="T100" s="177"/>
       <c r="U100" s="6"/>
-      <c r="V100" s="228"/>
-      <c r="W100" s="228"/>
+      <c r="V100" s="101"/>
+      <c r="W100" s="101"/>
       <c r="X100" s="75"/>
-      <c r="Y100" s="99"/>
+      <c r="Y100" s="115"/>
     </row>
     <row r="101" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A101" s="152"/>
-      <c r="B101" s="123" t="s">
+      <c r="A101" s="142"/>
+      <c r="B101" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="C101" s="123"/>
-      <c r="D101" s="123"/>
-      <c r="E101" s="123"/>
-      <c r="F101" s="123"/>
-      <c r="G101" s="123"/>
-      <c r="H101" s="123"/>
-      <c r="I101" s="123"/>
-      <c r="J101" s="123"/>
-      <c r="K101" s="123"/>
-      <c r="L101" s="241"/>
-      <c r="M101" s="241"/>
-      <c r="N101" s="241"/>
-      <c r="O101" s="241"/>
-      <c r="P101" s="241"/>
-      <c r="Q101" s="241"/>
-      <c r="R101" s="241"/>
-      <c r="S101" s="241"/>
-      <c r="T101" s="241"/>
+      <c r="C101" s="178"/>
+      <c r="D101" s="178"/>
+      <c r="E101" s="178"/>
+      <c r="F101" s="178"/>
+      <c r="G101" s="178"/>
+      <c r="H101" s="178"/>
+      <c r="I101" s="178"/>
+      <c r="J101" s="178"/>
+      <c r="K101" s="178"/>
+      <c r="L101" s="177"/>
+      <c r="M101" s="177"/>
+      <c r="N101" s="177"/>
+      <c r="O101" s="177"/>
+      <c r="P101" s="177"/>
+      <c r="Q101" s="177"/>
+      <c r="R101" s="177"/>
+      <c r="S101" s="177"/>
+      <c r="T101" s="177"/>
       <c r="U101" s="6"/>
-      <c r="V101" s="228"/>
-      <c r="W101" s="228"/>
+      <c r="V101" s="101"/>
+      <c r="W101" s="101"/>
       <c r="X101" s="75"/>
-      <c r="Y101" s="99"/>
+      <c r="Y101" s="115"/>
     </row>
     <row r="102" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A102" s="152"/>
-      <c r="B102" s="123" t="s">
+      <c r="A102" s="142"/>
+      <c r="B102" s="178" t="s">
         <v>84</v>
       </c>
-      <c r="C102" s="123"/>
-      <c r="D102" s="123"/>
-      <c r="E102" s="123"/>
-      <c r="F102" s="123"/>
-      <c r="G102" s="123"/>
-      <c r="H102" s="123"/>
-      <c r="I102" s="123"/>
-      <c r="J102" s="123"/>
-      <c r="K102" s="123"/>
-      <c r="L102" s="241"/>
-      <c r="M102" s="241"/>
-      <c r="N102" s="241"/>
-      <c r="O102" s="241"/>
-      <c r="P102" s="241"/>
-      <c r="Q102" s="241"/>
-      <c r="R102" s="241"/>
-      <c r="S102" s="241"/>
-      <c r="T102" s="241"/>
+      <c r="C102" s="178"/>
+      <c r="D102" s="178"/>
+      <c r="E102" s="178"/>
+      <c r="F102" s="178"/>
+      <c r="G102" s="178"/>
+      <c r="H102" s="178"/>
+      <c r="I102" s="178"/>
+      <c r="J102" s="178"/>
+      <c r="K102" s="178"/>
+      <c r="L102" s="177"/>
+      <c r="M102" s="177"/>
+      <c r="N102" s="177"/>
+      <c r="O102" s="177"/>
+      <c r="P102" s="177"/>
+      <c r="Q102" s="177"/>
+      <c r="R102" s="177"/>
+      <c r="S102" s="177"/>
+      <c r="T102" s="177"/>
       <c r="U102" s="6"/>
-      <c r="V102" s="228"/>
-      <c r="W102" s="228"/>
+      <c r="V102" s="101"/>
+      <c r="W102" s="101"/>
       <c r="X102" s="75"/>
-      <c r="Y102" s="99"/>
+      <c r="Y102" s="115"/>
     </row>
     <row r="103" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A103" s="152"/>
-      <c r="B103" s="123" t="s">
+      <c r="A103" s="142"/>
+      <c r="B103" s="178" t="s">
         <v>85</v>
       </c>
-      <c r="C103" s="123"/>
-      <c r="D103" s="123"/>
-      <c r="E103" s="123"/>
-      <c r="F103" s="123"/>
-      <c r="G103" s="123"/>
-      <c r="H103" s="123"/>
-      <c r="I103" s="123"/>
-      <c r="J103" s="123"/>
-      <c r="K103" s="123"/>
-      <c r="L103" s="241"/>
-      <c r="M103" s="241"/>
-      <c r="N103" s="241"/>
-      <c r="O103" s="241"/>
-      <c r="P103" s="241"/>
-      <c r="Q103" s="241"/>
-      <c r="R103" s="241"/>
-      <c r="S103" s="241"/>
-      <c r="T103" s="241"/>
+      <c r="C103" s="178"/>
+      <c r="D103" s="178"/>
+      <c r="E103" s="178"/>
+      <c r="F103" s="178"/>
+      <c r="G103" s="178"/>
+      <c r="H103" s="178"/>
+      <c r="I103" s="178"/>
+      <c r="J103" s="178"/>
+      <c r="K103" s="178"/>
+      <c r="L103" s="177"/>
+      <c r="M103" s="177"/>
+      <c r="N103" s="177"/>
+      <c r="O103" s="177"/>
+      <c r="P103" s="177"/>
+      <c r="Q103" s="177"/>
+      <c r="R103" s="177"/>
+      <c r="S103" s="177"/>
+      <c r="T103" s="177"/>
       <c r="U103" s="6"/>
-      <c r="V103" s="228"/>
-      <c r="W103" s="228"/>
+      <c r="V103" s="101"/>
+      <c r="W103" s="101"/>
       <c r="X103" s="75"/>
-      <c r="Y103" s="99"/>
+      <c r="Y103" s="115"/>
     </row>
     <row r="104" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A104" s="152"/>
-      <c r="B104" s="123" t="s">
+      <c r="A104" s="142"/>
+      <c r="B104" s="178" t="s">
         <v>86</v>
       </c>
-      <c r="C104" s="123"/>
-      <c r="D104" s="123"/>
-      <c r="E104" s="123"/>
-      <c r="F104" s="123"/>
-      <c r="G104" s="123"/>
-      <c r="H104" s="123"/>
-      <c r="I104" s="123"/>
-      <c r="J104" s="123"/>
-      <c r="K104" s="123"/>
-      <c r="L104" s="241"/>
-      <c r="M104" s="241"/>
-      <c r="N104" s="241"/>
-      <c r="O104" s="241"/>
-      <c r="P104" s="241"/>
-      <c r="Q104" s="241"/>
-      <c r="R104" s="241"/>
-      <c r="S104" s="241"/>
-      <c r="T104" s="241"/>
+      <c r="C104" s="178"/>
+      <c r="D104" s="178"/>
+      <c r="E104" s="178"/>
+      <c r="F104" s="178"/>
+      <c r="G104" s="178"/>
+      <c r="H104" s="178"/>
+      <c r="I104" s="178"/>
+      <c r="J104" s="178"/>
+      <c r="K104" s="178"/>
+      <c r="L104" s="177"/>
+      <c r="M104" s="177"/>
+      <c r="N104" s="177"/>
+      <c r="O104" s="177"/>
+      <c r="P104" s="177"/>
+      <c r="Q104" s="177"/>
+      <c r="R104" s="177"/>
+      <c r="S104" s="177"/>
+      <c r="T104" s="177"/>
       <c r="U104" s="6"/>
-      <c r="V104" s="228"/>
-      <c r="W104" s="228"/>
+      <c r="V104" s="101"/>
+      <c r="W104" s="101"/>
       <c r="X104" s="75"/>
-      <c r="Y104" s="99"/>
+      <c r="Y104" s="115"/>
     </row>
     <row r="105" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A105" s="152"/>
-      <c r="B105" s="123" t="s">
+      <c r="A105" s="142"/>
+      <c r="B105" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="C105" s="123"/>
-      <c r="D105" s="123"/>
-      <c r="E105" s="123"/>
-      <c r="F105" s="123"/>
-      <c r="G105" s="123"/>
-      <c r="H105" s="123"/>
-      <c r="I105" s="123"/>
-      <c r="J105" s="123"/>
-      <c r="K105" s="123"/>
-      <c r="L105" s="241"/>
-      <c r="M105" s="241"/>
-      <c r="N105" s="241"/>
-      <c r="O105" s="241"/>
-      <c r="P105" s="241"/>
-      <c r="Q105" s="241"/>
-      <c r="R105" s="241"/>
-      <c r="S105" s="241"/>
-      <c r="T105" s="241"/>
+      <c r="C105" s="178"/>
+      <c r="D105" s="178"/>
+      <c r="E105" s="178"/>
+      <c r="F105" s="178"/>
+      <c r="G105" s="178"/>
+      <c r="H105" s="178"/>
+      <c r="I105" s="178"/>
+      <c r="J105" s="178"/>
+      <c r="K105" s="178"/>
+      <c r="L105" s="177"/>
+      <c r="M105" s="177"/>
+      <c r="N105" s="177"/>
+      <c r="O105" s="177"/>
+      <c r="P105" s="177"/>
+      <c r="Q105" s="177"/>
+      <c r="R105" s="177"/>
+      <c r="S105" s="177"/>
+      <c r="T105" s="177"/>
       <c r="U105" s="6"/>
-      <c r="V105" s="228"/>
-      <c r="W105" s="228"/>
+      <c r="V105" s="101"/>
+      <c r="W105" s="101"/>
       <c r="X105" s="75"/>
-      <c r="Y105" s="99"/>
+      <c r="Y105" s="115"/>
     </row>
     <row r="106" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A106" s="152"/>
-      <c r="B106" s="123" t="s">
+      <c r="A106" s="142"/>
+      <c r="B106" s="178" t="s">
         <v>87</v>
       </c>
-      <c r="C106" s="123"/>
-      <c r="D106" s="123"/>
-      <c r="E106" s="123"/>
-      <c r="F106" s="123"/>
-      <c r="G106" s="123"/>
-      <c r="H106" s="123"/>
-      <c r="I106" s="123"/>
-      <c r="J106" s="123"/>
-      <c r="K106" s="123"/>
-      <c r="L106" s="241"/>
-      <c r="M106" s="241"/>
-      <c r="N106" s="241"/>
-      <c r="O106" s="241"/>
-      <c r="P106" s="241"/>
-      <c r="Q106" s="241"/>
-      <c r="R106" s="241"/>
-      <c r="S106" s="241"/>
-      <c r="T106" s="241"/>
+      <c r="C106" s="178"/>
+      <c r="D106" s="178"/>
+      <c r="E106" s="178"/>
+      <c r="F106" s="178"/>
+      <c r="G106" s="178"/>
+      <c r="H106" s="178"/>
+      <c r="I106" s="178"/>
+      <c r="J106" s="178"/>
+      <c r="K106" s="178"/>
+      <c r="L106" s="177"/>
+      <c r="M106" s="177"/>
+      <c r="N106" s="177"/>
+      <c r="O106" s="177"/>
+      <c r="P106" s="177"/>
+      <c r="Q106" s="177"/>
+      <c r="R106" s="177"/>
+      <c r="S106" s="177"/>
+      <c r="T106" s="177"/>
       <c r="U106" s="76"/>
-      <c r="V106" s="228"/>
-      <c r="W106" s="228"/>
+      <c r="V106" s="101"/>
+      <c r="W106" s="101"/>
       <c r="X106" s="76"/>
-      <c r="Y106" s="99"/>
+      <c r="Y106" s="115"/>
     </row>
     <row r="107" spans="1:25" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="99"/>
-      <c r="B107" s="166"/>
-      <c r="C107" s="166"/>
-      <c r="D107" s="166"/>
-      <c r="E107" s="166"/>
-      <c r="F107" s="166"/>
-      <c r="G107" s="166"/>
-      <c r="H107" s="166"/>
-      <c r="I107" s="166"/>
-      <c r="J107" s="166"/>
-      <c r="K107" s="166"/>
-      <c r="L107" s="166"/>
-      <c r="M107" s="166"/>
-      <c r="N107" s="166"/>
-      <c r="O107" s="166"/>
-      <c r="P107" s="166"/>
-      <c r="Q107" s="166"/>
-      <c r="R107" s="166"/>
-      <c r="S107" s="166"/>
-      <c r="T107" s="166"/>
-      <c r="U107" s="166"/>
-      <c r="V107" s="166"/>
-      <c r="W107" s="166"/>
-      <c r="X107" s="166"/>
-      <c r="Y107" s="99"/>
+      <c r="A107" s="115"/>
+      <c r="B107" s="213"/>
+      <c r="C107" s="213"/>
+      <c r="D107" s="213"/>
+      <c r="E107" s="213"/>
+      <c r="F107" s="213"/>
+      <c r="G107" s="213"/>
+      <c r="H107" s="213"/>
+      <c r="I107" s="213"/>
+      <c r="J107" s="213"/>
+      <c r="K107" s="213"/>
+      <c r="L107" s="213"/>
+      <c r="M107" s="213"/>
+      <c r="N107" s="213"/>
+      <c r="O107" s="213"/>
+      <c r="P107" s="213"/>
+      <c r="Q107" s="213"/>
+      <c r="R107" s="213"/>
+      <c r="S107" s="213"/>
+      <c r="T107" s="213"/>
+      <c r="U107" s="213"/>
+      <c r="V107" s="213"/>
+      <c r="W107" s="213"/>
+      <c r="X107" s="213"/>
+      <c r="Y107" s="115"/>
     </row>
     <row r="108" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="152"/>
-      <c r="B108" s="128" t="s">
+      <c r="A108" s="142"/>
+      <c r="B108" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="C108" s="129"/>
-      <c r="D108" s="129"/>
-      <c r="E108" s="129"/>
-      <c r="F108" s="129"/>
-      <c r="G108" s="129"/>
-      <c r="H108" s="129"/>
-      <c r="I108" s="129"/>
-      <c r="J108" s="129"/>
-      <c r="K108" s="129"/>
-      <c r="L108" s="129"/>
-      <c r="M108" s="129"/>
-      <c r="N108" s="129"/>
-      <c r="O108" s="129"/>
-      <c r="P108" s="129"/>
-      <c r="Q108" s="129"/>
-      <c r="R108" s="129"/>
-      <c r="S108" s="129"/>
-      <c r="T108" s="129"/>
-      <c r="U108" s="129"/>
-      <c r="V108" s="129"/>
-      <c r="W108" s="129"/>
-      <c r="X108" s="130"/>
-      <c r="Y108" s="159"/>
+      <c r="C108" s="190"/>
+      <c r="D108" s="190"/>
+      <c r="E108" s="190"/>
+      <c r="F108" s="190"/>
+      <c r="G108" s="190"/>
+      <c r="H108" s="190"/>
+      <c r="I108" s="190"/>
+      <c r="J108" s="190"/>
+      <c r="K108" s="190"/>
+      <c r="L108" s="190"/>
+      <c r="M108" s="190"/>
+      <c r="N108" s="190"/>
+      <c r="O108" s="190"/>
+      <c r="P108" s="190"/>
+      <c r="Q108" s="190"/>
+      <c r="R108" s="190"/>
+      <c r="S108" s="190"/>
+      <c r="T108" s="190"/>
+      <c r="U108" s="190"/>
+      <c r="V108" s="190"/>
+      <c r="W108" s="190"/>
+      <c r="X108" s="191"/>
+      <c r="Y108" s="208"/>
     </row>
     <row r="109" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A109" s="152"/>
+      <c r="A109" s="142"/>
       <c r="B109" s="46"/>
       <c r="C109" s="26"/>
       <c r="D109" s="26"/>
@@ -7163,27 +7163,27 @@
       <c r="V109" s="77"/>
       <c r="W109" s="77"/>
       <c r="X109" s="80"/>
-      <c r="Y109" s="159"/>
+      <c r="Y109" s="208"/>
     </row>
     <row r="110" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A110" s="152"/>
-      <c r="B110" s="107" t="s">
+      <c r="A110" s="142"/>
+      <c r="B110" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C110" s="108"/>
-      <c r="D110" s="108"/>
-      <c r="E110" s="108"/>
-      <c r="F110" s="108"/>
-      <c r="G110" s="108"/>
-      <c r="H110" s="108"/>
-      <c r="I110" s="109"/>
+      <c r="C110" s="180"/>
+      <c r="D110" s="180"/>
+      <c r="E110" s="180"/>
+      <c r="F110" s="180"/>
+      <c r="G110" s="180"/>
+      <c r="H110" s="180"/>
+      <c r="I110" s="181"/>
       <c r="J110" s="32"/>
       <c r="K110" s="32"/>
-      <c r="L110" s="153"/>
-      <c r="M110" s="105"/>
-      <c r="N110" s="105"/>
-      <c r="O110" s="105"/>
-      <c r="P110" s="105"/>
+      <c r="L110" s="223"/>
+      <c r="M110" s="134"/>
+      <c r="N110" s="134"/>
+      <c r="O110" s="134"/>
+      <c r="P110" s="134"/>
       <c r="Q110" s="33"/>
       <c r="R110" s="33"/>
       <c r="S110" s="23"/>
@@ -7192,27 +7192,27 @@
       <c r="V110" s="33"/>
       <c r="W110" s="33"/>
       <c r="X110" s="81"/>
-      <c r="Y110" s="99"/>
+      <c r="Y110" s="115"/>
     </row>
     <row r="111" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A111" s="152"/>
-      <c r="B111" s="107" t="s">
+      <c r="A111" s="142"/>
+      <c r="B111" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="C111" s="108"/>
-      <c r="D111" s="108"/>
-      <c r="E111" s="108"/>
-      <c r="F111" s="108"/>
-      <c r="G111" s="108"/>
-      <c r="H111" s="108"/>
-      <c r="I111" s="109"/>
+      <c r="C111" s="180"/>
+      <c r="D111" s="180"/>
+      <c r="E111" s="180"/>
+      <c r="F111" s="180"/>
+      <c r="G111" s="180"/>
+      <c r="H111" s="180"/>
+      <c r="I111" s="181"/>
       <c r="J111" s="32"/>
       <c r="K111" s="32"/>
-      <c r="L111" s="153"/>
-      <c r="M111" s="105"/>
-      <c r="N111" s="105"/>
-      <c r="O111" s="105"/>
-      <c r="P111" s="105"/>
+      <c r="L111" s="223"/>
+      <c r="M111" s="134"/>
+      <c r="N111" s="134"/>
+      <c r="O111" s="134"/>
+      <c r="P111" s="134"/>
       <c r="Q111" s="33"/>
       <c r="R111" s="33"/>
       <c r="S111" s="23"/>
@@ -7221,27 +7221,27 @@
       <c r="V111" s="33"/>
       <c r="W111" s="33"/>
       <c r="X111" s="81"/>
-      <c r="Y111" s="99"/>
+      <c r="Y111" s="115"/>
     </row>
     <row r="112" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A112" s="152"/>
-      <c r="B112" s="107" t="s">
+      <c r="A112" s="142"/>
+      <c r="B112" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="C112" s="108"/>
-      <c r="D112" s="108"/>
-      <c r="E112" s="108"/>
-      <c r="F112" s="108"/>
-      <c r="G112" s="108"/>
-      <c r="H112" s="108"/>
-      <c r="I112" s="109"/>
+      <c r="C112" s="180"/>
+      <c r="D112" s="180"/>
+      <c r="E112" s="180"/>
+      <c r="F112" s="180"/>
+      <c r="G112" s="180"/>
+      <c r="H112" s="180"/>
+      <c r="I112" s="181"/>
       <c r="J112" s="32"/>
       <c r="K112" s="32"/>
-      <c r="L112" s="153"/>
-      <c r="M112" s="105"/>
-      <c r="N112" s="105"/>
-      <c r="O112" s="105"/>
-      <c r="P112" s="105"/>
+      <c r="L112" s="223"/>
+      <c r="M112" s="134"/>
+      <c r="N112" s="134"/>
+      <c r="O112" s="134"/>
+      <c r="P112" s="134"/>
       <c r="Q112" s="33"/>
       <c r="R112" s="33"/>
       <c r="S112" s="23"/>
@@ -7250,27 +7250,27 @@
       <c r="V112" s="33"/>
       <c r="W112" s="33"/>
       <c r="X112" s="81"/>
-      <c r="Y112" s="99"/>
+      <c r="Y112" s="115"/>
     </row>
     <row r="113" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A113" s="152"/>
-      <c r="B113" s="107" t="s">
+      <c r="A113" s="142"/>
+      <c r="B113" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
-      <c r="G113" s="108"/>
-      <c r="H113" s="108"/>
-      <c r="I113" s="109"/>
+      <c r="C113" s="180"/>
+      <c r="D113" s="180"/>
+      <c r="E113" s="180"/>
+      <c r="F113" s="180"/>
+      <c r="G113" s="180"/>
+      <c r="H113" s="180"/>
+      <c r="I113" s="181"/>
       <c r="J113" s="32"/>
       <c r="K113" s="32"/>
-      <c r="L113" s="153"/>
-      <c r="M113" s="105"/>
-      <c r="N113" s="105"/>
-      <c r="O113" s="105"/>
-      <c r="P113" s="105"/>
+      <c r="L113" s="223"/>
+      <c r="M113" s="134"/>
+      <c r="N113" s="134"/>
+      <c r="O113" s="134"/>
+      <c r="P113" s="134"/>
       <c r="Q113" s="33"/>
       <c r="R113" s="33"/>
       <c r="S113" s="23"/>
@@ -7279,27 +7279,27 @@
       <c r="V113" s="33"/>
       <c r="W113" s="33"/>
       <c r="X113" s="81"/>
-      <c r="Y113" s="99"/>
+      <c r="Y113" s="115"/>
     </row>
     <row r="114" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A114" s="152"/>
-      <c r="B114" s="107" t="s">
+      <c r="A114" s="142"/>
+      <c r="B114" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="C114" s="108"/>
-      <c r="D114" s="108"/>
-      <c r="E114" s="108"/>
-      <c r="F114" s="108"/>
-      <c r="G114" s="108"/>
-      <c r="H114" s="108"/>
-      <c r="I114" s="109"/>
+      <c r="C114" s="180"/>
+      <c r="D114" s="180"/>
+      <c r="E114" s="180"/>
+      <c r="F114" s="180"/>
+      <c r="G114" s="180"/>
+      <c r="H114" s="180"/>
+      <c r="I114" s="181"/>
       <c r="J114" s="32"/>
       <c r="K114" s="32"/>
-      <c r="L114" s="154"/>
-      <c r="M114" s="105"/>
-      <c r="N114" s="105"/>
-      <c r="O114" s="105"/>
-      <c r="P114" s="105"/>
+      <c r="L114" s="224"/>
+      <c r="M114" s="134"/>
+      <c r="N114" s="134"/>
+      <c r="O114" s="134"/>
+      <c r="P114" s="134"/>
       <c r="Q114" s="82"/>
       <c r="R114" s="71"/>
       <c r="S114" s="23"/>
@@ -7308,384 +7308,384 @@
       <c r="V114" s="57"/>
       <c r="W114" s="57"/>
       <c r="X114" s="71"/>
-      <c r="Y114" s="99"/>
+      <c r="Y114" s="115"/>
     </row>
     <row r="115" spans="1:25" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="61"/>
-      <c r="B115" s="160"/>
-      <c r="C115" s="160"/>
-      <c r="D115" s="160"/>
-      <c r="E115" s="160"/>
-      <c r="F115" s="160"/>
-      <c r="G115" s="160"/>
-      <c r="H115" s="160"/>
-      <c r="I115" s="160"/>
-      <c r="J115" s="160"/>
-      <c r="K115" s="160"/>
-      <c r="L115" s="160"/>
-      <c r="M115" s="160"/>
-      <c r="N115" s="160"/>
-      <c r="O115" s="160"/>
-      <c r="P115" s="160"/>
-      <c r="Q115" s="160"/>
-      <c r="R115" s="160"/>
-      <c r="S115" s="160"/>
-      <c r="T115" s="160"/>
-      <c r="U115" s="160"/>
-      <c r="V115" s="160"/>
-      <c r="W115" s="160"/>
-      <c r="X115" s="160"/>
-      <c r="Y115" s="99"/>
+      <c r="B115" s="214"/>
+      <c r="C115" s="214"/>
+      <c r="D115" s="214"/>
+      <c r="E115" s="214"/>
+      <c r="F115" s="214"/>
+      <c r="G115" s="214"/>
+      <c r="H115" s="214"/>
+      <c r="I115" s="214"/>
+      <c r="J115" s="214"/>
+      <c r="K115" s="214"/>
+      <c r="L115" s="214"/>
+      <c r="M115" s="214"/>
+      <c r="N115" s="214"/>
+      <c r="O115" s="214"/>
+      <c r="P115" s="214"/>
+      <c r="Q115" s="214"/>
+      <c r="R115" s="214"/>
+      <c r="S115" s="214"/>
+      <c r="T115" s="214"/>
+      <c r="U115" s="214"/>
+      <c r="V115" s="214"/>
+      <c r="W115" s="214"/>
+      <c r="X115" s="214"/>
+      <c r="Y115" s="115"/>
     </row>
     <row r="116" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A116" s="61"/>
-      <c r="B116" s="122" t="s">
+      <c r="B116" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="C116" s="122"/>
-      <c r="D116" s="122"/>
-      <c r="E116" s="122"/>
-      <c r="F116" s="122"/>
-      <c r="G116" s="122"/>
-      <c r="H116" s="122"/>
-      <c r="I116" s="122"/>
-      <c r="J116" s="122"/>
-      <c r="K116" s="122"/>
-      <c r="L116" s="122"/>
-      <c r="M116" s="122"/>
-      <c r="N116" s="122"/>
-      <c r="O116" s="122"/>
-      <c r="P116" s="122"/>
-      <c r="Q116" s="122"/>
-      <c r="R116" s="122"/>
-      <c r="S116" s="122"/>
-      <c r="T116" s="122"/>
-      <c r="U116" s="122"/>
-      <c r="V116" s="122"/>
-      <c r="W116" s="122"/>
-      <c r="X116" s="122"/>
-      <c r="Y116" s="159"/>
+      <c r="C116" s="206"/>
+      <c r="D116" s="206"/>
+      <c r="E116" s="206"/>
+      <c r="F116" s="206"/>
+      <c r="G116" s="206"/>
+      <c r="H116" s="206"/>
+      <c r="I116" s="206"/>
+      <c r="J116" s="206"/>
+      <c r="K116" s="206"/>
+      <c r="L116" s="206"/>
+      <c r="M116" s="206"/>
+      <c r="N116" s="206"/>
+      <c r="O116" s="206"/>
+      <c r="P116" s="206"/>
+      <c r="Q116" s="206"/>
+      <c r="R116" s="206"/>
+      <c r="S116" s="206"/>
+      <c r="T116" s="206"/>
+      <c r="U116" s="206"/>
+      <c r="V116" s="206"/>
+      <c r="W116" s="206"/>
+      <c r="X116" s="206"/>
+      <c r="Y116" s="208"/>
     </row>
     <row r="117" spans="1:25" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="61"/>
-      <c r="B117" s="120"/>
-      <c r="C117" s="121"/>
-      <c r="D117" s="121"/>
-      <c r="E117" s="121"/>
-      <c r="F117" s="121"/>
-      <c r="G117" s="121"/>
-      <c r="H117" s="121"/>
-      <c r="I117" s="121"/>
-      <c r="J117" s="121"/>
-      <c r="K117" s="121"/>
-      <c r="L117" s="121"/>
-      <c r="M117" s="121"/>
-      <c r="N117" s="121"/>
-      <c r="O117" s="121"/>
-      <c r="P117" s="121"/>
-      <c r="Q117" s="121"/>
-      <c r="R117" s="121"/>
-      <c r="S117" s="121"/>
-      <c r="T117" s="121"/>
-      <c r="U117" s="121"/>
-      <c r="V117" s="121"/>
-      <c r="W117" s="121"/>
-      <c r="X117" s="127"/>
-      <c r="Y117" s="159"/>
+      <c r="B117" s="130"/>
+      <c r="C117" s="131"/>
+      <c r="D117" s="131"/>
+      <c r="E117" s="131"/>
+      <c r="F117" s="131"/>
+      <c r="G117" s="131"/>
+      <c r="H117" s="131"/>
+      <c r="I117" s="131"/>
+      <c r="J117" s="131"/>
+      <c r="K117" s="131"/>
+      <c r="L117" s="131"/>
+      <c r="M117" s="131"/>
+      <c r="N117" s="131"/>
+      <c r="O117" s="131"/>
+      <c r="P117" s="131"/>
+      <c r="Q117" s="131"/>
+      <c r="R117" s="131"/>
+      <c r="S117" s="131"/>
+      <c r="T117" s="131"/>
+      <c r="U117" s="131"/>
+      <c r="V117" s="131"/>
+      <c r="W117" s="131"/>
+      <c r="X117" s="132"/>
+      <c r="Y117" s="208"/>
     </row>
     <row r="118" spans="1:25" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="99"/>
-      <c r="B118" s="99"/>
-      <c r="C118" s="99"/>
-      <c r="D118" s="99"/>
-      <c r="E118" s="99"/>
-      <c r="F118" s="99"/>
-      <c r="G118" s="99"/>
-      <c r="H118" s="99"/>
-      <c r="I118" s="99"/>
-      <c r="J118" s="99"/>
-      <c r="K118" s="99"/>
-      <c r="L118" s="99"/>
-      <c r="M118" s="99"/>
-      <c r="N118" s="99"/>
-      <c r="O118" s="99"/>
-      <c r="P118" s="99"/>
-      <c r="Q118" s="99"/>
-      <c r="R118" s="99"/>
-      <c r="S118" s="99"/>
-      <c r="T118" s="99"/>
-      <c r="U118" s="99"/>
-      <c r="V118" s="99"/>
-      <c r="W118" s="99"/>
-      <c r="X118" s="99"/>
-      <c r="Y118" s="99"/>
+      <c r="A118" s="115"/>
+      <c r="B118" s="115"/>
+      <c r="C118" s="115"/>
+      <c r="D118" s="115"/>
+      <c r="E118" s="115"/>
+      <c r="F118" s="115"/>
+      <c r="G118" s="115"/>
+      <c r="H118" s="115"/>
+      <c r="I118" s="115"/>
+      <c r="J118" s="115"/>
+      <c r="K118" s="115"/>
+      <c r="L118" s="115"/>
+      <c r="M118" s="115"/>
+      <c r="N118" s="115"/>
+      <c r="O118" s="115"/>
+      <c r="P118" s="115"/>
+      <c r="Q118" s="115"/>
+      <c r="R118" s="115"/>
+      <c r="S118" s="115"/>
+      <c r="T118" s="115"/>
+      <c r="U118" s="115"/>
+      <c r="V118" s="115"/>
+      <c r="W118" s="115"/>
+      <c r="X118" s="115"/>
+      <c r="Y118" s="115"/>
     </row>
     <row r="119" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A119" s="93"/>
-      <c r="B119" s="122" t="s">
+      <c r="B119" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="C119" s="122"/>
-      <c r="D119" s="122"/>
-      <c r="E119" s="122"/>
-      <c r="F119" s="122"/>
-      <c r="G119" s="122"/>
-      <c r="H119" s="122"/>
-      <c r="I119" s="122" t="s">
+      <c r="C119" s="206"/>
+      <c r="D119" s="206"/>
+      <c r="E119" s="206"/>
+      <c r="F119" s="206"/>
+      <c r="G119" s="206"/>
+      <c r="H119" s="206"/>
+      <c r="I119" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="J119" s="122"/>
-      <c r="K119" s="122"/>
-      <c r="L119" s="122"/>
-      <c r="M119" s="122"/>
-      <c r="N119" s="122"/>
-      <c r="O119" s="122"/>
-      <c r="P119" s="122"/>
-      <c r="Q119" s="122" t="s">
+      <c r="J119" s="206"/>
+      <c r="K119" s="206"/>
+      <c r="L119" s="206"/>
+      <c r="M119" s="206"/>
+      <c r="N119" s="206"/>
+      <c r="O119" s="206"/>
+      <c r="P119" s="206"/>
+      <c r="Q119" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="R119" s="122"/>
-      <c r="S119" s="122"/>
-      <c r="T119" s="122"/>
-      <c r="U119" s="122"/>
-      <c r="V119" s="122"/>
-      <c r="W119" s="122"/>
-      <c r="X119" s="122"/>
-      <c r="Y119" s="159"/>
+      <c r="R119" s="206"/>
+      <c r="S119" s="206"/>
+      <c r="T119" s="206"/>
+      <c r="U119" s="206"/>
+      <c r="V119" s="206"/>
+      <c r="W119" s="206"/>
+      <c r="X119" s="206"/>
+      <c r="Y119" s="208"/>
     </row>
     <row r="120" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="93"/>
-      <c r="B120" s="105"/>
-      <c r="C120" s="105"/>
-      <c r="D120" s="105"/>
-      <c r="E120" s="105"/>
-      <c r="F120" s="105"/>
-      <c r="G120" s="105"/>
-      <c r="H120" s="105"/>
-      <c r="I120" s="105"/>
-      <c r="J120" s="105"/>
-      <c r="K120" s="105"/>
-      <c r="L120" s="105"/>
-      <c r="M120" s="105"/>
-      <c r="N120" s="105"/>
-      <c r="O120" s="105"/>
-      <c r="P120" s="105"/>
-      <c r="Q120" s="105"/>
-      <c r="R120" s="105"/>
-      <c r="S120" s="105"/>
-      <c r="T120" s="105"/>
-      <c r="U120" s="105"/>
-      <c r="V120" s="105"/>
-      <c r="W120" s="105"/>
-      <c r="X120" s="105"/>
-      <c r="Y120" s="159"/>
+      <c r="B120" s="134"/>
+      <c r="C120" s="134"/>
+      <c r="D120" s="134"/>
+      <c r="E120" s="134"/>
+      <c r="F120" s="134"/>
+      <c r="G120" s="134"/>
+      <c r="H120" s="134"/>
+      <c r="I120" s="134"/>
+      <c r="J120" s="134"/>
+      <c r="K120" s="134"/>
+      <c r="L120" s="134"/>
+      <c r="M120" s="134"/>
+      <c r="N120" s="134"/>
+      <c r="O120" s="134"/>
+      <c r="P120" s="134"/>
+      <c r="Q120" s="134"/>
+      <c r="R120" s="134"/>
+      <c r="S120" s="134"/>
+      <c r="T120" s="134"/>
+      <c r="U120" s="134"/>
+      <c r="V120" s="134"/>
+      <c r="W120" s="134"/>
+      <c r="X120" s="134"/>
+      <c r="Y120" s="208"/>
     </row>
     <row r="121" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A121" s="93"/>
-      <c r="B121" s="105" t="s">
+      <c r="B121" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="C121" s="105"/>
-      <c r="D121" s="105"/>
-      <c r="E121" s="105"/>
-      <c r="F121" s="105"/>
-      <c r="G121" s="105"/>
-      <c r="H121" s="105"/>
-      <c r="I121" s="105" t="s">
+      <c r="C121" s="134"/>
+      <c r="D121" s="134"/>
+      <c r="E121" s="134"/>
+      <c r="F121" s="134"/>
+      <c r="G121" s="134"/>
+      <c r="H121" s="134"/>
+      <c r="I121" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="J121" s="105"/>
-      <c r="K121" s="105"/>
-      <c r="L121" s="105"/>
-      <c r="M121" s="105"/>
-      <c r="N121" s="105"/>
-      <c r="O121" s="105"/>
-      <c r="P121" s="105"/>
-      <c r="Q121" s="105" t="s">
+      <c r="J121" s="134"/>
+      <c r="K121" s="134"/>
+      <c r="L121" s="134"/>
+      <c r="M121" s="134"/>
+      <c r="N121" s="134"/>
+      <c r="O121" s="134"/>
+      <c r="P121" s="134"/>
+      <c r="Q121" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="R121" s="105"/>
-      <c r="S121" s="105"/>
-      <c r="T121" s="105"/>
-      <c r="U121" s="105"/>
-      <c r="V121" s="105"/>
-      <c r="W121" s="105"/>
-      <c r="X121" s="105"/>
-      <c r="Y121" s="159"/>
+      <c r="R121" s="134"/>
+      <c r="S121" s="134"/>
+      <c r="T121" s="134"/>
+      <c r="U121" s="134"/>
+      <c r="V121" s="134"/>
+      <c r="W121" s="134"/>
+      <c r="X121" s="134"/>
+      <c r="Y121" s="208"/>
     </row>
     <row r="122" spans="1:25" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="93"/>
-      <c r="B122" s="105"/>
-      <c r="C122" s="105"/>
-      <c r="D122" s="105"/>
-      <c r="E122" s="105"/>
-      <c r="F122" s="105"/>
-      <c r="G122" s="105"/>
-      <c r="H122" s="105"/>
-      <c r="I122" s="105"/>
-      <c r="J122" s="105"/>
-      <c r="K122" s="105"/>
-      <c r="L122" s="105"/>
-      <c r="M122" s="105"/>
-      <c r="N122" s="105"/>
-      <c r="O122" s="105"/>
-      <c r="P122" s="105"/>
-      <c r="Q122" s="105"/>
-      <c r="R122" s="105"/>
-      <c r="S122" s="105"/>
-      <c r="T122" s="105"/>
-      <c r="U122" s="105"/>
-      <c r="V122" s="105"/>
-      <c r="W122" s="105"/>
-      <c r="X122" s="105"/>
-      <c r="Y122" s="159"/>
+      <c r="B122" s="134"/>
+      <c r="C122" s="134"/>
+      <c r="D122" s="134"/>
+      <c r="E122" s="134"/>
+      <c r="F122" s="134"/>
+      <c r="G122" s="134"/>
+      <c r="H122" s="134"/>
+      <c r="I122" s="134"/>
+      <c r="J122" s="134"/>
+      <c r="K122" s="134"/>
+      <c r="L122" s="134"/>
+      <c r="M122" s="134"/>
+      <c r="N122" s="134"/>
+      <c r="O122" s="134"/>
+      <c r="P122" s="134"/>
+      <c r="Q122" s="134"/>
+      <c r="R122" s="134"/>
+      <c r="S122" s="134"/>
+      <c r="T122" s="134"/>
+      <c r="U122" s="134"/>
+      <c r="V122" s="134"/>
+      <c r="W122" s="134"/>
+      <c r="X122" s="134"/>
+      <c r="Y122" s="208"/>
     </row>
     <row r="123" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A123" s="93"/>
-      <c r="B123" s="105" t="s">
+      <c r="B123" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="C123" s="105"/>
-      <c r="D123" s="105"/>
-      <c r="E123" s="105"/>
-      <c r="F123" s="105"/>
-      <c r="G123" s="105"/>
-      <c r="H123" s="105"/>
-      <c r="I123" s="105" t="s">
+      <c r="C123" s="134"/>
+      <c r="D123" s="134"/>
+      <c r="E123" s="134"/>
+      <c r="F123" s="134"/>
+      <c r="G123" s="134"/>
+      <c r="H123" s="134"/>
+      <c r="I123" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="J123" s="105"/>
-      <c r="K123" s="105"/>
-      <c r="L123" s="105"/>
-      <c r="M123" s="105"/>
-      <c r="N123" s="105"/>
-      <c r="O123" s="105"/>
-      <c r="P123" s="105"/>
-      <c r="Q123" s="105" t="s">
+      <c r="J123" s="134"/>
+      <c r="K123" s="134"/>
+      <c r="L123" s="134"/>
+      <c r="M123" s="134"/>
+      <c r="N123" s="134"/>
+      <c r="O123" s="134"/>
+      <c r="P123" s="134"/>
+      <c r="Q123" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="R123" s="105"/>
-      <c r="S123" s="105"/>
-      <c r="T123" s="105"/>
-      <c r="U123" s="105"/>
-      <c r="V123" s="105"/>
-      <c r="W123" s="105"/>
-      <c r="X123" s="105"/>
-      <c r="Y123" s="159"/>
+      <c r="R123" s="134"/>
+      <c r="S123" s="134"/>
+      <c r="T123" s="134"/>
+      <c r="U123" s="134"/>
+      <c r="V123" s="134"/>
+      <c r="W123" s="134"/>
+      <c r="X123" s="134"/>
+      <c r="Y123" s="208"/>
     </row>
     <row r="124" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A124" s="93"/>
-      <c r="B124" s="162"/>
-      <c r="C124" s="162"/>
-      <c r="D124" s="162"/>
-      <c r="E124" s="162"/>
-      <c r="F124" s="162"/>
-      <c r="G124" s="162"/>
-      <c r="H124" s="162"/>
-      <c r="I124" s="163"/>
-      <c r="J124" s="164"/>
-      <c r="K124" s="164"/>
-      <c r="L124" s="164"/>
-      <c r="M124" s="164"/>
-      <c r="N124" s="164"/>
-      <c r="O124" s="164"/>
-      <c r="P124" s="165"/>
-      <c r="Q124" s="163"/>
-      <c r="R124" s="164"/>
-      <c r="S124" s="164"/>
-      <c r="T124" s="164"/>
-      <c r="U124" s="164"/>
-      <c r="V124" s="164"/>
-      <c r="W124" s="164"/>
-      <c r="X124" s="165"/>
-      <c r="Y124" s="159"/>
+      <c r="B124" s="209"/>
+      <c r="C124" s="209"/>
+      <c r="D124" s="209"/>
+      <c r="E124" s="209"/>
+      <c r="F124" s="209"/>
+      <c r="G124" s="209"/>
+      <c r="H124" s="209"/>
+      <c r="I124" s="210"/>
+      <c r="J124" s="211"/>
+      <c r="K124" s="211"/>
+      <c r="L124" s="211"/>
+      <c r="M124" s="211"/>
+      <c r="N124" s="211"/>
+      <c r="O124" s="211"/>
+      <c r="P124" s="212"/>
+      <c r="Q124" s="210"/>
+      <c r="R124" s="211"/>
+      <c r="S124" s="211"/>
+      <c r="T124" s="211"/>
+      <c r="U124" s="211"/>
+      <c r="V124" s="211"/>
+      <c r="W124" s="211"/>
+      <c r="X124" s="212"/>
+      <c r="Y124" s="208"/>
     </row>
     <row r="125" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A125" s="93"/>
-      <c r="B125" s="105" t="s">
+      <c r="B125" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C125" s="105"/>
-      <c r="D125" s="105"/>
-      <c r="E125" s="105"/>
-      <c r="F125" s="105"/>
-      <c r="G125" s="105"/>
-      <c r="H125" s="105"/>
-      <c r="I125" s="105" t="s">
+      <c r="C125" s="134"/>
+      <c r="D125" s="134"/>
+      <c r="E125" s="134"/>
+      <c r="F125" s="134"/>
+      <c r="G125" s="134"/>
+      <c r="H125" s="134"/>
+      <c r="I125" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="J125" s="105"/>
-      <c r="K125" s="105"/>
-      <c r="L125" s="105"/>
-      <c r="M125" s="105"/>
-      <c r="N125" s="105"/>
-      <c r="O125" s="105"/>
-      <c r="P125" s="105"/>
-      <c r="Q125" s="105" t="s">
+      <c r="J125" s="134"/>
+      <c r="K125" s="134"/>
+      <c r="L125" s="134"/>
+      <c r="M125" s="134"/>
+      <c r="N125" s="134"/>
+      <c r="O125" s="134"/>
+      <c r="P125" s="134"/>
+      <c r="Q125" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="R125" s="105"/>
-      <c r="S125" s="105"/>
-      <c r="T125" s="105"/>
-      <c r="U125" s="105"/>
-      <c r="V125" s="105"/>
-      <c r="W125" s="105"/>
-      <c r="X125" s="105"/>
-      <c r="Y125" s="159"/>
+      <c r="R125" s="134"/>
+      <c r="S125" s="134"/>
+      <c r="T125" s="134"/>
+      <c r="U125" s="134"/>
+      <c r="V125" s="134"/>
+      <c r="W125" s="134"/>
+      <c r="X125" s="134"/>
+      <c r="Y125" s="208"/>
     </row>
     <row r="126" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="99"/>
-      <c r="B126" s="99"/>
-      <c r="C126" s="99"/>
-      <c r="D126" s="99"/>
-      <c r="E126" s="99"/>
-      <c r="F126" s="99"/>
-      <c r="G126" s="99"/>
-      <c r="H126" s="99"/>
-      <c r="I126" s="99"/>
-      <c r="J126" s="99"/>
-      <c r="K126" s="99"/>
-      <c r="L126" s="99"/>
-      <c r="M126" s="99"/>
-      <c r="N126" s="99"/>
-      <c r="O126" s="99"/>
-      <c r="P126" s="99"/>
-      <c r="Q126" s="99"/>
-      <c r="R126" s="99"/>
-      <c r="S126" s="99"/>
-      <c r="T126" s="99"/>
-      <c r="U126" s="99"/>
-      <c r="V126" s="99"/>
-      <c r="W126" s="99"/>
-      <c r="X126" s="99"/>
-      <c r="Y126" s="99"/>
+      <c r="A126" s="115"/>
+      <c r="B126" s="115"/>
+      <c r="C126" s="115"/>
+      <c r="D126" s="115"/>
+      <c r="E126" s="115"/>
+      <c r="F126" s="115"/>
+      <c r="G126" s="115"/>
+      <c r="H126" s="115"/>
+      <c r="I126" s="115"/>
+      <c r="J126" s="115"/>
+      <c r="K126" s="115"/>
+      <c r="L126" s="115"/>
+      <c r="M126" s="115"/>
+      <c r="N126" s="115"/>
+      <c r="O126" s="115"/>
+      <c r="P126" s="115"/>
+      <c r="Q126" s="115"/>
+      <c r="R126" s="115"/>
+      <c r="S126" s="115"/>
+      <c r="T126" s="115"/>
+      <c r="U126" s="115"/>
+      <c r="V126" s="115"/>
+      <c r="W126" s="115"/>
+      <c r="X126" s="115"/>
+      <c r="Y126" s="115"/>
     </row>
     <row r="127" spans="1:25" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="158"/>
-      <c r="B127" s="158"/>
-      <c r="C127" s="158"/>
-      <c r="D127" s="158"/>
-      <c r="E127" s="158"/>
-      <c r="F127" s="158"/>
-      <c r="G127" s="158"/>
-      <c r="H127" s="158"/>
-      <c r="I127" s="158"/>
-      <c r="J127" s="158"/>
-      <c r="K127" s="158"/>
-      <c r="L127" s="158"/>
-      <c r="M127" s="158"/>
-      <c r="N127" s="158"/>
-      <c r="O127" s="158"/>
-      <c r="P127" s="158"/>
-      <c r="Q127" s="158"/>
-      <c r="R127" s="158"/>
-      <c r="S127" s="158"/>
-      <c r="T127" s="158"/>
-      <c r="U127" s="158"/>
-      <c r="V127" s="158"/>
-      <c r="W127" s="158"/>
-      <c r="X127" s="158"/>
-      <c r="Y127" s="158"/>
+      <c r="A127" s="125"/>
+      <c r="B127" s="125"/>
+      <c r="C127" s="125"/>
+      <c r="D127" s="125"/>
+      <c r="E127" s="125"/>
+      <c r="F127" s="125"/>
+      <c r="G127" s="125"/>
+      <c r="H127" s="125"/>
+      <c r="I127" s="125"/>
+      <c r="J127" s="125"/>
+      <c r="K127" s="125"/>
+      <c r="L127" s="125"/>
+      <c r="M127" s="125"/>
+      <c r="N127" s="125"/>
+      <c r="O127" s="125"/>
+      <c r="P127" s="125"/>
+      <c r="Q127" s="125"/>
+      <c r="R127" s="125"/>
+      <c r="S127" s="125"/>
+      <c r="T127" s="125"/>
+      <c r="U127" s="125"/>
+      <c r="V127" s="125"/>
+      <c r="W127" s="125"/>
+      <c r="X127" s="125"/>
+      <c r="Y127" s="125"/>
     </row>
     <row r="128" spans="1:25" ht="18" x14ac:dyDescent="0.35">
       <c r="B128" s="4"/>
@@ -7940,6 +7940,230 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y2pbfdNh5UepfvzeA/jKkIMogrFOOjccAospIe972zb2PtfEcmQB09euUSj/Iyn7myO9OuXk/JHq3sjlgmSA8g==" saltValue="SIN1bcl3ELDJ7vgmGAbR7w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="248">
+    <mergeCell ref="A126:X126"/>
+    <mergeCell ref="A80:X80"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="G2:S4"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="G6:X6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:X8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:X7"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="B11:X11"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="B103:K103"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="O103:Q103"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B17:X17"/>
+    <mergeCell ref="B16:X16"/>
+    <mergeCell ref="P15:X15"/>
+    <mergeCell ref="N45:T45"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A41:X41"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B96:K96"/>
+    <mergeCell ref="R96:T96"/>
+    <mergeCell ref="O96:Q96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="A94:Y94"/>
+    <mergeCell ref="B92:T92"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="N71:T71"/>
+    <mergeCell ref="B74:X74"/>
+    <mergeCell ref="A95:A114"/>
+    <mergeCell ref="L110:L114"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="B99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="R99:T99"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="B101:K101"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="O101:Q101"/>
+    <mergeCell ref="R101:T101"/>
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="O102:Q102"/>
+    <mergeCell ref="B100:K100"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="O100:Q100"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="N84:S84"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="N67:T67"/>
+    <mergeCell ref="N68:T68"/>
+    <mergeCell ref="N69:T69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="N70:T70"/>
+    <mergeCell ref="N85:S85"/>
+    <mergeCell ref="R103:T103"/>
+    <mergeCell ref="B82:X82"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="N86:S86"/>
+    <mergeCell ref="B98:K98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="O98:Q98"/>
+    <mergeCell ref="R98:T98"/>
+    <mergeCell ref="B97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="O97:Q97"/>
+    <mergeCell ref="R97:T97"/>
+    <mergeCell ref="A127:Y127"/>
+    <mergeCell ref="Y115:Y117"/>
+    <mergeCell ref="A118:Y118"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B123:H123"/>
+    <mergeCell ref="I121:P121"/>
+    <mergeCell ref="I120:P120"/>
+    <mergeCell ref="B116:X116"/>
+    <mergeCell ref="B115:X115"/>
+    <mergeCell ref="B117:X117"/>
+    <mergeCell ref="Y119:Y126"/>
+    <mergeCell ref="Q123:X123"/>
+    <mergeCell ref="B108:X108"/>
+    <mergeCell ref="B112:I112"/>
+    <mergeCell ref="M112:P112"/>
+    <mergeCell ref="B106:K106"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="O106:Q106"/>
+    <mergeCell ref="R106:T106"/>
+    <mergeCell ref="B110:I110"/>
+    <mergeCell ref="B111:I111"/>
+    <mergeCell ref="B95:X95"/>
+    <mergeCell ref="Y95:Y114"/>
+    <mergeCell ref="B124:H124"/>
+    <mergeCell ref="B125:H125"/>
+    <mergeCell ref="I124:P124"/>
+    <mergeCell ref="Q124:X124"/>
+    <mergeCell ref="I125:P125"/>
+    <mergeCell ref="Q125:X125"/>
+    <mergeCell ref="Q121:X121"/>
+    <mergeCell ref="I122:P122"/>
+    <mergeCell ref="Q122:X122"/>
+    <mergeCell ref="I123:P123"/>
+    <mergeCell ref="Q119:X119"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B121:H121"/>
+    <mergeCell ref="O104:Q104"/>
+    <mergeCell ref="I119:P119"/>
+    <mergeCell ref="B104:K104"/>
+    <mergeCell ref="Q120:X120"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="B114:I114"/>
+    <mergeCell ref="M113:P113"/>
+    <mergeCell ref="M114:P114"/>
+    <mergeCell ref="B107:X107"/>
+    <mergeCell ref="B93:T93"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="N64:T64"/>
+    <mergeCell ref="N65:T65"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B35:X35"/>
+    <mergeCell ref="N36:P37"/>
+    <mergeCell ref="B79:M79"/>
+    <mergeCell ref="N79:T79"/>
+    <mergeCell ref="B77:M77"/>
+    <mergeCell ref="N77:T77"/>
+    <mergeCell ref="N87:S87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="N88:S88"/>
+    <mergeCell ref="N62:T62"/>
+    <mergeCell ref="N63:T63"/>
+    <mergeCell ref="N66:T66"/>
+    <mergeCell ref="N61:X61"/>
+    <mergeCell ref="B78:M78"/>
+    <mergeCell ref="N78:T78"/>
+    <mergeCell ref="N72:T72"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="A34:Y34"/>
+    <mergeCell ref="L30:X30"/>
+    <mergeCell ref="L31:X31"/>
+    <mergeCell ref="L32:X32"/>
+    <mergeCell ref="L28:X28"/>
+    <mergeCell ref="N51:T51"/>
+    <mergeCell ref="N52:T52"/>
+    <mergeCell ref="N55:T55"/>
+    <mergeCell ref="N47:T47"/>
+    <mergeCell ref="N58:T58"/>
+    <mergeCell ref="N57:T57"/>
+    <mergeCell ref="B75:X75"/>
+    <mergeCell ref="B61:L61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="N73:T73"/>
+    <mergeCell ref="N59:T59"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="A81:Y81"/>
+    <mergeCell ref="M110:P110"/>
+    <mergeCell ref="M111:P111"/>
+    <mergeCell ref="R104:T104"/>
+    <mergeCell ref="B105:K105"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="O105:Q105"/>
+    <mergeCell ref="R105:T105"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="N43:X43"/>
+    <mergeCell ref="B43:L43"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="L29:X29"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="O24:X24"/>
+    <mergeCell ref="O25:X25"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="A60:X60"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="N54:T54"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="N56:T56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="N44:T44"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="N53:T53"/>
     <mergeCell ref="A90:Y90"/>
     <mergeCell ref="N46:T46"/>
     <mergeCell ref="B29:D29"/>
@@ -7964,230 +8188,6 @@
     <mergeCell ref="Y6:Y10"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B2:F4"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="A60:X60"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="N54:T54"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="N56:T56"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="N44:T44"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="N53:T53"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="N43:X43"/>
-    <mergeCell ref="B43:L43"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="L29:X29"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="O24:X24"/>
-    <mergeCell ref="O25:X25"/>
-    <mergeCell ref="M110:P110"/>
-    <mergeCell ref="M111:P111"/>
-    <mergeCell ref="R104:T104"/>
-    <mergeCell ref="B105:K105"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="O105:Q105"/>
-    <mergeCell ref="R105:T105"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="A34:Y34"/>
-    <mergeCell ref="L30:X30"/>
-    <mergeCell ref="L31:X31"/>
-    <mergeCell ref="L32:X32"/>
-    <mergeCell ref="L28:X28"/>
-    <mergeCell ref="N51:T51"/>
-    <mergeCell ref="N52:T52"/>
-    <mergeCell ref="N55:T55"/>
-    <mergeCell ref="N47:T47"/>
-    <mergeCell ref="N58:T58"/>
-    <mergeCell ref="N57:T57"/>
-    <mergeCell ref="B75:X75"/>
-    <mergeCell ref="B61:L61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="N73:T73"/>
-    <mergeCell ref="N59:T59"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="A81:Y81"/>
-    <mergeCell ref="B93:T93"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="N64:T64"/>
-    <mergeCell ref="N65:T65"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B35:X35"/>
-    <mergeCell ref="N36:P37"/>
-    <mergeCell ref="B79:M79"/>
-    <mergeCell ref="N79:T79"/>
-    <mergeCell ref="B77:M77"/>
-    <mergeCell ref="N77:T77"/>
-    <mergeCell ref="N87:S87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="N88:S88"/>
-    <mergeCell ref="N62:T62"/>
-    <mergeCell ref="N63:T63"/>
-    <mergeCell ref="N66:T66"/>
-    <mergeCell ref="N61:X61"/>
-    <mergeCell ref="B78:M78"/>
-    <mergeCell ref="N78:T78"/>
-    <mergeCell ref="N72:T72"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B95:X95"/>
-    <mergeCell ref="Y95:Y114"/>
-    <mergeCell ref="B124:H124"/>
-    <mergeCell ref="B125:H125"/>
-    <mergeCell ref="I124:P124"/>
-    <mergeCell ref="Q124:X124"/>
-    <mergeCell ref="I125:P125"/>
-    <mergeCell ref="Q125:X125"/>
-    <mergeCell ref="Q121:X121"/>
-    <mergeCell ref="I122:P122"/>
-    <mergeCell ref="Q122:X122"/>
-    <mergeCell ref="I123:P123"/>
-    <mergeCell ref="Q119:X119"/>
-    <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B121:H121"/>
-    <mergeCell ref="O104:Q104"/>
-    <mergeCell ref="I119:P119"/>
-    <mergeCell ref="B104:K104"/>
-    <mergeCell ref="Q120:X120"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="B114:I114"/>
-    <mergeCell ref="M113:P113"/>
-    <mergeCell ref="M114:P114"/>
-    <mergeCell ref="B107:X107"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="O97:Q97"/>
-    <mergeCell ref="R97:T97"/>
-    <mergeCell ref="A127:Y127"/>
-    <mergeCell ref="Y115:Y117"/>
-    <mergeCell ref="A118:Y118"/>
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B123:H123"/>
-    <mergeCell ref="I121:P121"/>
-    <mergeCell ref="I120:P120"/>
-    <mergeCell ref="B116:X116"/>
-    <mergeCell ref="B115:X115"/>
-    <mergeCell ref="B117:X117"/>
-    <mergeCell ref="Y119:Y126"/>
-    <mergeCell ref="Q123:X123"/>
-    <mergeCell ref="B108:X108"/>
-    <mergeCell ref="B112:I112"/>
-    <mergeCell ref="M112:P112"/>
-    <mergeCell ref="B106:K106"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="O106:Q106"/>
-    <mergeCell ref="R106:T106"/>
-    <mergeCell ref="B110:I110"/>
-    <mergeCell ref="B111:I111"/>
-    <mergeCell ref="B100:K100"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="O100:Q100"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="N84:S84"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="N67:T67"/>
-    <mergeCell ref="N68:T68"/>
-    <mergeCell ref="N69:T69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="N70:T70"/>
-    <mergeCell ref="N85:S85"/>
-    <mergeCell ref="R103:T103"/>
-    <mergeCell ref="B82:X82"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="N86:S86"/>
-    <mergeCell ref="B98:K98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="O98:Q98"/>
-    <mergeCell ref="R98:T98"/>
-    <mergeCell ref="B97:K97"/>
-    <mergeCell ref="B96:K96"/>
-    <mergeCell ref="R96:T96"/>
-    <mergeCell ref="O96:Q96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="A94:Y94"/>
-    <mergeCell ref="B92:T92"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="N71:T71"/>
-    <mergeCell ref="B74:X74"/>
-    <mergeCell ref="A95:A114"/>
-    <mergeCell ref="L110:L114"/>
-    <mergeCell ref="L104:N104"/>
-    <mergeCell ref="B99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="R99:T99"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="B101:K101"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="O101:Q101"/>
-    <mergeCell ref="R101:T101"/>
-    <mergeCell ref="R100:T100"/>
-    <mergeCell ref="O102:Q102"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B17:X17"/>
-    <mergeCell ref="B16:X16"/>
-    <mergeCell ref="P15:X15"/>
-    <mergeCell ref="N45:T45"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A41:X41"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A126:X126"/>
-    <mergeCell ref="A80:X80"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="G2:S4"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="G6:X6"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:X8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:X7"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="B11:X11"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="B103:K103"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="O103:Q103"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="S13:V13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M110:P114 S19:V23 L22:O23 L19:O19 N77:T77 S13:V14 H13:K15 N79:T79" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -8196,10 +8196,10 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="62" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="48" min="1" max="24" man="1"/>
-    <brk id="89" max="24" man="1"/>
+    <brk id="48" max="25" man="1"/>
+    <brk id="89" max="25" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/storage/app/excelBlanco/PPT.xlsx
+++ b/storage/app/excelBlanco/PPT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\RES\storage\app\excelBlanco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6342FC-A04B-4789-BC34-A1B827EC491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5286D3-1267-4F0E-8D34-E83DCFA27D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1780,7 +1780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL137"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>

--- a/storage/app/excelBlanco/PPT.xlsx
+++ b/storage/app/excelBlanco/PPT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\RES\storage\app\excelBlanco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B7AFA3-CCB0-4887-A577-5A65CF7A5D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1B6A5A-C80C-4481-B5A8-BEF30818FAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
   <si>
     <t>Disponibilidad para viajar</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>Propósito o finalidad de la categoría</t>
+  </si>
+  <si>
+    <t>Página 1 de 4</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -961,35 +964,365 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1018,353 +1351,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1737,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL135"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A61" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60:T69"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1767,31 +1764,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="159"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
+      <c r="A1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
@@ -1832,34 +1829,34 @@
       <c r="BL1" s="3"/>
     </row>
     <row r="2" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A2" s="226"/>
-      <c r="B2" s="227"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="128" t="s">
+      <c r="A2" s="133"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="220" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="125" t="s">
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="217" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="127"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="219"/>
       <c r="Y2" s="91"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
@@ -1901,32 +1898,32 @@
       <c r="BL2" s="3"/>
     </row>
     <row r="3" spans="1:64" ht="24" x14ac:dyDescent="0.85">
-      <c r="A3" s="226"/>
-      <c r="B3" s="230"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="129" t="s">
+      <c r="A3" s="133"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
+      <c r="O3" s="220"/>
+      <c r="P3" s="220"/>
+      <c r="Q3" s="220"/>
+      <c r="R3" s="220"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="221" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
-      <c r="X3" s="129"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
       <c r="Y3" s="91"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
@@ -1968,30 +1965,32 @@
       <c r="BL3" s="3"/>
     </row>
     <row r="4" spans="1:64" ht="24" x14ac:dyDescent="0.85">
-      <c r="A4" s="226"/>
-      <c r="B4" s="233"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="132"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="220"/>
+      <c r="O4" s="220"/>
+      <c r="P4" s="220"/>
+      <c r="Q4" s="220"/>
+      <c r="R4" s="220"/>
+      <c r="S4" s="220"/>
+      <c r="T4" s="238" t="s">
+        <v>102</v>
+      </c>
+      <c r="U4" s="238"/>
+      <c r="V4" s="238"/>
+      <c r="W4" s="238"/>
+      <c r="X4" s="238"/>
       <c r="Y4" s="91"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
@@ -2051,13 +2050,13 @@
       <c r="P5" s="91"/>
       <c r="Q5" s="91"/>
       <c r="R5" s="91"/>
-      <c r="S5" s="203"/>
-      <c r="T5" s="203"/>
-      <c r="U5" s="203"/>
-      <c r="V5" s="203"/>
-      <c r="W5" s="203"/>
-      <c r="X5" s="203"/>
-      <c r="Y5" s="203"/>
+      <c r="S5" s="225"/>
+      <c r="T5" s="225"/>
+      <c r="U5" s="225"/>
+      <c r="V5" s="225"/>
+      <c r="W5" s="225"/>
+      <c r="X5" s="225"/>
+      <c r="Y5" s="225"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
@@ -2098,32 +2097,32 @@
       <c r="BL5" s="3"/>
     </row>
     <row r="6" spans="1:64" ht="19.95" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A6" s="156"/>
-      <c r="B6" s="139" t="s">
+      <c r="A6" s="131"/>
+      <c r="B6" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="179"/>
+      <c r="M6" s="179"/>
+      <c r="N6" s="179"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="179"/>
+      <c r="R6" s="179"/>
+      <c r="S6" s="179"/>
+      <c r="T6" s="179"/>
+      <c r="U6" s="179"/>
+      <c r="V6" s="179"/>
+      <c r="W6" s="179"/>
+      <c r="X6" s="180"/>
       <c r="Y6" s="91"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
@@ -2165,32 +2164,32 @@
       <c r="BL6" s="3"/>
     </row>
     <row r="7" spans="1:64" ht="19.95" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A7" s="156"/>
-      <c r="B7" s="139" t="s">
+      <c r="A7" s="131"/>
+      <c r="B7" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="143"/>
-      <c r="R7" s="143"/>
-      <c r="S7" s="143"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="143"/>
-      <c r="W7" s="143"/>
-      <c r="X7" s="144"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="156"/>
+      <c r="W7" s="156"/>
+      <c r="X7" s="157"/>
       <c r="Y7" s="91"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
@@ -2232,32 +2231,32 @@
       <c r="BL7" s="3"/>
     </row>
     <row r="8" spans="1:64" ht="19.95" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A8" s="156"/>
-      <c r="B8" s="110" t="s">
+      <c r="A8" s="131"/>
+      <c r="B8" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="134"/>
-      <c r="P8" s="134"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="134"/>
-      <c r="S8" s="134"/>
-      <c r="T8" s="134"/>
-      <c r="U8" s="134"/>
-      <c r="V8" s="134"/>
-      <c r="W8" s="134"/>
-      <c r="X8" s="135"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="179"/>
+      <c r="Q8" s="179"/>
+      <c r="R8" s="179"/>
+      <c r="S8" s="179"/>
+      <c r="T8" s="179"/>
+      <c r="U8" s="179"/>
+      <c r="V8" s="179"/>
+      <c r="W8" s="179"/>
+      <c r="X8" s="180"/>
       <c r="Y8" s="91"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
@@ -2299,32 +2298,32 @@
       <c r="BL8" s="3"/>
     </row>
     <row r="9" spans="1:64" ht="135.6" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A9" s="156"/>
-      <c r="B9" s="136" t="s">
+      <c r="A9" s="131"/>
+      <c r="B9" s="222" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="216"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="217"/>
-      <c r="J9" s="217"/>
-      <c r="K9" s="217"/>
-      <c r="L9" s="217"/>
-      <c r="M9" s="217"/>
-      <c r="N9" s="217"/>
-      <c r="O9" s="217"/>
-      <c r="P9" s="217"/>
-      <c r="Q9" s="217"/>
-      <c r="R9" s="217"/>
-      <c r="S9" s="217"/>
-      <c r="T9" s="217"/>
-      <c r="U9" s="217"/>
-      <c r="V9" s="217"/>
-      <c r="W9" s="217"/>
-      <c r="X9" s="218"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="119"/>
+      <c r="V9" s="119"/>
+      <c r="W9" s="119"/>
+      <c r="X9" s="120"/>
       <c r="Y9" s="91"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="3"/>
@@ -2368,29 +2367,29 @@
     </row>
     <row r="10" spans="1:64" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="146"/>
-      <c r="R10" s="146"/>
-      <c r="S10" s="146"/>
-      <c r="T10" s="146"/>
-      <c r="U10" s="146"/>
-      <c r="V10" s="146"/>
-      <c r="W10" s="146"/>
-      <c r="X10" s="146"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="130"/>
       <c r="Y10" s="11"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
@@ -2432,32 +2431,32 @@
       <c r="BL10" s="3"/>
     </row>
     <row r="11" spans="1:64" ht="24" x14ac:dyDescent="0.85">
-      <c r="A11" s="156"/>
-      <c r="B11" s="109" t="s">
+      <c r="A11" s="131"/>
+      <c r="B11" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="109"/>
-      <c r="X11" s="109"/>
+      <c r="C11" s="204"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="204"/>
+      <c r="K11" s="204"/>
+      <c r="L11" s="204"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="204"/>
+      <c r="O11" s="204"/>
+      <c r="P11" s="204"/>
+      <c r="Q11" s="204"/>
+      <c r="R11" s="204"/>
+      <c r="S11" s="204"/>
+      <c r="T11" s="204"/>
+      <c r="U11" s="204"/>
+      <c r="V11" s="204"/>
+      <c r="W11" s="204"/>
+      <c r="X11" s="204"/>
       <c r="Y11" s="91"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
@@ -2499,7 +2498,7 @@
       <c r="BL11" s="3"/>
     </row>
     <row r="12" spans="1:64" ht="24" x14ac:dyDescent="0.85">
-      <c r="A12" s="156"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -2572,32 +2571,32 @@
       <c r="BL12" s="3"/>
     </row>
     <row r="13" spans="1:64" ht="24" x14ac:dyDescent="0.85">
-      <c r="A13" s="156"/>
-      <c r="B13" s="110" t="s">
+      <c r="A13" s="131"/>
+      <c r="B13" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="212"/>
-      <c r="K13" s="213"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="108"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="110" t="s">
+      <c r="N13" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="161"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="121"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="111"/>
       <c r="W13" s="18"/>
       <c r="X13" s="18"/>
       <c r="Y13" s="91"/>
@@ -2641,32 +2640,32 @@
       <c r="BL13" s="3"/>
     </row>
     <row r="14" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A14" s="156"/>
-      <c r="B14" s="139" t="s">
+      <c r="A14" s="131"/>
+      <c r="B14" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="139" t="s">
+      <c r="N14" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="140"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="141"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="108"/>
-      <c r="U14" s="108"/>
-      <c r="V14" s="108"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="136"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="110"/>
       <c r="W14" s="18"/>
       <c r="X14" s="18"/>
       <c r="Y14" s="91"/>
@@ -2710,34 +2709,34 @@
       <c r="BL14" s="3"/>
     </row>
     <row r="15" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A15" s="106"/>
-      <c r="B15" s="110" t="s">
+      <c r="A15" s="132"/>
+      <c r="B15" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="161"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="111"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="19" t="s">
         <v>9</v>
       </c>
       <c r="O15" s="19"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="143"/>
-      <c r="W15" s="143"/>
-      <c r="X15" s="144"/>
+      <c r="P15" s="155"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="156"/>
+      <c r="W15" s="156"/>
+      <c r="X15" s="157"/>
       <c r="Y15" s="91"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -2779,7 +2778,7 @@
       <c r="BL15" s="3"/>
     </row>
     <row r="16" spans="1:64" ht="7.95" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A16" s="106"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="154"/>
       <c r="C16" s="154"/>
       <c r="D16" s="154"/>
@@ -2844,32 +2843,32 @@
       <c r="BL16" s="3"/>
     </row>
     <row r="17" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A17" s="106"/>
-      <c r="B17" s="164" t="s">
+      <c r="A17" s="132"/>
+      <c r="B17" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="165"/>
-      <c r="S17" s="165"/>
-      <c r="T17" s="165"/>
-      <c r="U17" s="165"/>
-      <c r="V17" s="165"/>
-      <c r="W17" s="165"/>
-      <c r="X17" s="165"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="153"/>
+      <c r="S17" s="153"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="153"/>
+      <c r="V17" s="153"/>
+      <c r="W17" s="153"/>
+      <c r="X17" s="153"/>
       <c r="Y17" s="92"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
@@ -2911,7 +2910,7 @@
       <c r="BL17" s="3"/>
     </row>
     <row r="18" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A18" s="156"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="20"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -2939,12 +2938,12 @@
         <v>47</v>
       </c>
       <c r="R18" s="7"/>
-      <c r="S18" s="145" t="s">
+      <c r="S18" s="235" t="s">
         <v>68</v>
       </c>
-      <c r="T18" s="145"/>
-      <c r="U18" s="145"/>
-      <c r="V18" s="145"/>
+      <c r="T18" s="235"/>
+      <c r="U18" s="235"/>
+      <c r="V18" s="235"/>
       <c r="W18" s="7"/>
       <c r="X18" s="60" t="s">
         <v>47</v>
@@ -2990,30 +2989,30 @@
       <c r="BL18" s="3"/>
     </row>
     <row r="19" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A19" s="156"/>
-      <c r="B19" s="206" t="s">
+      <c r="A19" s="131"/>
+      <c r="B19" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="206"/>
-      <c r="D19" s="206"/>
-      <c r="E19" s="206"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
       <c r="F19" s="7"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="160"/>
-      <c r="M19" s="160"/>
-      <c r="N19" s="160"/>
-      <c r="O19" s="160"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="23"/>
-      <c r="S19" s="208"/>
-      <c r="T19" s="208"/>
-      <c r="U19" s="208"/>
-      <c r="V19" s="208"/>
+      <c r="S19" s="161"/>
+      <c r="T19" s="161"/>
+      <c r="U19" s="161"/>
+      <c r="V19" s="161"/>
       <c r="W19" s="25"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="92"/>
@@ -3057,30 +3056,30 @@
       <c r="BL19" s="3"/>
     </row>
     <row r="20" spans="1:64" ht="16.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A20" s="156"/>
-      <c r="B20" s="206" t="s">
+      <c r="A20" s="131"/>
+      <c r="B20" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="206"/>
-      <c r="D20" s="206"/>
-      <c r="E20" s="206"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
       <c r="F20" s="7"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="205"/>
-      <c r="L20" s="219"/>
-      <c r="M20" s="219"/>
-      <c r="N20" s="219"/>
+      <c r="K20" s="158"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="27"/>
       <c r="R20" s="23"/>
-      <c r="S20" s="208"/>
-      <c r="T20" s="208"/>
-      <c r="U20" s="208"/>
-      <c r="V20" s="208"/>
+      <c r="S20" s="161"/>
+      <c r="T20" s="161"/>
+      <c r="U20" s="161"/>
+      <c r="V20" s="161"/>
       <c r="W20" s="25"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="92"/>
@@ -3124,19 +3123,19 @@
       <c r="BL20" s="3"/>
     </row>
     <row r="21" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A21" s="156"/>
-      <c r="B21" s="206" t="s">
+      <c r="A21" s="131"/>
+      <c r="B21" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="206"/>
-      <c r="D21" s="206"/>
-      <c r="E21" s="206"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
       <c r="F21" s="7"/>
       <c r="G21" s="28"/>
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="205"/>
+      <c r="K21" s="158"/>
       <c r="L21" s="7" t="s">
         <v>51</v>
       </c>
@@ -3148,10 +3147,10 @@
         <v>47</v>
       </c>
       <c r="R21" s="8"/>
-      <c r="S21" s="208"/>
-      <c r="T21" s="208"/>
-      <c r="U21" s="208"/>
-      <c r="V21" s="208"/>
+      <c r="S21" s="161"/>
+      <c r="T21" s="161"/>
+      <c r="U21" s="161"/>
+      <c r="V21" s="161"/>
       <c r="W21" s="25"/>
       <c r="X21" s="26"/>
       <c r="Y21" s="92"/>
@@ -3195,30 +3194,30 @@
       <c r="BL21" s="3"/>
     </row>
     <row r="22" spans="1:64" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A22" s="156"/>
-      <c r="B22" s="206" t="s">
+      <c r="A22" s="131"/>
+      <c r="B22" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="206"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
       <c r="F22" s="7"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="23"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="205"/>
-      <c r="L22" s="160"/>
-      <c r="M22" s="160"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="208"/>
-      <c r="T22" s="208"/>
-      <c r="U22" s="208"/>
-      <c r="V22" s="208"/>
+      <c r="S22" s="161"/>
+      <c r="T22" s="161"/>
+      <c r="U22" s="161"/>
+      <c r="V22" s="161"/>
       <c r="W22" s="25"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="92"/>
@@ -3268,8 +3267,8 @@
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="207"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
@@ -3328,33 +3327,33 @@
     </row>
     <row r="24" spans="1:64" ht="16.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A24" s="11"/>
-      <c r="B24" s="236" t="s">
+      <c r="B24" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="237"/>
-      <c r="D24" s="237"/>
-      <c r="E24" s="237"/>
-      <c r="F24" s="237"/>
-      <c r="G24" s="237"/>
-      <c r="H24" s="237"/>
-      <c r="I24" s="237"/>
-      <c r="J24" s="237"/>
-      <c r="K24" s="237"/>
-      <c r="L24" s="237"/>
-      <c r="M24" s="237"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="147"/>
       <c r="N24" s="32"/>
-      <c r="O24" s="238" t="s">
+      <c r="O24" s="148" t="s">
         <v>58</v>
       </c>
-      <c r="P24" s="238"/>
-      <c r="Q24" s="238"/>
-      <c r="R24" s="238"/>
-      <c r="S24" s="238"/>
-      <c r="T24" s="238"/>
-      <c r="U24" s="238"/>
-      <c r="V24" s="238"/>
-      <c r="W24" s="238"/>
-      <c r="X24" s="238"/>
+      <c r="P24" s="148"/>
+      <c r="Q24" s="148"/>
+      <c r="R24" s="148"/>
+      <c r="S24" s="148"/>
+      <c r="T24" s="148"/>
+      <c r="U24" s="148"/>
+      <c r="V24" s="148"/>
+      <c r="W24" s="148"/>
+      <c r="X24" s="148"/>
       <c r="Y24" s="92"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
@@ -3397,29 +3396,29 @@
     </row>
     <row r="25" spans="1:64" ht="19.95" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A25" s="11"/>
-      <c r="B25" s="220"/>
-      <c r="C25" s="221"/>
-      <c r="D25" s="221"/>
-      <c r="E25" s="221"/>
-      <c r="F25" s="221"/>
-      <c r="G25" s="221"/>
-      <c r="H25" s="221"/>
-      <c r="I25" s="221"/>
-      <c r="J25" s="221"/>
-      <c r="K25" s="221"/>
-      <c r="L25" s="221"/>
-      <c r="M25" s="222"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="126"/>
       <c r="N25" s="27"/>
-      <c r="O25" s="239"/>
-      <c r="P25" s="239"/>
-      <c r="Q25" s="239"/>
-      <c r="R25" s="239"/>
-      <c r="S25" s="239"/>
-      <c r="T25" s="239"/>
-      <c r="U25" s="239"/>
-      <c r="V25" s="239"/>
-      <c r="W25" s="239"/>
-      <c r="X25" s="240"/>
+      <c r="O25" s="149"/>
+      <c r="P25" s="149"/>
+      <c r="Q25" s="149"/>
+      <c r="R25" s="149"/>
+      <c r="S25" s="149"/>
+      <c r="T25" s="149"/>
+      <c r="U25" s="149"/>
+      <c r="V25" s="149"/>
+      <c r="W25" s="149"/>
+      <c r="X25" s="150"/>
       <c r="Y25" s="92"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
@@ -3462,18 +3461,18 @@
     </row>
     <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A26" s="11"/>
-      <c r="B26" s="223"/>
-      <c r="C26" s="224"/>
-      <c r="D26" s="224"/>
-      <c r="E26" s="224"/>
-      <c r="F26" s="224"/>
-      <c r="G26" s="224"/>
-      <c r="H26" s="224"/>
-      <c r="I26" s="224"/>
-      <c r="J26" s="224"/>
-      <c r="K26" s="224"/>
-      <c r="L26" s="224"/>
-      <c r="M26" s="225"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="129"/>
       <c r="N26" s="31"/>
       <c r="O26" s="34"/>
       <c r="P26" s="34"/>
@@ -3594,13 +3593,13 @@
     </row>
     <row r="28" spans="1:64" ht="24" x14ac:dyDescent="0.85">
       <c r="A28" s="11"/>
-      <c r="B28" s="214" t="s">
+      <c r="B28" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="215"/>
-      <c r="D28" s="215"/>
-      <c r="E28" s="215"/>
-      <c r="F28" s="215"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
       <c r="G28" s="95"/>
       <c r="H28" s="94" t="s">
         <v>15</v>
@@ -3610,21 +3609,21 @@
         <v>47</v>
       </c>
       <c r="K28" s="23"/>
-      <c r="L28" s="204" t="s">
+      <c r="L28" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="M28" s="204"/>
-      <c r="N28" s="204"/>
-      <c r="O28" s="204"/>
-      <c r="P28" s="204"/>
-      <c r="Q28" s="204"/>
-      <c r="R28" s="204"/>
-      <c r="S28" s="204"/>
-      <c r="T28" s="204"/>
-      <c r="U28" s="204"/>
-      <c r="V28" s="204"/>
-      <c r="W28" s="204"/>
-      <c r="X28" s="204"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="151"/>
+      <c r="P28" s="151"/>
+      <c r="Q28" s="151"/>
+      <c r="R28" s="151"/>
+      <c r="S28" s="151"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="151"/>
+      <c r="V28" s="151"/>
+      <c r="W28" s="151"/>
+      <c r="X28" s="151"/>
       <c r="Y28" s="92"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
@@ -3667,11 +3666,11 @@
     </row>
     <row r="29" spans="1:64" ht="25.8" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A29" s="11"/>
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="228"/>
       <c r="E29" s="36"/>
       <c r="F29" s="22"/>
       <c r="G29" s="36"/>
@@ -3679,19 +3678,19 @@
       <c r="I29" s="23"/>
       <c r="J29" s="18"/>
       <c r="K29" s="23"/>
-      <c r="L29" s="209"/>
-      <c r="M29" s="209"/>
-      <c r="N29" s="209"/>
-      <c r="O29" s="209"/>
-      <c r="P29" s="209"/>
-      <c r="Q29" s="209"/>
-      <c r="R29" s="209"/>
-      <c r="S29" s="209"/>
-      <c r="T29" s="209"/>
-      <c r="U29" s="209"/>
-      <c r="V29" s="209"/>
-      <c r="W29" s="209"/>
-      <c r="X29" s="210"/>
+      <c r="L29" s="162"/>
+      <c r="M29" s="162"/>
+      <c r="N29" s="162"/>
+      <c r="O29" s="162"/>
+      <c r="P29" s="162"/>
+      <c r="Q29" s="162"/>
+      <c r="R29" s="162"/>
+      <c r="S29" s="162"/>
+      <c r="T29" s="162"/>
+      <c r="U29" s="162"/>
+      <c r="V29" s="162"/>
+      <c r="W29" s="162"/>
+      <c r="X29" s="163"/>
       <c r="Y29" s="92"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
@@ -3734,11 +3733,11 @@
     </row>
     <row r="30" spans="1:64" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A30" s="11"/>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="115"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="166"/>
       <c r="E30" s="36"/>
       <c r="F30" s="39"/>
       <c r="G30" s="36"/>
@@ -3746,19 +3745,19 @@
       <c r="I30" s="23"/>
       <c r="J30" s="18"/>
       <c r="K30" s="23"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="120"/>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="120"/>
-      <c r="X30" s="121"/>
+      <c r="L30" s="229"/>
+      <c r="M30" s="230"/>
+      <c r="N30" s="230"/>
+      <c r="O30" s="230"/>
+      <c r="P30" s="230"/>
+      <c r="Q30" s="230"/>
+      <c r="R30" s="230"/>
+      <c r="S30" s="230"/>
+      <c r="T30" s="230"/>
+      <c r="U30" s="230"/>
+      <c r="V30" s="230"/>
+      <c r="W30" s="230"/>
+      <c r="X30" s="231"/>
       <c r="Y30" s="92"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
@@ -3801,11 +3800,11 @@
     </row>
     <row r="31" spans="1:64" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A31" s="11"/>
-      <c r="B31" s="113" t="s">
+      <c r="B31" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="114"/>
-      <c r="D31" s="115"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="166"/>
       <c r="E31" s="36"/>
       <c r="F31" s="39"/>
       <c r="G31" s="36"/>
@@ -3813,21 +3812,21 @@
       <c r="I31" s="23"/>
       <c r="J31" s="18"/>
       <c r="K31" s="23"/>
-      <c r="L31" s="200" t="s">
+      <c r="L31" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="M31" s="200"/>
-      <c r="N31" s="200"/>
-      <c r="O31" s="200"/>
-      <c r="P31" s="200"/>
-      <c r="Q31" s="200"/>
-      <c r="R31" s="200"/>
-      <c r="S31" s="200"/>
-      <c r="T31" s="200"/>
-      <c r="U31" s="200"/>
-      <c r="V31" s="200"/>
-      <c r="W31" s="200"/>
-      <c r="X31" s="200"/>
+      <c r="M31" s="181"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="181"/>
+      <c r="S31" s="181"/>
+      <c r="T31" s="181"/>
+      <c r="U31" s="181"/>
+      <c r="V31" s="181"/>
+      <c r="W31" s="181"/>
+      <c r="X31" s="181"/>
       <c r="Y31" s="92"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
@@ -3880,19 +3879,19 @@
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
-      <c r="L32" s="201"/>
-      <c r="M32" s="201"/>
-      <c r="N32" s="201"/>
-      <c r="O32" s="201"/>
-      <c r="P32" s="201"/>
-      <c r="Q32" s="201"/>
-      <c r="R32" s="201"/>
-      <c r="S32" s="201"/>
-      <c r="T32" s="201"/>
-      <c r="U32" s="201"/>
-      <c r="V32" s="201"/>
-      <c r="W32" s="201"/>
-      <c r="X32" s="202"/>
+      <c r="L32" s="182"/>
+      <c r="M32" s="182"/>
+      <c r="N32" s="182"/>
+      <c r="O32" s="182"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="182"/>
+      <c r="R32" s="182"/>
+      <c r="S32" s="182"/>
+      <c r="T32" s="182"/>
+      <c r="U32" s="182"/>
+      <c r="V32" s="182"/>
+      <c r="W32" s="182"/>
+      <c r="X32" s="183"/>
       <c r="Y32" s="92"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
@@ -3999,31 +3998,31 @@
       <c r="BL33" s="3"/>
     </row>
     <row r="34" spans="1:64" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="106"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="106"/>
-      <c r="N34" s="106"/>
-      <c r="O34" s="106"/>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="106"/>
-      <c r="R34" s="106"/>
-      <c r="S34" s="106"/>
-      <c r="T34" s="106"/>
-      <c r="U34" s="106"/>
-      <c r="V34" s="106"/>
-      <c r="W34" s="106"/>
-      <c r="X34" s="106"/>
-      <c r="Y34" s="106"/>
+      <c r="A34" s="132"/>
+      <c r="B34" s="132"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="132"/>
+      <c r="O34" s="132"/>
+      <c r="P34" s="132"/>
+      <c r="Q34" s="132"/>
+      <c r="R34" s="132"/>
+      <c r="S34" s="132"/>
+      <c r="T34" s="132"/>
+      <c r="U34" s="132"/>
+      <c r="V34" s="132"/>
+      <c r="W34" s="132"/>
+      <c r="X34" s="132"/>
+      <c r="Y34" s="132"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
@@ -4065,31 +4064,31 @@
     </row>
     <row r="35" spans="1:64" ht="24" x14ac:dyDescent="0.85">
       <c r="A35" s="11"/>
-      <c r="B35" s="164" t="s">
+      <c r="B35" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="165"/>
-      <c r="L35" s="165"/>
-      <c r="M35" s="165"/>
-      <c r="N35" s="165"/>
-      <c r="O35" s="165"/>
-      <c r="P35" s="165"/>
-      <c r="Q35" s="165"/>
-      <c r="R35" s="165"/>
-      <c r="S35" s="165"/>
-      <c r="T35" s="165"/>
-      <c r="U35" s="165"/>
-      <c r="V35" s="165"/>
-      <c r="W35" s="165"/>
-      <c r="X35" s="165"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="153"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="153"/>
+      <c r="N35" s="153"/>
+      <c r="O35" s="153"/>
+      <c r="P35" s="153"/>
+      <c r="Q35" s="153"/>
+      <c r="R35" s="153"/>
+      <c r="S35" s="153"/>
+      <c r="T35" s="153"/>
+      <c r="U35" s="153"/>
+      <c r="V35" s="153"/>
+      <c r="W35" s="153"/>
+      <c r="X35" s="153"/>
       <c r="Y35" s="92"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
@@ -4132,34 +4131,34 @@
     </row>
     <row r="36" spans="1:64" ht="21" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A36" s="11"/>
-      <c r="B36" s="194" t="s">
+      <c r="B36" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="195"/>
-      <c r="D36" s="196"/>
-      <c r="E36" s="185" t="s">
+      <c r="C36" s="170"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="187"/>
+      <c r="F36" s="192"/>
+      <c r="G36" s="192"/>
+      <c r="H36" s="193"/>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
-      <c r="N36" s="194" t="s">
+      <c r="N36" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="O36" s="195"/>
-      <c r="P36" s="196"/>
-      <c r="Q36" s="185" t="s">
+      <c r="O36" s="170"/>
+      <c r="P36" s="171"/>
+      <c r="Q36" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="R36" s="186"/>
-      <c r="S36" s="186"/>
-      <c r="T36" s="186"/>
-      <c r="U36" s="187"/>
+      <c r="R36" s="192"/>
+      <c r="S36" s="192"/>
+      <c r="T36" s="192"/>
+      <c r="U36" s="193"/>
       <c r="V36" s="25"/>
       <c r="W36" s="25"/>
       <c r="X36" s="25"/>
@@ -4205,9 +4204,9 @@
     </row>
     <row r="37" spans="1:64" ht="19.8" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A37" s="11"/>
-      <c r="B37" s="197"/>
-      <c r="C37" s="198"/>
-      <c r="D37" s="199"/>
+      <c r="B37" s="172"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="174"/>
       <c r="E37" s="6" t="s">
         <v>40</v>
       </c>
@@ -4227,9 +4226,9 @@
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
-      <c r="N37" s="197"/>
-      <c r="O37" s="198"/>
-      <c r="P37" s="199"/>
+      <c r="N37" s="172"/>
+      <c r="O37" s="173"/>
+      <c r="P37" s="174"/>
       <c r="Q37" s="6" t="s">
         <v>40</v>
       </c>
@@ -4292,11 +4291,11 @@
     </row>
     <row r="38" spans="1:64" ht="26.4" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A38" s="11"/>
-      <c r="B38" s="191" t="s">
+      <c r="B38" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="192"/>
-      <c r="D38" s="193"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="177"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
@@ -4306,9 +4305,9 @@
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
       <c r="M38" s="27"/>
-      <c r="N38" s="191"/>
-      <c r="O38" s="192"/>
-      <c r="P38" s="193"/>
+      <c r="N38" s="175"/>
+      <c r="O38" s="176"/>
+      <c r="P38" s="177"/>
       <c r="Q38" s="24"/>
       <c r="R38" s="24"/>
       <c r="S38" s="24"/>
@@ -4359,11 +4358,11 @@
     </row>
     <row r="39" spans="1:64" ht="26.4" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A39" s="11"/>
-      <c r="B39" s="191" t="s">
+      <c r="B39" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="192"/>
-      <c r="D39" s="193"/>
+      <c r="C39" s="176"/>
+      <c r="D39" s="177"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
@@ -4373,9 +4372,9 @@
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
       <c r="M39" s="27"/>
-      <c r="N39" s="191"/>
-      <c r="O39" s="192"/>
-      <c r="P39" s="193"/>
+      <c r="N39" s="175"/>
+      <c r="O39" s="176"/>
+      <c r="P39" s="177"/>
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
       <c r="S39" s="24"/>
@@ -4426,11 +4425,11 @@
     </row>
     <row r="40" spans="1:64" ht="26.4" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A40" s="11"/>
-      <c r="B40" s="160" t="s">
+      <c r="B40" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="160"/>
-      <c r="D40" s="160"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="123"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
@@ -4440,9 +4439,9 @@
       <c r="K40" s="46"/>
       <c r="L40" s="46"/>
       <c r="M40" s="46"/>
-      <c r="N40" s="160"/>
-      <c r="O40" s="160"/>
-      <c r="P40" s="160"/>
+      <c r="N40" s="123"/>
+      <c r="O40" s="123"/>
+      <c r="P40" s="123"/>
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
       <c r="S40" s="24"/>
@@ -4492,31 +4491,31 @@
       <c r="BL40" s="3"/>
     </row>
     <row r="41" spans="1:64" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="106"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="106"/>
-      <c r="L41" s="106"/>
-      <c r="M41" s="106"/>
-      <c r="N41" s="106"/>
-      <c r="O41" s="106"/>
-      <c r="P41" s="106"/>
-      <c r="Q41" s="106"/>
-      <c r="R41" s="106"/>
-      <c r="S41" s="106"/>
-      <c r="T41" s="106"/>
-      <c r="U41" s="106"/>
-      <c r="V41" s="106"/>
-      <c r="W41" s="106"/>
-      <c r="X41" s="106"/>
-      <c r="Y41" s="106"/>
+      <c r="A41" s="132"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="132"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="132"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="132"/>
+      <c r="O41" s="132"/>
+      <c r="P41" s="132"/>
+      <c r="Q41" s="132"/>
+      <c r="R41" s="132"/>
+      <c r="S41" s="132"/>
+      <c r="T41" s="132"/>
+      <c r="U41" s="132"/>
+      <c r="V41" s="132"/>
+      <c r="W41" s="132"/>
+      <c r="X41" s="132"/>
+      <c r="Y41" s="132"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
@@ -4557,31 +4556,31 @@
       <c r="BL41" s="3"/>
     </row>
     <row r="42" spans="1:64" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="106"/>
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="106"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="106"/>
-      <c r="O42" s="106"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="106"/>
-      <c r="S42" s="106"/>
-      <c r="T42" s="106"/>
-      <c r="U42" s="106"/>
-      <c r="V42" s="106"/>
-      <c r="W42" s="106"/>
-      <c r="X42" s="106"/>
-      <c r="Y42" s="106"/>
+      <c r="A42" s="132"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="132"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="132"/>
+      <c r="N42" s="132"/>
+      <c r="O42" s="132"/>
+      <c r="P42" s="132"/>
+      <c r="Q42" s="132"/>
+      <c r="R42" s="132"/>
+      <c r="S42" s="132"/>
+      <c r="T42" s="132"/>
+      <c r="U42" s="132"/>
+      <c r="V42" s="132"/>
+      <c r="W42" s="132"/>
+      <c r="X42" s="132"/>
+      <c r="Y42" s="132"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
@@ -4623,29 +4622,29 @@
     </row>
     <row r="43" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
-      <c r="M43" s="146"/>
-      <c r="N43" s="146"/>
-      <c r="O43" s="146"/>
-      <c r="P43" s="146"/>
-      <c r="Q43" s="146"/>
-      <c r="R43" s="146"/>
-      <c r="S43" s="146"/>
-      <c r="T43" s="146"/>
-      <c r="U43" s="146"/>
-      <c r="V43" s="146"/>
-      <c r="W43" s="146"/>
-      <c r="X43" s="146"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="130"/>
+      <c r="M43" s="130"/>
+      <c r="N43" s="130"/>
+      <c r="O43" s="130"/>
+      <c r="P43" s="130"/>
+      <c r="Q43" s="130"/>
+      <c r="R43" s="130"/>
+      <c r="S43" s="130"/>
+      <c r="T43" s="130"/>
+      <c r="U43" s="130"/>
+      <c r="V43" s="130"/>
+      <c r="W43" s="130"/>
+      <c r="X43" s="130"/>
       <c r="Y43" s="12"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
@@ -4688,33 +4687,33 @@
     </row>
     <row r="44" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A44" s="11"/>
-      <c r="B44" s="188" t="s">
+      <c r="B44" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="175"/>
-      <c r="D44" s="175"/>
-      <c r="E44" s="175"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="175"/>
-      <c r="H44" s="175"/>
-      <c r="I44" s="175"/>
-      <c r="J44" s="175"/>
-      <c r="K44" s="175"/>
-      <c r="L44" s="175"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="167"/>
+      <c r="E44" s="167"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="167"/>
+      <c r="H44" s="167"/>
+      <c r="I44" s="167"/>
+      <c r="J44" s="167"/>
+      <c r="K44" s="167"/>
+      <c r="L44" s="167"/>
       <c r="M44" s="47"/>
-      <c r="N44" s="175" t="s">
+      <c r="N44" s="167" t="s">
         <v>72</v>
       </c>
-      <c r="O44" s="175"/>
-      <c r="P44" s="175"/>
-      <c r="Q44" s="175"/>
-      <c r="R44" s="175"/>
-      <c r="S44" s="175"/>
-      <c r="T44" s="175"/>
-      <c r="U44" s="175"/>
-      <c r="V44" s="175"/>
-      <c r="W44" s="175"/>
-      <c r="X44" s="175"/>
+      <c r="O44" s="167"/>
+      <c r="P44" s="167"/>
+      <c r="Q44" s="167"/>
+      <c r="R44" s="167"/>
+      <c r="S44" s="167"/>
+      <c r="T44" s="167"/>
+      <c r="U44" s="167"/>
+      <c r="V44" s="167"/>
+      <c r="W44" s="167"/>
+      <c r="X44" s="167"/>
       <c r="Y44" s="92"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
@@ -4757,15 +4756,15 @@
     </row>
     <row r="45" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A45" s="11"/>
-      <c r="B45" s="122" t="s">
+      <c r="B45" s="232" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="124"/>
+      <c r="C45" s="233"/>
+      <c r="D45" s="233"/>
+      <c r="E45" s="233"/>
+      <c r="F45" s="233"/>
+      <c r="G45" s="233"/>
+      <c r="H45" s="234"/>
       <c r="I45" s="48" t="s">
         <v>61</v>
       </c>
@@ -4777,15 +4776,15 @@
         <v>47</v>
       </c>
       <c r="M45" s="27"/>
-      <c r="N45" s="122" t="s">
+      <c r="N45" s="232" t="s">
         <v>59</v>
       </c>
-      <c r="O45" s="123"/>
-      <c r="P45" s="123"/>
-      <c r="Q45" s="123"/>
-      <c r="R45" s="123"/>
-      <c r="S45" s="123"/>
-      <c r="T45" s="124"/>
+      <c r="O45" s="233"/>
+      <c r="P45" s="233"/>
+      <c r="Q45" s="233"/>
+      <c r="R45" s="233"/>
+      <c r="S45" s="233"/>
+      <c r="T45" s="234"/>
       <c r="U45" s="48" t="s">
         <v>61</v>
       </c>
@@ -4838,25 +4837,25 @@
     </row>
     <row r="46" spans="1:64" ht="25.8" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A46" s="11"/>
-      <c r="B46" s="151"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="152"/>
-      <c r="F46" s="152"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="153"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="114"/>
       <c r="I46" s="50"/>
       <c r="J46" s="50"/>
       <c r="K46" s="49"/>
       <c r="L46" s="51"/>
       <c r="M46" s="27"/>
-      <c r="N46" s="151"/>
-      <c r="O46" s="152"/>
-      <c r="P46" s="152"/>
-      <c r="Q46" s="152"/>
-      <c r="R46" s="152"/>
-      <c r="S46" s="152"/>
-      <c r="T46" s="153"/>
+      <c r="N46" s="112"/>
+      <c r="O46" s="113"/>
+      <c r="P46" s="113"/>
+      <c r="Q46" s="113"/>
+      <c r="R46" s="113"/>
+      <c r="S46" s="113"/>
+      <c r="T46" s="114"/>
       <c r="U46" s="50"/>
       <c r="V46" s="50"/>
       <c r="W46" s="40"/>
@@ -4903,25 +4902,25 @@
     </row>
     <row r="47" spans="1:64" ht="25.8" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A47" s="11"/>
-      <c r="B47" s="151"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="152"/>
-      <c r="F47" s="152"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="153"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="114"/>
       <c r="I47" s="50"/>
       <c r="J47" s="50"/>
       <c r="K47" s="49"/>
       <c r="L47" s="51"/>
       <c r="M47" s="27"/>
-      <c r="N47" s="151"/>
-      <c r="O47" s="152"/>
-      <c r="P47" s="152"/>
-      <c r="Q47" s="152"/>
-      <c r="R47" s="152"/>
-      <c r="S47" s="152"/>
-      <c r="T47" s="153"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="113"/>
+      <c r="P47" s="113"/>
+      <c r="Q47" s="113"/>
+      <c r="R47" s="113"/>
+      <c r="S47" s="113"/>
+      <c r="T47" s="114"/>
       <c r="U47" s="50"/>
       <c r="V47" s="50"/>
       <c r="W47" s="40"/>
@@ -4968,25 +4967,25 @@
     </row>
     <row r="48" spans="1:64" ht="25.8" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A48" s="11"/>
-      <c r="B48" s="151"/>
-      <c r="C48" s="152"/>
-      <c r="D48" s="152"/>
-      <c r="E48" s="152"/>
-      <c r="F48" s="152"/>
-      <c r="G48" s="152"/>
-      <c r="H48" s="153"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="114"/>
       <c r="I48" s="50"/>
       <c r="J48" s="50"/>
       <c r="K48" s="49"/>
       <c r="L48" s="51"/>
       <c r="M48" s="27"/>
-      <c r="N48" s="151"/>
-      <c r="O48" s="152"/>
-      <c r="P48" s="152"/>
-      <c r="Q48" s="152"/>
-      <c r="R48" s="152"/>
-      <c r="S48" s="152"/>
-      <c r="T48" s="153"/>
+      <c r="N48" s="112"/>
+      <c r="O48" s="113"/>
+      <c r="P48" s="113"/>
+      <c r="Q48" s="113"/>
+      <c r="R48" s="113"/>
+      <c r="S48" s="113"/>
+      <c r="T48" s="114"/>
       <c r="U48" s="50"/>
       <c r="V48" s="50"/>
       <c r="W48" s="40"/>
@@ -5033,25 +5032,25 @@
     </row>
     <row r="49" spans="1:64" ht="25.8" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A49" s="11"/>
-      <c r="B49" s="151"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="152"/>
-      <c r="F49" s="152"/>
-      <c r="G49" s="152"/>
-      <c r="H49" s="153"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="114"/>
       <c r="I49" s="50"/>
       <c r="J49" s="50"/>
       <c r="K49" s="40"/>
       <c r="L49" s="51"/>
       <c r="M49" s="53"/>
-      <c r="N49" s="152"/>
-      <c r="O49" s="152"/>
-      <c r="P49" s="152"/>
-      <c r="Q49" s="152"/>
-      <c r="R49" s="152"/>
-      <c r="S49" s="152"/>
-      <c r="T49" s="153"/>
+      <c r="N49" s="113"/>
+      <c r="O49" s="113"/>
+      <c r="P49" s="113"/>
+      <c r="Q49" s="113"/>
+      <c r="R49" s="113"/>
+      <c r="S49" s="113"/>
+      <c r="T49" s="114"/>
       <c r="U49" s="50"/>
       <c r="V49" s="54"/>
       <c r="W49" s="55"/>
@@ -5098,25 +5097,25 @@
     </row>
     <row r="50" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A50" s="11"/>
-      <c r="B50" s="151"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="152"/>
-      <c r="E50" s="152"/>
-      <c r="F50" s="152"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="153"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="113"/>
+      <c r="F50" s="113"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="114"/>
       <c r="I50" s="50"/>
       <c r="J50" s="50"/>
       <c r="K50" s="49"/>
       <c r="L50" s="51"/>
       <c r="M50" s="27"/>
-      <c r="N50" s="151"/>
-      <c r="O50" s="152"/>
-      <c r="P50" s="152"/>
-      <c r="Q50" s="152"/>
-      <c r="R50" s="152"/>
-      <c r="S50" s="152"/>
-      <c r="T50" s="153"/>
+      <c r="N50" s="112"/>
+      <c r="O50" s="113"/>
+      <c r="P50" s="113"/>
+      <c r="Q50" s="113"/>
+      <c r="R50" s="113"/>
+      <c r="S50" s="113"/>
+      <c r="T50" s="114"/>
       <c r="U50" s="50"/>
       <c r="V50" s="50"/>
       <c r="W50" s="40"/>
@@ -5163,25 +5162,25 @@
     </row>
     <row r="51" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A51" s="11"/>
-      <c r="B51" s="151"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="152"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="153"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="114"/>
       <c r="I51" s="50"/>
       <c r="J51" s="50"/>
       <c r="K51" s="49"/>
       <c r="L51" s="51"/>
       <c r="M51" s="27"/>
-      <c r="N51" s="151"/>
-      <c r="O51" s="152"/>
-      <c r="P51" s="152"/>
-      <c r="Q51" s="152"/>
-      <c r="R51" s="152"/>
-      <c r="S51" s="152"/>
-      <c r="T51" s="153"/>
+      <c r="N51" s="112"/>
+      <c r="O51" s="113"/>
+      <c r="P51" s="113"/>
+      <c r="Q51" s="113"/>
+      <c r="R51" s="113"/>
+      <c r="S51" s="113"/>
+      <c r="T51" s="114"/>
       <c r="U51" s="50"/>
       <c r="V51" s="50"/>
       <c r="W51" s="40"/>
@@ -5228,25 +5227,25 @@
     </row>
     <row r="52" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A52" s="11"/>
-      <c r="B52" s="151"/>
-      <c r="C52" s="152"/>
-      <c r="D52" s="152"/>
-      <c r="E52" s="152"/>
-      <c r="F52" s="152"/>
-      <c r="G52" s="152"/>
-      <c r="H52" s="153"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="114"/>
       <c r="I52" s="50"/>
       <c r="J52" s="50"/>
       <c r="K52" s="49"/>
       <c r="L52" s="51"/>
       <c r="M52" s="27"/>
-      <c r="N52" s="151"/>
-      <c r="O52" s="152"/>
-      <c r="P52" s="152"/>
-      <c r="Q52" s="152"/>
-      <c r="R52" s="152"/>
-      <c r="S52" s="152"/>
-      <c r="T52" s="153"/>
+      <c r="N52" s="112"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="113"/>
+      <c r="Q52" s="113"/>
+      <c r="R52" s="113"/>
+      <c r="S52" s="113"/>
+      <c r="T52" s="114"/>
       <c r="U52" s="50"/>
       <c r="V52" s="50"/>
       <c r="W52" s="40"/>
@@ -5293,25 +5292,25 @@
     </row>
     <row r="53" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A53" s="11"/>
-      <c r="B53" s="151"/>
-      <c r="C53" s="152"/>
-      <c r="D53" s="152"/>
-      <c r="E53" s="152"/>
-      <c r="F53" s="152"/>
-      <c r="G53" s="152"/>
-      <c r="H53" s="153"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="114"/>
       <c r="I53" s="50"/>
       <c r="J53" s="50"/>
       <c r="K53" s="49"/>
       <c r="L53" s="51"/>
       <c r="M53" s="27"/>
-      <c r="N53" s="151"/>
-      <c r="O53" s="152"/>
-      <c r="P53" s="152"/>
-      <c r="Q53" s="152"/>
-      <c r="R53" s="152"/>
-      <c r="S53" s="152"/>
-      <c r="T53" s="153"/>
+      <c r="N53" s="112"/>
+      <c r="O53" s="113"/>
+      <c r="P53" s="113"/>
+      <c r="Q53" s="113"/>
+      <c r="R53" s="113"/>
+      <c r="S53" s="113"/>
+      <c r="T53" s="114"/>
       <c r="U53" s="50"/>
       <c r="V53" s="50"/>
       <c r="W53" s="40"/>
@@ -5358,25 +5357,25 @@
     </row>
     <row r="54" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A54" s="11"/>
-      <c r="B54" s="151"/>
-      <c r="C54" s="152"/>
-      <c r="D54" s="152"/>
-      <c r="E54" s="152"/>
-      <c r="F54" s="152"/>
-      <c r="G54" s="152"/>
-      <c r="H54" s="153"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="114"/>
       <c r="I54" s="50"/>
       <c r="J54" s="50"/>
       <c r="K54" s="49"/>
       <c r="L54" s="51"/>
       <c r="M54" s="27"/>
-      <c r="N54" s="151"/>
-      <c r="O54" s="152"/>
-      <c r="P54" s="152"/>
-      <c r="Q54" s="152"/>
-      <c r="R54" s="152"/>
-      <c r="S54" s="152"/>
-      <c r="T54" s="153"/>
+      <c r="N54" s="112"/>
+      <c r="O54" s="113"/>
+      <c r="P54" s="113"/>
+      <c r="Q54" s="113"/>
+      <c r="R54" s="113"/>
+      <c r="S54" s="113"/>
+      <c r="T54" s="114"/>
       <c r="U54" s="50"/>
       <c r="V54" s="50"/>
       <c r="W54" s="40"/>
@@ -5385,25 +5384,25 @@
     </row>
     <row r="55" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A55" s="11"/>
-      <c r="B55" s="151"/>
-      <c r="C55" s="152"/>
-      <c r="D55" s="152"/>
-      <c r="E55" s="152"/>
-      <c r="F55" s="152"/>
-      <c r="G55" s="152"/>
-      <c r="H55" s="153"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="114"/>
       <c r="I55" s="50"/>
       <c r="J55" s="50"/>
       <c r="K55" s="49"/>
       <c r="L55" s="51"/>
       <c r="M55" s="27"/>
-      <c r="N55" s="151"/>
-      <c r="O55" s="152"/>
-      <c r="P55" s="152"/>
-      <c r="Q55" s="152"/>
-      <c r="R55" s="152"/>
-      <c r="S55" s="152"/>
-      <c r="T55" s="153"/>
+      <c r="N55" s="112"/>
+      <c r="O55" s="113"/>
+      <c r="P55" s="113"/>
+      <c r="Q55" s="113"/>
+      <c r="R55" s="113"/>
+      <c r="S55" s="113"/>
+      <c r="T55" s="114"/>
       <c r="U55" s="50"/>
       <c r="V55" s="50"/>
       <c r="W55" s="40"/>
@@ -5412,29 +5411,29 @@
     </row>
     <row r="56" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A56" s="10"/>
-      <c r="B56" s="189" t="s">
+      <c r="B56" s="184" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="190"/>
-      <c r="D56" s="190"/>
-      <c r="E56" s="190"/>
-      <c r="F56" s="190"/>
-      <c r="G56" s="190"/>
-      <c r="H56" s="190"/>
+      <c r="C56" s="185"/>
+      <c r="D56" s="185"/>
+      <c r="E56" s="185"/>
+      <c r="F56" s="185"/>
+      <c r="G56" s="185"/>
+      <c r="H56" s="185"/>
       <c r="I56" s="46"/>
       <c r="J56" s="56"/>
       <c r="K56" s="33"/>
       <c r="L56" s="57"/>
       <c r="M56" s="46"/>
-      <c r="N56" s="190" t="s">
+      <c r="N56" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="O56" s="190"/>
-      <c r="P56" s="190"/>
-      <c r="Q56" s="190"/>
-      <c r="R56" s="190"/>
-      <c r="S56" s="190"/>
-      <c r="T56" s="190"/>
+      <c r="O56" s="185"/>
+      <c r="P56" s="185"/>
+      <c r="Q56" s="185"/>
+      <c r="R56" s="185"/>
+      <c r="S56" s="185"/>
+      <c r="T56" s="185"/>
       <c r="U56" s="57"/>
       <c r="V56" s="57"/>
       <c r="W56" s="33"/>
@@ -5442,74 +5441,74 @@
       <c r="Y56" s="92"/>
     </row>
     <row r="57" spans="1:64" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="106"/>
-      <c r="B57" s="106"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="106"/>
-      <c r="K57" s="106"/>
-      <c r="L57" s="106"/>
-      <c r="M57" s="106"/>
-      <c r="N57" s="106"/>
-      <c r="O57" s="106"/>
-      <c r="P57" s="106"/>
-      <c r="Q57" s="106"/>
-      <c r="R57" s="106"/>
-      <c r="S57" s="106"/>
-      <c r="T57" s="106"/>
-      <c r="U57" s="106"/>
-      <c r="V57" s="106"/>
-      <c r="W57" s="106"/>
-      <c r="X57" s="106"/>
+      <c r="A57" s="132"/>
+      <c r="B57" s="132"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="132"/>
+      <c r="L57" s="132"/>
+      <c r="M57" s="132"/>
+      <c r="N57" s="132"/>
+      <c r="O57" s="132"/>
+      <c r="P57" s="132"/>
+      <c r="Q57" s="132"/>
+      <c r="R57" s="132"/>
+      <c r="S57" s="132"/>
+      <c r="T57" s="132"/>
+      <c r="U57" s="132"/>
+      <c r="V57" s="132"/>
+      <c r="W57" s="132"/>
+      <c r="X57" s="132"/>
       <c r="Y57" s="11"/>
     </row>
     <row r="58" spans="1:64" ht="24" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A58" s="11"/>
-      <c r="B58" s="188" t="s">
+      <c r="B58" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="175"/>
-      <c r="D58" s="175"/>
-      <c r="E58" s="175"/>
-      <c r="F58" s="175"/>
-      <c r="G58" s="175"/>
-      <c r="H58" s="175"/>
-      <c r="I58" s="175"/>
-      <c r="J58" s="175"/>
-      <c r="K58" s="175"/>
-      <c r="L58" s="175"/>
+      <c r="C58" s="167"/>
+      <c r="D58" s="167"/>
+      <c r="E58" s="167"/>
+      <c r="F58" s="167"/>
+      <c r="G58" s="167"/>
+      <c r="H58" s="167"/>
+      <c r="I58" s="167"/>
+      <c r="J58" s="167"/>
+      <c r="K58" s="167"/>
+      <c r="L58" s="167"/>
       <c r="M58" s="58"/>
-      <c r="N58" s="175" t="s">
+      <c r="N58" s="167" t="s">
         <v>72</v>
       </c>
-      <c r="O58" s="175"/>
-      <c r="P58" s="175"/>
-      <c r="Q58" s="175"/>
-      <c r="R58" s="175"/>
-      <c r="S58" s="175"/>
-      <c r="T58" s="175"/>
-      <c r="U58" s="175"/>
-      <c r="V58" s="175"/>
-      <c r="W58" s="175"/>
-      <c r="X58" s="175"/>
+      <c r="O58" s="167"/>
+      <c r="P58" s="167"/>
+      <c r="Q58" s="167"/>
+      <c r="R58" s="167"/>
+      <c r="S58" s="167"/>
+      <c r="T58" s="167"/>
+      <c r="U58" s="167"/>
+      <c r="V58" s="167"/>
+      <c r="W58" s="167"/>
+      <c r="X58" s="167"/>
       <c r="Y58" s="92"/>
     </row>
     <row r="59" spans="1:64" ht="24" x14ac:dyDescent="0.85">
       <c r="A59" s="11"/>
-      <c r="B59" s="172" t="s">
+      <c r="B59" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="173"/>
-      <c r="D59" s="173"/>
-      <c r="E59" s="173"/>
-      <c r="F59" s="173"/>
-      <c r="G59" s="173"/>
-      <c r="H59" s="174"/>
+      <c r="C59" s="196"/>
+      <c r="D59" s="196"/>
+      <c r="E59" s="196"/>
+      <c r="F59" s="196"/>
+      <c r="G59" s="196"/>
+      <c r="H59" s="197"/>
       <c r="I59" s="13" t="s">
         <v>61</v>
       </c>
@@ -5521,15 +5520,15 @@
         <v>47</v>
       </c>
       <c r="M59" s="61"/>
-      <c r="N59" s="172" t="s">
+      <c r="N59" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="O59" s="173"/>
-      <c r="P59" s="173"/>
-      <c r="Q59" s="173"/>
-      <c r="R59" s="173"/>
-      <c r="S59" s="173"/>
-      <c r="T59" s="174"/>
+      <c r="O59" s="196"/>
+      <c r="P59" s="196"/>
+      <c r="Q59" s="196"/>
+      <c r="R59" s="196"/>
+      <c r="S59" s="196"/>
+      <c r="T59" s="197"/>
       <c r="U59" s="13" t="s">
         <v>61</v>
       </c>
@@ -5544,25 +5543,25 @@
     </row>
     <row r="60" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A60" s="11"/>
-      <c r="B60" s="151"/>
-      <c r="C60" s="152"/>
-      <c r="D60" s="152"/>
-      <c r="E60" s="152"/>
-      <c r="F60" s="152"/>
-      <c r="G60" s="152"/>
-      <c r="H60" s="153"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="113"/>
+      <c r="G60" s="113"/>
+      <c r="H60" s="114"/>
       <c r="I60" s="96"/>
       <c r="J60" s="97"/>
       <c r="K60" s="64"/>
       <c r="L60" s="98"/>
       <c r="M60" s="61"/>
-      <c r="N60" s="151"/>
-      <c r="O60" s="152"/>
-      <c r="P60" s="152"/>
-      <c r="Q60" s="152"/>
-      <c r="R60" s="152"/>
-      <c r="S60" s="152"/>
-      <c r="T60" s="153"/>
+      <c r="N60" s="112"/>
+      <c r="O60" s="113"/>
+      <c r="P60" s="113"/>
+      <c r="Q60" s="113"/>
+      <c r="R60" s="113"/>
+      <c r="S60" s="113"/>
+      <c r="T60" s="114"/>
       <c r="U60" s="97"/>
       <c r="V60" s="97"/>
       <c r="W60" s="64"/>
@@ -5571,25 +5570,25 @@
     </row>
     <row r="61" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A61" s="11"/>
-      <c r="B61" s="151"/>
-      <c r="C61" s="152"/>
-      <c r="D61" s="152"/>
-      <c r="E61" s="152"/>
-      <c r="F61" s="152"/>
-      <c r="G61" s="152"/>
-      <c r="H61" s="153"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="113"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="113"/>
+      <c r="G61" s="113"/>
+      <c r="H61" s="114"/>
       <c r="I61" s="96"/>
       <c r="J61" s="97"/>
       <c r="K61" s="64"/>
       <c r="L61" s="98"/>
       <c r="M61" s="61"/>
-      <c r="N61" s="151"/>
-      <c r="O61" s="152"/>
-      <c r="P61" s="152"/>
-      <c r="Q61" s="152"/>
-      <c r="R61" s="152"/>
-      <c r="S61" s="152"/>
-      <c r="T61" s="153"/>
+      <c r="N61" s="112"/>
+      <c r="O61" s="113"/>
+      <c r="P61" s="113"/>
+      <c r="Q61" s="113"/>
+      <c r="R61" s="113"/>
+      <c r="S61" s="113"/>
+      <c r="T61" s="114"/>
       <c r="U61" s="97"/>
       <c r="V61" s="97"/>
       <c r="W61" s="64"/>
@@ -5598,25 +5597,25 @@
     </row>
     <row r="62" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A62" s="11"/>
-      <c r="B62" s="179"/>
-      <c r="C62" s="180"/>
-      <c r="D62" s="180"/>
-      <c r="E62" s="180"/>
-      <c r="F62" s="180"/>
-      <c r="G62" s="180"/>
-      <c r="H62" s="181"/>
+      <c r="B62" s="201"/>
+      <c r="C62" s="202"/>
+      <c r="D62" s="202"/>
+      <c r="E62" s="202"/>
+      <c r="F62" s="202"/>
+      <c r="G62" s="202"/>
+      <c r="H62" s="203"/>
       <c r="I62" s="96"/>
       <c r="J62" s="97"/>
       <c r="K62" s="64"/>
       <c r="L62" s="98"/>
       <c r="M62" s="61"/>
-      <c r="N62" s="151"/>
-      <c r="O62" s="152"/>
-      <c r="P62" s="152"/>
-      <c r="Q62" s="152"/>
-      <c r="R62" s="152"/>
-      <c r="S62" s="152"/>
-      <c r="T62" s="153"/>
+      <c r="N62" s="112"/>
+      <c r="O62" s="113"/>
+      <c r="P62" s="113"/>
+      <c r="Q62" s="113"/>
+      <c r="R62" s="113"/>
+      <c r="S62" s="113"/>
+      <c r="T62" s="114"/>
       <c r="U62" s="97"/>
       <c r="V62" s="97"/>
       <c r="W62" s="64"/>
@@ -5625,25 +5624,25 @@
     </row>
     <row r="63" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A63" s="11"/>
-      <c r="B63" s="151"/>
-      <c r="C63" s="152"/>
-      <c r="D63" s="152"/>
-      <c r="E63" s="152"/>
-      <c r="F63" s="152"/>
-      <c r="G63" s="152"/>
-      <c r="H63" s="153"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
+      <c r="G63" s="113"/>
+      <c r="H63" s="114"/>
       <c r="I63" s="96"/>
       <c r="J63" s="97"/>
       <c r="K63" s="64"/>
       <c r="L63" s="98"/>
       <c r="M63" s="61"/>
-      <c r="N63" s="151"/>
-      <c r="O63" s="152"/>
-      <c r="P63" s="152"/>
-      <c r="Q63" s="152"/>
-      <c r="R63" s="152"/>
-      <c r="S63" s="152"/>
-      <c r="T63" s="153"/>
+      <c r="N63" s="112"/>
+      <c r="O63" s="113"/>
+      <c r="P63" s="113"/>
+      <c r="Q63" s="113"/>
+      <c r="R63" s="113"/>
+      <c r="S63" s="113"/>
+      <c r="T63" s="114"/>
       <c r="U63" s="97"/>
       <c r="V63" s="97"/>
       <c r="W63" s="64"/>
@@ -5652,25 +5651,25 @@
     </row>
     <row r="64" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A64" s="11"/>
-      <c r="B64" s="151"/>
-      <c r="C64" s="152"/>
-      <c r="D64" s="152"/>
-      <c r="E64" s="152"/>
-      <c r="F64" s="152"/>
-      <c r="G64" s="152"/>
-      <c r="H64" s="153"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="113"/>
+      <c r="D64" s="113"/>
+      <c r="E64" s="113"/>
+      <c r="F64" s="113"/>
+      <c r="G64" s="113"/>
+      <c r="H64" s="114"/>
       <c r="I64" s="96"/>
       <c r="J64" s="97"/>
       <c r="K64" s="64"/>
       <c r="L64" s="98"/>
       <c r="M64" s="61"/>
-      <c r="N64" s="151"/>
-      <c r="O64" s="152"/>
-      <c r="P64" s="152"/>
-      <c r="Q64" s="152"/>
-      <c r="R64" s="152"/>
-      <c r="S64" s="152"/>
-      <c r="T64" s="153"/>
+      <c r="N64" s="112"/>
+      <c r="O64" s="113"/>
+      <c r="P64" s="113"/>
+      <c r="Q64" s="113"/>
+      <c r="R64" s="113"/>
+      <c r="S64" s="113"/>
+      <c r="T64" s="114"/>
       <c r="U64" s="97"/>
       <c r="V64" s="97"/>
       <c r="W64" s="64"/>
@@ -5679,25 +5678,25 @@
     </row>
     <row r="65" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A65" s="11"/>
-      <c r="B65" s="151"/>
-      <c r="C65" s="152"/>
-      <c r="D65" s="152"/>
-      <c r="E65" s="152"/>
-      <c r="F65" s="152"/>
-      <c r="G65" s="152"/>
-      <c r="H65" s="153"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="113"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="113"/>
+      <c r="G65" s="113"/>
+      <c r="H65" s="114"/>
       <c r="I65" s="96"/>
       <c r="J65" s="97"/>
       <c r="K65" s="64"/>
       <c r="L65" s="98"/>
       <c r="M65" s="61"/>
-      <c r="N65" s="151"/>
-      <c r="O65" s="152"/>
-      <c r="P65" s="152"/>
-      <c r="Q65" s="152"/>
-      <c r="R65" s="152"/>
-      <c r="S65" s="152"/>
-      <c r="T65" s="153"/>
+      <c r="N65" s="112"/>
+      <c r="O65" s="113"/>
+      <c r="P65" s="113"/>
+      <c r="Q65" s="113"/>
+      <c r="R65" s="113"/>
+      <c r="S65" s="113"/>
+      <c r="T65" s="114"/>
       <c r="U65" s="97"/>
       <c r="V65" s="97"/>
       <c r="W65" s="64"/>
@@ -5706,25 +5705,25 @@
     </row>
     <row r="66" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A66" s="11"/>
-      <c r="B66" s="151"/>
-      <c r="C66" s="152"/>
-      <c r="D66" s="152"/>
-      <c r="E66" s="152"/>
-      <c r="F66" s="152"/>
-      <c r="G66" s="152"/>
-      <c r="H66" s="153"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="113"/>
+      <c r="D66" s="113"/>
+      <c r="E66" s="113"/>
+      <c r="F66" s="113"/>
+      <c r="G66" s="113"/>
+      <c r="H66" s="114"/>
       <c r="I66" s="96"/>
       <c r="J66" s="97"/>
       <c r="K66" s="64"/>
       <c r="L66" s="98"/>
       <c r="M66" s="61"/>
-      <c r="N66" s="151"/>
-      <c r="O66" s="152"/>
-      <c r="P66" s="152"/>
-      <c r="Q66" s="152"/>
-      <c r="R66" s="152"/>
-      <c r="S66" s="152"/>
-      <c r="T66" s="153"/>
+      <c r="N66" s="112"/>
+      <c r="O66" s="113"/>
+      <c r="P66" s="113"/>
+      <c r="Q66" s="113"/>
+      <c r="R66" s="113"/>
+      <c r="S66" s="113"/>
+      <c r="T66" s="114"/>
       <c r="U66" s="97"/>
       <c r="V66" s="97"/>
       <c r="W66" s="64"/>
@@ -5733,25 +5732,25 @@
     </row>
     <row r="67" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A67" s="11"/>
-      <c r="B67" s="151"/>
-      <c r="C67" s="152"/>
-      <c r="D67" s="152"/>
-      <c r="E67" s="152"/>
-      <c r="F67" s="152"/>
-      <c r="G67" s="152"/>
-      <c r="H67" s="153"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="113"/>
+      <c r="D67" s="113"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="113"/>
+      <c r="H67" s="114"/>
       <c r="I67" s="96"/>
       <c r="J67" s="97"/>
       <c r="K67" s="64"/>
       <c r="L67" s="98"/>
       <c r="M67" s="61"/>
-      <c r="N67" s="151"/>
-      <c r="O67" s="152"/>
-      <c r="P67" s="152"/>
-      <c r="Q67" s="152"/>
-      <c r="R67" s="152"/>
-      <c r="S67" s="152"/>
-      <c r="T67" s="153"/>
+      <c r="N67" s="112"/>
+      <c r="O67" s="113"/>
+      <c r="P67" s="113"/>
+      <c r="Q67" s="113"/>
+      <c r="R67" s="113"/>
+      <c r="S67" s="113"/>
+      <c r="T67" s="114"/>
       <c r="U67" s="97"/>
       <c r="V67" s="97"/>
       <c r="W67" s="64"/>
@@ -5760,25 +5759,25 @@
     </row>
     <row r="68" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A68" s="11"/>
-      <c r="B68" s="151"/>
-      <c r="C68" s="152"/>
-      <c r="D68" s="152"/>
-      <c r="E68" s="152"/>
-      <c r="F68" s="152"/>
-      <c r="G68" s="152"/>
-      <c r="H68" s="153"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="113"/>
+      <c r="D68" s="113"/>
+      <c r="E68" s="113"/>
+      <c r="F68" s="113"/>
+      <c r="G68" s="113"/>
+      <c r="H68" s="114"/>
       <c r="I68" s="96"/>
       <c r="J68" s="97"/>
       <c r="K68" s="64"/>
       <c r="L68" s="98"/>
       <c r="M68" s="61"/>
-      <c r="N68" s="151"/>
-      <c r="O68" s="152"/>
-      <c r="P68" s="152"/>
-      <c r="Q68" s="152"/>
-      <c r="R68" s="152"/>
-      <c r="S68" s="152"/>
-      <c r="T68" s="153"/>
+      <c r="N68" s="112"/>
+      <c r="O68" s="113"/>
+      <c r="P68" s="113"/>
+      <c r="Q68" s="113"/>
+      <c r="R68" s="113"/>
+      <c r="S68" s="113"/>
+      <c r="T68" s="114"/>
       <c r="U68" s="97"/>
       <c r="V68" s="97"/>
       <c r="W68" s="64"/>
@@ -5787,25 +5786,25 @@
     </row>
     <row r="69" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A69" s="11"/>
-      <c r="B69" s="151"/>
-      <c r="C69" s="152"/>
-      <c r="D69" s="152"/>
-      <c r="E69" s="152"/>
-      <c r="F69" s="152"/>
-      <c r="G69" s="152"/>
-      <c r="H69" s="153"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="113"/>
+      <c r="H69" s="114"/>
       <c r="I69" s="97"/>
       <c r="J69" s="97"/>
       <c r="K69" s="64"/>
       <c r="L69" s="98"/>
       <c r="M69" s="61"/>
-      <c r="N69" s="151"/>
-      <c r="O69" s="152"/>
-      <c r="P69" s="152"/>
-      <c r="Q69" s="152"/>
-      <c r="R69" s="152"/>
-      <c r="S69" s="152"/>
-      <c r="T69" s="153"/>
+      <c r="N69" s="112"/>
+      <c r="O69" s="113"/>
+      <c r="P69" s="113"/>
+      <c r="Q69" s="113"/>
+      <c r="R69" s="113"/>
+      <c r="S69" s="113"/>
+      <c r="T69" s="114"/>
       <c r="U69" s="97"/>
       <c r="V69" s="97"/>
       <c r="W69" s="64"/>
@@ -5814,29 +5813,29 @@
     </row>
     <row r="70" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A70" s="11"/>
-      <c r="B70" s="189" t="s">
+      <c r="B70" s="184" t="s">
         <v>60</v>
       </c>
-      <c r="C70" s="190"/>
-      <c r="D70" s="190"/>
-      <c r="E70" s="190"/>
-      <c r="F70" s="190"/>
-      <c r="G70" s="190"/>
-      <c r="H70" s="190"/>
+      <c r="C70" s="185"/>
+      <c r="D70" s="185"/>
+      <c r="E70" s="185"/>
+      <c r="F70" s="185"/>
+      <c r="G70" s="185"/>
+      <c r="H70" s="185"/>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
       <c r="K70" s="66"/>
       <c r="L70" s="15"/>
       <c r="M70" s="66"/>
-      <c r="N70" s="190" t="s">
+      <c r="N70" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="O70" s="190"/>
-      <c r="P70" s="190"/>
-      <c r="Q70" s="190"/>
-      <c r="R70" s="190"/>
-      <c r="S70" s="190"/>
-      <c r="T70" s="190"/>
+      <c r="O70" s="185"/>
+      <c r="P70" s="185"/>
+      <c r="Q70" s="185"/>
+      <c r="R70" s="185"/>
+      <c r="S70" s="185"/>
+      <c r="T70" s="185"/>
       <c r="U70" s="15"/>
       <c r="V70" s="15"/>
       <c r="W70" s="66"/>
@@ -5867,36 +5866,36 @@
       <c r="U71" s="154"/>
       <c r="V71" s="154"/>
       <c r="W71" s="154"/>
-      <c r="X71" s="155"/>
+      <c r="X71" s="213"/>
       <c r="Y71" s="90"/>
     </row>
     <row r="72" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A72" s="11"/>
-      <c r="B72" s="164" t="s">
+      <c r="B72" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="165"/>
-      <c r="D72" s="165"/>
-      <c r="E72" s="165"/>
-      <c r="F72" s="165"/>
-      <c r="G72" s="165"/>
-      <c r="H72" s="165"/>
-      <c r="I72" s="165"/>
-      <c r="J72" s="165"/>
-      <c r="K72" s="165"/>
-      <c r="L72" s="165"/>
-      <c r="M72" s="165"/>
-      <c r="N72" s="165"/>
-      <c r="O72" s="165"/>
-      <c r="P72" s="165"/>
-      <c r="Q72" s="165"/>
-      <c r="R72" s="165"/>
-      <c r="S72" s="165"/>
-      <c r="T72" s="165"/>
-      <c r="U72" s="165"/>
-      <c r="V72" s="165"/>
-      <c r="W72" s="165"/>
-      <c r="X72" s="166"/>
+      <c r="C72" s="153"/>
+      <c r="D72" s="153"/>
+      <c r="E72" s="153"/>
+      <c r="F72" s="153"/>
+      <c r="G72" s="153"/>
+      <c r="H72" s="153"/>
+      <c r="I72" s="153"/>
+      <c r="J72" s="153"/>
+      <c r="K72" s="153"/>
+      <c r="L72" s="153"/>
+      <c r="M72" s="153"/>
+      <c r="N72" s="153"/>
+      <c r="O72" s="153"/>
+      <c r="P72" s="153"/>
+      <c r="Q72" s="153"/>
+      <c r="R72" s="153"/>
+      <c r="S72" s="153"/>
+      <c r="T72" s="153"/>
+      <c r="U72" s="153"/>
+      <c r="V72" s="153"/>
+      <c r="W72" s="153"/>
+      <c r="X72" s="194"/>
       <c r="Y72" s="91"/>
     </row>
     <row r="73" spans="1:25" ht="24" x14ac:dyDescent="0.85">
@@ -5932,27 +5931,27 @@
     </row>
     <row r="74" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A74" s="11"/>
-      <c r="B74" s="139" t="s">
+      <c r="B74" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="140"/>
-      <c r="D74" s="140"/>
-      <c r="E74" s="140"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="140"/>
-      <c r="H74" s="140"/>
-      <c r="I74" s="140"/>
-      <c r="J74" s="140"/>
-      <c r="K74" s="140"/>
-      <c r="L74" s="140"/>
-      <c r="M74" s="141"/>
-      <c r="N74" s="133"/>
-      <c r="O74" s="134"/>
-      <c r="P74" s="134"/>
-      <c r="Q74" s="134"/>
-      <c r="R74" s="134"/>
-      <c r="S74" s="134"/>
-      <c r="T74" s="135"/>
+      <c r="C74" s="135"/>
+      <c r="D74" s="135"/>
+      <c r="E74" s="135"/>
+      <c r="F74" s="135"/>
+      <c r="G74" s="135"/>
+      <c r="H74" s="135"/>
+      <c r="I74" s="135"/>
+      <c r="J74" s="135"/>
+      <c r="K74" s="135"/>
+      <c r="L74" s="135"/>
+      <c r="M74" s="136"/>
+      <c r="N74" s="178"/>
+      <c r="O74" s="179"/>
+      <c r="P74" s="179"/>
+      <c r="Q74" s="179"/>
+      <c r="R74" s="179"/>
+      <c r="S74" s="179"/>
+      <c r="T74" s="180"/>
       <c r="U74" s="27"/>
       <c r="V74" s="70"/>
       <c r="W74" s="70"/>
@@ -5961,27 +5960,27 @@
     </row>
     <row r="75" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A75" s="11"/>
-      <c r="B75" s="139" t="s">
+      <c r="B75" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="140"/>
-      <c r="D75" s="140"/>
-      <c r="E75" s="140"/>
-      <c r="F75" s="140"/>
-      <c r="G75" s="140"/>
-      <c r="H75" s="140"/>
-      <c r="I75" s="140"/>
-      <c r="J75" s="140"/>
-      <c r="K75" s="140"/>
-      <c r="L75" s="140"/>
-      <c r="M75" s="141"/>
-      <c r="N75" s="176"/>
-      <c r="O75" s="177"/>
-      <c r="P75" s="177"/>
-      <c r="Q75" s="177"/>
-      <c r="R75" s="177"/>
-      <c r="S75" s="177"/>
-      <c r="T75" s="178"/>
+      <c r="C75" s="135"/>
+      <c r="D75" s="135"/>
+      <c r="E75" s="135"/>
+      <c r="F75" s="135"/>
+      <c r="G75" s="135"/>
+      <c r="H75" s="135"/>
+      <c r="I75" s="135"/>
+      <c r="J75" s="135"/>
+      <c r="K75" s="135"/>
+      <c r="L75" s="135"/>
+      <c r="M75" s="136"/>
+      <c r="N75" s="198"/>
+      <c r="O75" s="199"/>
+      <c r="P75" s="199"/>
+      <c r="Q75" s="199"/>
+      <c r="R75" s="199"/>
+      <c r="S75" s="199"/>
+      <c r="T75" s="200"/>
       <c r="U75" s="72"/>
       <c r="V75" s="70"/>
       <c r="W75" s="70"/>
@@ -6011,9 +6010,9 @@
       <c r="T76" s="12"/>
       <c r="U76" s="12"/>
       <c r="V76" s="12"/>
-      <c r="W76" s="106"/>
-      <c r="X76" s="106"/>
-      <c r="Y76" s="106"/>
+      <c r="W76" s="132"/>
+      <c r="X76" s="132"/>
+      <c r="Y76" s="132"/>
     </row>
     <row r="77" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12"/>
@@ -6075,27 +6074,27 @@
     </row>
     <row r="79" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A79" s="10"/>
-      <c r="B79" s="139" t="s">
+      <c r="B79" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="140"/>
-      <c r="D79" s="140"/>
-      <c r="E79" s="140"/>
-      <c r="F79" s="140"/>
-      <c r="G79" s="140"/>
-      <c r="H79" s="140"/>
-      <c r="I79" s="140"/>
-      <c r="J79" s="140"/>
-      <c r="K79" s="140"/>
-      <c r="L79" s="140"/>
-      <c r="M79" s="141"/>
-      <c r="N79" s="133"/>
-      <c r="O79" s="134"/>
-      <c r="P79" s="134"/>
-      <c r="Q79" s="134"/>
-      <c r="R79" s="134"/>
-      <c r="S79" s="134"/>
-      <c r="T79" s="135"/>
+      <c r="C79" s="135"/>
+      <c r="D79" s="135"/>
+      <c r="E79" s="135"/>
+      <c r="F79" s="135"/>
+      <c r="G79" s="135"/>
+      <c r="H79" s="135"/>
+      <c r="I79" s="135"/>
+      <c r="J79" s="135"/>
+      <c r="K79" s="135"/>
+      <c r="L79" s="135"/>
+      <c r="M79" s="136"/>
+      <c r="N79" s="178"/>
+      <c r="O79" s="179"/>
+      <c r="P79" s="179"/>
+      <c r="Q79" s="179"/>
+      <c r="R79" s="179"/>
+      <c r="S79" s="179"/>
+      <c r="T79" s="180"/>
       <c r="U79" s="53"/>
       <c r="V79" s="70"/>
       <c r="W79" s="70"/>
@@ -6104,31 +6103,31 @@
     </row>
     <row r="80" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A80" s="10"/>
-      <c r="B80" s="147" t="s">
+      <c r="B80" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="148"/>
-      <c r="D80" s="148"/>
-      <c r="E80" s="148"/>
-      <c r="F80" s="148"/>
-      <c r="G80" s="148"/>
-      <c r="H80" s="148"/>
-      <c r="I80" s="148"/>
-      <c r="J80" s="148"/>
-      <c r="K80" s="148"/>
-      <c r="L80" s="148"/>
-      <c r="M80" s="148"/>
-      <c r="N80" s="148"/>
-      <c r="O80" s="148"/>
-      <c r="P80" s="148"/>
-      <c r="Q80" s="148"/>
-      <c r="R80" s="148"/>
-      <c r="S80" s="148"/>
-      <c r="T80" s="148"/>
-      <c r="U80" s="148"/>
-      <c r="V80" s="148"/>
-      <c r="W80" s="148"/>
-      <c r="X80" s="149"/>
+      <c r="C80" s="212"/>
+      <c r="D80" s="212"/>
+      <c r="E80" s="212"/>
+      <c r="F80" s="212"/>
+      <c r="G80" s="212"/>
+      <c r="H80" s="212"/>
+      <c r="I80" s="212"/>
+      <c r="J80" s="212"/>
+      <c r="K80" s="212"/>
+      <c r="L80" s="212"/>
+      <c r="M80" s="212"/>
+      <c r="N80" s="212"/>
+      <c r="O80" s="212"/>
+      <c r="P80" s="212"/>
+      <c r="Q80" s="212"/>
+      <c r="R80" s="212"/>
+      <c r="S80" s="212"/>
+      <c r="T80" s="212"/>
+      <c r="U80" s="212"/>
+      <c r="V80" s="212"/>
+      <c r="W80" s="212"/>
+      <c r="X80" s="236"/>
       <c r="Y80" s="91"/>
     </row>
     <row r="81" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.85">
@@ -6168,28 +6167,28 @@
     </row>
     <row r="82" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A82" s="11"/>
-      <c r="B82" s="133" t="s">
+      <c r="B82" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="134"/>
-      <c r="D82" s="134"/>
-      <c r="E82" s="134"/>
-      <c r="F82" s="134"/>
-      <c r="G82" s="135"/>
+      <c r="C82" s="179"/>
+      <c r="D82" s="179"/>
+      <c r="E82" s="179"/>
+      <c r="F82" s="179"/>
+      <c r="G82" s="180"/>
       <c r="H82" s="27"/>
       <c r="I82" s="63"/>
       <c r="J82" s="27"/>
       <c r="K82" s="70"/>
       <c r="L82" s="70"/>
       <c r="M82" s="27"/>
-      <c r="N82" s="133" t="s">
+      <c r="N82" s="178" t="s">
         <v>94</v>
       </c>
-      <c r="O82" s="134"/>
-      <c r="P82" s="134"/>
-      <c r="Q82" s="134"/>
-      <c r="R82" s="134"/>
-      <c r="S82" s="135"/>
+      <c r="O82" s="179"/>
+      <c r="P82" s="179"/>
+      <c r="Q82" s="179"/>
+      <c r="R82" s="179"/>
+      <c r="S82" s="180"/>
       <c r="T82" s="27"/>
       <c r="U82" s="63"/>
       <c r="V82" s="27"/>
@@ -6199,28 +6198,28 @@
     </row>
     <row r="83" spans="1:25" ht="25.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A83" s="11"/>
-      <c r="B83" s="133" t="s">
+      <c r="B83" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="134"/>
-      <c r="D83" s="134"/>
-      <c r="E83" s="134"/>
-      <c r="F83" s="134"/>
-      <c r="G83" s="135"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
+      <c r="F83" s="179"/>
+      <c r="G83" s="180"/>
       <c r="H83" s="27"/>
       <c r="I83" s="63"/>
       <c r="J83" s="27"/>
       <c r="K83" s="70"/>
       <c r="L83" s="70"/>
       <c r="M83" s="27"/>
-      <c r="N83" s="133" t="s">
+      <c r="N83" s="178" t="s">
         <v>97</v>
       </c>
-      <c r="O83" s="134"/>
-      <c r="P83" s="134"/>
-      <c r="Q83" s="134"/>
-      <c r="R83" s="134"/>
-      <c r="S83" s="135"/>
+      <c r="O83" s="179"/>
+      <c r="P83" s="179"/>
+      <c r="Q83" s="179"/>
+      <c r="R83" s="179"/>
+      <c r="S83" s="180"/>
       <c r="T83" s="27"/>
       <c r="U83" s="63"/>
       <c r="V83" s="27"/>
@@ -6230,28 +6229,28 @@
     </row>
     <row r="84" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A84" s="11"/>
-      <c r="B84" s="133" t="s">
+      <c r="B84" s="178" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="134"/>
-      <c r="D84" s="134"/>
-      <c r="E84" s="134"/>
-      <c r="F84" s="134"/>
-      <c r="G84" s="135"/>
+      <c r="C84" s="179"/>
+      <c r="D84" s="179"/>
+      <c r="E84" s="179"/>
+      <c r="F84" s="179"/>
+      <c r="G84" s="180"/>
       <c r="H84" s="27"/>
       <c r="I84" s="63"/>
       <c r="J84" s="27"/>
       <c r="K84" s="70"/>
       <c r="L84" s="70"/>
       <c r="M84" s="27"/>
-      <c r="N84" s="133" t="s">
+      <c r="N84" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="O84" s="134"/>
-      <c r="P84" s="134"/>
-      <c r="Q84" s="134"/>
-      <c r="R84" s="134"/>
-      <c r="S84" s="135"/>
+      <c r="O84" s="179"/>
+      <c r="P84" s="179"/>
+      <c r="Q84" s="179"/>
+      <c r="R84" s="179"/>
+      <c r="S84" s="180"/>
       <c r="T84" s="27"/>
       <c r="U84" s="63"/>
       <c r="V84" s="27"/>
@@ -6261,28 +6260,28 @@
     </row>
     <row r="85" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A85" s="11"/>
-      <c r="B85" s="133" t="s">
+      <c r="B85" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="134"/>
-      <c r="D85" s="134"/>
-      <c r="E85" s="134"/>
-      <c r="F85" s="134"/>
-      <c r="G85" s="135"/>
+      <c r="C85" s="179"/>
+      <c r="D85" s="179"/>
+      <c r="E85" s="179"/>
+      <c r="F85" s="179"/>
+      <c r="G85" s="180"/>
       <c r="H85" s="27"/>
       <c r="I85" s="63"/>
       <c r="J85" s="27"/>
       <c r="K85" s="70"/>
       <c r="L85" s="70"/>
       <c r="M85" s="27"/>
-      <c r="N85" s="133" t="s">
+      <c r="N85" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="O85" s="134"/>
-      <c r="P85" s="134"/>
-      <c r="Q85" s="134"/>
-      <c r="R85" s="134"/>
-      <c r="S85" s="135"/>
+      <c r="O85" s="179"/>
+      <c r="P85" s="179"/>
+      <c r="Q85" s="179"/>
+      <c r="R85" s="179"/>
+      <c r="S85" s="180"/>
       <c r="T85" s="27"/>
       <c r="U85" s="63"/>
       <c r="V85" s="27"/>
@@ -6292,28 +6291,28 @@
     </row>
     <row r="86" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A86" s="11"/>
-      <c r="B86" s="133" t="s">
+      <c r="B86" s="178" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="134"/>
-      <c r="D86" s="134"/>
-      <c r="E86" s="134"/>
-      <c r="F86" s="134"/>
-      <c r="G86" s="135"/>
+      <c r="C86" s="179"/>
+      <c r="D86" s="179"/>
+      <c r="E86" s="179"/>
+      <c r="F86" s="179"/>
+      <c r="G86" s="180"/>
       <c r="H86" s="46"/>
       <c r="I86" s="63"/>
       <c r="J86" s="46"/>
       <c r="K86" s="70"/>
       <c r="L86" s="70"/>
       <c r="M86" s="46"/>
-      <c r="N86" s="133" t="s">
+      <c r="N86" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="O86" s="134"/>
-      <c r="P86" s="134"/>
-      <c r="Q86" s="134"/>
-      <c r="R86" s="134"/>
-      <c r="S86" s="135"/>
+      <c r="O86" s="179"/>
+      <c r="P86" s="179"/>
+      <c r="Q86" s="179"/>
+      <c r="R86" s="179"/>
+      <c r="S86" s="180"/>
       <c r="T86" s="46"/>
       <c r="U86" s="63"/>
       <c r="V86" s="46"/>
@@ -6322,30 +6321,30 @@
       <c r="Y86" s="92"/>
     </row>
     <row r="87" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="106"/>
-      <c r="B87" s="106"/>
-      <c r="C87" s="106"/>
-      <c r="D87" s="106"/>
-      <c r="E87" s="106"/>
-      <c r="F87" s="106"/>
-      <c r="G87" s="106"/>
-      <c r="H87" s="106"/>
-      <c r="I87" s="106"/>
-      <c r="J87" s="106"/>
-      <c r="K87" s="106"/>
-      <c r="L87" s="106"/>
-      <c r="M87" s="106"/>
-      <c r="N87" s="106"/>
-      <c r="O87" s="106"/>
-      <c r="P87" s="106"/>
-      <c r="Q87" s="106"/>
-      <c r="R87" s="106"/>
-      <c r="S87" s="106"/>
-      <c r="T87" s="106"/>
-      <c r="U87" s="106"/>
-      <c r="V87" s="106"/>
-      <c r="W87" s="106"/>
-      <c r="X87" s="106"/>
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="132"/>
+      <c r="F87" s="132"/>
+      <c r="G87" s="132"/>
+      <c r="H87" s="132"/>
+      <c r="I87" s="132"/>
+      <c r="J87" s="132"/>
+      <c r="K87" s="132"/>
+      <c r="L87" s="132"/>
+      <c r="M87" s="132"/>
+      <c r="N87" s="132"/>
+      <c r="O87" s="132"/>
+      <c r="P87" s="132"/>
+      <c r="Q87" s="132"/>
+      <c r="R87" s="132"/>
+      <c r="S87" s="132"/>
+      <c r="T87" s="132"/>
+      <c r="U87" s="132"/>
+      <c r="V87" s="132"/>
+      <c r="W87" s="132"/>
+      <c r="X87" s="132"/>
       <c r="Y87" s="11"/>
     </row>
     <row r="88" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.85">
@@ -6377,28 +6376,28 @@
     </row>
     <row r="89" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A89" s="11"/>
-      <c r="B89" s="147" t="s">
+      <c r="B89" s="211" t="s">
         <v>79</v>
       </c>
-      <c r="C89" s="148"/>
-      <c r="D89" s="148"/>
-      <c r="E89" s="148"/>
-      <c r="F89" s="148"/>
-      <c r="G89" s="148"/>
-      <c r="H89" s="148"/>
-      <c r="I89" s="148"/>
-      <c r="J89" s="148"/>
-      <c r="K89" s="148"/>
-      <c r="L89" s="148"/>
-      <c r="M89" s="148"/>
-      <c r="N89" s="148"/>
-      <c r="O89" s="148"/>
-      <c r="P89" s="148"/>
-      <c r="Q89" s="148"/>
-      <c r="R89" s="148"/>
-      <c r="S89" s="148"/>
-      <c r="T89" s="148"/>
-      <c r="U89" s="148"/>
+      <c r="C89" s="212"/>
+      <c r="D89" s="212"/>
+      <c r="E89" s="212"/>
+      <c r="F89" s="212"/>
+      <c r="G89" s="212"/>
+      <c r="H89" s="212"/>
+      <c r="I89" s="212"/>
+      <c r="J89" s="212"/>
+      <c r="K89" s="212"/>
+      <c r="L89" s="212"/>
+      <c r="M89" s="212"/>
+      <c r="N89" s="212"/>
+      <c r="O89" s="212"/>
+      <c r="P89" s="212"/>
+      <c r="Q89" s="212"/>
+      <c r="R89" s="212"/>
+      <c r="S89" s="212"/>
+      <c r="T89" s="212"/>
+      <c r="U89" s="212"/>
       <c r="V89" s="68" t="s">
         <v>1</v>
       </c>
@@ -6410,25 +6409,25 @@
     </row>
     <row r="90" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A90" s="11"/>
-      <c r="B90" s="182"/>
-      <c r="C90" s="183"/>
-      <c r="D90" s="183"/>
-      <c r="E90" s="183"/>
-      <c r="F90" s="183"/>
-      <c r="G90" s="183"/>
-      <c r="H90" s="183"/>
-      <c r="I90" s="183"/>
-      <c r="J90" s="183"/>
-      <c r="K90" s="183"/>
-      <c r="L90" s="183"/>
-      <c r="M90" s="183"/>
-      <c r="N90" s="183"/>
-      <c r="O90" s="183"/>
-      <c r="P90" s="183"/>
-      <c r="Q90" s="183"/>
-      <c r="R90" s="183"/>
-      <c r="S90" s="183"/>
-      <c r="T90" s="184"/>
+      <c r="B90" s="188"/>
+      <c r="C90" s="189"/>
+      <c r="D90" s="189"/>
+      <c r="E90" s="189"/>
+      <c r="F90" s="189"/>
+      <c r="G90" s="189"/>
+      <c r="H90" s="189"/>
+      <c r="I90" s="189"/>
+      <c r="J90" s="189"/>
+      <c r="K90" s="189"/>
+      <c r="L90" s="189"/>
+      <c r="M90" s="189"/>
+      <c r="N90" s="189"/>
+      <c r="O90" s="189"/>
+      <c r="P90" s="189"/>
+      <c r="Q90" s="189"/>
+      <c r="R90" s="189"/>
+      <c r="S90" s="189"/>
+      <c r="T90" s="190"/>
       <c r="U90" s="72"/>
       <c r="V90" s="70"/>
       <c r="W90" s="70"/>
@@ -6436,90 +6435,90 @@
       <c r="Y90" s="92"/>
     </row>
     <row r="91" spans="1:25" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="106"/>
-      <c r="B91" s="106"/>
-      <c r="C91" s="106"/>
-      <c r="D91" s="106"/>
-      <c r="E91" s="106"/>
-      <c r="F91" s="106"/>
-      <c r="G91" s="106"/>
-      <c r="H91" s="106"/>
-      <c r="I91" s="106"/>
-      <c r="J91" s="106"/>
-      <c r="K91" s="106"/>
-      <c r="L91" s="106"/>
-      <c r="M91" s="106"/>
-      <c r="N91" s="106"/>
-      <c r="O91" s="106"/>
-      <c r="P91" s="106"/>
-      <c r="Q91" s="106"/>
-      <c r="R91" s="106"/>
-      <c r="S91" s="106"/>
-      <c r="T91" s="106"/>
-      <c r="U91" s="106"/>
-      <c r="V91" s="106"/>
-      <c r="W91" s="106"/>
-      <c r="X91" s="106"/>
-      <c r="Y91" s="106"/>
+      <c r="A91" s="132"/>
+      <c r="B91" s="132"/>
+      <c r="C91" s="132"/>
+      <c r="D91" s="132"/>
+      <c r="E91" s="132"/>
+      <c r="F91" s="132"/>
+      <c r="G91" s="132"/>
+      <c r="H91" s="132"/>
+      <c r="I91" s="132"/>
+      <c r="J91" s="132"/>
+      <c r="K91" s="132"/>
+      <c r="L91" s="132"/>
+      <c r="M91" s="132"/>
+      <c r="N91" s="132"/>
+      <c r="O91" s="132"/>
+      <c r="P91" s="132"/>
+      <c r="Q91" s="132"/>
+      <c r="R91" s="132"/>
+      <c r="S91" s="132"/>
+      <c r="T91" s="132"/>
+      <c r="U91" s="132"/>
+      <c r="V91" s="132"/>
+      <c r="W91" s="132"/>
+      <c r="X91" s="132"/>
+      <c r="Y91" s="132"/>
     </row>
     <row r="92" spans="1:25" ht="16.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A92" s="156"/>
-      <c r="B92" s="109" t="s">
+      <c r="A92" s="131"/>
+      <c r="B92" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="C92" s="109"/>
-      <c r="D92" s="109"/>
-      <c r="E92" s="109"/>
-      <c r="F92" s="109"/>
-      <c r="G92" s="109"/>
-      <c r="H92" s="109"/>
-      <c r="I92" s="109"/>
-      <c r="J92" s="109"/>
-      <c r="K92" s="109"/>
-      <c r="L92" s="109"/>
-      <c r="M92" s="109"/>
-      <c r="N92" s="109"/>
-      <c r="O92" s="109"/>
-      <c r="P92" s="109"/>
-      <c r="Q92" s="109"/>
-      <c r="R92" s="109"/>
-      <c r="S92" s="109"/>
-      <c r="T92" s="109"/>
-      <c r="U92" s="167"/>
-      <c r="V92" s="167"/>
-      <c r="W92" s="167"/>
-      <c r="X92" s="167"/>
+      <c r="C92" s="204"/>
+      <c r="D92" s="204"/>
+      <c r="E92" s="204"/>
+      <c r="F92" s="204"/>
+      <c r="G92" s="204"/>
+      <c r="H92" s="204"/>
+      <c r="I92" s="204"/>
+      <c r="J92" s="204"/>
+      <c r="K92" s="204"/>
+      <c r="L92" s="204"/>
+      <c r="M92" s="204"/>
+      <c r="N92" s="204"/>
+      <c r="O92" s="204"/>
+      <c r="P92" s="204"/>
+      <c r="Q92" s="204"/>
+      <c r="R92" s="204"/>
+      <c r="S92" s="204"/>
+      <c r="T92" s="204"/>
+      <c r="U92" s="205"/>
+      <c r="V92" s="205"/>
+      <c r="W92" s="205"/>
+      <c r="X92" s="205"/>
       <c r="Y92" s="91"/>
     </row>
     <row r="93" spans="1:25" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A93" s="156"/>
-      <c r="B93" s="150" t="s">
+      <c r="A93" s="131"/>
+      <c r="B93" s="237" t="s">
         <v>34</v>
       </c>
-      <c r="C93" s="150"/>
-      <c r="D93" s="150"/>
-      <c r="E93" s="150"/>
-      <c r="F93" s="150"/>
-      <c r="G93" s="150"/>
-      <c r="H93" s="150"/>
-      <c r="I93" s="150"/>
-      <c r="J93" s="150"/>
-      <c r="K93" s="150"/>
-      <c r="L93" s="150" t="s">
+      <c r="C93" s="237"/>
+      <c r="D93" s="237"/>
+      <c r="E93" s="237"/>
+      <c r="F93" s="237"/>
+      <c r="G93" s="237"/>
+      <c r="H93" s="237"/>
+      <c r="I93" s="237"/>
+      <c r="J93" s="237"/>
+      <c r="K93" s="237"/>
+      <c r="L93" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="M93" s="150"/>
-      <c r="N93" s="150"/>
-      <c r="O93" s="150" t="s">
+      <c r="M93" s="237"/>
+      <c r="N93" s="237"/>
+      <c r="O93" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="P93" s="150"/>
-      <c r="Q93" s="150"/>
-      <c r="R93" s="150" t="s">
+      <c r="P93" s="237"/>
+      <c r="Q93" s="237"/>
+      <c r="R93" s="237" t="s">
         <v>33</v>
       </c>
-      <c r="S93" s="150"/>
-      <c r="T93" s="150"/>
+      <c r="S93" s="237"/>
+      <c r="T93" s="237"/>
       <c r="U93" s="27"/>
       <c r="V93" s="79" t="s">
         <v>1</v>
@@ -6531,28 +6530,28 @@
       <c r="Y93" s="91"/>
     </row>
     <row r="94" spans="1:25" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A94" s="156"/>
-      <c r="B94" s="111" t="s">
+      <c r="A94" s="131"/>
+      <c r="B94" s="187" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="111"/>
-      <c r="D94" s="111"/>
-      <c r="E94" s="111"/>
-      <c r="F94" s="111"/>
-      <c r="G94" s="111"/>
-      <c r="H94" s="111"/>
-      <c r="I94" s="111"/>
-      <c r="J94" s="111"/>
-      <c r="K94" s="111"/>
-      <c r="L94" s="112"/>
-      <c r="M94" s="112"/>
-      <c r="N94" s="112"/>
-      <c r="O94" s="112"/>
-      <c r="P94" s="112"/>
-      <c r="Q94" s="112"/>
-      <c r="R94" s="112"/>
-      <c r="S94" s="112"/>
-      <c r="T94" s="112"/>
+      <c r="C94" s="187"/>
+      <c r="D94" s="187"/>
+      <c r="E94" s="187"/>
+      <c r="F94" s="187"/>
+      <c r="G94" s="187"/>
+      <c r="H94" s="187"/>
+      <c r="I94" s="187"/>
+      <c r="J94" s="187"/>
+      <c r="K94" s="187"/>
+      <c r="L94" s="186"/>
+      <c r="M94" s="186"/>
+      <c r="N94" s="186"/>
+      <c r="O94" s="186"/>
+      <c r="P94" s="186"/>
+      <c r="Q94" s="186"/>
+      <c r="R94" s="186"/>
+      <c r="S94" s="186"/>
+      <c r="T94" s="186"/>
       <c r="U94" s="25"/>
       <c r="V94" s="51"/>
       <c r="W94" s="51"/>
@@ -6560,28 +6559,28 @@
       <c r="Y94" s="91"/>
     </row>
     <row r="95" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A95" s="156"/>
-      <c r="B95" s="111" t="s">
+      <c r="A95" s="131"/>
+      <c r="B95" s="187" t="s">
         <v>81</v>
       </c>
-      <c r="C95" s="111"/>
-      <c r="D95" s="111"/>
-      <c r="E95" s="111"/>
-      <c r="F95" s="111"/>
-      <c r="G95" s="111"/>
-      <c r="H95" s="111"/>
-      <c r="I95" s="111"/>
-      <c r="J95" s="111"/>
-      <c r="K95" s="111"/>
-      <c r="L95" s="112"/>
-      <c r="M95" s="112"/>
-      <c r="N95" s="112"/>
-      <c r="O95" s="112"/>
-      <c r="P95" s="112"/>
-      <c r="Q95" s="112"/>
-      <c r="R95" s="112"/>
-      <c r="S95" s="112"/>
-      <c r="T95" s="112"/>
+      <c r="C95" s="187"/>
+      <c r="D95" s="187"/>
+      <c r="E95" s="187"/>
+      <c r="F95" s="187"/>
+      <c r="G95" s="187"/>
+      <c r="H95" s="187"/>
+      <c r="I95" s="187"/>
+      <c r="J95" s="187"/>
+      <c r="K95" s="187"/>
+      <c r="L95" s="186"/>
+      <c r="M95" s="186"/>
+      <c r="N95" s="186"/>
+      <c r="O95" s="186"/>
+      <c r="P95" s="186"/>
+      <c r="Q95" s="186"/>
+      <c r="R95" s="186"/>
+      <c r="S95" s="186"/>
+      <c r="T95" s="186"/>
       <c r="U95" s="25"/>
       <c r="V95" s="51"/>
       <c r="W95" s="51"/>
@@ -6589,28 +6588,28 @@
       <c r="Y95" s="91"/>
     </row>
     <row r="96" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A96" s="156"/>
-      <c r="B96" s="111" t="s">
+      <c r="A96" s="131"/>
+      <c r="B96" s="187" t="s">
         <v>82</v>
       </c>
-      <c r="C96" s="111"/>
-      <c r="D96" s="111"/>
-      <c r="E96" s="111"/>
-      <c r="F96" s="111"/>
-      <c r="G96" s="111"/>
-      <c r="H96" s="111"/>
-      <c r="I96" s="111"/>
-      <c r="J96" s="111"/>
-      <c r="K96" s="111"/>
-      <c r="L96" s="112"/>
-      <c r="M96" s="112"/>
-      <c r="N96" s="112"/>
-      <c r="O96" s="112"/>
-      <c r="P96" s="112"/>
-      <c r="Q96" s="112"/>
-      <c r="R96" s="112"/>
-      <c r="S96" s="112"/>
-      <c r="T96" s="112"/>
+      <c r="C96" s="187"/>
+      <c r="D96" s="187"/>
+      <c r="E96" s="187"/>
+      <c r="F96" s="187"/>
+      <c r="G96" s="187"/>
+      <c r="H96" s="187"/>
+      <c r="I96" s="187"/>
+      <c r="J96" s="187"/>
+      <c r="K96" s="187"/>
+      <c r="L96" s="186"/>
+      <c r="M96" s="186"/>
+      <c r="N96" s="186"/>
+      <c r="O96" s="186"/>
+      <c r="P96" s="186"/>
+      <c r="Q96" s="186"/>
+      <c r="R96" s="186"/>
+      <c r="S96" s="186"/>
+      <c r="T96" s="186"/>
       <c r="U96" s="25"/>
       <c r="V96" s="51"/>
       <c r="W96" s="51"/>
@@ -6618,28 +6617,28 @@
       <c r="Y96" s="91"/>
     </row>
     <row r="97" spans="1:25" ht="21.6" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A97" s="156"/>
-      <c r="B97" s="111" t="s">
+      <c r="A97" s="131"/>
+      <c r="B97" s="187" t="s">
         <v>87</v>
       </c>
-      <c r="C97" s="111"/>
-      <c r="D97" s="111"/>
-      <c r="E97" s="111"/>
-      <c r="F97" s="111"/>
-      <c r="G97" s="111"/>
-      <c r="H97" s="111"/>
-      <c r="I97" s="111"/>
-      <c r="J97" s="111"/>
-      <c r="K97" s="111"/>
-      <c r="L97" s="112"/>
-      <c r="M97" s="112"/>
-      <c r="N97" s="112"/>
-      <c r="O97" s="112"/>
-      <c r="P97" s="112"/>
-      <c r="Q97" s="112"/>
-      <c r="R97" s="112"/>
-      <c r="S97" s="112"/>
-      <c r="T97" s="112"/>
+      <c r="C97" s="187"/>
+      <c r="D97" s="187"/>
+      <c r="E97" s="187"/>
+      <c r="F97" s="187"/>
+      <c r="G97" s="187"/>
+      <c r="H97" s="187"/>
+      <c r="I97" s="187"/>
+      <c r="J97" s="187"/>
+      <c r="K97" s="187"/>
+      <c r="L97" s="186"/>
+      <c r="M97" s="186"/>
+      <c r="N97" s="186"/>
+      <c r="O97" s="186"/>
+      <c r="P97" s="186"/>
+      <c r="Q97" s="186"/>
+      <c r="R97" s="186"/>
+      <c r="S97" s="186"/>
+      <c r="T97" s="186"/>
       <c r="U97" s="25"/>
       <c r="V97" s="51"/>
       <c r="W97" s="51"/>
@@ -6647,28 +6646,28 @@
       <c r="Y97" s="91"/>
     </row>
     <row r="98" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A98" s="156"/>
-      <c r="B98" s="111" t="s">
+      <c r="A98" s="131"/>
+      <c r="B98" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="C98" s="111"/>
-      <c r="D98" s="111"/>
-      <c r="E98" s="111"/>
-      <c r="F98" s="111"/>
-      <c r="G98" s="111"/>
-      <c r="H98" s="111"/>
-      <c r="I98" s="111"/>
-      <c r="J98" s="111"/>
-      <c r="K98" s="111"/>
-      <c r="L98" s="112"/>
-      <c r="M98" s="112"/>
-      <c r="N98" s="112"/>
-      <c r="O98" s="112"/>
-      <c r="P98" s="112"/>
-      <c r="Q98" s="112"/>
-      <c r="R98" s="112"/>
-      <c r="S98" s="112"/>
-      <c r="T98" s="112"/>
+      <c r="C98" s="187"/>
+      <c r="D98" s="187"/>
+      <c r="E98" s="187"/>
+      <c r="F98" s="187"/>
+      <c r="G98" s="187"/>
+      <c r="H98" s="187"/>
+      <c r="I98" s="187"/>
+      <c r="J98" s="187"/>
+      <c r="K98" s="187"/>
+      <c r="L98" s="186"/>
+      <c r="M98" s="186"/>
+      <c r="N98" s="186"/>
+      <c r="O98" s="186"/>
+      <c r="P98" s="186"/>
+      <c r="Q98" s="186"/>
+      <c r="R98" s="186"/>
+      <c r="S98" s="186"/>
+      <c r="T98" s="186"/>
       <c r="U98" s="25"/>
       <c r="V98" s="51"/>
       <c r="W98" s="51"/>
@@ -6676,28 +6675,28 @@
       <c r="Y98" s="91"/>
     </row>
     <row r="99" spans="1:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A99" s="156"/>
-      <c r="B99" s="111" t="s">
+      <c r="A99" s="131"/>
+      <c r="B99" s="187" t="s">
         <v>83</v>
       </c>
-      <c r="C99" s="111"/>
-      <c r="D99" s="111"/>
-      <c r="E99" s="111"/>
-      <c r="F99" s="111"/>
-      <c r="G99" s="111"/>
-      <c r="H99" s="111"/>
-      <c r="I99" s="111"/>
-      <c r="J99" s="111"/>
-      <c r="K99" s="111"/>
-      <c r="L99" s="112"/>
-      <c r="M99" s="112"/>
-      <c r="N99" s="112"/>
-      <c r="O99" s="112"/>
-      <c r="P99" s="112"/>
-      <c r="Q99" s="112"/>
-      <c r="R99" s="112"/>
-      <c r="S99" s="112"/>
-      <c r="T99" s="112"/>
+      <c r="C99" s="187"/>
+      <c r="D99" s="187"/>
+      <c r="E99" s="187"/>
+      <c r="F99" s="187"/>
+      <c r="G99" s="187"/>
+      <c r="H99" s="187"/>
+      <c r="I99" s="187"/>
+      <c r="J99" s="187"/>
+      <c r="K99" s="187"/>
+      <c r="L99" s="186"/>
+      <c r="M99" s="186"/>
+      <c r="N99" s="186"/>
+      <c r="O99" s="186"/>
+      <c r="P99" s="186"/>
+      <c r="Q99" s="186"/>
+      <c r="R99" s="186"/>
+      <c r="S99" s="186"/>
+      <c r="T99" s="186"/>
       <c r="U99" s="25"/>
       <c r="V99" s="51"/>
       <c r="W99" s="51"/>
@@ -6705,28 +6704,28 @@
       <c r="Y99" s="91"/>
     </row>
     <row r="100" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A100" s="156"/>
-      <c r="B100" s="111" t="s">
+      <c r="A100" s="131"/>
+      <c r="B100" s="187" t="s">
         <v>84</v>
       </c>
-      <c r="C100" s="111"/>
-      <c r="D100" s="111"/>
-      <c r="E100" s="111"/>
-      <c r="F100" s="111"/>
-      <c r="G100" s="111"/>
-      <c r="H100" s="111"/>
-      <c r="I100" s="111"/>
-      <c r="J100" s="111"/>
-      <c r="K100" s="111"/>
-      <c r="L100" s="112"/>
-      <c r="M100" s="112"/>
-      <c r="N100" s="112"/>
-      <c r="O100" s="112"/>
-      <c r="P100" s="112"/>
-      <c r="Q100" s="112"/>
-      <c r="R100" s="112"/>
-      <c r="S100" s="112"/>
-      <c r="T100" s="112"/>
+      <c r="C100" s="187"/>
+      <c r="D100" s="187"/>
+      <c r="E100" s="187"/>
+      <c r="F100" s="187"/>
+      <c r="G100" s="187"/>
+      <c r="H100" s="187"/>
+      <c r="I100" s="187"/>
+      <c r="J100" s="187"/>
+      <c r="K100" s="187"/>
+      <c r="L100" s="186"/>
+      <c r="M100" s="186"/>
+      <c r="N100" s="186"/>
+      <c r="O100" s="186"/>
+      <c r="P100" s="186"/>
+      <c r="Q100" s="186"/>
+      <c r="R100" s="186"/>
+      <c r="S100" s="186"/>
+      <c r="T100" s="186"/>
       <c r="U100" s="25"/>
       <c r="V100" s="51"/>
       <c r="W100" s="51"/>
@@ -6734,28 +6733,28 @@
       <c r="Y100" s="91"/>
     </row>
     <row r="101" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A101" s="156"/>
-      <c r="B101" s="111" t="s">
+      <c r="A101" s="131"/>
+      <c r="B101" s="187" t="s">
         <v>85</v>
       </c>
-      <c r="C101" s="111"/>
-      <c r="D101" s="111"/>
-      <c r="E101" s="111"/>
-      <c r="F101" s="111"/>
-      <c r="G101" s="111"/>
-      <c r="H101" s="111"/>
-      <c r="I101" s="111"/>
-      <c r="J101" s="111"/>
-      <c r="K101" s="111"/>
-      <c r="L101" s="112"/>
-      <c r="M101" s="112"/>
-      <c r="N101" s="112"/>
-      <c r="O101" s="112"/>
-      <c r="P101" s="112"/>
-      <c r="Q101" s="112"/>
-      <c r="R101" s="112"/>
-      <c r="S101" s="112"/>
-      <c r="T101" s="112"/>
+      <c r="C101" s="187"/>
+      <c r="D101" s="187"/>
+      <c r="E101" s="187"/>
+      <c r="F101" s="187"/>
+      <c r="G101" s="187"/>
+      <c r="H101" s="187"/>
+      <c r="I101" s="187"/>
+      <c r="J101" s="187"/>
+      <c r="K101" s="187"/>
+      <c r="L101" s="186"/>
+      <c r="M101" s="186"/>
+      <c r="N101" s="186"/>
+      <c r="O101" s="186"/>
+      <c r="P101" s="186"/>
+      <c r="Q101" s="186"/>
+      <c r="R101" s="186"/>
+      <c r="S101" s="186"/>
+      <c r="T101" s="186"/>
       <c r="U101" s="25"/>
       <c r="V101" s="51"/>
       <c r="W101" s="51"/>
@@ -6763,28 +6762,28 @@
       <c r="Y101" s="91"/>
     </row>
     <row r="102" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A102" s="156"/>
-      <c r="B102" s="111" t="s">
+      <c r="A102" s="131"/>
+      <c r="B102" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="111"/>
-      <c r="D102" s="111"/>
-      <c r="E102" s="111"/>
-      <c r="F102" s="111"/>
-      <c r="G102" s="111"/>
-      <c r="H102" s="111"/>
-      <c r="I102" s="111"/>
-      <c r="J102" s="111"/>
-      <c r="K102" s="111"/>
-      <c r="L102" s="112"/>
-      <c r="M102" s="112"/>
-      <c r="N102" s="112"/>
-      <c r="O102" s="112"/>
-      <c r="P102" s="112"/>
-      <c r="Q102" s="112"/>
-      <c r="R102" s="112"/>
-      <c r="S102" s="112"/>
-      <c r="T102" s="112"/>
+      <c r="C102" s="187"/>
+      <c r="D102" s="187"/>
+      <c r="E102" s="187"/>
+      <c r="F102" s="187"/>
+      <c r="G102" s="187"/>
+      <c r="H102" s="187"/>
+      <c r="I102" s="187"/>
+      <c r="J102" s="187"/>
+      <c r="K102" s="187"/>
+      <c r="L102" s="186"/>
+      <c r="M102" s="186"/>
+      <c r="N102" s="186"/>
+      <c r="O102" s="186"/>
+      <c r="P102" s="186"/>
+      <c r="Q102" s="186"/>
+      <c r="R102" s="186"/>
+      <c r="S102" s="186"/>
+      <c r="T102" s="186"/>
       <c r="U102" s="25"/>
       <c r="V102" s="51"/>
       <c r="W102" s="51"/>
@@ -6792,28 +6791,28 @@
       <c r="Y102" s="91"/>
     </row>
     <row r="103" spans="1:25" ht="22.8" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A103" s="156"/>
-      <c r="B103" s="111" t="s">
+      <c r="A103" s="131"/>
+      <c r="B103" s="187" t="s">
         <v>86</v>
       </c>
-      <c r="C103" s="111"/>
-      <c r="D103" s="111"/>
-      <c r="E103" s="111"/>
-      <c r="F103" s="111"/>
-      <c r="G103" s="111"/>
-      <c r="H103" s="111"/>
-      <c r="I103" s="111"/>
-      <c r="J103" s="111"/>
-      <c r="K103" s="111"/>
-      <c r="L103" s="112"/>
-      <c r="M103" s="112"/>
-      <c r="N103" s="112"/>
-      <c r="O103" s="112"/>
-      <c r="P103" s="112"/>
-      <c r="Q103" s="112"/>
-      <c r="R103" s="112"/>
-      <c r="S103" s="112"/>
-      <c r="T103" s="112"/>
+      <c r="C103" s="187"/>
+      <c r="D103" s="187"/>
+      <c r="E103" s="187"/>
+      <c r="F103" s="187"/>
+      <c r="G103" s="187"/>
+      <c r="H103" s="187"/>
+      <c r="I103" s="187"/>
+      <c r="J103" s="187"/>
+      <c r="K103" s="187"/>
+      <c r="L103" s="186"/>
+      <c r="M103" s="186"/>
+      <c r="N103" s="186"/>
+      <c r="O103" s="186"/>
+      <c r="P103" s="186"/>
+      <c r="Q103" s="186"/>
+      <c r="R103" s="186"/>
+      <c r="S103" s="186"/>
+      <c r="T103" s="186"/>
       <c r="U103" s="82"/>
       <c r="V103" s="51"/>
       <c r="W103" s="51"/>
@@ -6821,63 +6820,63 @@
       <c r="Y103" s="91"/>
     </row>
     <row r="104" spans="1:25" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="106"/>
-      <c r="B104" s="163"/>
-      <c r="C104" s="163"/>
-      <c r="D104" s="163"/>
-      <c r="E104" s="163"/>
-      <c r="F104" s="163"/>
-      <c r="G104" s="163"/>
-      <c r="H104" s="163"/>
-      <c r="I104" s="163"/>
-      <c r="J104" s="163"/>
-      <c r="K104" s="163"/>
-      <c r="L104" s="163"/>
-      <c r="M104" s="163"/>
-      <c r="N104" s="163"/>
-      <c r="O104" s="163"/>
-      <c r="P104" s="163"/>
-      <c r="Q104" s="163"/>
-      <c r="R104" s="163"/>
-      <c r="S104" s="163"/>
-      <c r="T104" s="163"/>
-      <c r="U104" s="163"/>
-      <c r="V104" s="163"/>
-      <c r="W104" s="163"/>
-      <c r="X104" s="163"/>
+      <c r="A104" s="132"/>
+      <c r="B104" s="216"/>
+      <c r="C104" s="216"/>
+      <c r="D104" s="216"/>
+      <c r="E104" s="216"/>
+      <c r="F104" s="216"/>
+      <c r="G104" s="216"/>
+      <c r="H104" s="216"/>
+      <c r="I104" s="216"/>
+      <c r="J104" s="216"/>
+      <c r="K104" s="216"/>
+      <c r="L104" s="216"/>
+      <c r="M104" s="216"/>
+      <c r="N104" s="216"/>
+      <c r="O104" s="216"/>
+      <c r="P104" s="216"/>
+      <c r="Q104" s="216"/>
+      <c r="R104" s="216"/>
+      <c r="S104" s="216"/>
+      <c r="T104" s="216"/>
+      <c r="U104" s="216"/>
+      <c r="V104" s="216"/>
+      <c r="W104" s="216"/>
+      <c r="X104" s="216"/>
       <c r="Y104" s="11"/>
     </row>
     <row r="105" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A105" s="156"/>
-      <c r="B105" s="164" t="s">
+      <c r="A105" s="131"/>
+      <c r="B105" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C105" s="165"/>
-      <c r="D105" s="165"/>
-      <c r="E105" s="165"/>
-      <c r="F105" s="165"/>
-      <c r="G105" s="165"/>
-      <c r="H105" s="165"/>
-      <c r="I105" s="165"/>
-      <c r="J105" s="165"/>
-      <c r="K105" s="165"/>
-      <c r="L105" s="165"/>
-      <c r="M105" s="165"/>
-      <c r="N105" s="165"/>
-      <c r="O105" s="165"/>
-      <c r="P105" s="165"/>
-      <c r="Q105" s="165"/>
-      <c r="R105" s="165"/>
-      <c r="S105" s="165"/>
-      <c r="T105" s="165"/>
-      <c r="U105" s="165"/>
-      <c r="V105" s="165"/>
-      <c r="W105" s="165"/>
-      <c r="X105" s="166"/>
+      <c r="C105" s="153"/>
+      <c r="D105" s="153"/>
+      <c r="E105" s="153"/>
+      <c r="F105" s="153"/>
+      <c r="G105" s="153"/>
+      <c r="H105" s="153"/>
+      <c r="I105" s="153"/>
+      <c r="J105" s="153"/>
+      <c r="K105" s="153"/>
+      <c r="L105" s="153"/>
+      <c r="M105" s="153"/>
+      <c r="N105" s="153"/>
+      <c r="O105" s="153"/>
+      <c r="P105" s="153"/>
+      <c r="Q105" s="153"/>
+      <c r="R105" s="153"/>
+      <c r="S105" s="153"/>
+      <c r="T105" s="153"/>
+      <c r="U105" s="153"/>
+      <c r="V105" s="153"/>
+      <c r="W105" s="153"/>
+      <c r="X105" s="194"/>
       <c r="Y105" s="91"/>
     </row>
     <row r="106" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A106" s="156"/>
+      <c r="A106" s="131"/>
       <c r="B106" s="41"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -6912,24 +6911,24 @@
       <c r="Y106" s="91"/>
     </row>
     <row r="107" spans="1:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A107" s="156"/>
-      <c r="B107" s="133" t="s">
+      <c r="A107" s="131"/>
+      <c r="B107" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="134"/>
-      <c r="D107" s="134"/>
-      <c r="E107" s="134"/>
-      <c r="F107" s="134"/>
-      <c r="G107" s="134"/>
-      <c r="H107" s="134"/>
-      <c r="I107" s="135"/>
+      <c r="C107" s="179"/>
+      <c r="D107" s="179"/>
+      <c r="E107" s="179"/>
+      <c r="F107" s="179"/>
+      <c r="G107" s="179"/>
+      <c r="H107" s="179"/>
+      <c r="I107" s="180"/>
       <c r="J107" s="24"/>
       <c r="K107" s="24"/>
-      <c r="L107" s="157"/>
-      <c r="M107" s="162"/>
-      <c r="N107" s="162"/>
-      <c r="O107" s="162"/>
-      <c r="P107" s="162"/>
+      <c r="L107" s="214"/>
+      <c r="M107" s="210"/>
+      <c r="N107" s="210"/>
+      <c r="O107" s="210"/>
+      <c r="P107" s="210"/>
       <c r="Q107" s="27"/>
       <c r="R107" s="27"/>
       <c r="S107" s="18"/>
@@ -6941,24 +6940,24 @@
       <c r="Y107" s="91"/>
     </row>
     <row r="108" spans="1:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A108" s="156"/>
-      <c r="B108" s="133" t="s">
+      <c r="A108" s="131"/>
+      <c r="B108" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="C108" s="134"/>
-      <c r="D108" s="134"/>
-      <c r="E108" s="134"/>
-      <c r="F108" s="134"/>
-      <c r="G108" s="134"/>
-      <c r="H108" s="134"/>
-      <c r="I108" s="135"/>
+      <c r="C108" s="179"/>
+      <c r="D108" s="179"/>
+      <c r="E108" s="179"/>
+      <c r="F108" s="179"/>
+      <c r="G108" s="179"/>
+      <c r="H108" s="179"/>
+      <c r="I108" s="180"/>
       <c r="J108" s="24"/>
       <c r="K108" s="24"/>
-      <c r="L108" s="157"/>
-      <c r="M108" s="162"/>
-      <c r="N108" s="162"/>
-      <c r="O108" s="162"/>
-      <c r="P108" s="162"/>
+      <c r="L108" s="214"/>
+      <c r="M108" s="210"/>
+      <c r="N108" s="210"/>
+      <c r="O108" s="210"/>
+      <c r="P108" s="210"/>
       <c r="Q108" s="27"/>
       <c r="R108" s="27"/>
       <c r="S108" s="18"/>
@@ -6970,24 +6969,24 @@
       <c r="Y108" s="91"/>
     </row>
     <row r="109" spans="1:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A109" s="156"/>
-      <c r="B109" s="133" t="s">
+      <c r="A109" s="131"/>
+      <c r="B109" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="C109" s="134"/>
-      <c r="D109" s="134"/>
-      <c r="E109" s="134"/>
-      <c r="F109" s="134"/>
-      <c r="G109" s="134"/>
-      <c r="H109" s="134"/>
-      <c r="I109" s="135"/>
+      <c r="C109" s="179"/>
+      <c r="D109" s="179"/>
+      <c r="E109" s="179"/>
+      <c r="F109" s="179"/>
+      <c r="G109" s="179"/>
+      <c r="H109" s="179"/>
+      <c r="I109" s="180"/>
       <c r="J109" s="24"/>
       <c r="K109" s="24"/>
-      <c r="L109" s="157"/>
-      <c r="M109" s="162"/>
-      <c r="N109" s="162"/>
-      <c r="O109" s="162"/>
-      <c r="P109" s="162"/>
+      <c r="L109" s="214"/>
+      <c r="M109" s="210"/>
+      <c r="N109" s="210"/>
+      <c r="O109" s="210"/>
+      <c r="P109" s="210"/>
       <c r="Q109" s="27"/>
       <c r="R109" s="27"/>
       <c r="S109" s="18"/>
@@ -6999,24 +6998,24 @@
       <c r="Y109" s="91"/>
     </row>
     <row r="110" spans="1:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A110" s="156"/>
-      <c r="B110" s="133" t="s">
+      <c r="A110" s="131"/>
+      <c r="B110" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="C110" s="134"/>
-      <c r="D110" s="134"/>
-      <c r="E110" s="134"/>
-      <c r="F110" s="134"/>
-      <c r="G110" s="134"/>
-      <c r="H110" s="134"/>
-      <c r="I110" s="135"/>
+      <c r="C110" s="179"/>
+      <c r="D110" s="179"/>
+      <c r="E110" s="179"/>
+      <c r="F110" s="179"/>
+      <c r="G110" s="179"/>
+      <c r="H110" s="179"/>
+      <c r="I110" s="180"/>
       <c r="J110" s="24"/>
       <c r="K110" s="24"/>
-      <c r="L110" s="157"/>
-      <c r="M110" s="162"/>
-      <c r="N110" s="162"/>
-      <c r="O110" s="162"/>
-      <c r="P110" s="162"/>
+      <c r="L110" s="214"/>
+      <c r="M110" s="210"/>
+      <c r="N110" s="210"/>
+      <c r="O110" s="210"/>
+      <c r="P110" s="210"/>
       <c r="Q110" s="27"/>
       <c r="R110" s="27"/>
       <c r="S110" s="18"/>
@@ -7028,24 +7027,24 @@
       <c r="Y110" s="91"/>
     </row>
     <row r="111" spans="1:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A111" s="156"/>
-      <c r="B111" s="133" t="s">
+      <c r="A111" s="131"/>
+      <c r="B111" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="C111" s="134"/>
-      <c r="D111" s="134"/>
-      <c r="E111" s="134"/>
-      <c r="F111" s="134"/>
-      <c r="G111" s="134"/>
-      <c r="H111" s="134"/>
-      <c r="I111" s="135"/>
+      <c r="C111" s="179"/>
+      <c r="D111" s="179"/>
+      <c r="E111" s="179"/>
+      <c r="F111" s="179"/>
+      <c r="G111" s="179"/>
+      <c r="H111" s="179"/>
+      <c r="I111" s="180"/>
       <c r="J111" s="24"/>
       <c r="K111" s="24"/>
-      <c r="L111" s="158"/>
-      <c r="M111" s="162"/>
-      <c r="N111" s="162"/>
-      <c r="O111" s="162"/>
-      <c r="P111" s="162"/>
+      <c r="L111" s="215"/>
+      <c r="M111" s="210"/>
+      <c r="N111" s="210"/>
+      <c r="O111" s="210"/>
+      <c r="P111" s="210"/>
       <c r="Q111" s="86"/>
       <c r="R111" s="87"/>
       <c r="S111" s="18"/>
@@ -7057,408 +7056,408 @@
       <c r="Y111" s="91"/>
     </row>
     <row r="112" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="106"/>
-      <c r="B112" s="106"/>
-      <c r="C112" s="106"/>
-      <c r="D112" s="106"/>
-      <c r="E112" s="106"/>
-      <c r="F112" s="106"/>
-      <c r="G112" s="106"/>
-      <c r="H112" s="106"/>
-      <c r="I112" s="106"/>
-      <c r="J112" s="106"/>
-      <c r="K112" s="106"/>
-      <c r="L112" s="106"/>
-      <c r="M112" s="106"/>
-      <c r="N112" s="106"/>
-      <c r="O112" s="106"/>
-      <c r="P112" s="106"/>
-      <c r="Q112" s="106"/>
-      <c r="R112" s="106"/>
-      <c r="S112" s="106"/>
-      <c r="T112" s="106"/>
-      <c r="U112" s="106"/>
-      <c r="V112" s="106"/>
-      <c r="W112" s="106"/>
-      <c r="X112" s="106"/>
+      <c r="A112" s="132"/>
+      <c r="B112" s="132"/>
+      <c r="C112" s="132"/>
+      <c r="D112" s="132"/>
+      <c r="E112" s="132"/>
+      <c r="F112" s="132"/>
+      <c r="G112" s="132"/>
+      <c r="H112" s="132"/>
+      <c r="I112" s="132"/>
+      <c r="J112" s="132"/>
+      <c r="K112" s="132"/>
+      <c r="L112" s="132"/>
+      <c r="M112" s="132"/>
+      <c r="N112" s="132"/>
+      <c r="O112" s="132"/>
+      <c r="P112" s="132"/>
+      <c r="Q112" s="132"/>
+      <c r="R112" s="132"/>
+      <c r="S112" s="132"/>
+      <c r="T112" s="132"/>
+      <c r="U112" s="132"/>
+      <c r="V112" s="132"/>
+      <c r="W112" s="132"/>
+      <c r="X112" s="132"/>
       <c r="Y112" s="11"/>
     </row>
     <row r="113" spans="1:25" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A113" s="11"/>
-      <c r="B113" s="109" t="s">
+      <c r="B113" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="109"/>
-      <c r="D113" s="109"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="109"/>
-      <c r="G113" s="109"/>
-      <c r="H113" s="109"/>
-      <c r="I113" s="109"/>
-      <c r="J113" s="109"/>
-      <c r="K113" s="109"/>
-      <c r="L113" s="109"/>
-      <c r="M113" s="109"/>
-      <c r="N113" s="109"/>
-      <c r="O113" s="109"/>
-      <c r="P113" s="109"/>
-      <c r="Q113" s="109"/>
-      <c r="R113" s="109"/>
-      <c r="S113" s="109"/>
-      <c r="T113" s="109"/>
-      <c r="U113" s="109"/>
-      <c r="V113" s="109"/>
-      <c r="W113" s="109"/>
-      <c r="X113" s="109"/>
+      <c r="C113" s="204"/>
+      <c r="D113" s="204"/>
+      <c r="E113" s="204"/>
+      <c r="F113" s="204"/>
+      <c r="G113" s="204"/>
+      <c r="H113" s="204"/>
+      <c r="I113" s="204"/>
+      <c r="J113" s="204"/>
+      <c r="K113" s="204"/>
+      <c r="L113" s="204"/>
+      <c r="M113" s="204"/>
+      <c r="N113" s="204"/>
+      <c r="O113" s="204"/>
+      <c r="P113" s="204"/>
+      <c r="Q113" s="204"/>
+      <c r="R113" s="204"/>
+      <c r="S113" s="204"/>
+      <c r="T113" s="204"/>
+      <c r="U113" s="204"/>
+      <c r="V113" s="204"/>
+      <c r="W113" s="204"/>
+      <c r="X113" s="204"/>
       <c r="Y113" s="91"/>
     </row>
     <row r="114" spans="1:25" ht="76.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A114" s="11"/>
-      <c r="B114" s="107"/>
-      <c r="C114" s="108"/>
-      <c r="D114" s="108"/>
-      <c r="E114" s="108"/>
-      <c r="F114" s="108"/>
-      <c r="G114" s="108"/>
-      <c r="H114" s="108"/>
-      <c r="I114" s="108"/>
-      <c r="J114" s="108"/>
-      <c r="K114" s="108"/>
-      <c r="L114" s="108"/>
-      <c r="M114" s="108"/>
-      <c r="N114" s="108"/>
-      <c r="O114" s="108"/>
-      <c r="P114" s="108"/>
-      <c r="Q114" s="108"/>
-      <c r="R114" s="108"/>
-      <c r="S114" s="108"/>
-      <c r="T114" s="108"/>
-      <c r="U114" s="108"/>
-      <c r="V114" s="108"/>
-      <c r="W114" s="108"/>
-      <c r="X114" s="161"/>
+      <c r="B114" s="109"/>
+      <c r="C114" s="110"/>
+      <c r="D114" s="110"/>
+      <c r="E114" s="110"/>
+      <c r="F114" s="110"/>
+      <c r="G114" s="110"/>
+      <c r="H114" s="110"/>
+      <c r="I114" s="110"/>
+      <c r="J114" s="110"/>
+      <c r="K114" s="110"/>
+      <c r="L114" s="110"/>
+      <c r="M114" s="110"/>
+      <c r="N114" s="110"/>
+      <c r="O114" s="110"/>
+      <c r="P114" s="110"/>
+      <c r="Q114" s="110"/>
+      <c r="R114" s="110"/>
+      <c r="S114" s="110"/>
+      <c r="T114" s="110"/>
+      <c r="U114" s="110"/>
+      <c r="V114" s="110"/>
+      <c r="W114" s="110"/>
+      <c r="X114" s="111"/>
       <c r="Y114" s="91"/>
     </row>
     <row r="115" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="106"/>
-      <c r="B115" s="106"/>
-      <c r="C115" s="106"/>
-      <c r="D115" s="106"/>
-      <c r="E115" s="106"/>
-      <c r="F115" s="106"/>
-      <c r="G115" s="106"/>
-      <c r="H115" s="106"/>
-      <c r="I115" s="106"/>
-      <c r="J115" s="106"/>
-      <c r="K115" s="106"/>
-      <c r="L115" s="106"/>
-      <c r="M115" s="106"/>
-      <c r="N115" s="106"/>
-      <c r="O115" s="106"/>
-      <c r="P115" s="106"/>
-      <c r="Q115" s="106"/>
-      <c r="R115" s="106"/>
-      <c r="S115" s="106"/>
-      <c r="T115" s="106"/>
-      <c r="U115" s="106"/>
-      <c r="V115" s="106"/>
-      <c r="W115" s="106"/>
-      <c r="X115" s="106"/>
+      <c r="A115" s="132"/>
+      <c r="B115" s="132"/>
+      <c r="C115" s="132"/>
+      <c r="D115" s="132"/>
+      <c r="E115" s="132"/>
+      <c r="F115" s="132"/>
+      <c r="G115" s="132"/>
+      <c r="H115" s="132"/>
+      <c r="I115" s="132"/>
+      <c r="J115" s="132"/>
+      <c r="K115" s="132"/>
+      <c r="L115" s="132"/>
+      <c r="M115" s="132"/>
+      <c r="N115" s="132"/>
+      <c r="O115" s="132"/>
+      <c r="P115" s="132"/>
+      <c r="Q115" s="132"/>
+      <c r="R115" s="132"/>
+      <c r="S115" s="132"/>
+      <c r="T115" s="132"/>
+      <c r="U115" s="132"/>
+      <c r="V115" s="132"/>
+      <c r="W115" s="132"/>
+      <c r="X115" s="132"/>
       <c r="Y115" s="11"/>
     </row>
     <row r="116" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="106"/>
-      <c r="B116" s="106"/>
-      <c r="C116" s="106"/>
-      <c r="D116" s="106"/>
-      <c r="E116" s="106"/>
-      <c r="F116" s="106"/>
-      <c r="G116" s="106"/>
-      <c r="H116" s="106"/>
-      <c r="I116" s="106"/>
-      <c r="J116" s="106"/>
-      <c r="K116" s="106"/>
-      <c r="L116" s="106"/>
-      <c r="M116" s="106"/>
-      <c r="N116" s="106"/>
-      <c r="O116" s="106"/>
-      <c r="P116" s="106"/>
-      <c r="Q116" s="106"/>
-      <c r="R116" s="106"/>
-      <c r="S116" s="106"/>
-      <c r="T116" s="106"/>
-      <c r="U116" s="106"/>
-      <c r="V116" s="106"/>
-      <c r="W116" s="106"/>
-      <c r="X116" s="106"/>
-      <c r="Y116" s="106"/>
+      <c r="A116" s="132"/>
+      <c r="B116" s="132"/>
+      <c r="C116" s="132"/>
+      <c r="D116" s="132"/>
+      <c r="E116" s="132"/>
+      <c r="F116" s="132"/>
+      <c r="G116" s="132"/>
+      <c r="H116" s="132"/>
+      <c r="I116" s="132"/>
+      <c r="J116" s="132"/>
+      <c r="K116" s="132"/>
+      <c r="L116" s="132"/>
+      <c r="M116" s="132"/>
+      <c r="N116" s="132"/>
+      <c r="O116" s="132"/>
+      <c r="P116" s="132"/>
+      <c r="Q116" s="132"/>
+      <c r="R116" s="132"/>
+      <c r="S116" s="132"/>
+      <c r="T116" s="132"/>
+      <c r="U116" s="132"/>
+      <c r="V116" s="132"/>
+      <c r="W116" s="132"/>
+      <c r="X116" s="132"/>
+      <c r="Y116" s="132"/>
     </row>
     <row r="117" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A117" s="88"/>
-      <c r="B117" s="109" t="s">
+      <c r="B117" s="204" t="s">
         <v>75</v>
       </c>
-      <c r="C117" s="109"/>
-      <c r="D117" s="109"/>
-      <c r="E117" s="109"/>
-      <c r="F117" s="109"/>
-      <c r="G117" s="109"/>
-      <c r="H117" s="109"/>
-      <c r="I117" s="109" t="s">
+      <c r="C117" s="204"/>
+      <c r="D117" s="204"/>
+      <c r="E117" s="204"/>
+      <c r="F117" s="204"/>
+      <c r="G117" s="204"/>
+      <c r="H117" s="204"/>
+      <c r="I117" s="204" t="s">
         <v>76</v>
       </c>
-      <c r="J117" s="109"/>
-      <c r="K117" s="109"/>
-      <c r="L117" s="109"/>
-      <c r="M117" s="109"/>
-      <c r="N117" s="109"/>
-      <c r="O117" s="109"/>
-      <c r="P117" s="109"/>
-      <c r="Q117" s="109" t="s">
+      <c r="J117" s="204"/>
+      <c r="K117" s="204"/>
+      <c r="L117" s="204"/>
+      <c r="M117" s="204"/>
+      <c r="N117" s="204"/>
+      <c r="O117" s="204"/>
+      <c r="P117" s="204"/>
+      <c r="Q117" s="204" t="s">
         <v>77</v>
       </c>
-      <c r="R117" s="109"/>
-      <c r="S117" s="109"/>
-      <c r="T117" s="109"/>
-      <c r="U117" s="109"/>
-      <c r="V117" s="109"/>
-      <c r="W117" s="109"/>
-      <c r="X117" s="109"/>
+      <c r="R117" s="204"/>
+      <c r="S117" s="204"/>
+      <c r="T117" s="204"/>
+      <c r="U117" s="204"/>
+      <c r="V117" s="204"/>
+      <c r="W117" s="204"/>
+      <c r="X117" s="204"/>
       <c r="Y117" s="91"/>
     </row>
     <row r="118" spans="1:25" ht="26.4" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A118" s="88"/>
-      <c r="B118" s="160"/>
-      <c r="C118" s="160"/>
-      <c r="D118" s="160"/>
-      <c r="E118" s="160"/>
-      <c r="F118" s="160"/>
-      <c r="G118" s="160"/>
-      <c r="H118" s="160"/>
-      <c r="I118" s="160"/>
-      <c r="J118" s="160"/>
-      <c r="K118" s="160"/>
-      <c r="L118" s="160"/>
-      <c r="M118" s="160"/>
-      <c r="N118" s="160"/>
-      <c r="O118" s="160"/>
-      <c r="P118" s="160"/>
-      <c r="Q118" s="160"/>
-      <c r="R118" s="160"/>
-      <c r="S118" s="160"/>
-      <c r="T118" s="160"/>
-      <c r="U118" s="160"/>
-      <c r="V118" s="160"/>
-      <c r="W118" s="160"/>
-      <c r="X118" s="160"/>
+      <c r="B118" s="123"/>
+      <c r="C118" s="123"/>
+      <c r="D118" s="123"/>
+      <c r="E118" s="123"/>
+      <c r="F118" s="123"/>
+      <c r="G118" s="123"/>
+      <c r="H118" s="123"/>
+      <c r="I118" s="123"/>
+      <c r="J118" s="123"/>
+      <c r="K118" s="123"/>
+      <c r="L118" s="123"/>
+      <c r="M118" s="123"/>
+      <c r="N118" s="123"/>
+      <c r="O118" s="123"/>
+      <c r="P118" s="123"/>
+      <c r="Q118" s="123"/>
+      <c r="R118" s="123"/>
+      <c r="S118" s="123"/>
+      <c r="T118" s="123"/>
+      <c r="U118" s="123"/>
+      <c r="V118" s="123"/>
+      <c r="W118" s="123"/>
+      <c r="X118" s="123"/>
       <c r="Y118" s="91"/>
     </row>
     <row r="119" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A119" s="88"/>
-      <c r="B119" s="160" t="s">
+      <c r="B119" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C119" s="160"/>
-      <c r="D119" s="160"/>
-      <c r="E119" s="160"/>
-      <c r="F119" s="160"/>
-      <c r="G119" s="160"/>
-      <c r="H119" s="160"/>
-      <c r="I119" s="160" t="s">
+      <c r="C119" s="123"/>
+      <c r="D119" s="123"/>
+      <c r="E119" s="123"/>
+      <c r="F119" s="123"/>
+      <c r="G119" s="123"/>
+      <c r="H119" s="123"/>
+      <c r="I119" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="J119" s="160"/>
-      <c r="K119" s="160"/>
-      <c r="L119" s="160"/>
-      <c r="M119" s="160"/>
-      <c r="N119" s="160"/>
-      <c r="O119" s="160"/>
-      <c r="P119" s="160"/>
-      <c r="Q119" s="160" t="s">
+      <c r="J119" s="123"/>
+      <c r="K119" s="123"/>
+      <c r="L119" s="123"/>
+      <c r="M119" s="123"/>
+      <c r="N119" s="123"/>
+      <c r="O119" s="123"/>
+      <c r="P119" s="123"/>
+      <c r="Q119" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="R119" s="160"/>
-      <c r="S119" s="160"/>
-      <c r="T119" s="160"/>
-      <c r="U119" s="160"/>
-      <c r="V119" s="160"/>
-      <c r="W119" s="160"/>
-      <c r="X119" s="160"/>
+      <c r="R119" s="123"/>
+      <c r="S119" s="123"/>
+      <c r="T119" s="123"/>
+      <c r="U119" s="123"/>
+      <c r="V119" s="123"/>
+      <c r="W119" s="123"/>
+      <c r="X119" s="123"/>
       <c r="Y119" s="91"/>
     </row>
     <row r="120" spans="1:25" ht="36.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A120" s="88"/>
-      <c r="B120" s="160"/>
-      <c r="C120" s="160"/>
-      <c r="D120" s="160"/>
-      <c r="E120" s="160"/>
-      <c r="F120" s="160"/>
-      <c r="G120" s="160"/>
-      <c r="H120" s="160"/>
-      <c r="I120" s="160"/>
-      <c r="J120" s="160"/>
-      <c r="K120" s="160"/>
-      <c r="L120" s="160"/>
-      <c r="M120" s="160"/>
-      <c r="N120" s="160"/>
-      <c r="O120" s="160"/>
-      <c r="P120" s="160"/>
-      <c r="Q120" s="160"/>
-      <c r="R120" s="160"/>
-      <c r="S120" s="160"/>
-      <c r="T120" s="160"/>
-      <c r="U120" s="160"/>
-      <c r="V120" s="160"/>
-      <c r="W120" s="160"/>
-      <c r="X120" s="160"/>
+      <c r="B120" s="123"/>
+      <c r="C120" s="123"/>
+      <c r="D120" s="123"/>
+      <c r="E120" s="123"/>
+      <c r="F120" s="123"/>
+      <c r="G120" s="123"/>
+      <c r="H120" s="123"/>
+      <c r="I120" s="123"/>
+      <c r="J120" s="123"/>
+      <c r="K120" s="123"/>
+      <c r="L120" s="123"/>
+      <c r="M120" s="123"/>
+      <c r="N120" s="123"/>
+      <c r="O120" s="123"/>
+      <c r="P120" s="123"/>
+      <c r="Q120" s="123"/>
+      <c r="R120" s="123"/>
+      <c r="S120" s="123"/>
+      <c r="T120" s="123"/>
+      <c r="U120" s="123"/>
+      <c r="V120" s="123"/>
+      <c r="W120" s="123"/>
+      <c r="X120" s="123"/>
       <c r="Y120" s="91"/>
     </row>
     <row r="121" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A121" s="88"/>
-      <c r="B121" s="160" t="s">
+      <c r="B121" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="C121" s="160"/>
-      <c r="D121" s="160"/>
-      <c r="E121" s="160"/>
-      <c r="F121" s="160"/>
-      <c r="G121" s="160"/>
-      <c r="H121" s="160"/>
-      <c r="I121" s="160" t="s">
+      <c r="C121" s="123"/>
+      <c r="D121" s="123"/>
+      <c r="E121" s="123"/>
+      <c r="F121" s="123"/>
+      <c r="G121" s="123"/>
+      <c r="H121" s="123"/>
+      <c r="I121" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="J121" s="160"/>
-      <c r="K121" s="160"/>
-      <c r="L121" s="160"/>
-      <c r="M121" s="160"/>
-      <c r="N121" s="160"/>
-      <c r="O121" s="160"/>
-      <c r="P121" s="160"/>
-      <c r="Q121" s="160" t="s">
+      <c r="J121" s="123"/>
+      <c r="K121" s="123"/>
+      <c r="L121" s="123"/>
+      <c r="M121" s="123"/>
+      <c r="N121" s="123"/>
+      <c r="O121" s="123"/>
+      <c r="P121" s="123"/>
+      <c r="Q121" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="R121" s="160"/>
-      <c r="S121" s="160"/>
-      <c r="T121" s="160"/>
-      <c r="U121" s="160"/>
-      <c r="V121" s="160"/>
-      <c r="W121" s="160"/>
-      <c r="X121" s="160"/>
+      <c r="R121" s="123"/>
+      <c r="S121" s="123"/>
+      <c r="T121" s="123"/>
+      <c r="U121" s="123"/>
+      <c r="V121" s="123"/>
+      <c r="W121" s="123"/>
+      <c r="X121" s="123"/>
       <c r="Y121" s="91"/>
     </row>
     <row r="122" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A122" s="88"/>
-      <c r="B122" s="168"/>
-      <c r="C122" s="168"/>
-      <c r="D122" s="168"/>
-      <c r="E122" s="168"/>
-      <c r="F122" s="168"/>
-      <c r="G122" s="168"/>
-      <c r="H122" s="168"/>
-      <c r="I122" s="169"/>
-      <c r="J122" s="170"/>
-      <c r="K122" s="170"/>
-      <c r="L122" s="170"/>
-      <c r="M122" s="170"/>
-      <c r="N122" s="170"/>
-      <c r="O122" s="170"/>
-      <c r="P122" s="171"/>
-      <c r="Q122" s="169"/>
-      <c r="R122" s="170"/>
-      <c r="S122" s="170"/>
-      <c r="T122" s="170"/>
-      <c r="U122" s="170"/>
-      <c r="V122" s="170"/>
-      <c r="W122" s="170"/>
-      <c r="X122" s="171"/>
+      <c r="B122" s="206"/>
+      <c r="C122" s="206"/>
+      <c r="D122" s="206"/>
+      <c r="E122" s="206"/>
+      <c r="F122" s="206"/>
+      <c r="G122" s="206"/>
+      <c r="H122" s="206"/>
+      <c r="I122" s="207"/>
+      <c r="J122" s="208"/>
+      <c r="K122" s="208"/>
+      <c r="L122" s="208"/>
+      <c r="M122" s="208"/>
+      <c r="N122" s="208"/>
+      <c r="O122" s="208"/>
+      <c r="P122" s="209"/>
+      <c r="Q122" s="207"/>
+      <c r="R122" s="208"/>
+      <c r="S122" s="208"/>
+      <c r="T122" s="208"/>
+      <c r="U122" s="208"/>
+      <c r="V122" s="208"/>
+      <c r="W122" s="208"/>
+      <c r="X122" s="209"/>
       <c r="Y122" s="91"/>
     </row>
     <row r="123" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A123" s="88"/>
-      <c r="B123" s="160" t="s">
+      <c r="B123" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="160"/>
-      <c r="D123" s="160"/>
-      <c r="E123" s="160"/>
-      <c r="F123" s="160"/>
-      <c r="G123" s="160"/>
-      <c r="H123" s="160"/>
-      <c r="I123" s="160" t="s">
+      <c r="C123" s="123"/>
+      <c r="D123" s="123"/>
+      <c r="E123" s="123"/>
+      <c r="F123" s="123"/>
+      <c r="G123" s="123"/>
+      <c r="H123" s="123"/>
+      <c r="I123" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="J123" s="160"/>
-      <c r="K123" s="160"/>
-      <c r="L123" s="160"/>
-      <c r="M123" s="160"/>
-      <c r="N123" s="160"/>
-      <c r="O123" s="160"/>
-      <c r="P123" s="160"/>
-      <c r="Q123" s="160" t="s">
+      <c r="J123" s="123"/>
+      <c r="K123" s="123"/>
+      <c r="L123" s="123"/>
+      <c r="M123" s="123"/>
+      <c r="N123" s="123"/>
+      <c r="O123" s="123"/>
+      <c r="P123" s="123"/>
+      <c r="Q123" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="R123" s="160"/>
-      <c r="S123" s="160"/>
-      <c r="T123" s="160"/>
-      <c r="U123" s="160"/>
-      <c r="V123" s="160"/>
-      <c r="W123" s="160"/>
-      <c r="X123" s="160"/>
+      <c r="R123" s="123"/>
+      <c r="S123" s="123"/>
+      <c r="T123" s="123"/>
+      <c r="U123" s="123"/>
+      <c r="V123" s="123"/>
+      <c r="W123" s="123"/>
+      <c r="X123" s="123"/>
       <c r="Y123" s="91"/>
     </row>
     <row r="124" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="106"/>
-      <c r="B124" s="106"/>
-      <c r="C124" s="106"/>
-      <c r="D124" s="106"/>
-      <c r="E124" s="106"/>
-      <c r="F124" s="106"/>
-      <c r="G124" s="106"/>
-      <c r="H124" s="106"/>
-      <c r="I124" s="106"/>
-      <c r="J124" s="106"/>
-      <c r="K124" s="106"/>
-      <c r="L124" s="106"/>
-      <c r="M124" s="106"/>
-      <c r="N124" s="106"/>
-      <c r="O124" s="106"/>
-      <c r="P124" s="106"/>
-      <c r="Q124" s="106"/>
-      <c r="R124" s="106"/>
-      <c r="S124" s="106"/>
-      <c r="T124" s="106"/>
-      <c r="U124" s="106"/>
-      <c r="V124" s="106"/>
-      <c r="W124" s="106"/>
-      <c r="X124" s="106"/>
+      <c r="A124" s="132"/>
+      <c r="B124" s="132"/>
+      <c r="C124" s="132"/>
+      <c r="D124" s="132"/>
+      <c r="E124" s="132"/>
+      <c r="F124" s="132"/>
+      <c r="G124" s="132"/>
+      <c r="H124" s="132"/>
+      <c r="I124" s="132"/>
+      <c r="J124" s="132"/>
+      <c r="K124" s="132"/>
+      <c r="L124" s="132"/>
+      <c r="M124" s="132"/>
+      <c r="N124" s="132"/>
+      <c r="O124" s="132"/>
+      <c r="P124" s="132"/>
+      <c r="Q124" s="132"/>
+      <c r="R124" s="132"/>
+      <c r="S124" s="132"/>
+      <c r="T124" s="132"/>
+      <c r="U124" s="132"/>
+      <c r="V124" s="132"/>
+      <c r="W124" s="132"/>
+      <c r="X124" s="132"/>
       <c r="Y124" s="11"/>
     </row>
     <row r="125" spans="1:25" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="159"/>
-      <c r="B125" s="159"/>
-      <c r="C125" s="159"/>
-      <c r="D125" s="159"/>
-      <c r="E125" s="159"/>
-      <c r="F125" s="159"/>
-      <c r="G125" s="159"/>
-      <c r="H125" s="159"/>
-      <c r="I125" s="159"/>
-      <c r="J125" s="159"/>
-      <c r="K125" s="159"/>
-      <c r="L125" s="159"/>
-      <c r="M125" s="159"/>
-      <c r="N125" s="159"/>
-      <c r="O125" s="159"/>
-      <c r="P125" s="159"/>
-      <c r="Q125" s="159"/>
-      <c r="R125" s="159"/>
-      <c r="S125" s="159"/>
-      <c r="T125" s="159"/>
-      <c r="U125" s="159"/>
-      <c r="V125" s="159"/>
-      <c r="W125" s="159"/>
-      <c r="X125" s="159"/>
-      <c r="Y125" s="159"/>
+      <c r="A125" s="117"/>
+      <c r="B125" s="117"/>
+      <c r="C125" s="117"/>
+      <c r="D125" s="117"/>
+      <c r="E125" s="117"/>
+      <c r="F125" s="117"/>
+      <c r="G125" s="117"/>
+      <c r="H125" s="117"/>
+      <c r="I125" s="117"/>
+      <c r="J125" s="117"/>
+      <c r="K125" s="117"/>
+      <c r="L125" s="117"/>
+      <c r="M125" s="117"/>
+      <c r="N125" s="117"/>
+      <c r="O125" s="117"/>
+      <c r="P125" s="117"/>
+      <c r="Q125" s="117"/>
+      <c r="R125" s="117"/>
+      <c r="S125" s="117"/>
+      <c r="T125" s="117"/>
+      <c r="U125" s="117"/>
+      <c r="V125" s="117"/>
+      <c r="W125" s="117"/>
+      <c r="X125" s="117"/>
+      <c r="Y125" s="117"/>
     </row>
     <row r="126" spans="1:25" ht="18" x14ac:dyDescent="0.35">
       <c r="B126" s="4"/>
@@ -7721,8 +7720,222 @@
       <c r="Y135" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+51/prf7WQxHWOzOBZYYo9iygEwAf4Oiogz3AWEOHLVQeWeklsV9GMjzk7w6mIUP1vcsri+PyG4GBTtZ5gUSnw==" saltValue="EEuKgGgNFpgGHdq/bu8SGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pr4uyTF98qqU/w9hvAoLVFrpRcH5G0/9lZBNt5dEnZocFd2ErXD5sIYuPP+iCy6lcx0bJUOSiK6wqQ9FfWwIFA==" saltValue="Hw/NhbU4kiovOsNvDHc1vw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="238">
+    <mergeCell ref="A112:X112"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="B11:X11"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="B100:K100"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="L30:X30"/>
+    <mergeCell ref="N45:T45"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="B43:X43"/>
+    <mergeCell ref="W76:Y76"/>
+    <mergeCell ref="B80:X80"/>
+    <mergeCell ref="B93:K93"/>
+    <mergeCell ref="R93:T93"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="A91:Y91"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="G2:S4"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="G6:X6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:X8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:X7"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="B71:X71"/>
+    <mergeCell ref="A92:A111"/>
+    <mergeCell ref="L107:L111"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="B96:K96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="O96:Q96"/>
+    <mergeCell ref="R96:T96"/>
+    <mergeCell ref="R99:T99"/>
+    <mergeCell ref="B98:K98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="B109:I109"/>
+    <mergeCell ref="M109:P109"/>
+    <mergeCell ref="B103:K103"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="O103:Q103"/>
+    <mergeCell ref="R103:T103"/>
+    <mergeCell ref="B107:I107"/>
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="M108:P108"/>
+    <mergeCell ref="B104:X104"/>
+    <mergeCell ref="M107:P107"/>
+    <mergeCell ref="B105:X105"/>
+    <mergeCell ref="N67:T67"/>
+    <mergeCell ref="N83:S83"/>
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="N84:S84"/>
+    <mergeCell ref="B95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="O95:Q95"/>
+    <mergeCell ref="R95:T95"/>
+    <mergeCell ref="B94:K94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="R94:T94"/>
+    <mergeCell ref="O98:Q98"/>
+    <mergeCell ref="R98:T98"/>
+    <mergeCell ref="O100:Q100"/>
+    <mergeCell ref="B89:U89"/>
+    <mergeCell ref="R97:T97"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="B97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="O97:Q97"/>
+    <mergeCell ref="N68:T68"/>
+    <mergeCell ref="A125:Y125"/>
+    <mergeCell ref="A116:Y116"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B121:H121"/>
+    <mergeCell ref="I119:P119"/>
+    <mergeCell ref="I118:P118"/>
+    <mergeCell ref="B113:X113"/>
+    <mergeCell ref="B114:X114"/>
+    <mergeCell ref="Q121:X121"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="A115:X115"/>
+    <mergeCell ref="A124:X124"/>
+    <mergeCell ref="R101:T101"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="B92:X92"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B123:H123"/>
+    <mergeCell ref="I122:P122"/>
+    <mergeCell ref="Q122:X122"/>
+    <mergeCell ref="I123:P123"/>
+    <mergeCell ref="Q123:X123"/>
+    <mergeCell ref="Q119:X119"/>
+    <mergeCell ref="I120:P120"/>
+    <mergeCell ref="Q120:X120"/>
+    <mergeCell ref="I121:P121"/>
+    <mergeCell ref="Q117:X117"/>
+    <mergeCell ref="B118:H118"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="O101:Q101"/>
+    <mergeCell ref="I117:P117"/>
+    <mergeCell ref="B101:K101"/>
+    <mergeCell ref="Q118:X118"/>
+    <mergeCell ref="B110:I110"/>
+    <mergeCell ref="B111:I111"/>
+    <mergeCell ref="M110:P110"/>
+    <mergeCell ref="M111:P111"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="N85:S85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="N86:S86"/>
+    <mergeCell ref="N59:T59"/>
+    <mergeCell ref="N60:T60"/>
+    <mergeCell ref="N63:T63"/>
+    <mergeCell ref="N58:X58"/>
+    <mergeCell ref="B75:M75"/>
+    <mergeCell ref="N75:T75"/>
+    <mergeCell ref="N69:T69"/>
+    <mergeCell ref="N74:T74"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="N61:T61"/>
+    <mergeCell ref="N62:T62"/>
+    <mergeCell ref="N82:S82"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="N64:T64"/>
+    <mergeCell ref="N65:T65"/>
+    <mergeCell ref="N66:T66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="O102:Q102"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="B99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="B90:T90"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="B72:X72"/>
+    <mergeCell ref="B58:L58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="N70:T70"/>
+    <mergeCell ref="N56:T56"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="N51:T51"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="N53:T53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="N46:T46"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N44:X44"/>
+    <mergeCell ref="B44:L44"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A87:X87"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="A34:Y34"/>
+    <mergeCell ref="L31:X31"/>
+    <mergeCell ref="L32:X32"/>
+    <mergeCell ref="N36:P37"/>
+    <mergeCell ref="B79:M79"/>
+    <mergeCell ref="N79:T79"/>
+    <mergeCell ref="B74:M74"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B35:X35"/>
+    <mergeCell ref="N50:T50"/>
+    <mergeCell ref="N52:T52"/>
+    <mergeCell ref="N48:T48"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="A57:X57"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="N49:T49"/>
+    <mergeCell ref="N47:T47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="A41:Y42"/>
+    <mergeCell ref="B17:X17"/>
+    <mergeCell ref="B16:X16"/>
+    <mergeCell ref="P15:X15"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="L29:X29"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="B31:D31"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="S13:V13"/>
     <mergeCell ref="N55:T55"/>
@@ -7747,220 +7960,6 @@
     <mergeCell ref="O24:X24"/>
     <mergeCell ref="O25:X25"/>
     <mergeCell ref="L28:X28"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="N49:T49"/>
-    <mergeCell ref="N47:T47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="A41:Y42"/>
-    <mergeCell ref="B17:X17"/>
-    <mergeCell ref="B16:X16"/>
-    <mergeCell ref="P15:X15"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="L29:X29"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="N44:X44"/>
-    <mergeCell ref="B44:L44"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A87:X87"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="A34:Y34"/>
-    <mergeCell ref="L31:X31"/>
-    <mergeCell ref="L32:X32"/>
-    <mergeCell ref="N36:P37"/>
-    <mergeCell ref="B79:M79"/>
-    <mergeCell ref="N79:T79"/>
-    <mergeCell ref="B74:M74"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B35:X35"/>
-    <mergeCell ref="N50:T50"/>
-    <mergeCell ref="N52:T52"/>
-    <mergeCell ref="N48:T48"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="O102:Q102"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="B99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="B90:T90"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="B72:X72"/>
-    <mergeCell ref="B58:L58"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="N70:T70"/>
-    <mergeCell ref="N56:T56"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="N51:T51"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="N53:T53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="N46:T46"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="A57:X57"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="N85:S85"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="N86:S86"/>
-    <mergeCell ref="N59:T59"/>
-    <mergeCell ref="N60:T60"/>
-    <mergeCell ref="N63:T63"/>
-    <mergeCell ref="N58:X58"/>
-    <mergeCell ref="B75:M75"/>
-    <mergeCell ref="N75:T75"/>
-    <mergeCell ref="N69:T69"/>
-    <mergeCell ref="N74:T74"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="N61:T61"/>
-    <mergeCell ref="N62:T62"/>
-    <mergeCell ref="N82:S82"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="N64:T64"/>
-    <mergeCell ref="N65:T65"/>
-    <mergeCell ref="N66:T66"/>
-    <mergeCell ref="R101:T101"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="B92:X92"/>
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B123:H123"/>
-    <mergeCell ref="I122:P122"/>
-    <mergeCell ref="Q122:X122"/>
-    <mergeCell ref="I123:P123"/>
-    <mergeCell ref="Q123:X123"/>
-    <mergeCell ref="Q119:X119"/>
-    <mergeCell ref="I120:P120"/>
-    <mergeCell ref="Q120:X120"/>
-    <mergeCell ref="I121:P121"/>
-    <mergeCell ref="Q117:X117"/>
-    <mergeCell ref="B118:H118"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="O101:Q101"/>
-    <mergeCell ref="I117:P117"/>
-    <mergeCell ref="B101:K101"/>
-    <mergeCell ref="Q118:X118"/>
-    <mergeCell ref="B110:I110"/>
-    <mergeCell ref="B111:I111"/>
-    <mergeCell ref="M110:P110"/>
-    <mergeCell ref="M111:P111"/>
-    <mergeCell ref="A125:Y125"/>
-    <mergeCell ref="A116:Y116"/>
-    <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B121:H121"/>
-    <mergeCell ref="I119:P119"/>
-    <mergeCell ref="I118:P118"/>
-    <mergeCell ref="B113:X113"/>
-    <mergeCell ref="B114:X114"/>
-    <mergeCell ref="Q121:X121"/>
-    <mergeCell ref="B117:H117"/>
-    <mergeCell ref="A115:X115"/>
-    <mergeCell ref="A124:X124"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="N67:T67"/>
-    <mergeCell ref="N83:S83"/>
-    <mergeCell ref="R100:T100"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="N84:S84"/>
-    <mergeCell ref="B95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="R95:T95"/>
-    <mergeCell ref="B94:K94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="R94:T94"/>
-    <mergeCell ref="O98:Q98"/>
-    <mergeCell ref="R98:T98"/>
-    <mergeCell ref="O100:Q100"/>
-    <mergeCell ref="B89:U89"/>
-    <mergeCell ref="R97:T97"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="B97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="O97:Q97"/>
-    <mergeCell ref="N68:T68"/>
-    <mergeCell ref="B71:X71"/>
-    <mergeCell ref="A92:A111"/>
-    <mergeCell ref="L107:L111"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="B96:K96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="O96:Q96"/>
-    <mergeCell ref="R96:T96"/>
-    <mergeCell ref="R99:T99"/>
-    <mergeCell ref="B98:K98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="B109:I109"/>
-    <mergeCell ref="M109:P109"/>
-    <mergeCell ref="B103:K103"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="O103:Q103"/>
-    <mergeCell ref="R103:T103"/>
-    <mergeCell ref="B107:I107"/>
-    <mergeCell ref="B108:I108"/>
-    <mergeCell ref="M108:P108"/>
-    <mergeCell ref="B104:X104"/>
-    <mergeCell ref="M107:P107"/>
-    <mergeCell ref="B105:X105"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="G2:S4"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="G6:X6"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:X8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:X7"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="A112:X112"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="B11:X11"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="B100:K100"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="L30:X30"/>
-    <mergeCell ref="N45:T45"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="B43:X43"/>
-    <mergeCell ref="W76:Y76"/>
-    <mergeCell ref="B80:X80"/>
-    <mergeCell ref="B93:K93"/>
-    <mergeCell ref="R93:T93"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="A91:Y91"/>
-    <mergeCell ref="B68:H68"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N79:T79 S19:V23 L22:O23 L19:O19 N74:T74 S13:V14 H13:K15 M107:P111" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/storage/app/excelBlanco/PPT.xlsx
+++ b/storage/app/excelBlanco/PPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\RES\storage\app\excelBlanco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1B6A5A-C80C-4481-B5A8-BEF30818FAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B1CC71-F6B6-4942-B6E5-33C4B4A945A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -964,6 +964,312 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -973,33 +1279,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -1009,15 +1294,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -1036,27 +1315,9 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1101,267 +1362,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1764,31 +1764,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="117"/>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
+      <c r="A1" s="163"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
@@ -1829,34 +1829,34 @@
       <c r="BL1" s="3"/>
     </row>
     <row r="2" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A2" s="133"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="220" t="s">
+      <c r="A2" s="223"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="220"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="217" t="s">
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="219"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="139"/>
       <c r="Y2" s="91"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
@@ -1898,32 +1898,32 @@
       <c r="BL2" s="3"/>
     </row>
     <row r="3" spans="1:64" ht="24" x14ac:dyDescent="0.85">
-      <c r="A3" s="133"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
-      <c r="L3" s="220"/>
-      <c r="M3" s="220"/>
-      <c r="N3" s="220"/>
-      <c r="O3" s="220"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="220"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="220"/>
-      <c r="T3" s="221" t="s">
+      <c r="A3" s="223"/>
+      <c r="B3" s="227"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="141"/>
       <c r="Y3" s="91"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
@@ -1965,32 +1965,32 @@
       <c r="BL3" s="3"/>
     </row>
     <row r="4" spans="1:64" ht="24" x14ac:dyDescent="0.85">
-      <c r="A4" s="133"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="220"/>
-      <c r="N4" s="220"/>
-      <c r="O4" s="220"/>
-      <c r="P4" s="220"/>
-      <c r="Q4" s="220"/>
-      <c r="R4" s="220"/>
-      <c r="S4" s="220"/>
-      <c r="T4" s="238" t="s">
+      <c r="A4" s="223"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="231"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="231"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="U4" s="238"/>
-      <c r="V4" s="238"/>
-      <c r="W4" s="238"/>
-      <c r="X4" s="238"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="142"/>
+      <c r="W4" s="142"/>
+      <c r="X4" s="142"/>
       <c r="Y4" s="91"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
@@ -2050,13 +2050,13 @@
       <c r="P5" s="91"/>
       <c r="Q5" s="91"/>
       <c r="R5" s="91"/>
-      <c r="S5" s="225"/>
-      <c r="T5" s="225"/>
-      <c r="U5" s="225"/>
-      <c r="V5" s="225"/>
-      <c r="W5" s="225"/>
-      <c r="X5" s="225"/>
-      <c r="Y5" s="225"/>
+      <c r="S5" s="152"/>
+      <c r="T5" s="152"/>
+      <c r="U5" s="152"/>
+      <c r="V5" s="152"/>
+      <c r="W5" s="152"/>
+      <c r="X5" s="152"/>
+      <c r="Y5" s="152"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
@@ -2097,32 +2097,32 @@
       <c r="BL5" s="3"/>
     </row>
     <row r="6" spans="1:64" ht="19.95" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A6" s="131"/>
-      <c r="B6" s="134" t="s">
+      <c r="A6" s="155"/>
+      <c r="B6" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="179"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="179"/>
-      <c r="S6" s="179"/>
-      <c r="T6" s="179"/>
-      <c r="U6" s="179"/>
-      <c r="V6" s="179"/>
-      <c r="W6" s="179"/>
-      <c r="X6" s="180"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="133"/>
       <c r="Y6" s="91"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
@@ -2164,32 +2164,32 @@
       <c r="BL6" s="3"/>
     </row>
     <row r="7" spans="1:64" ht="19.95" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A7" s="131"/>
-      <c r="B7" s="134" t="s">
+      <c r="A7" s="155"/>
+      <c r="B7" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="156"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="156"/>
-      <c r="U7" s="156"/>
-      <c r="V7" s="156"/>
-      <c r="W7" s="156"/>
-      <c r="X7" s="157"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="151"/>
       <c r="Y7" s="91"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
@@ -2231,32 +2231,32 @@
       <c r="BL7" s="3"/>
     </row>
     <row r="8" spans="1:64" ht="19.95" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A8" s="131"/>
-      <c r="B8" s="121" t="s">
+      <c r="A8" s="155"/>
+      <c r="B8" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179"/>
-      <c r="O8" s="179"/>
-      <c r="P8" s="179"/>
-      <c r="Q8" s="179"/>
-      <c r="R8" s="179"/>
-      <c r="S8" s="179"/>
-      <c r="T8" s="179"/>
-      <c r="U8" s="179"/>
-      <c r="V8" s="179"/>
-      <c r="W8" s="179"/>
-      <c r="X8" s="180"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="132"/>
+      <c r="T8" s="132"/>
+      <c r="U8" s="132"/>
+      <c r="V8" s="132"/>
+      <c r="W8" s="132"/>
+      <c r="X8" s="133"/>
       <c r="Y8" s="91"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
@@ -2298,32 +2298,32 @@
       <c r="BL8" s="3"/>
     </row>
     <row r="9" spans="1:64" ht="135.6" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A9" s="131"/>
-      <c r="B9" s="222" t="s">
+      <c r="A9" s="155"/>
+      <c r="B9" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="223"/>
-      <c r="D9" s="223"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="119"/>
-      <c r="U9" s="119"/>
-      <c r="V9" s="119"/>
-      <c r="W9" s="119"/>
-      <c r="X9" s="120"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="214"/>
+      <c r="I9" s="214"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="214"/>
+      <c r="O9" s="214"/>
+      <c r="P9" s="214"/>
+      <c r="Q9" s="214"/>
+      <c r="R9" s="214"/>
+      <c r="S9" s="214"/>
+      <c r="T9" s="214"/>
+      <c r="U9" s="214"/>
+      <c r="V9" s="214"/>
+      <c r="W9" s="214"/>
+      <c r="X9" s="215"/>
       <c r="Y9" s="91"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="3"/>
@@ -2367,29 +2367,29 @@
     </row>
     <row r="10" spans="1:64" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="130"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="130"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
       <c r="Y10" s="11"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
@@ -2431,32 +2431,32 @@
       <c r="BL10" s="3"/>
     </row>
     <row r="11" spans="1:64" ht="24" x14ac:dyDescent="0.85">
-      <c r="A11" s="131"/>
-      <c r="B11" s="204" t="s">
+      <c r="A11" s="155"/>
+      <c r="B11" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="204"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="204"/>
-      <c r="L11" s="204"/>
-      <c r="M11" s="204"/>
-      <c r="N11" s="204"/>
-      <c r="O11" s="204"/>
-      <c r="P11" s="204"/>
-      <c r="Q11" s="204"/>
-      <c r="R11" s="204"/>
-      <c r="S11" s="204"/>
-      <c r="T11" s="204"/>
-      <c r="U11" s="204"/>
-      <c r="V11" s="204"/>
-      <c r="W11" s="204"/>
-      <c r="X11" s="204"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="109"/>
       <c r="Y11" s="91"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
@@ -2498,7 +2498,7 @@
       <c r="BL11" s="3"/>
     </row>
     <row r="12" spans="1:64" ht="24" x14ac:dyDescent="0.85">
-      <c r="A12" s="131"/>
+      <c r="A12" s="155"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -2571,32 +2571,32 @@
       <c r="BL12" s="3"/>
     </row>
     <row r="13" spans="1:64" ht="24" x14ac:dyDescent="0.85">
-      <c r="A13" s="131"/>
-      <c r="B13" s="121" t="s">
+      <c r="A13" s="155"/>
+      <c r="B13" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="210"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="121" t="s">
+      <c r="N13" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="121"/>
-      <c r="P13" s="121"/>
-      <c r="Q13" s="121"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="111"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="165"/>
       <c r="W13" s="18"/>
       <c r="X13" s="18"/>
       <c r="Y13" s="91"/>
@@ -2640,32 +2640,32 @@
       <c r="BL13" s="3"/>
     </row>
     <row r="14" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A14" s="131"/>
-      <c r="B14" s="134" t="s">
+      <c r="A14" s="155"/>
+      <c r="B14" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="134" t="s">
+      <c r="N14" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="135"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="18"/>
       <c r="X14" s="18"/>
       <c r="Y14" s="91"/>
@@ -2709,34 +2709,34 @@
       <c r="BL14" s="3"/>
     </row>
     <row r="15" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A15" s="132"/>
-      <c r="B15" s="121" t="s">
+      <c r="A15" s="106"/>
+      <c r="B15" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="111"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="165"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="19" t="s">
         <v>9</v>
       </c>
       <c r="O15" s="19"/>
-      <c r="P15" s="155"/>
-      <c r="Q15" s="156"/>
-      <c r="R15" s="156"/>
-      <c r="S15" s="156"/>
-      <c r="T15" s="156"/>
-      <c r="U15" s="156"/>
-      <c r="V15" s="156"/>
-      <c r="W15" s="156"/>
-      <c r="X15" s="157"/>
+      <c r="P15" s="149"/>
+      <c r="Q15" s="150"/>
+      <c r="R15" s="150"/>
+      <c r="S15" s="150"/>
+      <c r="T15" s="150"/>
+      <c r="U15" s="150"/>
+      <c r="V15" s="150"/>
+      <c r="W15" s="150"/>
+      <c r="X15" s="151"/>
       <c r="Y15" s="91"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -2778,30 +2778,30 @@
       <c r="BL15" s="3"/>
     </row>
     <row r="16" spans="1:64" ht="7.95" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A16" s="132"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="154"/>
-      <c r="O16" s="154"/>
-      <c r="P16" s="154"/>
-      <c r="Q16" s="154"/>
-      <c r="R16" s="154"/>
-      <c r="S16" s="154"/>
-      <c r="T16" s="154"/>
-      <c r="U16" s="154"/>
-      <c r="V16" s="154"/>
-      <c r="W16" s="154"/>
-      <c r="X16" s="154"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="153"/>
+      <c r="T16" s="153"/>
+      <c r="U16" s="153"/>
+      <c r="V16" s="153"/>
+      <c r="W16" s="153"/>
+      <c r="X16" s="153"/>
       <c r="Y16" s="91"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
@@ -2843,32 +2843,32 @@
       <c r="BL16" s="3"/>
     </row>
     <row r="17" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A17" s="132"/>
-      <c r="B17" s="152" t="s">
+      <c r="A17" s="106"/>
+      <c r="B17" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="153"/>
-      <c r="S17" s="153"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="153"/>
-      <c r="V17" s="153"/>
-      <c r="W17" s="153"/>
-      <c r="X17" s="153"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="161"/>
+      <c r="S17" s="161"/>
+      <c r="T17" s="161"/>
+      <c r="U17" s="161"/>
+      <c r="V17" s="161"/>
+      <c r="W17" s="161"/>
+      <c r="X17" s="161"/>
       <c r="Y17" s="92"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
@@ -2910,7 +2910,7 @@
       <c r="BL17" s="3"/>
     </row>
     <row r="18" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A18" s="131"/>
+      <c r="A18" s="155"/>
       <c r="B18" s="20"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -2938,12 +2938,12 @@
         <v>47</v>
       </c>
       <c r="R18" s="7"/>
-      <c r="S18" s="235" t="s">
+      <c r="S18" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="T18" s="235"/>
-      <c r="U18" s="235"/>
-      <c r="V18" s="235"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
       <c r="W18" s="7"/>
       <c r="X18" s="60" t="s">
         <v>47</v>
@@ -2989,30 +2989,30 @@
       <c r="BL18" s="3"/>
     </row>
     <row r="19" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A19" s="131"/>
-      <c r="B19" s="159" t="s">
+      <c r="A19" s="155"/>
+      <c r="B19" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
       <c r="F19" s="7"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="23"/>
-      <c r="S19" s="161"/>
-      <c r="T19" s="161"/>
-      <c r="U19" s="161"/>
-      <c r="V19" s="161"/>
+      <c r="S19" s="205"/>
+      <c r="T19" s="205"/>
+      <c r="U19" s="205"/>
+      <c r="V19" s="205"/>
       <c r="W19" s="25"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="92"/>
@@ -3056,30 +3056,30 @@
       <c r="BL19" s="3"/>
     </row>
     <row r="20" spans="1:64" ht="16.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A20" s="131"/>
-      <c r="B20" s="159" t="s">
+      <c r="A20" s="155"/>
+      <c r="B20" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
       <c r="F20" s="7"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122"/>
+      <c r="K20" s="202"/>
+      <c r="L20" s="216"/>
+      <c r="M20" s="216"/>
+      <c r="N20" s="216"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="27"/>
       <c r="R20" s="23"/>
-      <c r="S20" s="161"/>
-      <c r="T20" s="161"/>
-      <c r="U20" s="161"/>
-      <c r="V20" s="161"/>
+      <c r="S20" s="205"/>
+      <c r="T20" s="205"/>
+      <c r="U20" s="205"/>
+      <c r="V20" s="205"/>
       <c r="W20" s="25"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="92"/>
@@ -3123,19 +3123,19 @@
       <c r="BL20" s="3"/>
     </row>
     <row r="21" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A21" s="131"/>
-      <c r="B21" s="159" t="s">
+      <c r="A21" s="155"/>
+      <c r="B21" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
       <c r="F21" s="7"/>
       <c r="G21" s="28"/>
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="158"/>
+      <c r="K21" s="202"/>
       <c r="L21" s="7" t="s">
         <v>51</v>
       </c>
@@ -3147,10 +3147,10 @@
         <v>47</v>
       </c>
       <c r="R21" s="8"/>
-      <c r="S21" s="161"/>
-      <c r="T21" s="161"/>
-      <c r="U21" s="161"/>
-      <c r="V21" s="161"/>
+      <c r="S21" s="205"/>
+      <c r="T21" s="205"/>
+      <c r="U21" s="205"/>
+      <c r="V21" s="205"/>
       <c r="W21" s="25"/>
       <c r="X21" s="26"/>
       <c r="Y21" s="92"/>
@@ -3194,30 +3194,30 @@
       <c r="BL21" s="3"/>
     </row>
     <row r="22" spans="1:64" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A22" s="131"/>
-      <c r="B22" s="159" t="s">
+      <c r="A22" s="155"/>
+      <c r="B22" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
       <c r="F22" s="7"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="23"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
+      <c r="K22" s="202"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="161"/>
-      <c r="T22" s="161"/>
-      <c r="U22" s="161"/>
-      <c r="V22" s="161"/>
+      <c r="S22" s="205"/>
+      <c r="T22" s="205"/>
+      <c r="U22" s="205"/>
+      <c r="V22" s="205"/>
       <c r="W22" s="25"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="92"/>
@@ -3267,8 +3267,8 @@
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
+      <c r="G23" s="204"/>
+      <c r="H23" s="204"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
@@ -3327,33 +3327,33 @@
     </row>
     <row r="24" spans="1:64" ht="16.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A24" s="11"/>
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="233" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="147"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
+      <c r="C24" s="234"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="234"/>
+      <c r="H24" s="234"/>
+      <c r="I24" s="234"/>
+      <c r="J24" s="234"/>
+      <c r="K24" s="234"/>
+      <c r="L24" s="234"/>
+      <c r="M24" s="234"/>
       <c r="N24" s="32"/>
-      <c r="O24" s="148" t="s">
+      <c r="O24" s="235" t="s">
         <v>58</v>
       </c>
-      <c r="P24" s="148"/>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="148"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="148"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="148"/>
-      <c r="X24" s="148"/>
+      <c r="P24" s="235"/>
+      <c r="Q24" s="235"/>
+      <c r="R24" s="235"/>
+      <c r="S24" s="235"/>
+      <c r="T24" s="235"/>
+      <c r="U24" s="235"/>
+      <c r="V24" s="235"/>
+      <c r="W24" s="235"/>
+      <c r="X24" s="235"/>
       <c r="Y24" s="92"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
@@ -3396,29 +3396,29 @@
     </row>
     <row r="25" spans="1:64" ht="19.95" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A25" s="11"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="126"/>
+      <c r="B25" s="217"/>
+      <c r="C25" s="218"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="218"/>
+      <c r="F25" s="218"/>
+      <c r="G25" s="218"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="218"/>
+      <c r="J25" s="218"/>
+      <c r="K25" s="218"/>
+      <c r="L25" s="218"/>
+      <c r="M25" s="219"/>
       <c r="N25" s="27"/>
-      <c r="O25" s="149"/>
-      <c r="P25" s="149"/>
-      <c r="Q25" s="149"/>
-      <c r="R25" s="149"/>
-      <c r="S25" s="149"/>
-      <c r="T25" s="149"/>
-      <c r="U25" s="149"/>
-      <c r="V25" s="149"/>
-      <c r="W25" s="149"/>
-      <c r="X25" s="150"/>
+      <c r="O25" s="236"/>
+      <c r="P25" s="236"/>
+      <c r="Q25" s="236"/>
+      <c r="R25" s="236"/>
+      <c r="S25" s="236"/>
+      <c r="T25" s="236"/>
+      <c r="U25" s="236"/>
+      <c r="V25" s="236"/>
+      <c r="W25" s="236"/>
+      <c r="X25" s="237"/>
       <c r="Y25" s="92"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
@@ -3461,18 +3461,18 @@
     </row>
     <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A26" s="11"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="129"/>
+      <c r="B26" s="220"/>
+      <c r="C26" s="221"/>
+      <c r="D26" s="221"/>
+      <c r="E26" s="221"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="221"/>
+      <c r="J26" s="221"/>
+      <c r="K26" s="221"/>
+      <c r="L26" s="221"/>
+      <c r="M26" s="222"/>
       <c r="N26" s="31"/>
       <c r="O26" s="34"/>
       <c r="P26" s="34"/>
@@ -3593,13 +3593,13 @@
     </row>
     <row r="28" spans="1:64" ht="24" x14ac:dyDescent="0.85">
       <c r="A28" s="11"/>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="212"/>
       <c r="G28" s="95"/>
       <c r="H28" s="94" t="s">
         <v>15</v>
@@ -3609,21 +3609,21 @@
         <v>47</v>
       </c>
       <c r="K28" s="23"/>
-      <c r="L28" s="151" t="s">
+      <c r="L28" s="238" t="s">
         <v>70</v>
       </c>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="151"/>
-      <c r="P28" s="151"/>
-      <c r="Q28" s="151"/>
-      <c r="R28" s="151"/>
-      <c r="S28" s="151"/>
-      <c r="T28" s="151"/>
-      <c r="U28" s="151"/>
-      <c r="V28" s="151"/>
-      <c r="W28" s="151"/>
-      <c r="X28" s="151"/>
+      <c r="M28" s="238"/>
+      <c r="N28" s="238"/>
+      <c r="O28" s="238"/>
+      <c r="P28" s="238"/>
+      <c r="Q28" s="238"/>
+      <c r="R28" s="238"/>
+      <c r="S28" s="238"/>
+      <c r="T28" s="238"/>
+      <c r="U28" s="238"/>
+      <c r="V28" s="238"/>
+      <c r="W28" s="238"/>
+      <c r="X28" s="238"/>
       <c r="Y28" s="92"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
@@ -3666,11 +3666,11 @@
     </row>
     <row r="29" spans="1:64" ht="25.8" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A29" s="11"/>
-      <c r="B29" s="226" t="s">
+      <c r="B29" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="227"/>
-      <c r="D29" s="228"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
       <c r="E29" s="36"/>
       <c r="F29" s="22"/>
       <c r="G29" s="36"/>
@@ -3678,19 +3678,19 @@
       <c r="I29" s="23"/>
       <c r="J29" s="18"/>
       <c r="K29" s="23"/>
-      <c r="L29" s="162"/>
-      <c r="M29" s="162"/>
-      <c r="N29" s="162"/>
-      <c r="O29" s="162"/>
-      <c r="P29" s="162"/>
-      <c r="Q29" s="162"/>
-      <c r="R29" s="162"/>
-      <c r="S29" s="162"/>
-      <c r="T29" s="162"/>
-      <c r="U29" s="162"/>
-      <c r="V29" s="162"/>
-      <c r="W29" s="162"/>
-      <c r="X29" s="163"/>
+      <c r="L29" s="206"/>
+      <c r="M29" s="206"/>
+      <c r="N29" s="206"/>
+      <c r="O29" s="206"/>
+      <c r="P29" s="206"/>
+      <c r="Q29" s="206"/>
+      <c r="R29" s="206"/>
+      <c r="S29" s="206"/>
+      <c r="T29" s="206"/>
+      <c r="U29" s="206"/>
+      <c r="V29" s="206"/>
+      <c r="W29" s="206"/>
+      <c r="X29" s="207"/>
       <c r="Y29" s="92"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
@@ -3733,11 +3733,11 @@
     </row>
     <row r="30" spans="1:64" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A30" s="11"/>
-      <c r="B30" s="164" t="s">
+      <c r="B30" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="165"/>
-      <c r="D30" s="166"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="115"/>
       <c r="E30" s="36"/>
       <c r="F30" s="39"/>
       <c r="G30" s="36"/>
@@ -3745,19 +3745,19 @@
       <c r="I30" s="23"/>
       <c r="J30" s="18"/>
       <c r="K30" s="23"/>
-      <c r="L30" s="229"/>
-      <c r="M30" s="230"/>
-      <c r="N30" s="230"/>
-      <c r="O30" s="230"/>
-      <c r="P30" s="230"/>
-      <c r="Q30" s="230"/>
-      <c r="R30" s="230"/>
-      <c r="S30" s="230"/>
-      <c r="T30" s="230"/>
-      <c r="U30" s="230"/>
-      <c r="V30" s="230"/>
-      <c r="W30" s="230"/>
-      <c r="X30" s="231"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="120"/>
+      <c r="T30" s="120"/>
+      <c r="U30" s="120"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="120"/>
+      <c r="X30" s="121"/>
       <c r="Y30" s="92"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
@@ -3800,11 +3800,11 @@
     </row>
     <row r="31" spans="1:64" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A31" s="11"/>
-      <c r="B31" s="164" t="s">
+      <c r="B31" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="165"/>
-      <c r="D31" s="166"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="115"/>
       <c r="E31" s="36"/>
       <c r="F31" s="39"/>
       <c r="G31" s="36"/>
@@ -3812,21 +3812,21 @@
       <c r="I31" s="23"/>
       <c r="J31" s="18"/>
       <c r="K31" s="23"/>
-      <c r="L31" s="181" t="s">
+      <c r="L31" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="M31" s="181"/>
-      <c r="N31" s="181"/>
-      <c r="O31" s="181"/>
-      <c r="P31" s="181"/>
-      <c r="Q31" s="181"/>
-      <c r="R31" s="181"/>
-      <c r="S31" s="181"/>
-      <c r="T31" s="181"/>
-      <c r="U31" s="181"/>
-      <c r="V31" s="181"/>
-      <c r="W31" s="181"/>
-      <c r="X31" s="181"/>
+      <c r="M31" s="199"/>
+      <c r="N31" s="199"/>
+      <c r="O31" s="199"/>
+      <c r="P31" s="199"/>
+      <c r="Q31" s="199"/>
+      <c r="R31" s="199"/>
+      <c r="S31" s="199"/>
+      <c r="T31" s="199"/>
+      <c r="U31" s="199"/>
+      <c r="V31" s="199"/>
+      <c r="W31" s="199"/>
+      <c r="X31" s="199"/>
       <c r="Y31" s="92"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
@@ -3879,19 +3879,19 @@
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="182"/>
-      <c r="O32" s="182"/>
-      <c r="P32" s="182"/>
-      <c r="Q32" s="182"/>
-      <c r="R32" s="182"/>
-      <c r="S32" s="182"/>
-      <c r="T32" s="182"/>
-      <c r="U32" s="182"/>
-      <c r="V32" s="182"/>
-      <c r="W32" s="182"/>
-      <c r="X32" s="183"/>
+      <c r="L32" s="200"/>
+      <c r="M32" s="200"/>
+      <c r="N32" s="200"/>
+      <c r="O32" s="200"/>
+      <c r="P32" s="200"/>
+      <c r="Q32" s="200"/>
+      <c r="R32" s="200"/>
+      <c r="S32" s="200"/>
+      <c r="T32" s="200"/>
+      <c r="U32" s="200"/>
+      <c r="V32" s="200"/>
+      <c r="W32" s="200"/>
+      <c r="X32" s="201"/>
       <c r="Y32" s="92"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
@@ -3998,31 +3998,31 @@
       <c r="BL33" s="3"/>
     </row>
     <row r="34" spans="1:64" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="132"/>
-      <c r="B34" s="132"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132"/>
-      <c r="N34" s="132"/>
-      <c r="O34" s="132"/>
-      <c r="P34" s="132"/>
-      <c r="Q34" s="132"/>
-      <c r="R34" s="132"/>
-      <c r="S34" s="132"/>
-      <c r="T34" s="132"/>
-      <c r="U34" s="132"/>
-      <c r="V34" s="132"/>
-      <c r="W34" s="132"/>
-      <c r="X34" s="132"/>
-      <c r="Y34" s="132"/>
+      <c r="A34" s="106"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="106"/>
+      <c r="S34" s="106"/>
+      <c r="T34" s="106"/>
+      <c r="U34" s="106"/>
+      <c r="V34" s="106"/>
+      <c r="W34" s="106"/>
+      <c r="X34" s="106"/>
+      <c r="Y34" s="106"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
@@ -4064,31 +4064,31 @@
     </row>
     <row r="35" spans="1:64" ht="24" x14ac:dyDescent="0.85">
       <c r="A35" s="11"/>
-      <c r="B35" s="152" t="s">
+      <c r="B35" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="153"/>
-      <c r="N35" s="153"/>
-      <c r="O35" s="153"/>
-      <c r="P35" s="153"/>
-      <c r="Q35" s="153"/>
-      <c r="R35" s="153"/>
-      <c r="S35" s="153"/>
-      <c r="T35" s="153"/>
-      <c r="U35" s="153"/>
-      <c r="V35" s="153"/>
-      <c r="W35" s="153"/>
-      <c r="X35" s="153"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="161"/>
+      <c r="I35" s="161"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="161"/>
+      <c r="L35" s="161"/>
+      <c r="M35" s="161"/>
+      <c r="N35" s="161"/>
+      <c r="O35" s="161"/>
+      <c r="P35" s="161"/>
+      <c r="Q35" s="161"/>
+      <c r="R35" s="161"/>
+      <c r="S35" s="161"/>
+      <c r="T35" s="161"/>
+      <c r="U35" s="161"/>
+      <c r="V35" s="161"/>
+      <c r="W35" s="161"/>
+      <c r="X35" s="161"/>
       <c r="Y35" s="92"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
@@ -4131,34 +4131,34 @@
     </row>
     <row r="36" spans="1:64" ht="21" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A36" s="11"/>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="170"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="191" t="s">
+      <c r="C36" s="194"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="192"/>
-      <c r="G36" s="192"/>
-      <c r="H36" s="193"/>
+      <c r="F36" s="185"/>
+      <c r="G36" s="185"/>
+      <c r="H36" s="186"/>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
-      <c r="N36" s="169" t="s">
+      <c r="N36" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="O36" s="170"/>
-      <c r="P36" s="171"/>
-      <c r="Q36" s="191" t="s">
+      <c r="O36" s="194"/>
+      <c r="P36" s="195"/>
+      <c r="Q36" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="R36" s="192"/>
-      <c r="S36" s="192"/>
-      <c r="T36" s="192"/>
-      <c r="U36" s="193"/>
+      <c r="R36" s="185"/>
+      <c r="S36" s="185"/>
+      <c r="T36" s="185"/>
+      <c r="U36" s="186"/>
       <c r="V36" s="25"/>
       <c r="W36" s="25"/>
       <c r="X36" s="25"/>
@@ -4204,9 +4204,9 @@
     </row>
     <row r="37" spans="1:64" ht="19.8" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A37" s="11"/>
-      <c r="B37" s="172"/>
-      <c r="C37" s="173"/>
-      <c r="D37" s="174"/>
+      <c r="B37" s="196"/>
+      <c r="C37" s="197"/>
+      <c r="D37" s="198"/>
       <c r="E37" s="6" t="s">
         <v>40</v>
       </c>
@@ -4226,9 +4226,9 @@
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
-      <c r="N37" s="172"/>
-      <c r="O37" s="173"/>
-      <c r="P37" s="174"/>
+      <c r="N37" s="196"/>
+      <c r="O37" s="197"/>
+      <c r="P37" s="198"/>
       <c r="Q37" s="6" t="s">
         <v>40</v>
       </c>
@@ -4291,11 +4291,11 @@
     </row>
     <row r="38" spans="1:64" ht="26.4" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A38" s="11"/>
-      <c r="B38" s="175" t="s">
+      <c r="B38" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="176"/>
-      <c r="D38" s="177"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="192"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
@@ -4305,9 +4305,9 @@
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
       <c r="M38" s="27"/>
-      <c r="N38" s="175"/>
-      <c r="O38" s="176"/>
-      <c r="P38" s="177"/>
+      <c r="N38" s="190"/>
+      <c r="O38" s="191"/>
+      <c r="P38" s="192"/>
       <c r="Q38" s="24"/>
       <c r="R38" s="24"/>
       <c r="S38" s="24"/>
@@ -4358,11 +4358,11 @@
     </row>
     <row r="39" spans="1:64" ht="26.4" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A39" s="11"/>
-      <c r="B39" s="175" t="s">
+      <c r="B39" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="176"/>
-      <c r="D39" s="177"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="192"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
@@ -4372,9 +4372,9 @@
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
       <c r="M39" s="27"/>
-      <c r="N39" s="175"/>
-      <c r="O39" s="176"/>
-      <c r="P39" s="177"/>
+      <c r="N39" s="190"/>
+      <c r="O39" s="191"/>
+      <c r="P39" s="192"/>
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
       <c r="S39" s="24"/>
@@ -4425,11 +4425,11 @@
     </row>
     <row r="40" spans="1:64" ht="26.4" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A40" s="11"/>
-      <c r="B40" s="123" t="s">
+      <c r="B40" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="123"/>
-      <c r="D40" s="123"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
@@ -4439,9 +4439,9 @@
       <c r="K40" s="46"/>
       <c r="L40" s="46"/>
       <c r="M40" s="46"/>
-      <c r="N40" s="123"/>
-      <c r="O40" s="123"/>
-      <c r="P40" s="123"/>
+      <c r="N40" s="164"/>
+      <c r="O40" s="164"/>
+      <c r="P40" s="164"/>
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
       <c r="S40" s="24"/>
@@ -4491,31 +4491,31 @@
       <c r="BL40" s="3"/>
     </row>
     <row r="41" spans="1:64" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="132"/>
-      <c r="B41" s="132"/>
-      <c r="C41" s="132"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="132"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="132"/>
-      <c r="K41" s="132"/>
-      <c r="L41" s="132"/>
-      <c r="M41" s="132"/>
-      <c r="N41" s="132"/>
-      <c r="O41" s="132"/>
-      <c r="P41" s="132"/>
-      <c r="Q41" s="132"/>
-      <c r="R41" s="132"/>
-      <c r="S41" s="132"/>
-      <c r="T41" s="132"/>
-      <c r="U41" s="132"/>
-      <c r="V41" s="132"/>
-      <c r="W41" s="132"/>
-      <c r="X41" s="132"/>
-      <c r="Y41" s="132"/>
+      <c r="A41" s="106"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="106"/>
+      <c r="L41" s="106"/>
+      <c r="M41" s="106"/>
+      <c r="N41" s="106"/>
+      <c r="O41" s="106"/>
+      <c r="P41" s="106"/>
+      <c r="Q41" s="106"/>
+      <c r="R41" s="106"/>
+      <c r="S41" s="106"/>
+      <c r="T41" s="106"/>
+      <c r="U41" s="106"/>
+      <c r="V41" s="106"/>
+      <c r="W41" s="106"/>
+      <c r="X41" s="106"/>
+      <c r="Y41" s="106"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
@@ -4556,31 +4556,31 @@
       <c r="BL41" s="3"/>
     </row>
     <row r="42" spans="1:64" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="132"/>
-      <c r="B42" s="132"/>
-      <c r="C42" s="132"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="132"/>
-      <c r="O42" s="132"/>
-      <c r="P42" s="132"/>
-      <c r="Q42" s="132"/>
-      <c r="R42" s="132"/>
-      <c r="S42" s="132"/>
-      <c r="T42" s="132"/>
-      <c r="U42" s="132"/>
-      <c r="V42" s="132"/>
-      <c r="W42" s="132"/>
-      <c r="X42" s="132"/>
-      <c r="Y42" s="132"/>
+      <c r="A42" s="106"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="106"/>
+      <c r="L42" s="106"/>
+      <c r="M42" s="106"/>
+      <c r="N42" s="106"/>
+      <c r="O42" s="106"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="106"/>
+      <c r="R42" s="106"/>
+      <c r="S42" s="106"/>
+      <c r="T42" s="106"/>
+      <c r="U42" s="106"/>
+      <c r="V42" s="106"/>
+      <c r="W42" s="106"/>
+      <c r="X42" s="106"/>
+      <c r="Y42" s="106"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
@@ -4622,29 +4622,29 @@
     </row>
     <row r="43" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="130"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="130"/>
-      <c r="M43" s="130"/>
-      <c r="N43" s="130"/>
-      <c r="O43" s="130"/>
-      <c r="P43" s="130"/>
-      <c r="Q43" s="130"/>
-      <c r="R43" s="130"/>
-      <c r="S43" s="130"/>
-      <c r="T43" s="130"/>
-      <c r="U43" s="130"/>
-      <c r="V43" s="130"/>
-      <c r="W43" s="130"/>
-      <c r="X43" s="130"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="126"/>
+      <c r="M43" s="126"/>
+      <c r="N43" s="126"/>
+      <c r="O43" s="126"/>
+      <c r="P43" s="126"/>
+      <c r="Q43" s="126"/>
+      <c r="R43" s="126"/>
+      <c r="S43" s="126"/>
+      <c r="T43" s="126"/>
+      <c r="U43" s="126"/>
+      <c r="V43" s="126"/>
+      <c r="W43" s="126"/>
+      <c r="X43" s="126"/>
       <c r="Y43" s="12"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
@@ -4687,33 +4687,33 @@
     </row>
     <row r="44" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A44" s="11"/>
-      <c r="B44" s="168" t="s">
+      <c r="B44" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
-      <c r="E44" s="167"/>
-      <c r="F44" s="167"/>
-      <c r="G44" s="167"/>
-      <c r="H44" s="167"/>
-      <c r="I44" s="167"/>
-      <c r="J44" s="167"/>
-      <c r="K44" s="167"/>
-      <c r="L44" s="167"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="174"/>
+      <c r="E44" s="174"/>
+      <c r="F44" s="174"/>
+      <c r="G44" s="174"/>
+      <c r="H44" s="174"/>
+      <c r="I44" s="174"/>
+      <c r="J44" s="174"/>
+      <c r="K44" s="174"/>
+      <c r="L44" s="174"/>
       <c r="M44" s="47"/>
-      <c r="N44" s="167" t="s">
+      <c r="N44" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="O44" s="167"/>
-      <c r="P44" s="167"/>
-      <c r="Q44" s="167"/>
-      <c r="R44" s="167"/>
-      <c r="S44" s="167"/>
-      <c r="T44" s="167"/>
-      <c r="U44" s="167"/>
-      <c r="V44" s="167"/>
-      <c r="W44" s="167"/>
-      <c r="X44" s="167"/>
+      <c r="O44" s="174"/>
+      <c r="P44" s="174"/>
+      <c r="Q44" s="174"/>
+      <c r="R44" s="174"/>
+      <c r="S44" s="174"/>
+      <c r="T44" s="174"/>
+      <c r="U44" s="174"/>
+      <c r="V44" s="174"/>
+      <c r="W44" s="174"/>
+      <c r="X44" s="174"/>
       <c r="Y44" s="92"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
@@ -4756,15 +4756,15 @@
     </row>
     <row r="45" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A45" s="11"/>
-      <c r="B45" s="232" t="s">
+      <c r="B45" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="233"/>
-      <c r="D45" s="233"/>
-      <c r="E45" s="233"/>
-      <c r="F45" s="233"/>
-      <c r="G45" s="233"/>
-      <c r="H45" s="234"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="124"/>
       <c r="I45" s="48" t="s">
         <v>61</v>
       </c>
@@ -4776,15 +4776,15 @@
         <v>47</v>
       </c>
       <c r="M45" s="27"/>
-      <c r="N45" s="232" t="s">
+      <c r="N45" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="O45" s="233"/>
-      <c r="P45" s="233"/>
-      <c r="Q45" s="233"/>
-      <c r="R45" s="233"/>
-      <c r="S45" s="233"/>
-      <c r="T45" s="234"/>
+      <c r="O45" s="123"/>
+      <c r="P45" s="123"/>
+      <c r="Q45" s="123"/>
+      <c r="R45" s="123"/>
+      <c r="S45" s="123"/>
+      <c r="T45" s="124"/>
       <c r="U45" s="48" t="s">
         <v>61</v>
       </c>
@@ -4837,25 +4837,25 @@
     </row>
     <row r="46" spans="1:64" ht="25.8" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A46" s="11"/>
-      <c r="B46" s="112"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="114"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="136"/>
       <c r="I46" s="50"/>
       <c r="J46" s="50"/>
       <c r="K46" s="49"/>
       <c r="L46" s="51"/>
       <c r="M46" s="27"/>
-      <c r="N46" s="112"/>
-      <c r="O46" s="113"/>
-      <c r="P46" s="113"/>
-      <c r="Q46" s="113"/>
-      <c r="R46" s="113"/>
-      <c r="S46" s="113"/>
-      <c r="T46" s="114"/>
+      <c r="N46" s="134"/>
+      <c r="O46" s="135"/>
+      <c r="P46" s="135"/>
+      <c r="Q46" s="135"/>
+      <c r="R46" s="135"/>
+      <c r="S46" s="135"/>
+      <c r="T46" s="136"/>
       <c r="U46" s="50"/>
       <c r="V46" s="50"/>
       <c r="W46" s="40"/>
@@ -4902,25 +4902,25 @@
     </row>
     <row r="47" spans="1:64" ht="25.8" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A47" s="11"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="114"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="135"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="135"/>
+      <c r="F47" s="135"/>
+      <c r="G47" s="135"/>
+      <c r="H47" s="136"/>
       <c r="I47" s="50"/>
       <c r="J47" s="50"/>
       <c r="K47" s="49"/>
       <c r="L47" s="51"/>
       <c r="M47" s="27"/>
-      <c r="N47" s="112"/>
-      <c r="O47" s="113"/>
-      <c r="P47" s="113"/>
-      <c r="Q47" s="113"/>
-      <c r="R47" s="113"/>
-      <c r="S47" s="113"/>
-      <c r="T47" s="114"/>
+      <c r="N47" s="134"/>
+      <c r="O47" s="135"/>
+      <c r="P47" s="135"/>
+      <c r="Q47" s="135"/>
+      <c r="R47" s="135"/>
+      <c r="S47" s="135"/>
+      <c r="T47" s="136"/>
       <c r="U47" s="50"/>
       <c r="V47" s="50"/>
       <c r="W47" s="40"/>
@@ -4967,25 +4967,25 @@
     </row>
     <row r="48" spans="1:64" ht="25.8" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A48" s="11"/>
-      <c r="B48" s="112"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="114"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="135"/>
+      <c r="G48" s="135"/>
+      <c r="H48" s="136"/>
       <c r="I48" s="50"/>
       <c r="J48" s="50"/>
       <c r="K48" s="49"/>
       <c r="L48" s="51"/>
       <c r="M48" s="27"/>
-      <c r="N48" s="112"/>
-      <c r="O48" s="113"/>
-      <c r="P48" s="113"/>
-      <c r="Q48" s="113"/>
-      <c r="R48" s="113"/>
-      <c r="S48" s="113"/>
-      <c r="T48" s="114"/>
+      <c r="N48" s="134"/>
+      <c r="O48" s="135"/>
+      <c r="P48" s="135"/>
+      <c r="Q48" s="135"/>
+      <c r="R48" s="135"/>
+      <c r="S48" s="135"/>
+      <c r="T48" s="136"/>
       <c r="U48" s="50"/>
       <c r="V48" s="50"/>
       <c r="W48" s="40"/>
@@ -5032,25 +5032,25 @@
     </row>
     <row r="49" spans="1:64" ht="25.8" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A49" s="11"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="114"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="135"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="135"/>
+      <c r="F49" s="135"/>
+      <c r="G49" s="135"/>
+      <c r="H49" s="136"/>
       <c r="I49" s="50"/>
       <c r="J49" s="50"/>
       <c r="K49" s="40"/>
       <c r="L49" s="51"/>
       <c r="M49" s="53"/>
-      <c r="N49" s="113"/>
-      <c r="O49" s="113"/>
-      <c r="P49" s="113"/>
-      <c r="Q49" s="113"/>
-      <c r="R49" s="113"/>
-      <c r="S49" s="113"/>
-      <c r="T49" s="114"/>
+      <c r="N49" s="135"/>
+      <c r="O49" s="135"/>
+      <c r="P49" s="135"/>
+      <c r="Q49" s="135"/>
+      <c r="R49" s="135"/>
+      <c r="S49" s="135"/>
+      <c r="T49" s="136"/>
       <c r="U49" s="50"/>
       <c r="V49" s="54"/>
       <c r="W49" s="55"/>
@@ -5097,25 +5097,25 @@
     </row>
     <row r="50" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A50" s="11"/>
-      <c r="B50" s="112"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="113"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="114"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="135"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="135"/>
+      <c r="G50" s="135"/>
+      <c r="H50" s="136"/>
       <c r="I50" s="50"/>
       <c r="J50" s="50"/>
       <c r="K50" s="49"/>
       <c r="L50" s="51"/>
       <c r="M50" s="27"/>
-      <c r="N50" s="112"/>
-      <c r="O50" s="113"/>
-      <c r="P50" s="113"/>
-      <c r="Q50" s="113"/>
-      <c r="R50" s="113"/>
-      <c r="S50" s="113"/>
-      <c r="T50" s="114"/>
+      <c r="N50" s="134"/>
+      <c r="O50" s="135"/>
+      <c r="P50" s="135"/>
+      <c r="Q50" s="135"/>
+      <c r="R50" s="135"/>
+      <c r="S50" s="135"/>
+      <c r="T50" s="136"/>
       <c r="U50" s="50"/>
       <c r="V50" s="50"/>
       <c r="W50" s="40"/>
@@ -5162,25 +5162,25 @@
     </row>
     <row r="51" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A51" s="11"/>
-      <c r="B51" s="112"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="114"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="135"/>
+      <c r="F51" s="135"/>
+      <c r="G51" s="135"/>
+      <c r="H51" s="136"/>
       <c r="I51" s="50"/>
       <c r="J51" s="50"/>
       <c r="K51" s="49"/>
       <c r="L51" s="51"/>
       <c r="M51" s="27"/>
-      <c r="N51" s="112"/>
-      <c r="O51" s="113"/>
-      <c r="P51" s="113"/>
-      <c r="Q51" s="113"/>
-      <c r="R51" s="113"/>
-      <c r="S51" s="113"/>
-      <c r="T51" s="114"/>
+      <c r="N51" s="134"/>
+      <c r="O51" s="135"/>
+      <c r="P51" s="135"/>
+      <c r="Q51" s="135"/>
+      <c r="R51" s="135"/>
+      <c r="S51" s="135"/>
+      <c r="T51" s="136"/>
       <c r="U51" s="50"/>
       <c r="V51" s="50"/>
       <c r="W51" s="40"/>
@@ -5227,25 +5227,25 @@
     </row>
     <row r="52" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A52" s="11"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="114"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="135"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="135"/>
+      <c r="F52" s="135"/>
+      <c r="G52" s="135"/>
+      <c r="H52" s="136"/>
       <c r="I52" s="50"/>
       <c r="J52" s="50"/>
       <c r="K52" s="49"/>
       <c r="L52" s="51"/>
       <c r="M52" s="27"/>
-      <c r="N52" s="112"/>
-      <c r="O52" s="113"/>
-      <c r="P52" s="113"/>
-      <c r="Q52" s="113"/>
-      <c r="R52" s="113"/>
-      <c r="S52" s="113"/>
-      <c r="T52" s="114"/>
+      <c r="N52" s="134"/>
+      <c r="O52" s="135"/>
+      <c r="P52" s="135"/>
+      <c r="Q52" s="135"/>
+      <c r="R52" s="135"/>
+      <c r="S52" s="135"/>
+      <c r="T52" s="136"/>
       <c r="U52" s="50"/>
       <c r="V52" s="50"/>
       <c r="W52" s="40"/>
@@ -5292,25 +5292,25 @@
     </row>
     <row r="53" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A53" s="11"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="113"/>
-      <c r="G53" s="113"/>
-      <c r="H53" s="114"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="135"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="135"/>
+      <c r="F53" s="135"/>
+      <c r="G53" s="135"/>
+      <c r="H53" s="136"/>
       <c r="I53" s="50"/>
       <c r="J53" s="50"/>
       <c r="K53" s="49"/>
       <c r="L53" s="51"/>
       <c r="M53" s="27"/>
-      <c r="N53" s="112"/>
-      <c r="O53" s="113"/>
-      <c r="P53" s="113"/>
-      <c r="Q53" s="113"/>
-      <c r="R53" s="113"/>
-      <c r="S53" s="113"/>
-      <c r="T53" s="114"/>
+      <c r="N53" s="134"/>
+      <c r="O53" s="135"/>
+      <c r="P53" s="135"/>
+      <c r="Q53" s="135"/>
+      <c r="R53" s="135"/>
+      <c r="S53" s="135"/>
+      <c r="T53" s="136"/>
       <c r="U53" s="50"/>
       <c r="V53" s="50"/>
       <c r="W53" s="40"/>
@@ -5357,25 +5357,25 @@
     </row>
     <row r="54" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A54" s="11"/>
-      <c r="B54" s="112"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="114"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="135"/>
+      <c r="F54" s="135"/>
+      <c r="G54" s="135"/>
+      <c r="H54" s="136"/>
       <c r="I54" s="50"/>
       <c r="J54" s="50"/>
       <c r="K54" s="49"/>
       <c r="L54" s="51"/>
       <c r="M54" s="27"/>
-      <c r="N54" s="112"/>
-      <c r="O54" s="113"/>
-      <c r="P54" s="113"/>
-      <c r="Q54" s="113"/>
-      <c r="R54" s="113"/>
-      <c r="S54" s="113"/>
-      <c r="T54" s="114"/>
+      <c r="N54" s="134"/>
+      <c r="O54" s="135"/>
+      <c r="P54" s="135"/>
+      <c r="Q54" s="135"/>
+      <c r="R54" s="135"/>
+      <c r="S54" s="135"/>
+      <c r="T54" s="136"/>
       <c r="U54" s="50"/>
       <c r="V54" s="50"/>
       <c r="W54" s="40"/>
@@ -5384,25 +5384,25 @@
     </row>
     <row r="55" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A55" s="11"/>
-      <c r="B55" s="112"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="113"/>
-      <c r="H55" s="114"/>
+      <c r="B55" s="134"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="135"/>
+      <c r="G55" s="135"/>
+      <c r="H55" s="136"/>
       <c r="I55" s="50"/>
       <c r="J55" s="50"/>
       <c r="K55" s="49"/>
       <c r="L55" s="51"/>
       <c r="M55" s="27"/>
-      <c r="N55" s="112"/>
-      <c r="O55" s="113"/>
-      <c r="P55" s="113"/>
-      <c r="Q55" s="113"/>
-      <c r="R55" s="113"/>
-      <c r="S55" s="113"/>
-      <c r="T55" s="114"/>
+      <c r="N55" s="134"/>
+      <c r="O55" s="135"/>
+      <c r="P55" s="135"/>
+      <c r="Q55" s="135"/>
+      <c r="R55" s="135"/>
+      <c r="S55" s="135"/>
+      <c r="T55" s="136"/>
       <c r="U55" s="50"/>
       <c r="V55" s="50"/>
       <c r="W55" s="40"/>
@@ -5411,29 +5411,29 @@
     </row>
     <row r="56" spans="1:64" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A56" s="10"/>
-      <c r="B56" s="184" t="s">
+      <c r="B56" s="188" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="185"/>
-      <c r="D56" s="185"/>
-      <c r="E56" s="185"/>
-      <c r="F56" s="185"/>
-      <c r="G56" s="185"/>
-      <c r="H56" s="185"/>
+      <c r="C56" s="189"/>
+      <c r="D56" s="189"/>
+      <c r="E56" s="189"/>
+      <c r="F56" s="189"/>
+      <c r="G56" s="189"/>
+      <c r="H56" s="189"/>
       <c r="I56" s="46"/>
       <c r="J56" s="56"/>
       <c r="K56" s="33"/>
       <c r="L56" s="57"/>
       <c r="M56" s="46"/>
-      <c r="N56" s="185" t="s">
+      <c r="N56" s="189" t="s">
         <v>60</v>
       </c>
-      <c r="O56" s="185"/>
-      <c r="P56" s="185"/>
-      <c r="Q56" s="185"/>
-      <c r="R56" s="185"/>
-      <c r="S56" s="185"/>
-      <c r="T56" s="185"/>
+      <c r="O56" s="189"/>
+      <c r="P56" s="189"/>
+      <c r="Q56" s="189"/>
+      <c r="R56" s="189"/>
+      <c r="S56" s="189"/>
+      <c r="T56" s="189"/>
       <c r="U56" s="57"/>
       <c r="V56" s="57"/>
       <c r="W56" s="33"/>
@@ -5441,74 +5441,74 @@
       <c r="Y56" s="92"/>
     </row>
     <row r="57" spans="1:64" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="132"/>
-      <c r="B57" s="132"/>
-      <c r="C57" s="132"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="132"/>
-      <c r="F57" s="132"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="132"/>
-      <c r="L57" s="132"/>
-      <c r="M57" s="132"/>
-      <c r="N57" s="132"/>
-      <c r="O57" s="132"/>
-      <c r="P57" s="132"/>
-      <c r="Q57" s="132"/>
-      <c r="R57" s="132"/>
-      <c r="S57" s="132"/>
-      <c r="T57" s="132"/>
-      <c r="U57" s="132"/>
-      <c r="V57" s="132"/>
-      <c r="W57" s="132"/>
-      <c r="X57" s="132"/>
+      <c r="A57" s="106"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="106"/>
+      <c r="K57" s="106"/>
+      <c r="L57" s="106"/>
+      <c r="M57" s="106"/>
+      <c r="N57" s="106"/>
+      <c r="O57" s="106"/>
+      <c r="P57" s="106"/>
+      <c r="Q57" s="106"/>
+      <c r="R57" s="106"/>
+      <c r="S57" s="106"/>
+      <c r="T57" s="106"/>
+      <c r="U57" s="106"/>
+      <c r="V57" s="106"/>
+      <c r="W57" s="106"/>
+      <c r="X57" s="106"/>
       <c r="Y57" s="11"/>
     </row>
     <row r="58" spans="1:64" ht="24" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A58" s="11"/>
-      <c r="B58" s="168" t="s">
+      <c r="B58" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
-      <c r="E58" s="167"/>
-      <c r="F58" s="167"/>
-      <c r="G58" s="167"/>
-      <c r="H58" s="167"/>
-      <c r="I58" s="167"/>
-      <c r="J58" s="167"/>
-      <c r="K58" s="167"/>
-      <c r="L58" s="167"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="174"/>
+      <c r="E58" s="174"/>
+      <c r="F58" s="174"/>
+      <c r="G58" s="174"/>
+      <c r="H58" s="174"/>
+      <c r="I58" s="174"/>
+      <c r="J58" s="174"/>
+      <c r="K58" s="174"/>
+      <c r="L58" s="174"/>
       <c r="M58" s="58"/>
-      <c r="N58" s="167" t="s">
+      <c r="N58" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="O58" s="167"/>
-      <c r="P58" s="167"/>
-      <c r="Q58" s="167"/>
-      <c r="R58" s="167"/>
-      <c r="S58" s="167"/>
-      <c r="T58" s="167"/>
-      <c r="U58" s="167"/>
-      <c r="V58" s="167"/>
-      <c r="W58" s="167"/>
-      <c r="X58" s="167"/>
+      <c r="O58" s="174"/>
+      <c r="P58" s="174"/>
+      <c r="Q58" s="174"/>
+      <c r="R58" s="174"/>
+      <c r="S58" s="174"/>
+      <c r="T58" s="174"/>
+      <c r="U58" s="174"/>
+      <c r="V58" s="174"/>
+      <c r="W58" s="174"/>
+      <c r="X58" s="174"/>
       <c r="Y58" s="92"/>
     </row>
     <row r="59" spans="1:64" ht="24" x14ac:dyDescent="0.85">
       <c r="A59" s="11"/>
-      <c r="B59" s="195" t="s">
+      <c r="B59" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="196"/>
-      <c r="D59" s="196"/>
-      <c r="E59" s="196"/>
-      <c r="F59" s="196"/>
-      <c r="G59" s="196"/>
-      <c r="H59" s="197"/>
+      <c r="C59" s="172"/>
+      <c r="D59" s="172"/>
+      <c r="E59" s="172"/>
+      <c r="F59" s="172"/>
+      <c r="G59" s="172"/>
+      <c r="H59" s="173"/>
       <c r="I59" s="13" t="s">
         <v>61</v>
       </c>
@@ -5520,15 +5520,15 @@
         <v>47</v>
       </c>
       <c r="M59" s="61"/>
-      <c r="N59" s="195" t="s">
+      <c r="N59" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="O59" s="196"/>
-      <c r="P59" s="196"/>
-      <c r="Q59" s="196"/>
-      <c r="R59" s="196"/>
-      <c r="S59" s="196"/>
-      <c r="T59" s="197"/>
+      <c r="O59" s="172"/>
+      <c r="P59" s="172"/>
+      <c r="Q59" s="172"/>
+      <c r="R59" s="172"/>
+      <c r="S59" s="172"/>
+      <c r="T59" s="173"/>
       <c r="U59" s="13" t="s">
         <v>61</v>
       </c>
@@ -5543,25 +5543,25 @@
     </row>
     <row r="60" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A60" s="11"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="113"/>
-      <c r="H60" s="114"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="135"/>
+      <c r="F60" s="135"/>
+      <c r="G60" s="135"/>
+      <c r="H60" s="136"/>
       <c r="I60" s="96"/>
       <c r="J60" s="97"/>
       <c r="K60" s="64"/>
       <c r="L60" s="98"/>
       <c r="M60" s="61"/>
-      <c r="N60" s="112"/>
-      <c r="O60" s="113"/>
-      <c r="P60" s="113"/>
-      <c r="Q60" s="113"/>
-      <c r="R60" s="113"/>
-      <c r="S60" s="113"/>
-      <c r="T60" s="114"/>
+      <c r="N60" s="134"/>
+      <c r="O60" s="135"/>
+      <c r="P60" s="135"/>
+      <c r="Q60" s="135"/>
+      <c r="R60" s="135"/>
+      <c r="S60" s="135"/>
+      <c r="T60" s="136"/>
       <c r="U60" s="97"/>
       <c r="V60" s="97"/>
       <c r="W60" s="64"/>
@@ -5570,25 +5570,25 @@
     </row>
     <row r="61" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A61" s="11"/>
-      <c r="B61" s="112"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="113"/>
-      <c r="F61" s="113"/>
-      <c r="G61" s="113"/>
-      <c r="H61" s="114"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="135"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="135"/>
+      <c r="G61" s="135"/>
+      <c r="H61" s="136"/>
       <c r="I61" s="96"/>
       <c r="J61" s="97"/>
       <c r="K61" s="64"/>
       <c r="L61" s="98"/>
       <c r="M61" s="61"/>
-      <c r="N61" s="112"/>
-      <c r="O61" s="113"/>
-      <c r="P61" s="113"/>
-      <c r="Q61" s="113"/>
-      <c r="R61" s="113"/>
-      <c r="S61" s="113"/>
-      <c r="T61" s="114"/>
+      <c r="N61" s="134"/>
+      <c r="O61" s="135"/>
+      <c r="P61" s="135"/>
+      <c r="Q61" s="135"/>
+      <c r="R61" s="135"/>
+      <c r="S61" s="135"/>
+      <c r="T61" s="136"/>
       <c r="U61" s="97"/>
       <c r="V61" s="97"/>
       <c r="W61" s="64"/>
@@ -5597,25 +5597,25 @@
     </row>
     <row r="62" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A62" s="11"/>
-      <c r="B62" s="201"/>
-      <c r="C62" s="202"/>
-      <c r="D62" s="202"/>
-      <c r="E62" s="202"/>
-      <c r="F62" s="202"/>
-      <c r="G62" s="202"/>
-      <c r="H62" s="203"/>
+      <c r="B62" s="178"/>
+      <c r="C62" s="179"/>
+      <c r="D62" s="179"/>
+      <c r="E62" s="179"/>
+      <c r="F62" s="179"/>
+      <c r="G62" s="179"/>
+      <c r="H62" s="180"/>
       <c r="I62" s="96"/>
       <c r="J62" s="97"/>
       <c r="K62" s="64"/>
       <c r="L62" s="98"/>
       <c r="M62" s="61"/>
-      <c r="N62" s="112"/>
-      <c r="O62" s="113"/>
-      <c r="P62" s="113"/>
-      <c r="Q62" s="113"/>
-      <c r="R62" s="113"/>
-      <c r="S62" s="113"/>
-      <c r="T62" s="114"/>
+      <c r="N62" s="134"/>
+      <c r="O62" s="135"/>
+      <c r="P62" s="135"/>
+      <c r="Q62" s="135"/>
+      <c r="R62" s="135"/>
+      <c r="S62" s="135"/>
+      <c r="T62" s="136"/>
       <c r="U62" s="97"/>
       <c r="V62" s="97"/>
       <c r="W62" s="64"/>
@@ -5624,25 +5624,25 @@
     </row>
     <row r="63" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A63" s="11"/>
-      <c r="B63" s="112"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
-      <c r="G63" s="113"/>
-      <c r="H63" s="114"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="135"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="135"/>
+      <c r="F63" s="135"/>
+      <c r="G63" s="135"/>
+      <c r="H63" s="136"/>
       <c r="I63" s="96"/>
       <c r="J63" s="97"/>
       <c r="K63" s="64"/>
       <c r="L63" s="98"/>
       <c r="M63" s="61"/>
-      <c r="N63" s="112"/>
-      <c r="O63" s="113"/>
-      <c r="P63" s="113"/>
-      <c r="Q63" s="113"/>
-      <c r="R63" s="113"/>
-      <c r="S63" s="113"/>
-      <c r="T63" s="114"/>
+      <c r="N63" s="134"/>
+      <c r="O63" s="135"/>
+      <c r="P63" s="135"/>
+      <c r="Q63" s="135"/>
+      <c r="R63" s="135"/>
+      <c r="S63" s="135"/>
+      <c r="T63" s="136"/>
       <c r="U63" s="97"/>
       <c r="V63" s="97"/>
       <c r="W63" s="64"/>
@@ -5651,25 +5651,25 @@
     </row>
     <row r="64" spans="1:64" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A64" s="11"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="113"/>
-      <c r="F64" s="113"/>
-      <c r="G64" s="113"/>
-      <c r="H64" s="114"/>
+      <c r="B64" s="134"/>
+      <c r="C64" s="135"/>
+      <c r="D64" s="135"/>
+      <c r="E64" s="135"/>
+      <c r="F64" s="135"/>
+      <c r="G64" s="135"/>
+      <c r="H64" s="136"/>
       <c r="I64" s="96"/>
       <c r="J64" s="97"/>
       <c r="K64" s="64"/>
       <c r="L64" s="98"/>
       <c r="M64" s="61"/>
-      <c r="N64" s="112"/>
-      <c r="O64" s="113"/>
-      <c r="P64" s="113"/>
-      <c r="Q64" s="113"/>
-      <c r="R64" s="113"/>
-      <c r="S64" s="113"/>
-      <c r="T64" s="114"/>
+      <c r="N64" s="134"/>
+      <c r="O64" s="135"/>
+      <c r="P64" s="135"/>
+      <c r="Q64" s="135"/>
+      <c r="R64" s="135"/>
+      <c r="S64" s="135"/>
+      <c r="T64" s="136"/>
       <c r="U64" s="97"/>
       <c r="V64" s="97"/>
       <c r="W64" s="64"/>
@@ -5678,25 +5678,25 @@
     </row>
     <row r="65" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A65" s="11"/>
-      <c r="B65" s="112"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
-      <c r="F65" s="113"/>
-      <c r="G65" s="113"/>
-      <c r="H65" s="114"/>
+      <c r="B65" s="134"/>
+      <c r="C65" s="135"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="135"/>
+      <c r="F65" s="135"/>
+      <c r="G65" s="135"/>
+      <c r="H65" s="136"/>
       <c r="I65" s="96"/>
       <c r="J65" s="97"/>
       <c r="K65" s="64"/>
       <c r="L65" s="98"/>
       <c r="M65" s="61"/>
-      <c r="N65" s="112"/>
-      <c r="O65" s="113"/>
-      <c r="P65" s="113"/>
-      <c r="Q65" s="113"/>
-      <c r="R65" s="113"/>
-      <c r="S65" s="113"/>
-      <c r="T65" s="114"/>
+      <c r="N65" s="134"/>
+      <c r="O65" s="135"/>
+      <c r="P65" s="135"/>
+      <c r="Q65" s="135"/>
+      <c r="R65" s="135"/>
+      <c r="S65" s="135"/>
+      <c r="T65" s="136"/>
       <c r="U65" s="97"/>
       <c r="V65" s="97"/>
       <c r="W65" s="64"/>
@@ -5705,25 +5705,25 @@
     </row>
     <row r="66" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A66" s="11"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="113"/>
-      <c r="D66" s="113"/>
-      <c r="E66" s="113"/>
-      <c r="F66" s="113"/>
-      <c r="G66" s="113"/>
-      <c r="H66" s="114"/>
+      <c r="B66" s="134"/>
+      <c r="C66" s="135"/>
+      <c r="D66" s="135"/>
+      <c r="E66" s="135"/>
+      <c r="F66" s="135"/>
+      <c r="G66" s="135"/>
+      <c r="H66" s="136"/>
       <c r="I66" s="96"/>
       <c r="J66" s="97"/>
       <c r="K66" s="64"/>
       <c r="L66" s="98"/>
       <c r="M66" s="61"/>
-      <c r="N66" s="112"/>
-      <c r="O66" s="113"/>
-      <c r="P66" s="113"/>
-      <c r="Q66" s="113"/>
-      <c r="R66" s="113"/>
-      <c r="S66" s="113"/>
-      <c r="T66" s="114"/>
+      <c r="N66" s="134"/>
+      <c r="O66" s="135"/>
+      <c r="P66" s="135"/>
+      <c r="Q66" s="135"/>
+      <c r="R66" s="135"/>
+      <c r="S66" s="135"/>
+      <c r="T66" s="136"/>
       <c r="U66" s="97"/>
       <c r="V66" s="97"/>
       <c r="W66" s="64"/>
@@ -5732,25 +5732,25 @@
     </row>
     <row r="67" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A67" s="11"/>
-      <c r="B67" s="112"/>
-      <c r="C67" s="113"/>
-      <c r="D67" s="113"/>
-      <c r="E67" s="113"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="113"/>
-      <c r="H67" s="114"/>
+      <c r="B67" s="134"/>
+      <c r="C67" s="135"/>
+      <c r="D67" s="135"/>
+      <c r="E67" s="135"/>
+      <c r="F67" s="135"/>
+      <c r="G67" s="135"/>
+      <c r="H67" s="136"/>
       <c r="I67" s="96"/>
       <c r="J67" s="97"/>
       <c r="K67" s="64"/>
       <c r="L67" s="98"/>
       <c r="M67" s="61"/>
-      <c r="N67" s="112"/>
-      <c r="O67" s="113"/>
-      <c r="P67" s="113"/>
-      <c r="Q67" s="113"/>
-      <c r="R67" s="113"/>
-      <c r="S67" s="113"/>
-      <c r="T67" s="114"/>
+      <c r="N67" s="134"/>
+      <c r="O67" s="135"/>
+      <c r="P67" s="135"/>
+      <c r="Q67" s="135"/>
+      <c r="R67" s="135"/>
+      <c r="S67" s="135"/>
+      <c r="T67" s="136"/>
       <c r="U67" s="97"/>
       <c r="V67" s="97"/>
       <c r="W67" s="64"/>
@@ -5759,25 +5759,25 @@
     </row>
     <row r="68" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A68" s="11"/>
-      <c r="B68" s="112"/>
-      <c r="C68" s="113"/>
-      <c r="D68" s="113"/>
-      <c r="E68" s="113"/>
-      <c r="F68" s="113"/>
-      <c r="G68" s="113"/>
-      <c r="H68" s="114"/>
+      <c r="B68" s="134"/>
+      <c r="C68" s="135"/>
+      <c r="D68" s="135"/>
+      <c r="E68" s="135"/>
+      <c r="F68" s="135"/>
+      <c r="G68" s="135"/>
+      <c r="H68" s="136"/>
       <c r="I68" s="96"/>
       <c r="J68" s="97"/>
       <c r="K68" s="64"/>
       <c r="L68" s="98"/>
       <c r="M68" s="61"/>
-      <c r="N68" s="112"/>
-      <c r="O68" s="113"/>
-      <c r="P68" s="113"/>
-      <c r="Q68" s="113"/>
-      <c r="R68" s="113"/>
-      <c r="S68" s="113"/>
-      <c r="T68" s="114"/>
+      <c r="N68" s="134"/>
+      <c r="O68" s="135"/>
+      <c r="P68" s="135"/>
+      <c r="Q68" s="135"/>
+      <c r="R68" s="135"/>
+      <c r="S68" s="135"/>
+      <c r="T68" s="136"/>
       <c r="U68" s="97"/>
       <c r="V68" s="97"/>
       <c r="W68" s="64"/>
@@ -5786,25 +5786,25 @@
     </row>
     <row r="69" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A69" s="11"/>
-      <c r="B69" s="112"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="113"/>
-      <c r="H69" s="114"/>
+      <c r="B69" s="134"/>
+      <c r="C69" s="135"/>
+      <c r="D69" s="135"/>
+      <c r="E69" s="135"/>
+      <c r="F69" s="135"/>
+      <c r="G69" s="135"/>
+      <c r="H69" s="136"/>
       <c r="I69" s="97"/>
       <c r="J69" s="97"/>
       <c r="K69" s="64"/>
       <c r="L69" s="98"/>
       <c r="M69" s="61"/>
-      <c r="N69" s="112"/>
-      <c r="O69" s="113"/>
-      <c r="P69" s="113"/>
-      <c r="Q69" s="113"/>
-      <c r="R69" s="113"/>
-      <c r="S69" s="113"/>
-      <c r="T69" s="114"/>
+      <c r="N69" s="134"/>
+      <c r="O69" s="135"/>
+      <c r="P69" s="135"/>
+      <c r="Q69" s="135"/>
+      <c r="R69" s="135"/>
+      <c r="S69" s="135"/>
+      <c r="T69" s="136"/>
       <c r="U69" s="97"/>
       <c r="V69" s="97"/>
       <c r="W69" s="64"/>
@@ -5813,29 +5813,29 @@
     </row>
     <row r="70" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A70" s="11"/>
-      <c r="B70" s="184" t="s">
+      <c r="B70" s="188" t="s">
         <v>60</v>
       </c>
-      <c r="C70" s="185"/>
-      <c r="D70" s="185"/>
-      <c r="E70" s="185"/>
-      <c r="F70" s="185"/>
-      <c r="G70" s="185"/>
-      <c r="H70" s="185"/>
+      <c r="C70" s="189"/>
+      <c r="D70" s="189"/>
+      <c r="E70" s="189"/>
+      <c r="F70" s="189"/>
+      <c r="G70" s="189"/>
+      <c r="H70" s="189"/>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
       <c r="K70" s="66"/>
       <c r="L70" s="15"/>
       <c r="M70" s="66"/>
-      <c r="N70" s="185" t="s">
+      <c r="N70" s="189" t="s">
         <v>60</v>
       </c>
-      <c r="O70" s="185"/>
-      <c r="P70" s="185"/>
-      <c r="Q70" s="185"/>
-      <c r="R70" s="185"/>
-      <c r="S70" s="185"/>
-      <c r="T70" s="185"/>
+      <c r="O70" s="189"/>
+      <c r="P70" s="189"/>
+      <c r="Q70" s="189"/>
+      <c r="R70" s="189"/>
+      <c r="S70" s="189"/>
+      <c r="T70" s="189"/>
       <c r="U70" s="15"/>
       <c r="V70" s="15"/>
       <c r="W70" s="66"/>
@@ -5844,58 +5844,58 @@
     </row>
     <row r="71" spans="1:25" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
-      <c r="B71" s="154"/>
-      <c r="C71" s="154"/>
-      <c r="D71" s="154"/>
-      <c r="E71" s="154"/>
-      <c r="F71" s="154"/>
-      <c r="G71" s="154"/>
-      <c r="H71" s="154"/>
-      <c r="I71" s="154"/>
-      <c r="J71" s="154"/>
-      <c r="K71" s="154"/>
-      <c r="L71" s="154"/>
-      <c r="M71" s="154"/>
-      <c r="N71" s="154"/>
-      <c r="O71" s="154"/>
-      <c r="P71" s="154"/>
-      <c r="Q71" s="154"/>
-      <c r="R71" s="154"/>
-      <c r="S71" s="154"/>
-      <c r="T71" s="154"/>
-      <c r="U71" s="154"/>
-      <c r="V71" s="154"/>
-      <c r="W71" s="154"/>
-      <c r="X71" s="213"/>
+      <c r="B71" s="153"/>
+      <c r="C71" s="153"/>
+      <c r="D71" s="153"/>
+      <c r="E71" s="153"/>
+      <c r="F71" s="153"/>
+      <c r="G71" s="153"/>
+      <c r="H71" s="153"/>
+      <c r="I71" s="153"/>
+      <c r="J71" s="153"/>
+      <c r="K71" s="153"/>
+      <c r="L71" s="153"/>
+      <c r="M71" s="153"/>
+      <c r="N71" s="153"/>
+      <c r="O71" s="153"/>
+      <c r="P71" s="153"/>
+      <c r="Q71" s="153"/>
+      <c r="R71" s="153"/>
+      <c r="S71" s="153"/>
+      <c r="T71" s="153"/>
+      <c r="U71" s="153"/>
+      <c r="V71" s="153"/>
+      <c r="W71" s="153"/>
+      <c r="X71" s="154"/>
       <c r="Y71" s="90"/>
     </row>
     <row r="72" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A72" s="11"/>
-      <c r="B72" s="152" t="s">
+      <c r="B72" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="153"/>
-      <c r="D72" s="153"/>
-      <c r="E72" s="153"/>
-      <c r="F72" s="153"/>
-      <c r="G72" s="153"/>
-      <c r="H72" s="153"/>
-      <c r="I72" s="153"/>
-      <c r="J72" s="153"/>
-      <c r="K72" s="153"/>
-      <c r="L72" s="153"/>
-      <c r="M72" s="153"/>
-      <c r="N72" s="153"/>
-      <c r="O72" s="153"/>
-      <c r="P72" s="153"/>
-      <c r="Q72" s="153"/>
-      <c r="R72" s="153"/>
-      <c r="S72" s="153"/>
-      <c r="T72" s="153"/>
-      <c r="U72" s="153"/>
-      <c r="V72" s="153"/>
-      <c r="W72" s="153"/>
-      <c r="X72" s="194"/>
+      <c r="C72" s="161"/>
+      <c r="D72" s="161"/>
+      <c r="E72" s="161"/>
+      <c r="F72" s="161"/>
+      <c r="G72" s="161"/>
+      <c r="H72" s="161"/>
+      <c r="I72" s="161"/>
+      <c r="J72" s="161"/>
+      <c r="K72" s="161"/>
+      <c r="L72" s="161"/>
+      <c r="M72" s="161"/>
+      <c r="N72" s="161"/>
+      <c r="O72" s="161"/>
+      <c r="P72" s="161"/>
+      <c r="Q72" s="161"/>
+      <c r="R72" s="161"/>
+      <c r="S72" s="161"/>
+      <c r="T72" s="161"/>
+      <c r="U72" s="161"/>
+      <c r="V72" s="161"/>
+      <c r="W72" s="161"/>
+      <c r="X72" s="162"/>
       <c r="Y72" s="91"/>
     </row>
     <row r="73" spans="1:25" ht="24" x14ac:dyDescent="0.85">
@@ -5931,27 +5931,27 @@
     </row>
     <row r="74" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A74" s="11"/>
-      <c r="B74" s="134" t="s">
+      <c r="B74" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="135"/>
-      <c r="D74" s="135"/>
-      <c r="E74" s="135"/>
-      <c r="F74" s="135"/>
-      <c r="G74" s="135"/>
-      <c r="H74" s="135"/>
-      <c r="I74" s="135"/>
-      <c r="J74" s="135"/>
-      <c r="K74" s="135"/>
-      <c r="L74" s="135"/>
-      <c r="M74" s="136"/>
-      <c r="N74" s="178"/>
-      <c r="O74" s="179"/>
-      <c r="P74" s="179"/>
-      <c r="Q74" s="179"/>
-      <c r="R74" s="179"/>
-      <c r="S74" s="179"/>
-      <c r="T74" s="180"/>
+      <c r="C74" s="147"/>
+      <c r="D74" s="147"/>
+      <c r="E74" s="147"/>
+      <c r="F74" s="147"/>
+      <c r="G74" s="147"/>
+      <c r="H74" s="147"/>
+      <c r="I74" s="147"/>
+      <c r="J74" s="147"/>
+      <c r="K74" s="147"/>
+      <c r="L74" s="147"/>
+      <c r="M74" s="148"/>
+      <c r="N74" s="131"/>
+      <c r="O74" s="132"/>
+      <c r="P74" s="132"/>
+      <c r="Q74" s="132"/>
+      <c r="R74" s="132"/>
+      <c r="S74" s="132"/>
+      <c r="T74" s="133"/>
       <c r="U74" s="27"/>
       <c r="V74" s="70"/>
       <c r="W74" s="70"/>
@@ -5960,27 +5960,27 @@
     </row>
     <row r="75" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A75" s="11"/>
-      <c r="B75" s="134" t="s">
+      <c r="B75" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="135"/>
-      <c r="D75" s="135"/>
-      <c r="E75" s="135"/>
-      <c r="F75" s="135"/>
-      <c r="G75" s="135"/>
-      <c r="H75" s="135"/>
-      <c r="I75" s="135"/>
-      <c r="J75" s="135"/>
-      <c r="K75" s="135"/>
-      <c r="L75" s="135"/>
-      <c r="M75" s="136"/>
-      <c r="N75" s="198"/>
-      <c r="O75" s="199"/>
-      <c r="P75" s="199"/>
-      <c r="Q75" s="199"/>
-      <c r="R75" s="199"/>
-      <c r="S75" s="199"/>
-      <c r="T75" s="200"/>
+      <c r="C75" s="147"/>
+      <c r="D75" s="147"/>
+      <c r="E75" s="147"/>
+      <c r="F75" s="147"/>
+      <c r="G75" s="147"/>
+      <c r="H75" s="147"/>
+      <c r="I75" s="147"/>
+      <c r="J75" s="147"/>
+      <c r="K75" s="147"/>
+      <c r="L75" s="147"/>
+      <c r="M75" s="148"/>
+      <c r="N75" s="175"/>
+      <c r="O75" s="176"/>
+      <c r="P75" s="176"/>
+      <c r="Q75" s="176"/>
+      <c r="R75" s="176"/>
+      <c r="S75" s="176"/>
+      <c r="T75" s="177"/>
       <c r="U75" s="72"/>
       <c r="V75" s="70"/>
       <c r="W75" s="70"/>
@@ -6010,9 +6010,9 @@
       <c r="T76" s="12"/>
       <c r="U76" s="12"/>
       <c r="V76" s="12"/>
-      <c r="W76" s="132"/>
-      <c r="X76" s="132"/>
-      <c r="Y76" s="132"/>
+      <c r="W76" s="106"/>
+      <c r="X76" s="106"/>
+      <c r="Y76" s="106"/>
     </row>
     <row r="77" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12"/>
@@ -6074,27 +6074,27 @@
     </row>
     <row r="79" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A79" s="10"/>
-      <c r="B79" s="134" t="s">
+      <c r="B79" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="135"/>
-      <c r="D79" s="135"/>
-      <c r="E79" s="135"/>
-      <c r="F79" s="135"/>
-      <c r="G79" s="135"/>
-      <c r="H79" s="135"/>
-      <c r="I79" s="135"/>
-      <c r="J79" s="135"/>
-      <c r="K79" s="135"/>
-      <c r="L79" s="135"/>
-      <c r="M79" s="136"/>
-      <c r="N79" s="178"/>
-      <c r="O79" s="179"/>
-      <c r="P79" s="179"/>
-      <c r="Q79" s="179"/>
-      <c r="R79" s="179"/>
-      <c r="S79" s="179"/>
-      <c r="T79" s="180"/>
+      <c r="C79" s="147"/>
+      <c r="D79" s="147"/>
+      <c r="E79" s="147"/>
+      <c r="F79" s="147"/>
+      <c r="G79" s="147"/>
+      <c r="H79" s="147"/>
+      <c r="I79" s="147"/>
+      <c r="J79" s="147"/>
+      <c r="K79" s="147"/>
+      <c r="L79" s="147"/>
+      <c r="M79" s="148"/>
+      <c r="N79" s="131"/>
+      <c r="O79" s="132"/>
+      <c r="P79" s="132"/>
+      <c r="Q79" s="132"/>
+      <c r="R79" s="132"/>
+      <c r="S79" s="132"/>
+      <c r="T79" s="133"/>
       <c r="U79" s="53"/>
       <c r="V79" s="70"/>
       <c r="W79" s="70"/>
@@ -6103,31 +6103,31 @@
     </row>
     <row r="80" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A80" s="10"/>
-      <c r="B80" s="211" t="s">
+      <c r="B80" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="212"/>
-      <c r="D80" s="212"/>
-      <c r="E80" s="212"/>
-      <c r="F80" s="212"/>
-      <c r="G80" s="212"/>
-      <c r="H80" s="212"/>
-      <c r="I80" s="212"/>
-      <c r="J80" s="212"/>
-      <c r="K80" s="212"/>
-      <c r="L80" s="212"/>
-      <c r="M80" s="212"/>
-      <c r="N80" s="212"/>
-      <c r="O80" s="212"/>
-      <c r="P80" s="212"/>
-      <c r="Q80" s="212"/>
-      <c r="R80" s="212"/>
-      <c r="S80" s="212"/>
-      <c r="T80" s="212"/>
-      <c r="U80" s="212"/>
-      <c r="V80" s="212"/>
-      <c r="W80" s="212"/>
-      <c r="X80" s="236"/>
+      <c r="C80" s="128"/>
+      <c r="D80" s="128"/>
+      <c r="E80" s="128"/>
+      <c r="F80" s="128"/>
+      <c r="G80" s="128"/>
+      <c r="H80" s="128"/>
+      <c r="I80" s="128"/>
+      <c r="J80" s="128"/>
+      <c r="K80" s="128"/>
+      <c r="L80" s="128"/>
+      <c r="M80" s="128"/>
+      <c r="N80" s="128"/>
+      <c r="O80" s="128"/>
+      <c r="P80" s="128"/>
+      <c r="Q80" s="128"/>
+      <c r="R80" s="128"/>
+      <c r="S80" s="128"/>
+      <c r="T80" s="128"/>
+      <c r="U80" s="128"/>
+      <c r="V80" s="128"/>
+      <c r="W80" s="128"/>
+      <c r="X80" s="129"/>
       <c r="Y80" s="91"/>
     </row>
     <row r="81" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.85">
@@ -6167,28 +6167,28 @@
     </row>
     <row r="82" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A82" s="11"/>
-      <c r="B82" s="178" t="s">
+      <c r="B82" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="179"/>
-      <c r="D82" s="179"/>
-      <c r="E82" s="179"/>
-      <c r="F82" s="179"/>
-      <c r="G82" s="180"/>
+      <c r="C82" s="132"/>
+      <c r="D82" s="132"/>
+      <c r="E82" s="132"/>
+      <c r="F82" s="132"/>
+      <c r="G82" s="133"/>
       <c r="H82" s="27"/>
       <c r="I82" s="63"/>
       <c r="J82" s="27"/>
       <c r="K82" s="70"/>
       <c r="L82" s="70"/>
       <c r="M82" s="27"/>
-      <c r="N82" s="178" t="s">
+      <c r="N82" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="O82" s="179"/>
-      <c r="P82" s="179"/>
-      <c r="Q82" s="179"/>
-      <c r="R82" s="179"/>
-      <c r="S82" s="180"/>
+      <c r="O82" s="132"/>
+      <c r="P82" s="132"/>
+      <c r="Q82" s="132"/>
+      <c r="R82" s="132"/>
+      <c r="S82" s="133"/>
       <c r="T82" s="27"/>
       <c r="U82" s="63"/>
       <c r="V82" s="27"/>
@@ -6198,28 +6198,28 @@
     </row>
     <row r="83" spans="1:25" ht="25.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A83" s="11"/>
-      <c r="B83" s="178" t="s">
+      <c r="B83" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="179"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="179"/>
-      <c r="F83" s="179"/>
-      <c r="G83" s="180"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="132"/>
+      <c r="E83" s="132"/>
+      <c r="F83" s="132"/>
+      <c r="G83" s="133"/>
       <c r="H83" s="27"/>
       <c r="I83" s="63"/>
       <c r="J83" s="27"/>
       <c r="K83" s="70"/>
       <c r="L83" s="70"/>
       <c r="M83" s="27"/>
-      <c r="N83" s="178" t="s">
+      <c r="N83" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="O83" s="179"/>
-      <c r="P83" s="179"/>
-      <c r="Q83" s="179"/>
-      <c r="R83" s="179"/>
-      <c r="S83" s="180"/>
+      <c r="O83" s="132"/>
+      <c r="P83" s="132"/>
+      <c r="Q83" s="132"/>
+      <c r="R83" s="132"/>
+      <c r="S83" s="133"/>
       <c r="T83" s="27"/>
       <c r="U83" s="63"/>
       <c r="V83" s="27"/>
@@ -6229,28 +6229,28 @@
     </row>
     <row r="84" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A84" s="11"/>
-      <c r="B84" s="178" t="s">
+      <c r="B84" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="179"/>
-      <c r="D84" s="179"/>
-      <c r="E84" s="179"/>
-      <c r="F84" s="179"/>
-      <c r="G84" s="180"/>
+      <c r="C84" s="132"/>
+      <c r="D84" s="132"/>
+      <c r="E84" s="132"/>
+      <c r="F84" s="132"/>
+      <c r="G84" s="133"/>
       <c r="H84" s="27"/>
       <c r="I84" s="63"/>
       <c r="J84" s="27"/>
       <c r="K84" s="70"/>
       <c r="L84" s="70"/>
       <c r="M84" s="27"/>
-      <c r="N84" s="178" t="s">
+      <c r="N84" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="O84" s="179"/>
-      <c r="P84" s="179"/>
-      <c r="Q84" s="179"/>
-      <c r="R84" s="179"/>
-      <c r="S84" s="180"/>
+      <c r="O84" s="132"/>
+      <c r="P84" s="132"/>
+      <c r="Q84" s="132"/>
+      <c r="R84" s="132"/>
+      <c r="S84" s="133"/>
       <c r="T84" s="27"/>
       <c r="U84" s="63"/>
       <c r="V84" s="27"/>
@@ -6260,28 +6260,28 @@
     </row>
     <row r="85" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A85" s="11"/>
-      <c r="B85" s="178" t="s">
+      <c r="B85" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="179"/>
-      <c r="D85" s="179"/>
-      <c r="E85" s="179"/>
-      <c r="F85" s="179"/>
-      <c r="G85" s="180"/>
+      <c r="C85" s="132"/>
+      <c r="D85" s="132"/>
+      <c r="E85" s="132"/>
+      <c r="F85" s="132"/>
+      <c r="G85" s="133"/>
       <c r="H85" s="27"/>
       <c r="I85" s="63"/>
       <c r="J85" s="27"/>
       <c r="K85" s="70"/>
       <c r="L85" s="70"/>
       <c r="M85" s="27"/>
-      <c r="N85" s="178" t="s">
+      <c r="N85" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="O85" s="179"/>
-      <c r="P85" s="179"/>
-      <c r="Q85" s="179"/>
-      <c r="R85" s="179"/>
-      <c r="S85" s="180"/>
+      <c r="O85" s="132"/>
+      <c r="P85" s="132"/>
+      <c r="Q85" s="132"/>
+      <c r="R85" s="132"/>
+      <c r="S85" s="133"/>
       <c r="T85" s="27"/>
       <c r="U85" s="63"/>
       <c r="V85" s="27"/>
@@ -6291,28 +6291,28 @@
     </row>
     <row r="86" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A86" s="11"/>
-      <c r="B86" s="178" t="s">
+      <c r="B86" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="179"/>
-      <c r="D86" s="179"/>
-      <c r="E86" s="179"/>
-      <c r="F86" s="179"/>
-      <c r="G86" s="180"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="132"/>
+      <c r="G86" s="133"/>
       <c r="H86" s="46"/>
       <c r="I86" s="63"/>
       <c r="J86" s="46"/>
       <c r="K86" s="70"/>
       <c r="L86" s="70"/>
       <c r="M86" s="46"/>
-      <c r="N86" s="178" t="s">
+      <c r="N86" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="O86" s="179"/>
-      <c r="P86" s="179"/>
-      <c r="Q86" s="179"/>
-      <c r="R86" s="179"/>
-      <c r="S86" s="180"/>
+      <c r="O86" s="132"/>
+      <c r="P86" s="132"/>
+      <c r="Q86" s="132"/>
+      <c r="R86" s="132"/>
+      <c r="S86" s="133"/>
       <c r="T86" s="46"/>
       <c r="U86" s="63"/>
       <c r="V86" s="46"/>
@@ -6321,30 +6321,30 @@
       <c r="Y86" s="92"/>
     </row>
     <row r="87" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="132"/>
-      <c r="B87" s="132"/>
-      <c r="C87" s="132"/>
-      <c r="D87" s="132"/>
-      <c r="E87" s="132"/>
-      <c r="F87" s="132"/>
-      <c r="G87" s="132"/>
-      <c r="H87" s="132"/>
-      <c r="I87" s="132"/>
-      <c r="J87" s="132"/>
-      <c r="K87" s="132"/>
-      <c r="L87" s="132"/>
-      <c r="M87" s="132"/>
-      <c r="N87" s="132"/>
-      <c r="O87" s="132"/>
-      <c r="P87" s="132"/>
-      <c r="Q87" s="132"/>
-      <c r="R87" s="132"/>
-      <c r="S87" s="132"/>
-      <c r="T87" s="132"/>
-      <c r="U87" s="132"/>
-      <c r="V87" s="132"/>
-      <c r="W87" s="132"/>
-      <c r="X87" s="132"/>
+      <c r="A87" s="106"/>
+      <c r="B87" s="106"/>
+      <c r="C87" s="106"/>
+      <c r="D87" s="106"/>
+      <c r="E87" s="106"/>
+      <c r="F87" s="106"/>
+      <c r="G87" s="106"/>
+      <c r="H87" s="106"/>
+      <c r="I87" s="106"/>
+      <c r="J87" s="106"/>
+      <c r="K87" s="106"/>
+      <c r="L87" s="106"/>
+      <c r="M87" s="106"/>
+      <c r="N87" s="106"/>
+      <c r="O87" s="106"/>
+      <c r="P87" s="106"/>
+      <c r="Q87" s="106"/>
+      <c r="R87" s="106"/>
+      <c r="S87" s="106"/>
+      <c r="T87" s="106"/>
+      <c r="U87" s="106"/>
+      <c r="V87" s="106"/>
+      <c r="W87" s="106"/>
+      <c r="X87" s="106"/>
       <c r="Y87" s="11"/>
     </row>
     <row r="88" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.85">
@@ -6376,28 +6376,28 @@
     </row>
     <row r="89" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A89" s="11"/>
-      <c r="B89" s="211" t="s">
+      <c r="B89" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="C89" s="212"/>
-      <c r="D89" s="212"/>
-      <c r="E89" s="212"/>
-      <c r="F89" s="212"/>
-      <c r="G89" s="212"/>
-      <c r="H89" s="212"/>
-      <c r="I89" s="212"/>
-      <c r="J89" s="212"/>
-      <c r="K89" s="212"/>
-      <c r="L89" s="212"/>
-      <c r="M89" s="212"/>
-      <c r="N89" s="212"/>
-      <c r="O89" s="212"/>
-      <c r="P89" s="212"/>
-      <c r="Q89" s="212"/>
-      <c r="R89" s="212"/>
-      <c r="S89" s="212"/>
-      <c r="T89" s="212"/>
-      <c r="U89" s="212"/>
+      <c r="C89" s="128"/>
+      <c r="D89" s="128"/>
+      <c r="E89" s="128"/>
+      <c r="F89" s="128"/>
+      <c r="G89" s="128"/>
+      <c r="H89" s="128"/>
+      <c r="I89" s="128"/>
+      <c r="J89" s="128"/>
+      <c r="K89" s="128"/>
+      <c r="L89" s="128"/>
+      <c r="M89" s="128"/>
+      <c r="N89" s="128"/>
+      <c r="O89" s="128"/>
+      <c r="P89" s="128"/>
+      <c r="Q89" s="128"/>
+      <c r="R89" s="128"/>
+      <c r="S89" s="128"/>
+      <c r="T89" s="128"/>
+      <c r="U89" s="128"/>
       <c r="V89" s="68" t="s">
         <v>1</v>
       </c>
@@ -6409,25 +6409,25 @@
     </row>
     <row r="90" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A90" s="11"/>
-      <c r="B90" s="188"/>
-      <c r="C90" s="189"/>
-      <c r="D90" s="189"/>
-      <c r="E90" s="189"/>
-      <c r="F90" s="189"/>
-      <c r="G90" s="189"/>
-      <c r="H90" s="189"/>
-      <c r="I90" s="189"/>
-      <c r="J90" s="189"/>
-      <c r="K90" s="189"/>
-      <c r="L90" s="189"/>
-      <c r="M90" s="189"/>
-      <c r="N90" s="189"/>
-      <c r="O90" s="189"/>
-      <c r="P90" s="189"/>
-      <c r="Q90" s="189"/>
-      <c r="R90" s="189"/>
-      <c r="S90" s="189"/>
-      <c r="T90" s="190"/>
+      <c r="B90" s="181"/>
+      <c r="C90" s="182"/>
+      <c r="D90" s="182"/>
+      <c r="E90" s="182"/>
+      <c r="F90" s="182"/>
+      <c r="G90" s="182"/>
+      <c r="H90" s="182"/>
+      <c r="I90" s="182"/>
+      <c r="J90" s="182"/>
+      <c r="K90" s="182"/>
+      <c r="L90" s="182"/>
+      <c r="M90" s="182"/>
+      <c r="N90" s="182"/>
+      <c r="O90" s="182"/>
+      <c r="P90" s="182"/>
+      <c r="Q90" s="182"/>
+      <c r="R90" s="182"/>
+      <c r="S90" s="182"/>
+      <c r="T90" s="183"/>
       <c r="U90" s="72"/>
       <c r="V90" s="70"/>
       <c r="W90" s="70"/>
@@ -6435,90 +6435,90 @@
       <c r="Y90" s="92"/>
     </row>
     <row r="91" spans="1:25" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="132"/>
-      <c r="B91" s="132"/>
-      <c r="C91" s="132"/>
-      <c r="D91" s="132"/>
-      <c r="E91" s="132"/>
-      <c r="F91" s="132"/>
-      <c r="G91" s="132"/>
-      <c r="H91" s="132"/>
-      <c r="I91" s="132"/>
-      <c r="J91" s="132"/>
-      <c r="K91" s="132"/>
-      <c r="L91" s="132"/>
-      <c r="M91" s="132"/>
-      <c r="N91" s="132"/>
-      <c r="O91" s="132"/>
-      <c r="P91" s="132"/>
-      <c r="Q91" s="132"/>
-      <c r="R91" s="132"/>
-      <c r="S91" s="132"/>
-      <c r="T91" s="132"/>
-      <c r="U91" s="132"/>
-      <c r="V91" s="132"/>
-      <c r="W91" s="132"/>
-      <c r="X91" s="132"/>
-      <c r="Y91" s="132"/>
+      <c r="A91" s="106"/>
+      <c r="B91" s="106"/>
+      <c r="C91" s="106"/>
+      <c r="D91" s="106"/>
+      <c r="E91" s="106"/>
+      <c r="F91" s="106"/>
+      <c r="G91" s="106"/>
+      <c r="H91" s="106"/>
+      <c r="I91" s="106"/>
+      <c r="J91" s="106"/>
+      <c r="K91" s="106"/>
+      <c r="L91" s="106"/>
+      <c r="M91" s="106"/>
+      <c r="N91" s="106"/>
+      <c r="O91" s="106"/>
+      <c r="P91" s="106"/>
+      <c r="Q91" s="106"/>
+      <c r="R91" s="106"/>
+      <c r="S91" s="106"/>
+      <c r="T91" s="106"/>
+      <c r="U91" s="106"/>
+      <c r="V91" s="106"/>
+      <c r="W91" s="106"/>
+      <c r="X91" s="106"/>
+      <c r="Y91" s="106"/>
     </row>
     <row r="92" spans="1:25" ht="16.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A92" s="131"/>
-      <c r="B92" s="204" t="s">
+      <c r="A92" s="155"/>
+      <c r="B92" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="C92" s="204"/>
-      <c r="D92" s="204"/>
-      <c r="E92" s="204"/>
-      <c r="F92" s="204"/>
-      <c r="G92" s="204"/>
-      <c r="H92" s="204"/>
-      <c r="I92" s="204"/>
-      <c r="J92" s="204"/>
-      <c r="K92" s="204"/>
-      <c r="L92" s="204"/>
-      <c r="M92" s="204"/>
-      <c r="N92" s="204"/>
-      <c r="O92" s="204"/>
-      <c r="P92" s="204"/>
-      <c r="Q92" s="204"/>
-      <c r="R92" s="204"/>
-      <c r="S92" s="204"/>
-      <c r="T92" s="204"/>
-      <c r="U92" s="205"/>
-      <c r="V92" s="205"/>
-      <c r="W92" s="205"/>
-      <c r="X92" s="205"/>
+      <c r="C92" s="109"/>
+      <c r="D92" s="109"/>
+      <c r="E92" s="109"/>
+      <c r="F92" s="109"/>
+      <c r="G92" s="109"/>
+      <c r="H92" s="109"/>
+      <c r="I92" s="109"/>
+      <c r="J92" s="109"/>
+      <c r="K92" s="109"/>
+      <c r="L92" s="109"/>
+      <c r="M92" s="109"/>
+      <c r="N92" s="109"/>
+      <c r="O92" s="109"/>
+      <c r="P92" s="109"/>
+      <c r="Q92" s="109"/>
+      <c r="R92" s="109"/>
+      <c r="S92" s="109"/>
+      <c r="T92" s="109"/>
+      <c r="U92" s="166"/>
+      <c r="V92" s="166"/>
+      <c r="W92" s="166"/>
+      <c r="X92" s="166"/>
       <c r="Y92" s="91"/>
     </row>
     <row r="93" spans="1:25" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A93" s="131"/>
-      <c r="B93" s="237" t="s">
+      <c r="A93" s="155"/>
+      <c r="B93" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="C93" s="237"/>
-      <c r="D93" s="237"/>
-      <c r="E93" s="237"/>
-      <c r="F93" s="237"/>
-      <c r="G93" s="237"/>
-      <c r="H93" s="237"/>
-      <c r="I93" s="237"/>
-      <c r="J93" s="237"/>
-      <c r="K93" s="237"/>
-      <c r="L93" s="237" t="s">
+      <c r="C93" s="130"/>
+      <c r="D93" s="130"/>
+      <c r="E93" s="130"/>
+      <c r="F93" s="130"/>
+      <c r="G93" s="130"/>
+      <c r="H93" s="130"/>
+      <c r="I93" s="130"/>
+      <c r="J93" s="130"/>
+      <c r="K93" s="130"/>
+      <c r="L93" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="M93" s="237"/>
-      <c r="N93" s="237"/>
-      <c r="O93" s="237" t="s">
+      <c r="M93" s="130"/>
+      <c r="N93" s="130"/>
+      <c r="O93" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="P93" s="237"/>
-      <c r="Q93" s="237"/>
-      <c r="R93" s="237" t="s">
+      <c r="P93" s="130"/>
+      <c r="Q93" s="130"/>
+      <c r="R93" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="S93" s="237"/>
-      <c r="T93" s="237"/>
+      <c r="S93" s="130"/>
+      <c r="T93" s="130"/>
       <c r="U93" s="27"/>
       <c r="V93" s="79" t="s">
         <v>1</v>
@@ -6530,28 +6530,28 @@
       <c r="Y93" s="91"/>
     </row>
     <row r="94" spans="1:25" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A94" s="131"/>
-      <c r="B94" s="187" t="s">
+      <c r="A94" s="155"/>
+      <c r="B94" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="187"/>
-      <c r="D94" s="187"/>
-      <c r="E94" s="187"/>
-      <c r="F94" s="187"/>
-      <c r="G94" s="187"/>
-      <c r="H94" s="187"/>
-      <c r="I94" s="187"/>
-      <c r="J94" s="187"/>
-      <c r="K94" s="187"/>
-      <c r="L94" s="186"/>
-      <c r="M94" s="186"/>
-      <c r="N94" s="186"/>
-      <c r="O94" s="186"/>
-      <c r="P94" s="186"/>
-      <c r="Q94" s="186"/>
-      <c r="R94" s="186"/>
-      <c r="S94" s="186"/>
-      <c r="T94" s="186"/>
+      <c r="C94" s="111"/>
+      <c r="D94" s="111"/>
+      <c r="E94" s="111"/>
+      <c r="F94" s="111"/>
+      <c r="G94" s="111"/>
+      <c r="H94" s="111"/>
+      <c r="I94" s="111"/>
+      <c r="J94" s="111"/>
+      <c r="K94" s="111"/>
+      <c r="L94" s="112"/>
+      <c r="M94" s="112"/>
+      <c r="N94" s="112"/>
+      <c r="O94" s="112"/>
+      <c r="P94" s="112"/>
+      <c r="Q94" s="112"/>
+      <c r="R94" s="112"/>
+      <c r="S94" s="112"/>
+      <c r="T94" s="112"/>
       <c r="U94" s="25"/>
       <c r="V94" s="51"/>
       <c r="W94" s="51"/>
@@ -6559,28 +6559,28 @@
       <c r="Y94" s="91"/>
     </row>
     <row r="95" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A95" s="131"/>
-      <c r="B95" s="187" t="s">
+      <c r="A95" s="155"/>
+      <c r="B95" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="C95" s="187"/>
-      <c r="D95" s="187"/>
-      <c r="E95" s="187"/>
-      <c r="F95" s="187"/>
-      <c r="G95" s="187"/>
-      <c r="H95" s="187"/>
-      <c r="I95" s="187"/>
-      <c r="J95" s="187"/>
-      <c r="K95" s="187"/>
-      <c r="L95" s="186"/>
-      <c r="M95" s="186"/>
-      <c r="N95" s="186"/>
-      <c r="O95" s="186"/>
-      <c r="P95" s="186"/>
-      <c r="Q95" s="186"/>
-      <c r="R95" s="186"/>
-      <c r="S95" s="186"/>
-      <c r="T95" s="186"/>
+      <c r="C95" s="111"/>
+      <c r="D95" s="111"/>
+      <c r="E95" s="111"/>
+      <c r="F95" s="111"/>
+      <c r="G95" s="111"/>
+      <c r="H95" s="111"/>
+      <c r="I95" s="111"/>
+      <c r="J95" s="111"/>
+      <c r="K95" s="111"/>
+      <c r="L95" s="112"/>
+      <c r="M95" s="112"/>
+      <c r="N95" s="112"/>
+      <c r="O95" s="112"/>
+      <c r="P95" s="112"/>
+      <c r="Q95" s="112"/>
+      <c r="R95" s="112"/>
+      <c r="S95" s="112"/>
+      <c r="T95" s="112"/>
       <c r="U95" s="25"/>
       <c r="V95" s="51"/>
       <c r="W95" s="51"/>
@@ -6588,28 +6588,28 @@
       <c r="Y95" s="91"/>
     </row>
     <row r="96" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A96" s="131"/>
-      <c r="B96" s="187" t="s">
+      <c r="A96" s="155"/>
+      <c r="B96" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="C96" s="187"/>
-      <c r="D96" s="187"/>
-      <c r="E96" s="187"/>
-      <c r="F96" s="187"/>
-      <c r="G96" s="187"/>
-      <c r="H96" s="187"/>
-      <c r="I96" s="187"/>
-      <c r="J96" s="187"/>
-      <c r="K96" s="187"/>
-      <c r="L96" s="186"/>
-      <c r="M96" s="186"/>
-      <c r="N96" s="186"/>
-      <c r="O96" s="186"/>
-      <c r="P96" s="186"/>
-      <c r="Q96" s="186"/>
-      <c r="R96" s="186"/>
-      <c r="S96" s="186"/>
-      <c r="T96" s="186"/>
+      <c r="C96" s="111"/>
+      <c r="D96" s="111"/>
+      <c r="E96" s="111"/>
+      <c r="F96" s="111"/>
+      <c r="G96" s="111"/>
+      <c r="H96" s="111"/>
+      <c r="I96" s="111"/>
+      <c r="J96" s="111"/>
+      <c r="K96" s="111"/>
+      <c r="L96" s="112"/>
+      <c r="M96" s="112"/>
+      <c r="N96" s="112"/>
+      <c r="O96" s="112"/>
+      <c r="P96" s="112"/>
+      <c r="Q96" s="112"/>
+      <c r="R96" s="112"/>
+      <c r="S96" s="112"/>
+      <c r="T96" s="112"/>
       <c r="U96" s="25"/>
       <c r="V96" s="51"/>
       <c r="W96" s="51"/>
@@ -6617,28 +6617,28 @@
       <c r="Y96" s="91"/>
     </row>
     <row r="97" spans="1:25" ht="21.6" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A97" s="131"/>
-      <c r="B97" s="187" t="s">
+      <c r="A97" s="155"/>
+      <c r="B97" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="C97" s="187"/>
-      <c r="D97" s="187"/>
-      <c r="E97" s="187"/>
-      <c r="F97" s="187"/>
-      <c r="G97" s="187"/>
-      <c r="H97" s="187"/>
-      <c r="I97" s="187"/>
-      <c r="J97" s="187"/>
-      <c r="K97" s="187"/>
-      <c r="L97" s="186"/>
-      <c r="M97" s="186"/>
-      <c r="N97" s="186"/>
-      <c r="O97" s="186"/>
-      <c r="P97" s="186"/>
-      <c r="Q97" s="186"/>
-      <c r="R97" s="186"/>
-      <c r="S97" s="186"/>
-      <c r="T97" s="186"/>
+      <c r="C97" s="111"/>
+      <c r="D97" s="111"/>
+      <c r="E97" s="111"/>
+      <c r="F97" s="111"/>
+      <c r="G97" s="111"/>
+      <c r="H97" s="111"/>
+      <c r="I97" s="111"/>
+      <c r="J97" s="111"/>
+      <c r="K97" s="111"/>
+      <c r="L97" s="112"/>
+      <c r="M97" s="112"/>
+      <c r="N97" s="112"/>
+      <c r="O97" s="112"/>
+      <c r="P97" s="112"/>
+      <c r="Q97" s="112"/>
+      <c r="R97" s="112"/>
+      <c r="S97" s="112"/>
+      <c r="T97" s="112"/>
       <c r="U97" s="25"/>
       <c r="V97" s="51"/>
       <c r="W97" s="51"/>
@@ -6646,28 +6646,28 @@
       <c r="Y97" s="91"/>
     </row>
     <row r="98" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A98" s="131"/>
-      <c r="B98" s="187" t="s">
+      <c r="A98" s="155"/>
+      <c r="B98" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="C98" s="187"/>
-      <c r="D98" s="187"/>
-      <c r="E98" s="187"/>
-      <c r="F98" s="187"/>
-      <c r="G98" s="187"/>
-      <c r="H98" s="187"/>
-      <c r="I98" s="187"/>
-      <c r="J98" s="187"/>
-      <c r="K98" s="187"/>
-      <c r="L98" s="186"/>
-      <c r="M98" s="186"/>
-      <c r="N98" s="186"/>
-      <c r="O98" s="186"/>
-      <c r="P98" s="186"/>
-      <c r="Q98" s="186"/>
-      <c r="R98" s="186"/>
-      <c r="S98" s="186"/>
-      <c r="T98" s="186"/>
+      <c r="C98" s="111"/>
+      <c r="D98" s="111"/>
+      <c r="E98" s="111"/>
+      <c r="F98" s="111"/>
+      <c r="G98" s="111"/>
+      <c r="H98" s="111"/>
+      <c r="I98" s="111"/>
+      <c r="J98" s="111"/>
+      <c r="K98" s="111"/>
+      <c r="L98" s="112"/>
+      <c r="M98" s="112"/>
+      <c r="N98" s="112"/>
+      <c r="O98" s="112"/>
+      <c r="P98" s="112"/>
+      <c r="Q98" s="112"/>
+      <c r="R98" s="112"/>
+      <c r="S98" s="112"/>
+      <c r="T98" s="112"/>
       <c r="U98" s="25"/>
       <c r="V98" s="51"/>
       <c r="W98" s="51"/>
@@ -6675,28 +6675,28 @@
       <c r="Y98" s="91"/>
     </row>
     <row r="99" spans="1:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A99" s="131"/>
-      <c r="B99" s="187" t="s">
+      <c r="A99" s="155"/>
+      <c r="B99" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="C99" s="187"/>
-      <c r="D99" s="187"/>
-      <c r="E99" s="187"/>
-      <c r="F99" s="187"/>
-      <c r="G99" s="187"/>
-      <c r="H99" s="187"/>
-      <c r="I99" s="187"/>
-      <c r="J99" s="187"/>
-      <c r="K99" s="187"/>
-      <c r="L99" s="186"/>
-      <c r="M99" s="186"/>
-      <c r="N99" s="186"/>
-      <c r="O99" s="186"/>
-      <c r="P99" s="186"/>
-      <c r="Q99" s="186"/>
-      <c r="R99" s="186"/>
-      <c r="S99" s="186"/>
-      <c r="T99" s="186"/>
+      <c r="C99" s="111"/>
+      <c r="D99" s="111"/>
+      <c r="E99" s="111"/>
+      <c r="F99" s="111"/>
+      <c r="G99" s="111"/>
+      <c r="H99" s="111"/>
+      <c r="I99" s="111"/>
+      <c r="J99" s="111"/>
+      <c r="K99" s="111"/>
+      <c r="L99" s="112"/>
+      <c r="M99" s="112"/>
+      <c r="N99" s="112"/>
+      <c r="O99" s="112"/>
+      <c r="P99" s="112"/>
+      <c r="Q99" s="112"/>
+      <c r="R99" s="112"/>
+      <c r="S99" s="112"/>
+      <c r="T99" s="112"/>
       <c r="U99" s="25"/>
       <c r="V99" s="51"/>
       <c r="W99" s="51"/>
@@ -6704,28 +6704,28 @@
       <c r="Y99" s="91"/>
     </row>
     <row r="100" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A100" s="131"/>
-      <c r="B100" s="187" t="s">
+      <c r="A100" s="155"/>
+      <c r="B100" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="C100" s="187"/>
-      <c r="D100" s="187"/>
-      <c r="E100" s="187"/>
-      <c r="F100" s="187"/>
-      <c r="G100" s="187"/>
-      <c r="H100" s="187"/>
-      <c r="I100" s="187"/>
-      <c r="J100" s="187"/>
-      <c r="K100" s="187"/>
-      <c r="L100" s="186"/>
-      <c r="M100" s="186"/>
-      <c r="N100" s="186"/>
-      <c r="O100" s="186"/>
-      <c r="P100" s="186"/>
-      <c r="Q100" s="186"/>
-      <c r="R100" s="186"/>
-      <c r="S100" s="186"/>
-      <c r="T100" s="186"/>
+      <c r="C100" s="111"/>
+      <c r="D100" s="111"/>
+      <c r="E100" s="111"/>
+      <c r="F100" s="111"/>
+      <c r="G100" s="111"/>
+      <c r="H100" s="111"/>
+      <c r="I100" s="111"/>
+      <c r="J100" s="111"/>
+      <c r="K100" s="111"/>
+      <c r="L100" s="112"/>
+      <c r="M100" s="112"/>
+      <c r="N100" s="112"/>
+      <c r="O100" s="112"/>
+      <c r="P100" s="112"/>
+      <c r="Q100" s="112"/>
+      <c r="R100" s="112"/>
+      <c r="S100" s="112"/>
+      <c r="T100" s="112"/>
       <c r="U100" s="25"/>
       <c r="V100" s="51"/>
       <c r="W100" s="51"/>
@@ -6733,28 +6733,28 @@
       <c r="Y100" s="91"/>
     </row>
     <row r="101" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A101" s="131"/>
-      <c r="B101" s="187" t="s">
+      <c r="A101" s="155"/>
+      <c r="B101" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="C101" s="187"/>
-      <c r="D101" s="187"/>
-      <c r="E101" s="187"/>
-      <c r="F101" s="187"/>
-      <c r="G101" s="187"/>
-      <c r="H101" s="187"/>
-      <c r="I101" s="187"/>
-      <c r="J101" s="187"/>
-      <c r="K101" s="187"/>
-      <c r="L101" s="186"/>
-      <c r="M101" s="186"/>
-      <c r="N101" s="186"/>
-      <c r="O101" s="186"/>
-      <c r="P101" s="186"/>
-      <c r="Q101" s="186"/>
-      <c r="R101" s="186"/>
-      <c r="S101" s="186"/>
-      <c r="T101" s="186"/>
+      <c r="C101" s="111"/>
+      <c r="D101" s="111"/>
+      <c r="E101" s="111"/>
+      <c r="F101" s="111"/>
+      <c r="G101" s="111"/>
+      <c r="H101" s="111"/>
+      <c r="I101" s="111"/>
+      <c r="J101" s="111"/>
+      <c r="K101" s="111"/>
+      <c r="L101" s="112"/>
+      <c r="M101" s="112"/>
+      <c r="N101" s="112"/>
+      <c r="O101" s="112"/>
+      <c r="P101" s="112"/>
+      <c r="Q101" s="112"/>
+      <c r="R101" s="112"/>
+      <c r="S101" s="112"/>
+      <c r="T101" s="112"/>
       <c r="U101" s="25"/>
       <c r="V101" s="51"/>
       <c r="W101" s="51"/>
@@ -6762,28 +6762,28 @@
       <c r="Y101" s="91"/>
     </row>
     <row r="102" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A102" s="131"/>
-      <c r="B102" s="187" t="s">
+      <c r="A102" s="155"/>
+      <c r="B102" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="187"/>
-      <c r="D102" s="187"/>
-      <c r="E102" s="187"/>
-      <c r="F102" s="187"/>
-      <c r="G102" s="187"/>
-      <c r="H102" s="187"/>
-      <c r="I102" s="187"/>
-      <c r="J102" s="187"/>
-      <c r="K102" s="187"/>
-      <c r="L102" s="186"/>
-      <c r="M102" s="186"/>
-      <c r="N102" s="186"/>
-      <c r="O102" s="186"/>
-      <c r="P102" s="186"/>
-      <c r="Q102" s="186"/>
-      <c r="R102" s="186"/>
-      <c r="S102" s="186"/>
-      <c r="T102" s="186"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
+      <c r="G102" s="111"/>
+      <c r="H102" s="111"/>
+      <c r="I102" s="111"/>
+      <c r="J102" s="111"/>
+      <c r="K102" s="111"/>
+      <c r="L102" s="112"/>
+      <c r="M102" s="112"/>
+      <c r="N102" s="112"/>
+      <c r="O102" s="112"/>
+      <c r="P102" s="112"/>
+      <c r="Q102" s="112"/>
+      <c r="R102" s="112"/>
+      <c r="S102" s="112"/>
+      <c r="T102" s="112"/>
       <c r="U102" s="25"/>
       <c r="V102" s="51"/>
       <c r="W102" s="51"/>
@@ -6791,28 +6791,28 @@
       <c r="Y102" s="91"/>
     </row>
     <row r="103" spans="1:25" ht="22.8" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A103" s="131"/>
-      <c r="B103" s="187" t="s">
+      <c r="A103" s="155"/>
+      <c r="B103" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="C103" s="187"/>
-      <c r="D103" s="187"/>
-      <c r="E103" s="187"/>
-      <c r="F103" s="187"/>
-      <c r="G103" s="187"/>
-      <c r="H103" s="187"/>
-      <c r="I103" s="187"/>
-      <c r="J103" s="187"/>
-      <c r="K103" s="187"/>
-      <c r="L103" s="186"/>
-      <c r="M103" s="186"/>
-      <c r="N103" s="186"/>
-      <c r="O103" s="186"/>
-      <c r="P103" s="186"/>
-      <c r="Q103" s="186"/>
-      <c r="R103" s="186"/>
-      <c r="S103" s="186"/>
-      <c r="T103" s="186"/>
+      <c r="C103" s="111"/>
+      <c r="D103" s="111"/>
+      <c r="E103" s="111"/>
+      <c r="F103" s="111"/>
+      <c r="G103" s="111"/>
+      <c r="H103" s="111"/>
+      <c r="I103" s="111"/>
+      <c r="J103" s="111"/>
+      <c r="K103" s="111"/>
+      <c r="L103" s="112"/>
+      <c r="M103" s="112"/>
+      <c r="N103" s="112"/>
+      <c r="O103" s="112"/>
+      <c r="P103" s="112"/>
+      <c r="Q103" s="112"/>
+      <c r="R103" s="112"/>
+      <c r="S103" s="112"/>
+      <c r="T103" s="112"/>
       <c r="U103" s="82"/>
       <c r="V103" s="51"/>
       <c r="W103" s="51"/>
@@ -6820,63 +6820,63 @@
       <c r="Y103" s="91"/>
     </row>
     <row r="104" spans="1:25" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="132"/>
-      <c r="B104" s="216"/>
-      <c r="C104" s="216"/>
-      <c r="D104" s="216"/>
-      <c r="E104" s="216"/>
-      <c r="F104" s="216"/>
-      <c r="G104" s="216"/>
-      <c r="H104" s="216"/>
-      <c r="I104" s="216"/>
-      <c r="J104" s="216"/>
-      <c r="K104" s="216"/>
-      <c r="L104" s="216"/>
-      <c r="M104" s="216"/>
-      <c r="N104" s="216"/>
-      <c r="O104" s="216"/>
-      <c r="P104" s="216"/>
-      <c r="Q104" s="216"/>
-      <c r="R104" s="216"/>
-      <c r="S104" s="216"/>
-      <c r="T104" s="216"/>
-      <c r="U104" s="216"/>
-      <c r="V104" s="216"/>
-      <c r="W104" s="216"/>
-      <c r="X104" s="216"/>
+      <c r="A104" s="106"/>
+      <c r="B104" s="159"/>
+      <c r="C104" s="159"/>
+      <c r="D104" s="159"/>
+      <c r="E104" s="159"/>
+      <c r="F104" s="159"/>
+      <c r="G104" s="159"/>
+      <c r="H104" s="159"/>
+      <c r="I104" s="159"/>
+      <c r="J104" s="159"/>
+      <c r="K104" s="159"/>
+      <c r="L104" s="159"/>
+      <c r="M104" s="159"/>
+      <c r="N104" s="159"/>
+      <c r="O104" s="159"/>
+      <c r="P104" s="159"/>
+      <c r="Q104" s="159"/>
+      <c r="R104" s="159"/>
+      <c r="S104" s="159"/>
+      <c r="T104" s="159"/>
+      <c r="U104" s="159"/>
+      <c r="V104" s="159"/>
+      <c r="W104" s="159"/>
+      <c r="X104" s="159"/>
       <c r="Y104" s="11"/>
     </row>
     <row r="105" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A105" s="131"/>
-      <c r="B105" s="152" t="s">
+      <c r="A105" s="155"/>
+      <c r="B105" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="C105" s="153"/>
-      <c r="D105" s="153"/>
-      <c r="E105" s="153"/>
-      <c r="F105" s="153"/>
-      <c r="G105" s="153"/>
-      <c r="H105" s="153"/>
-      <c r="I105" s="153"/>
-      <c r="J105" s="153"/>
-      <c r="K105" s="153"/>
-      <c r="L105" s="153"/>
-      <c r="M105" s="153"/>
-      <c r="N105" s="153"/>
-      <c r="O105" s="153"/>
-      <c r="P105" s="153"/>
-      <c r="Q105" s="153"/>
-      <c r="R105" s="153"/>
-      <c r="S105" s="153"/>
-      <c r="T105" s="153"/>
-      <c r="U105" s="153"/>
-      <c r="V105" s="153"/>
-      <c r="W105" s="153"/>
-      <c r="X105" s="194"/>
+      <c r="C105" s="161"/>
+      <c r="D105" s="161"/>
+      <c r="E105" s="161"/>
+      <c r="F105" s="161"/>
+      <c r="G105" s="161"/>
+      <c r="H105" s="161"/>
+      <c r="I105" s="161"/>
+      <c r="J105" s="161"/>
+      <c r="K105" s="161"/>
+      <c r="L105" s="161"/>
+      <c r="M105" s="161"/>
+      <c r="N105" s="161"/>
+      <c r="O105" s="161"/>
+      <c r="P105" s="161"/>
+      <c r="Q105" s="161"/>
+      <c r="R105" s="161"/>
+      <c r="S105" s="161"/>
+      <c r="T105" s="161"/>
+      <c r="U105" s="161"/>
+      <c r="V105" s="161"/>
+      <c r="W105" s="161"/>
+      <c r="X105" s="162"/>
       <c r="Y105" s="91"/>
     </row>
     <row r="106" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A106" s="131"/>
+      <c r="A106" s="155"/>
       <c r="B106" s="41"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -6911,24 +6911,24 @@
       <c r="Y106" s="91"/>
     </row>
     <row r="107" spans="1:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A107" s="131"/>
-      <c r="B107" s="178" t="s">
+      <c r="A107" s="155"/>
+      <c r="B107" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="179"/>
-      <c r="D107" s="179"/>
-      <c r="E107" s="179"/>
-      <c r="F107" s="179"/>
-      <c r="G107" s="179"/>
-      <c r="H107" s="179"/>
-      <c r="I107" s="180"/>
+      <c r="C107" s="132"/>
+      <c r="D107" s="132"/>
+      <c r="E107" s="132"/>
+      <c r="F107" s="132"/>
+      <c r="G107" s="132"/>
+      <c r="H107" s="132"/>
+      <c r="I107" s="133"/>
       <c r="J107" s="24"/>
       <c r="K107" s="24"/>
-      <c r="L107" s="214"/>
-      <c r="M107" s="210"/>
-      <c r="N107" s="210"/>
-      <c r="O107" s="210"/>
-      <c r="P107" s="210"/>
+      <c r="L107" s="156"/>
+      <c r="M107" s="158"/>
+      <c r="N107" s="158"/>
+      <c r="O107" s="158"/>
+      <c r="P107" s="158"/>
       <c r="Q107" s="27"/>
       <c r="R107" s="27"/>
       <c r="S107" s="18"/>
@@ -6940,24 +6940,24 @@
       <c r="Y107" s="91"/>
     </row>
     <row r="108" spans="1:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A108" s="131"/>
-      <c r="B108" s="178" t="s">
+      <c r="A108" s="155"/>
+      <c r="B108" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="C108" s="179"/>
-      <c r="D108" s="179"/>
-      <c r="E108" s="179"/>
-      <c r="F108" s="179"/>
-      <c r="G108" s="179"/>
-      <c r="H108" s="179"/>
-      <c r="I108" s="180"/>
+      <c r="C108" s="132"/>
+      <c r="D108" s="132"/>
+      <c r="E108" s="132"/>
+      <c r="F108" s="132"/>
+      <c r="G108" s="132"/>
+      <c r="H108" s="132"/>
+      <c r="I108" s="133"/>
       <c r="J108" s="24"/>
       <c r="K108" s="24"/>
-      <c r="L108" s="214"/>
-      <c r="M108" s="210"/>
-      <c r="N108" s="210"/>
-      <c r="O108" s="210"/>
-      <c r="P108" s="210"/>
+      <c r="L108" s="156"/>
+      <c r="M108" s="158"/>
+      <c r="N108" s="158"/>
+      <c r="O108" s="158"/>
+      <c r="P108" s="158"/>
       <c r="Q108" s="27"/>
       <c r="R108" s="27"/>
       <c r="S108" s="18"/>
@@ -6969,24 +6969,24 @@
       <c r="Y108" s="91"/>
     </row>
     <row r="109" spans="1:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A109" s="131"/>
-      <c r="B109" s="178" t="s">
+      <c r="A109" s="155"/>
+      <c r="B109" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="C109" s="179"/>
-      <c r="D109" s="179"/>
-      <c r="E109" s="179"/>
-      <c r="F109" s="179"/>
-      <c r="G109" s="179"/>
-      <c r="H109" s="179"/>
-      <c r="I109" s="180"/>
+      <c r="C109" s="132"/>
+      <c r="D109" s="132"/>
+      <c r="E109" s="132"/>
+      <c r="F109" s="132"/>
+      <c r="G109" s="132"/>
+      <c r="H109" s="132"/>
+      <c r="I109" s="133"/>
       <c r="J109" s="24"/>
       <c r="K109" s="24"/>
-      <c r="L109" s="214"/>
-      <c r="M109" s="210"/>
-      <c r="N109" s="210"/>
-      <c r="O109" s="210"/>
-      <c r="P109" s="210"/>
+      <c r="L109" s="156"/>
+      <c r="M109" s="158"/>
+      <c r="N109" s="158"/>
+      <c r="O109" s="158"/>
+      <c r="P109" s="158"/>
       <c r="Q109" s="27"/>
       <c r="R109" s="27"/>
       <c r="S109" s="18"/>
@@ -6998,24 +6998,24 @@
       <c r="Y109" s="91"/>
     </row>
     <row r="110" spans="1:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A110" s="131"/>
-      <c r="B110" s="178" t="s">
+      <c r="A110" s="155"/>
+      <c r="B110" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="C110" s="179"/>
-      <c r="D110" s="179"/>
-      <c r="E110" s="179"/>
-      <c r="F110" s="179"/>
-      <c r="G110" s="179"/>
-      <c r="H110" s="179"/>
-      <c r="I110" s="180"/>
+      <c r="C110" s="132"/>
+      <c r="D110" s="132"/>
+      <c r="E110" s="132"/>
+      <c r="F110" s="132"/>
+      <c r="G110" s="132"/>
+      <c r="H110" s="132"/>
+      <c r="I110" s="133"/>
       <c r="J110" s="24"/>
       <c r="K110" s="24"/>
-      <c r="L110" s="214"/>
-      <c r="M110" s="210"/>
-      <c r="N110" s="210"/>
-      <c r="O110" s="210"/>
-      <c r="P110" s="210"/>
+      <c r="L110" s="156"/>
+      <c r="M110" s="158"/>
+      <c r="N110" s="158"/>
+      <c r="O110" s="158"/>
+      <c r="P110" s="158"/>
       <c r="Q110" s="27"/>
       <c r="R110" s="27"/>
       <c r="S110" s="18"/>
@@ -7027,24 +7027,24 @@
       <c r="Y110" s="91"/>
     </row>
     <row r="111" spans="1:25" ht="23.4" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A111" s="131"/>
-      <c r="B111" s="178" t="s">
+      <c r="A111" s="155"/>
+      <c r="B111" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="C111" s="179"/>
-      <c r="D111" s="179"/>
-      <c r="E111" s="179"/>
-      <c r="F111" s="179"/>
-      <c r="G111" s="179"/>
-      <c r="H111" s="179"/>
-      <c r="I111" s="180"/>
+      <c r="C111" s="132"/>
+      <c r="D111" s="132"/>
+      <c r="E111" s="132"/>
+      <c r="F111" s="132"/>
+      <c r="G111" s="132"/>
+      <c r="H111" s="132"/>
+      <c r="I111" s="133"/>
       <c r="J111" s="24"/>
       <c r="K111" s="24"/>
-      <c r="L111" s="215"/>
-      <c r="M111" s="210"/>
-      <c r="N111" s="210"/>
-      <c r="O111" s="210"/>
-      <c r="P111" s="210"/>
+      <c r="L111" s="157"/>
+      <c r="M111" s="158"/>
+      <c r="N111" s="158"/>
+      <c r="O111" s="158"/>
+      <c r="P111" s="158"/>
       <c r="Q111" s="86"/>
       <c r="R111" s="87"/>
       <c r="S111" s="18"/>
@@ -7056,408 +7056,408 @@
       <c r="Y111" s="91"/>
     </row>
     <row r="112" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="132"/>
-      <c r="B112" s="132"/>
-      <c r="C112" s="132"/>
-      <c r="D112" s="132"/>
-      <c r="E112" s="132"/>
-      <c r="F112" s="132"/>
-      <c r="G112" s="132"/>
-      <c r="H112" s="132"/>
-      <c r="I112" s="132"/>
-      <c r="J112" s="132"/>
-      <c r="K112" s="132"/>
-      <c r="L112" s="132"/>
-      <c r="M112" s="132"/>
-      <c r="N112" s="132"/>
-      <c r="O112" s="132"/>
-      <c r="P112" s="132"/>
-      <c r="Q112" s="132"/>
-      <c r="R112" s="132"/>
-      <c r="S112" s="132"/>
-      <c r="T112" s="132"/>
-      <c r="U112" s="132"/>
-      <c r="V112" s="132"/>
-      <c r="W112" s="132"/>
-      <c r="X112" s="132"/>
+      <c r="A112" s="106"/>
+      <c r="B112" s="106"/>
+      <c r="C112" s="106"/>
+      <c r="D112" s="106"/>
+      <c r="E112" s="106"/>
+      <c r="F112" s="106"/>
+      <c r="G112" s="106"/>
+      <c r="H112" s="106"/>
+      <c r="I112" s="106"/>
+      <c r="J112" s="106"/>
+      <c r="K112" s="106"/>
+      <c r="L112" s="106"/>
+      <c r="M112" s="106"/>
+      <c r="N112" s="106"/>
+      <c r="O112" s="106"/>
+      <c r="P112" s="106"/>
+      <c r="Q112" s="106"/>
+      <c r="R112" s="106"/>
+      <c r="S112" s="106"/>
+      <c r="T112" s="106"/>
+      <c r="U112" s="106"/>
+      <c r="V112" s="106"/>
+      <c r="W112" s="106"/>
+      <c r="X112" s="106"/>
       <c r="Y112" s="11"/>
     </row>
     <row r="113" spans="1:25" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A113" s="11"/>
-      <c r="B113" s="204" t="s">
+      <c r="B113" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="204"/>
-      <c r="D113" s="204"/>
-      <c r="E113" s="204"/>
-      <c r="F113" s="204"/>
-      <c r="G113" s="204"/>
-      <c r="H113" s="204"/>
-      <c r="I113" s="204"/>
-      <c r="J113" s="204"/>
-      <c r="K113" s="204"/>
-      <c r="L113" s="204"/>
-      <c r="M113" s="204"/>
-      <c r="N113" s="204"/>
-      <c r="O113" s="204"/>
-      <c r="P113" s="204"/>
-      <c r="Q113" s="204"/>
-      <c r="R113" s="204"/>
-      <c r="S113" s="204"/>
-      <c r="T113" s="204"/>
-      <c r="U113" s="204"/>
-      <c r="V113" s="204"/>
-      <c r="W113" s="204"/>
-      <c r="X113" s="204"/>
+      <c r="C113" s="109"/>
+      <c r="D113" s="109"/>
+      <c r="E113" s="109"/>
+      <c r="F113" s="109"/>
+      <c r="G113" s="109"/>
+      <c r="H113" s="109"/>
+      <c r="I113" s="109"/>
+      <c r="J113" s="109"/>
+      <c r="K113" s="109"/>
+      <c r="L113" s="109"/>
+      <c r="M113" s="109"/>
+      <c r="N113" s="109"/>
+      <c r="O113" s="109"/>
+      <c r="P113" s="109"/>
+      <c r="Q113" s="109"/>
+      <c r="R113" s="109"/>
+      <c r="S113" s="109"/>
+      <c r="T113" s="109"/>
+      <c r="U113" s="109"/>
+      <c r="V113" s="109"/>
+      <c r="W113" s="109"/>
+      <c r="X113" s="109"/>
       <c r="Y113" s="91"/>
     </row>
     <row r="114" spans="1:25" ht="76.2" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A114" s="11"/>
-      <c r="B114" s="109"/>
-      <c r="C114" s="110"/>
-      <c r="D114" s="110"/>
-      <c r="E114" s="110"/>
-      <c r="F114" s="110"/>
-      <c r="G114" s="110"/>
-      <c r="H114" s="110"/>
-      <c r="I114" s="110"/>
-      <c r="J114" s="110"/>
-      <c r="K114" s="110"/>
-      <c r="L114" s="110"/>
-      <c r="M114" s="110"/>
-      <c r="N114" s="110"/>
-      <c r="O114" s="110"/>
-      <c r="P114" s="110"/>
-      <c r="Q114" s="110"/>
-      <c r="R114" s="110"/>
-      <c r="S114" s="110"/>
-      <c r="T114" s="110"/>
-      <c r="U114" s="110"/>
-      <c r="V114" s="110"/>
-      <c r="W114" s="110"/>
-      <c r="X114" s="111"/>
+      <c r="B114" s="107"/>
+      <c r="C114" s="108"/>
+      <c r="D114" s="108"/>
+      <c r="E114" s="108"/>
+      <c r="F114" s="108"/>
+      <c r="G114" s="108"/>
+      <c r="H114" s="108"/>
+      <c r="I114" s="108"/>
+      <c r="J114" s="108"/>
+      <c r="K114" s="108"/>
+      <c r="L114" s="108"/>
+      <c r="M114" s="108"/>
+      <c r="N114" s="108"/>
+      <c r="O114" s="108"/>
+      <c r="P114" s="108"/>
+      <c r="Q114" s="108"/>
+      <c r="R114" s="108"/>
+      <c r="S114" s="108"/>
+      <c r="T114" s="108"/>
+      <c r="U114" s="108"/>
+      <c r="V114" s="108"/>
+      <c r="W114" s="108"/>
+      <c r="X114" s="165"/>
       <c r="Y114" s="91"/>
     </row>
     <row r="115" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="132"/>
-      <c r="B115" s="132"/>
-      <c r="C115" s="132"/>
-      <c r="D115" s="132"/>
-      <c r="E115" s="132"/>
-      <c r="F115" s="132"/>
-      <c r="G115" s="132"/>
-      <c r="H115" s="132"/>
-      <c r="I115" s="132"/>
-      <c r="J115" s="132"/>
-      <c r="K115" s="132"/>
-      <c r="L115" s="132"/>
-      <c r="M115" s="132"/>
-      <c r="N115" s="132"/>
-      <c r="O115" s="132"/>
-      <c r="P115" s="132"/>
-      <c r="Q115" s="132"/>
-      <c r="R115" s="132"/>
-      <c r="S115" s="132"/>
-      <c r="T115" s="132"/>
-      <c r="U115" s="132"/>
-      <c r="V115" s="132"/>
-      <c r="W115" s="132"/>
-      <c r="X115" s="132"/>
+      <c r="A115" s="106"/>
+      <c r="B115" s="106"/>
+      <c r="C115" s="106"/>
+      <c r="D115" s="106"/>
+      <c r="E115" s="106"/>
+      <c r="F115" s="106"/>
+      <c r="G115" s="106"/>
+      <c r="H115" s="106"/>
+      <c r="I115" s="106"/>
+      <c r="J115" s="106"/>
+      <c r="K115" s="106"/>
+      <c r="L115" s="106"/>
+      <c r="M115" s="106"/>
+      <c r="N115" s="106"/>
+      <c r="O115" s="106"/>
+      <c r="P115" s="106"/>
+      <c r="Q115" s="106"/>
+      <c r="R115" s="106"/>
+      <c r="S115" s="106"/>
+      <c r="T115" s="106"/>
+      <c r="U115" s="106"/>
+      <c r="V115" s="106"/>
+      <c r="W115" s="106"/>
+      <c r="X115" s="106"/>
       <c r="Y115" s="11"/>
     </row>
     <row r="116" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="132"/>
-      <c r="B116" s="132"/>
-      <c r="C116" s="132"/>
-      <c r="D116" s="132"/>
-      <c r="E116" s="132"/>
-      <c r="F116" s="132"/>
-      <c r="G116" s="132"/>
-      <c r="H116" s="132"/>
-      <c r="I116" s="132"/>
-      <c r="J116" s="132"/>
-      <c r="K116" s="132"/>
-      <c r="L116" s="132"/>
-      <c r="M116" s="132"/>
-      <c r="N116" s="132"/>
-      <c r="O116" s="132"/>
-      <c r="P116" s="132"/>
-      <c r="Q116" s="132"/>
-      <c r="R116" s="132"/>
-      <c r="S116" s="132"/>
-      <c r="T116" s="132"/>
-      <c r="U116" s="132"/>
-      <c r="V116" s="132"/>
-      <c r="W116" s="132"/>
-      <c r="X116" s="132"/>
-      <c r="Y116" s="132"/>
+      <c r="A116" s="106"/>
+      <c r="B116" s="106"/>
+      <c r="C116" s="106"/>
+      <c r="D116" s="106"/>
+      <c r="E116" s="106"/>
+      <c r="F116" s="106"/>
+      <c r="G116" s="106"/>
+      <c r="H116" s="106"/>
+      <c r="I116" s="106"/>
+      <c r="J116" s="106"/>
+      <c r="K116" s="106"/>
+      <c r="L116" s="106"/>
+      <c r="M116" s="106"/>
+      <c r="N116" s="106"/>
+      <c r="O116" s="106"/>
+      <c r="P116" s="106"/>
+      <c r="Q116" s="106"/>
+      <c r="R116" s="106"/>
+      <c r="S116" s="106"/>
+      <c r="T116" s="106"/>
+      <c r="U116" s="106"/>
+      <c r="V116" s="106"/>
+      <c r="W116" s="106"/>
+      <c r="X116" s="106"/>
+      <c r="Y116" s="106"/>
     </row>
     <row r="117" spans="1:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A117" s="88"/>
-      <c r="B117" s="204" t="s">
+      <c r="B117" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="C117" s="204"/>
-      <c r="D117" s="204"/>
-      <c r="E117" s="204"/>
-      <c r="F117" s="204"/>
-      <c r="G117" s="204"/>
-      <c r="H117" s="204"/>
-      <c r="I117" s="204" t="s">
+      <c r="C117" s="109"/>
+      <c r="D117" s="109"/>
+      <c r="E117" s="109"/>
+      <c r="F117" s="109"/>
+      <c r="G117" s="109"/>
+      <c r="H117" s="109"/>
+      <c r="I117" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="J117" s="204"/>
-      <c r="K117" s="204"/>
-      <c r="L117" s="204"/>
-      <c r="M117" s="204"/>
-      <c r="N117" s="204"/>
-      <c r="O117" s="204"/>
-      <c r="P117" s="204"/>
-      <c r="Q117" s="204" t="s">
+      <c r="J117" s="109"/>
+      <c r="K117" s="109"/>
+      <c r="L117" s="109"/>
+      <c r="M117" s="109"/>
+      <c r="N117" s="109"/>
+      <c r="O117" s="109"/>
+      <c r="P117" s="109"/>
+      <c r="Q117" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="R117" s="204"/>
-      <c r="S117" s="204"/>
-      <c r="T117" s="204"/>
-      <c r="U117" s="204"/>
-      <c r="V117" s="204"/>
-      <c r="W117" s="204"/>
-      <c r="X117" s="204"/>
+      <c r="R117" s="109"/>
+      <c r="S117" s="109"/>
+      <c r="T117" s="109"/>
+      <c r="U117" s="109"/>
+      <c r="V117" s="109"/>
+      <c r="W117" s="109"/>
+      <c r="X117" s="109"/>
       <c r="Y117" s="91"/>
     </row>
     <row r="118" spans="1:25" ht="26.4" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A118" s="88"/>
-      <c r="B118" s="123"/>
-      <c r="C118" s="123"/>
-      <c r="D118" s="123"/>
-      <c r="E118" s="123"/>
-      <c r="F118" s="123"/>
-      <c r="G118" s="123"/>
-      <c r="H118" s="123"/>
-      <c r="I118" s="123"/>
-      <c r="J118" s="123"/>
-      <c r="K118" s="123"/>
-      <c r="L118" s="123"/>
-      <c r="M118" s="123"/>
-      <c r="N118" s="123"/>
-      <c r="O118" s="123"/>
-      <c r="P118" s="123"/>
-      <c r="Q118" s="123"/>
-      <c r="R118" s="123"/>
-      <c r="S118" s="123"/>
-      <c r="T118" s="123"/>
-      <c r="U118" s="123"/>
-      <c r="V118" s="123"/>
-      <c r="W118" s="123"/>
-      <c r="X118" s="123"/>
+      <c r="B118" s="164"/>
+      <c r="C118" s="164"/>
+      <c r="D118" s="164"/>
+      <c r="E118" s="164"/>
+      <c r="F118" s="164"/>
+      <c r="G118" s="164"/>
+      <c r="H118" s="164"/>
+      <c r="I118" s="164"/>
+      <c r="J118" s="164"/>
+      <c r="K118" s="164"/>
+      <c r="L118" s="164"/>
+      <c r="M118" s="164"/>
+      <c r="N118" s="164"/>
+      <c r="O118" s="164"/>
+      <c r="P118" s="164"/>
+      <c r="Q118" s="164"/>
+      <c r="R118" s="164"/>
+      <c r="S118" s="164"/>
+      <c r="T118" s="164"/>
+      <c r="U118" s="164"/>
+      <c r="V118" s="164"/>
+      <c r="W118" s="164"/>
+      <c r="X118" s="164"/>
       <c r="Y118" s="91"/>
     </row>
     <row r="119" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A119" s="88"/>
-      <c r="B119" s="123" t="s">
+      <c r="B119" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="C119" s="123"/>
-      <c r="D119" s="123"/>
-      <c r="E119" s="123"/>
-      <c r="F119" s="123"/>
-      <c r="G119" s="123"/>
-      <c r="H119" s="123"/>
-      <c r="I119" s="123" t="s">
+      <c r="C119" s="164"/>
+      <c r="D119" s="164"/>
+      <c r="E119" s="164"/>
+      <c r="F119" s="164"/>
+      <c r="G119" s="164"/>
+      <c r="H119" s="164"/>
+      <c r="I119" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="J119" s="123"/>
-      <c r="K119" s="123"/>
-      <c r="L119" s="123"/>
-      <c r="M119" s="123"/>
-      <c r="N119" s="123"/>
-      <c r="O119" s="123"/>
-      <c r="P119" s="123"/>
-      <c r="Q119" s="123" t="s">
+      <c r="J119" s="164"/>
+      <c r="K119" s="164"/>
+      <c r="L119" s="164"/>
+      <c r="M119" s="164"/>
+      <c r="N119" s="164"/>
+      <c r="O119" s="164"/>
+      <c r="P119" s="164"/>
+      <c r="Q119" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="R119" s="123"/>
-      <c r="S119" s="123"/>
-      <c r="T119" s="123"/>
-      <c r="U119" s="123"/>
-      <c r="V119" s="123"/>
-      <c r="W119" s="123"/>
-      <c r="X119" s="123"/>
+      <c r="R119" s="164"/>
+      <c r="S119" s="164"/>
+      <c r="T119" s="164"/>
+      <c r="U119" s="164"/>
+      <c r="V119" s="164"/>
+      <c r="W119" s="164"/>
+      <c r="X119" s="164"/>
       <c r="Y119" s="91"/>
     </row>
     <row r="120" spans="1:25" ht="36.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A120" s="88"/>
-      <c r="B120" s="123"/>
-      <c r="C120" s="123"/>
-      <c r="D120" s="123"/>
-      <c r="E120" s="123"/>
-      <c r="F120" s="123"/>
-      <c r="G120" s="123"/>
-      <c r="H120" s="123"/>
-      <c r="I120" s="123"/>
-      <c r="J120" s="123"/>
-      <c r="K120" s="123"/>
-      <c r="L120" s="123"/>
-      <c r="M120" s="123"/>
-      <c r="N120" s="123"/>
-      <c r="O120" s="123"/>
-      <c r="P120" s="123"/>
-      <c r="Q120" s="123"/>
-      <c r="R120" s="123"/>
-      <c r="S120" s="123"/>
-      <c r="T120" s="123"/>
-      <c r="U120" s="123"/>
-      <c r="V120" s="123"/>
-      <c r="W120" s="123"/>
-      <c r="X120" s="123"/>
+      <c r="B120" s="164"/>
+      <c r="C120" s="164"/>
+      <c r="D120" s="164"/>
+      <c r="E120" s="164"/>
+      <c r="F120" s="164"/>
+      <c r="G120" s="164"/>
+      <c r="H120" s="164"/>
+      <c r="I120" s="164"/>
+      <c r="J120" s="164"/>
+      <c r="K120" s="164"/>
+      <c r="L120" s="164"/>
+      <c r="M120" s="164"/>
+      <c r="N120" s="164"/>
+      <c r="O120" s="164"/>
+      <c r="P120" s="164"/>
+      <c r="Q120" s="164"/>
+      <c r="R120" s="164"/>
+      <c r="S120" s="164"/>
+      <c r="T120" s="164"/>
+      <c r="U120" s="164"/>
+      <c r="V120" s="164"/>
+      <c r="W120" s="164"/>
+      <c r="X120" s="164"/>
       <c r="Y120" s="91"/>
     </row>
     <row r="121" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A121" s="88"/>
-      <c r="B121" s="123" t="s">
+      <c r="B121" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="C121" s="123"/>
-      <c r="D121" s="123"/>
-      <c r="E121" s="123"/>
-      <c r="F121" s="123"/>
-      <c r="G121" s="123"/>
-      <c r="H121" s="123"/>
-      <c r="I121" s="123" t="s">
+      <c r="C121" s="164"/>
+      <c r="D121" s="164"/>
+      <c r="E121" s="164"/>
+      <c r="F121" s="164"/>
+      <c r="G121" s="164"/>
+      <c r="H121" s="164"/>
+      <c r="I121" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="J121" s="123"/>
-      <c r="K121" s="123"/>
-      <c r="L121" s="123"/>
-      <c r="M121" s="123"/>
-      <c r="N121" s="123"/>
-      <c r="O121" s="123"/>
-      <c r="P121" s="123"/>
-      <c r="Q121" s="123" t="s">
+      <c r="J121" s="164"/>
+      <c r="K121" s="164"/>
+      <c r="L121" s="164"/>
+      <c r="M121" s="164"/>
+      <c r="N121" s="164"/>
+      <c r="O121" s="164"/>
+      <c r="P121" s="164"/>
+      <c r="Q121" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="R121" s="123"/>
-      <c r="S121" s="123"/>
-      <c r="T121" s="123"/>
-      <c r="U121" s="123"/>
-      <c r="V121" s="123"/>
-      <c r="W121" s="123"/>
-      <c r="X121" s="123"/>
+      <c r="R121" s="164"/>
+      <c r="S121" s="164"/>
+      <c r="T121" s="164"/>
+      <c r="U121" s="164"/>
+      <c r="V121" s="164"/>
+      <c r="W121" s="164"/>
+      <c r="X121" s="164"/>
       <c r="Y121" s="91"/>
     </row>
     <row r="122" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A122" s="88"/>
-      <c r="B122" s="206"/>
-      <c r="C122" s="206"/>
-      <c r="D122" s="206"/>
-      <c r="E122" s="206"/>
-      <c r="F122" s="206"/>
-      <c r="G122" s="206"/>
-      <c r="H122" s="206"/>
-      <c r="I122" s="207"/>
-      <c r="J122" s="208"/>
-      <c r="K122" s="208"/>
-      <c r="L122" s="208"/>
-      <c r="M122" s="208"/>
-      <c r="N122" s="208"/>
-      <c r="O122" s="208"/>
-      <c r="P122" s="209"/>
-      <c r="Q122" s="207"/>
-      <c r="R122" s="208"/>
-      <c r="S122" s="208"/>
-      <c r="T122" s="208"/>
-      <c r="U122" s="208"/>
-      <c r="V122" s="208"/>
-      <c r="W122" s="208"/>
-      <c r="X122" s="209"/>
+      <c r="B122" s="167"/>
+      <c r="C122" s="167"/>
+      <c r="D122" s="167"/>
+      <c r="E122" s="167"/>
+      <c r="F122" s="167"/>
+      <c r="G122" s="167"/>
+      <c r="H122" s="167"/>
+      <c r="I122" s="168"/>
+      <c r="J122" s="169"/>
+      <c r="K122" s="169"/>
+      <c r="L122" s="169"/>
+      <c r="M122" s="169"/>
+      <c r="N122" s="169"/>
+      <c r="O122" s="169"/>
+      <c r="P122" s="170"/>
+      <c r="Q122" s="168"/>
+      <c r="R122" s="169"/>
+      <c r="S122" s="169"/>
+      <c r="T122" s="169"/>
+      <c r="U122" s="169"/>
+      <c r="V122" s="169"/>
+      <c r="W122" s="169"/>
+      <c r="X122" s="170"/>
       <c r="Y122" s="91"/>
     </row>
     <row r="123" spans="1:25" ht="24" x14ac:dyDescent="0.85">
       <c r="A123" s="88"/>
-      <c r="B123" s="123" t="s">
+      <c r="B123" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="123"/>
-      <c r="D123" s="123"/>
-      <c r="E123" s="123"/>
-      <c r="F123" s="123"/>
-      <c r="G123" s="123"/>
-      <c r="H123" s="123"/>
-      <c r="I123" s="123" t="s">
+      <c r="C123" s="164"/>
+      <c r="D123" s="164"/>
+      <c r="E123" s="164"/>
+      <c r="F123" s="164"/>
+      <c r="G123" s="164"/>
+      <c r="H123" s="164"/>
+      <c r="I123" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="J123" s="123"/>
-      <c r="K123" s="123"/>
-      <c r="L123" s="123"/>
-      <c r="M123" s="123"/>
-      <c r="N123" s="123"/>
-      <c r="O123" s="123"/>
-      <c r="P123" s="123"/>
-      <c r="Q123" s="123" t="s">
+      <c r="J123" s="164"/>
+      <c r="K123" s="164"/>
+      <c r="L123" s="164"/>
+      <c r="M123" s="164"/>
+      <c r="N123" s="164"/>
+      <c r="O123" s="164"/>
+      <c r="P123" s="164"/>
+      <c r="Q123" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="R123" s="123"/>
-      <c r="S123" s="123"/>
-      <c r="T123" s="123"/>
-      <c r="U123" s="123"/>
-      <c r="V123" s="123"/>
-      <c r="W123" s="123"/>
-      <c r="X123" s="123"/>
+      <c r="R123" s="164"/>
+      <c r="S123" s="164"/>
+      <c r="T123" s="164"/>
+      <c r="U123" s="164"/>
+      <c r="V123" s="164"/>
+      <c r="W123" s="164"/>
+      <c r="X123" s="164"/>
       <c r="Y123" s="91"/>
     </row>
     <row r="124" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="132"/>
-      <c r="B124" s="132"/>
-      <c r="C124" s="132"/>
-      <c r="D124" s="132"/>
-      <c r="E124" s="132"/>
-      <c r="F124" s="132"/>
-      <c r="G124" s="132"/>
-      <c r="H124" s="132"/>
-      <c r="I124" s="132"/>
-      <c r="J124" s="132"/>
-      <c r="K124" s="132"/>
-      <c r="L124" s="132"/>
-      <c r="M124" s="132"/>
-      <c r="N124" s="132"/>
-      <c r="O124" s="132"/>
-      <c r="P124" s="132"/>
-      <c r="Q124" s="132"/>
-      <c r="R124" s="132"/>
-      <c r="S124" s="132"/>
-      <c r="T124" s="132"/>
-      <c r="U124" s="132"/>
-      <c r="V124" s="132"/>
-      <c r="W124" s="132"/>
-      <c r="X124" s="132"/>
+      <c r="A124" s="106"/>
+      <c r="B124" s="106"/>
+      <c r="C124" s="106"/>
+      <c r="D124" s="106"/>
+      <c r="E124" s="106"/>
+      <c r="F124" s="106"/>
+      <c r="G124" s="106"/>
+      <c r="H124" s="106"/>
+      <c r="I124" s="106"/>
+      <c r="J124" s="106"/>
+      <c r="K124" s="106"/>
+      <c r="L124" s="106"/>
+      <c r="M124" s="106"/>
+      <c r="N124" s="106"/>
+      <c r="O124" s="106"/>
+      <c r="P124" s="106"/>
+      <c r="Q124" s="106"/>
+      <c r="R124" s="106"/>
+      <c r="S124" s="106"/>
+      <c r="T124" s="106"/>
+      <c r="U124" s="106"/>
+      <c r="V124" s="106"/>
+      <c r="W124" s="106"/>
+      <c r="X124" s="106"/>
       <c r="Y124" s="11"/>
     </row>
     <row r="125" spans="1:25" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="117"/>
-      <c r="B125" s="117"/>
-      <c r="C125" s="117"/>
-      <c r="D125" s="117"/>
-      <c r="E125" s="117"/>
-      <c r="F125" s="117"/>
-      <c r="G125" s="117"/>
-      <c r="H125" s="117"/>
-      <c r="I125" s="117"/>
-      <c r="J125" s="117"/>
-      <c r="K125" s="117"/>
-      <c r="L125" s="117"/>
-      <c r="M125" s="117"/>
-      <c r="N125" s="117"/>
-      <c r="O125" s="117"/>
-      <c r="P125" s="117"/>
-      <c r="Q125" s="117"/>
-      <c r="R125" s="117"/>
-      <c r="S125" s="117"/>
-      <c r="T125" s="117"/>
-      <c r="U125" s="117"/>
-      <c r="V125" s="117"/>
-      <c r="W125" s="117"/>
-      <c r="X125" s="117"/>
-      <c r="Y125" s="117"/>
+      <c r="A125" s="163"/>
+      <c r="B125" s="163"/>
+      <c r="C125" s="163"/>
+      <c r="D125" s="163"/>
+      <c r="E125" s="163"/>
+      <c r="F125" s="163"/>
+      <c r="G125" s="163"/>
+      <c r="H125" s="163"/>
+      <c r="I125" s="163"/>
+      <c r="J125" s="163"/>
+      <c r="K125" s="163"/>
+      <c r="L125" s="163"/>
+      <c r="M125" s="163"/>
+      <c r="N125" s="163"/>
+      <c r="O125" s="163"/>
+      <c r="P125" s="163"/>
+      <c r="Q125" s="163"/>
+      <c r="R125" s="163"/>
+      <c r="S125" s="163"/>
+      <c r="T125" s="163"/>
+      <c r="U125" s="163"/>
+      <c r="V125" s="163"/>
+      <c r="W125" s="163"/>
+      <c r="X125" s="163"/>
+      <c r="Y125" s="163"/>
     </row>
     <row r="126" spans="1:25" ht="18" x14ac:dyDescent="0.35">
       <c r="B126" s="4"/>
@@ -7722,6 +7722,220 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pr4uyTF98qqU/w9hvAoLVFrpRcH5G0/9lZBNt5dEnZocFd2ErXD5sIYuPP+iCy6lcx0bJUOSiK6wqQ9FfWwIFA==" saltValue="Hw/NhbU4kiovOsNvDHc1vw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="238">
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="N55:T55"/>
+    <mergeCell ref="N54:T54"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="G9:X9"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="B25:M26"/>
+    <mergeCell ref="B10:X10"/>
+    <mergeCell ref="A11:A22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:F4"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="O24:X24"/>
+    <mergeCell ref="O25:X25"/>
+    <mergeCell ref="L28:X28"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="N49:T49"/>
+    <mergeCell ref="N47:T47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="A41:Y42"/>
+    <mergeCell ref="B17:X17"/>
+    <mergeCell ref="B16:X16"/>
+    <mergeCell ref="P15:X15"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="L29:X29"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B44:L44"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A87:X87"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="A34:Y34"/>
+    <mergeCell ref="L31:X31"/>
+    <mergeCell ref="L32:X32"/>
+    <mergeCell ref="N36:P37"/>
+    <mergeCell ref="B79:M79"/>
+    <mergeCell ref="N79:T79"/>
+    <mergeCell ref="B74:M74"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B35:X35"/>
+    <mergeCell ref="N50:T50"/>
+    <mergeCell ref="N52:T52"/>
+    <mergeCell ref="N48:T48"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="A57:X57"/>
+    <mergeCell ref="O102:Q102"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="B99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="B90:T90"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="B72:X72"/>
+    <mergeCell ref="B58:L58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="N70:T70"/>
+    <mergeCell ref="N56:T56"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="N51:T51"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="N53:T53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="N46:T46"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N44:X44"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="N85:S85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="N86:S86"/>
+    <mergeCell ref="N59:T59"/>
+    <mergeCell ref="N60:T60"/>
+    <mergeCell ref="N63:T63"/>
+    <mergeCell ref="N58:X58"/>
+    <mergeCell ref="B75:M75"/>
+    <mergeCell ref="N75:T75"/>
+    <mergeCell ref="N69:T69"/>
+    <mergeCell ref="N74:T74"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="N61:T61"/>
+    <mergeCell ref="N62:T62"/>
+    <mergeCell ref="N82:S82"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="N64:T64"/>
+    <mergeCell ref="N65:T65"/>
+    <mergeCell ref="N66:T66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="B92:X92"/>
+    <mergeCell ref="B122:H122"/>
+    <mergeCell ref="B123:H123"/>
+    <mergeCell ref="I122:P122"/>
+    <mergeCell ref="Q122:X122"/>
+    <mergeCell ref="I123:P123"/>
+    <mergeCell ref="Q123:X123"/>
+    <mergeCell ref="Q119:X119"/>
+    <mergeCell ref="I120:P120"/>
+    <mergeCell ref="Q120:X120"/>
+    <mergeCell ref="I121:P121"/>
+    <mergeCell ref="Q117:X117"/>
+    <mergeCell ref="B118:H118"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="O101:Q101"/>
+    <mergeCell ref="I117:P117"/>
+    <mergeCell ref="B101:K101"/>
+    <mergeCell ref="Q118:X118"/>
+    <mergeCell ref="B110:I110"/>
+    <mergeCell ref="B111:I111"/>
+    <mergeCell ref="M110:P110"/>
+    <mergeCell ref="M111:P111"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="A125:Y125"/>
+    <mergeCell ref="A116:Y116"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B121:H121"/>
+    <mergeCell ref="I119:P119"/>
+    <mergeCell ref="I118:P118"/>
+    <mergeCell ref="B113:X113"/>
+    <mergeCell ref="B114:X114"/>
+    <mergeCell ref="Q121:X121"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="A115:X115"/>
+    <mergeCell ref="A124:X124"/>
+    <mergeCell ref="N67:T67"/>
+    <mergeCell ref="N83:S83"/>
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="N84:S84"/>
+    <mergeCell ref="B95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="O95:Q95"/>
+    <mergeCell ref="R95:T95"/>
+    <mergeCell ref="B94:K94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="R94:T94"/>
+    <mergeCell ref="O98:Q98"/>
+    <mergeCell ref="R98:T98"/>
+    <mergeCell ref="O100:Q100"/>
+    <mergeCell ref="B89:U89"/>
+    <mergeCell ref="R97:T97"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="B97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="O97:Q97"/>
+    <mergeCell ref="N68:T68"/>
+    <mergeCell ref="B71:X71"/>
+    <mergeCell ref="A92:A111"/>
+    <mergeCell ref="L107:L111"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="B96:K96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="O96:Q96"/>
+    <mergeCell ref="R96:T96"/>
+    <mergeCell ref="R99:T99"/>
+    <mergeCell ref="B98:K98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="B109:I109"/>
+    <mergeCell ref="M109:P109"/>
+    <mergeCell ref="B103:K103"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="O103:Q103"/>
+    <mergeCell ref="R103:T103"/>
+    <mergeCell ref="B107:I107"/>
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="M108:P108"/>
+    <mergeCell ref="B104:X104"/>
+    <mergeCell ref="M107:P107"/>
+    <mergeCell ref="B105:X105"/>
+    <mergeCell ref="R101:T101"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="G2:S4"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="G6:X6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:X8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:X7"/>
+    <mergeCell ref="S5:Y5"/>
     <mergeCell ref="A112:X112"/>
     <mergeCell ref="S14:V14"/>
     <mergeCell ref="B11:X11"/>
@@ -7746,220 +7960,6 @@
     <mergeCell ref="B82:G82"/>
     <mergeCell ref="A91:Y91"/>
     <mergeCell ref="B68:H68"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="G2:S4"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="G6:X6"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:X8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:X7"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="B71:X71"/>
-    <mergeCell ref="A92:A111"/>
-    <mergeCell ref="L107:L111"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="B96:K96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="O96:Q96"/>
-    <mergeCell ref="R96:T96"/>
-    <mergeCell ref="R99:T99"/>
-    <mergeCell ref="B98:K98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="B109:I109"/>
-    <mergeCell ref="M109:P109"/>
-    <mergeCell ref="B103:K103"/>
-    <mergeCell ref="L103:N103"/>
-    <mergeCell ref="O103:Q103"/>
-    <mergeCell ref="R103:T103"/>
-    <mergeCell ref="B107:I107"/>
-    <mergeCell ref="B108:I108"/>
-    <mergeCell ref="M108:P108"/>
-    <mergeCell ref="B104:X104"/>
-    <mergeCell ref="M107:P107"/>
-    <mergeCell ref="B105:X105"/>
-    <mergeCell ref="N67:T67"/>
-    <mergeCell ref="N83:S83"/>
-    <mergeCell ref="R100:T100"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="N84:S84"/>
-    <mergeCell ref="B95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="R95:T95"/>
-    <mergeCell ref="B94:K94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="R94:T94"/>
-    <mergeCell ref="O98:Q98"/>
-    <mergeCell ref="R98:T98"/>
-    <mergeCell ref="O100:Q100"/>
-    <mergeCell ref="B89:U89"/>
-    <mergeCell ref="R97:T97"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="B97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="O97:Q97"/>
-    <mergeCell ref="N68:T68"/>
-    <mergeCell ref="A125:Y125"/>
-    <mergeCell ref="A116:Y116"/>
-    <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B121:H121"/>
-    <mergeCell ref="I119:P119"/>
-    <mergeCell ref="I118:P118"/>
-    <mergeCell ref="B113:X113"/>
-    <mergeCell ref="B114:X114"/>
-    <mergeCell ref="Q121:X121"/>
-    <mergeCell ref="B117:H117"/>
-    <mergeCell ref="A115:X115"/>
-    <mergeCell ref="A124:X124"/>
-    <mergeCell ref="R101:T101"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="B92:X92"/>
-    <mergeCell ref="B122:H122"/>
-    <mergeCell ref="B123:H123"/>
-    <mergeCell ref="I122:P122"/>
-    <mergeCell ref="Q122:X122"/>
-    <mergeCell ref="I123:P123"/>
-    <mergeCell ref="Q123:X123"/>
-    <mergeCell ref="Q119:X119"/>
-    <mergeCell ref="I120:P120"/>
-    <mergeCell ref="Q120:X120"/>
-    <mergeCell ref="I121:P121"/>
-    <mergeCell ref="Q117:X117"/>
-    <mergeCell ref="B118:H118"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="O101:Q101"/>
-    <mergeCell ref="I117:P117"/>
-    <mergeCell ref="B101:K101"/>
-    <mergeCell ref="Q118:X118"/>
-    <mergeCell ref="B110:I110"/>
-    <mergeCell ref="B111:I111"/>
-    <mergeCell ref="M110:P110"/>
-    <mergeCell ref="M111:P111"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="N85:S85"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="N86:S86"/>
-    <mergeCell ref="N59:T59"/>
-    <mergeCell ref="N60:T60"/>
-    <mergeCell ref="N63:T63"/>
-    <mergeCell ref="N58:X58"/>
-    <mergeCell ref="B75:M75"/>
-    <mergeCell ref="N75:T75"/>
-    <mergeCell ref="N69:T69"/>
-    <mergeCell ref="N74:T74"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="N61:T61"/>
-    <mergeCell ref="N62:T62"/>
-    <mergeCell ref="N82:S82"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="N64:T64"/>
-    <mergeCell ref="N65:T65"/>
-    <mergeCell ref="N66:T66"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="O102:Q102"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="B99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="B90:T90"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="B72:X72"/>
-    <mergeCell ref="B58:L58"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="N70:T70"/>
-    <mergeCell ref="N56:T56"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="N51:T51"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="N53:T53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="N46:T46"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N44:X44"/>
-    <mergeCell ref="B44:L44"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A87:X87"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="A34:Y34"/>
-    <mergeCell ref="L31:X31"/>
-    <mergeCell ref="L32:X32"/>
-    <mergeCell ref="N36:P37"/>
-    <mergeCell ref="B79:M79"/>
-    <mergeCell ref="N79:T79"/>
-    <mergeCell ref="B74:M74"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B35:X35"/>
-    <mergeCell ref="N50:T50"/>
-    <mergeCell ref="N52:T52"/>
-    <mergeCell ref="N48:T48"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="A57:X57"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="N49:T49"/>
-    <mergeCell ref="N47:T47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="A41:Y42"/>
-    <mergeCell ref="B17:X17"/>
-    <mergeCell ref="B16:X16"/>
-    <mergeCell ref="P15:X15"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="L29:X29"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="N55:T55"/>
-    <mergeCell ref="N54:T54"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="G9:X9"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="B25:M26"/>
-    <mergeCell ref="B10:X10"/>
-    <mergeCell ref="A11:A22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:F4"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="O24:X24"/>
-    <mergeCell ref="O25:X25"/>
-    <mergeCell ref="L28:X28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N79:T79 S19:V23 L22:O23 L19:O19 N74:T74 S13:V14 H13:K15 M107:P111" xr:uid="{00000000-0002-0000-0000-000000000000}">
